--- a/Area_de_Proceso-_PPQA/HGQA/HGQA_V1.0_2015_SETIEMBRE.xlsx
+++ b/Area_de_Proceso-_PPQA/HGQA/HGQA_V1.0_2015_SETIEMBRE.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\UTP-GPS-ALARM-master\Area_de_Proceso-_PPQA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jleonardo\Desktop\UTP-GPS-ALARM-master\Area_de_Proceso-_PPQA\HGQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="642" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="9195" tabRatio="642" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Historial de Revisiones" sheetId="14" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Planificación!$A$12:$Y$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Planificación!$A$12:$Z$27</definedName>
     <definedName name="Analista" localSheetId="0">#REF!</definedName>
     <definedName name="AreaProceso" localSheetId="0">#REF!</definedName>
     <definedName name="Artefacto" localSheetId="0">#REF!</definedName>
@@ -57,7 +57,7 @@
     <definedName name="TipoServicio" localSheetId="0">#REF!</definedName>
     <definedName name="TiposNC">Tablas!$I$3:$I$8</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -172,7 +172,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="204">
   <si>
     <t>Analista Responsable</t>
   </si>
@@ -755,9 +755,6 @@
     <t>INPRUEX_Informe de Pruebas Externas</t>
   </si>
   <si>
-    <t>Ajustar documento a formato de documentos del proyecto</t>
-  </si>
-  <si>
     <t>HGQA_V1.0_2015 Herramienta de Gestión QA-Producto</t>
   </si>
   <si>
@@ -776,31 +773,31 @@
     <t>SETIEMBRE</t>
   </si>
   <si>
-    <t>Modificar Documento a Formato del Proyecto</t>
-  </si>
-  <si>
-    <t>Aplica a todo el Documento</t>
-  </si>
-  <si>
     <t>Actualizar Datos del Documento y corregir definiciones</t>
   </si>
   <si>
-    <t>Todo el Inciso 7, 8, 9 y 10</t>
-  </si>
-  <si>
-    <t>Corregir fechas de actividades por desconfiguración de la misma</t>
-  </si>
-  <si>
-    <t>Procesos de Gestión y Proceso de ingeniería</t>
-  </si>
-  <si>
-    <t>Aplica solo a plantilla, no al contenido</t>
+    <t>Nro.</t>
+  </si>
+  <si>
+    <t>Modificar Documento a Formato del Proyecto (Aplica a todo el Documento)</t>
+  </si>
+  <si>
+    <t>Actualizar Datos del Documento y corregir definiciones(Todo el Inciso 7, 8, 9 y 10)</t>
+  </si>
+  <si>
+    <t>Corregir fechas de actividades por desconfiguración de la misma (Procesos de Gestión y Proceso de ingeniería)</t>
+  </si>
+  <si>
+    <t>Ajustar documento a formato de documentos del proyecto (Aplica solo a plantilla, no al contenido)</t>
+  </si>
+  <si>
+    <t>Solución de No Conformidad el 26/09/2015</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
@@ -1203,7 +1200,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="32">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1362,14 +1359,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="35">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -1803,6 +1794,92 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1859,7 +1936,7 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="246">
+  <cellXfs count="259">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="32" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -1927,10 +2004,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="12" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="32" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -2152,9 +2225,6 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="25" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2165,9 +2235,6 @@
     <xf numFmtId="0" fontId="8" fillId="24" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="49" fillId="24" borderId="10" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2200,9 +2267,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
@@ -2227,12 +2291,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="40" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2320,22 +2378,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="8" fillId="31" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2416,102 +2461,138 @@
     <xf numFmtId="0" fontId="44" fillId="24" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="30" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="30" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="32" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="32" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="36" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="30" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="30" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="30" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="32" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="32" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="36" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="30" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2521,42 +2602,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="30" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="30" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="44" fillId="24" borderId="31" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2569,22 +2614,61 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="55" fillId="25" borderId="10" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="13" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="34" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="24" borderId="30" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="25" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="49" fillId="24" borderId="13" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="49" fillId="24" borderId="34" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="13" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="34" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="45" fillId="25" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="24" borderId="30" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="45" fillId="25" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -2597,51 +2681,95 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="55" fillId="25" borderId="10" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="30" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="65" fillId="0" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="35" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="19" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="36" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="37" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="30" borderId="21" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="25" borderId="13" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="25" borderId="34" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="25" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="25" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="49" fillId="24" borderId="13" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="49" fillId="24" borderId="34" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="25" borderId="13" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="50" fillId="30" borderId="38" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="39" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="24" borderId="39" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="24" borderId="39" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="39" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="25" borderId="34" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="31" borderId="11" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="65" fillId="24" borderId="39" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="40" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="65" fillId="24" borderId="39" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="15" fontId="65" fillId="24" borderId="39" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="51" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="51" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="11" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="53">
@@ -2663,7 +2791,7 @@
     <cellStyle name="60% - Énfasis4" xfId="16" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis5" xfId="17" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis6" xfId="18" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bueno" xfId="19" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Buena" xfId="19" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Cálculo" xfId="20" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Cancel" xfId="21"/>
     <cellStyle name="Celda de comprobación" xfId="22" builtinId="23" customBuiltin="1"/>
@@ -2718,7 +2846,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -2777,7 +2905,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2867,7 +2995,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-1E45-479F-AB83-77D83B7E851D}"/>
               </c:ext>
@@ -2912,7 +3040,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-EC92-482A-AE00-7DAF384C4D3C}"/>
               </c:ext>
@@ -2941,7 +3069,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-PE"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -2964,7 +3092,7 @@
                 <a:effectLst/>
               </c:spPr>
             </c:leaderLines>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
               </c:ext>
@@ -2999,7 +3127,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-EC92-482A-AE00-7DAF384C4D3C}"/>
             </c:ext>
@@ -3048,7 +3176,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3083,7 +3211,7 @@
           <a:cs typeface="+mn-cs"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3095,7 +3223,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -3154,7 +3282,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3244,7 +3372,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-9B85-4785-897E-BF8A635C112A}"/>
               </c:ext>
@@ -3289,7 +3417,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-0716-432A-8A0E-B7A5A8092E4A}"/>
               </c:ext>
@@ -3334,7 +3462,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-0716-432A-8A0E-B7A5A8092E4A}"/>
               </c:ext>
@@ -3379,7 +3507,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-0716-432A-8A0E-B7A5A8092E4A}"/>
               </c:ext>
@@ -3424,7 +3552,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-0716-432A-8A0E-B7A5A8092E4A}"/>
               </c:ext>
@@ -3469,7 +3597,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000B-9B85-4785-897E-BF8A635C112A}"/>
               </c:ext>
@@ -3490,12 +3618,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-0716-432A-8A0E-B7A5A8092E4A}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-0716-432A-8A0E-B7A5A8092E4A}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3513,12 +3641,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-0716-432A-8A0E-B7A5A8092E4A}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-0716-432A-8A0E-B7A5A8092E4A}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3536,12 +3664,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-0716-432A-8A0E-B7A5A8092E4A}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-0716-432A-8A0E-B7A5A8092E4A}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3559,12 +3687,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-0716-432A-8A0E-B7A5A8092E4A}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-0716-432A-8A0E-B7A5A8092E4A}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3590,7 +3718,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-PE"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3600,7 +3728,7 @@
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
               </c:ext>
@@ -3659,7 +3787,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-0716-432A-8A0E-B7A5A8092E4A}"/>
             </c:ext>
@@ -3717,7 +3845,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3752,7 +3880,7 @@
           <a:cs typeface="+mn-cs"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3764,7 +3892,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -3830,7 +3958,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3879,7 +4007,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-D90A-429B-8317-E4DDE4E6EB04}"/>
               </c:ext>
@@ -3907,7 +4035,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-PE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -3918,7 +4046,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
                 <c15:showLeaderLines val="0"/>
@@ -3954,7 +4082,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-D90A-429B-8317-E4DDE4E6EB04}"/>
             </c:ext>
@@ -3970,11 +4098,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="299965560"/>
-        <c:axId val="299965952"/>
+        <c:axId val="539004640"/>
+        <c:axId val="539006600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="299965560"/>
+        <c:axId val="539004640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4011,10 +4139,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="299965952"/>
+        <c:crossAx val="539006600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4024,7 +4152,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="299965952"/>
+        <c:axId val="539006600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4069,10 +4197,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="299965560"/>
+        <c:crossAx val="539004640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4109,7 +4237,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4144,7 +4272,7 @@
           <a:cs typeface="+mn-cs"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4156,7 +4284,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -4215,7 +4343,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4339,7 +4467,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7ADE-45C5-8A1C-7D75887A8429}"/>
             </c:ext>
@@ -4408,7 +4536,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7ADE-45C5-8A1C-7D75887A8429}"/>
             </c:ext>
@@ -4477,7 +4605,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-7ADE-45C5-8A1C-7D75887A8429}"/>
             </c:ext>
@@ -4493,12 +4621,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="298592672"/>
-        <c:axId val="298593064"/>
+        <c:axId val="540190912"/>
+        <c:axId val="540189736"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="298592672"/>
+        <c:axId val="540190912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4550,7 +4678,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-PE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4585,10 +4713,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="298593064"/>
+        <c:crossAx val="540189736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4598,7 +4726,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="298593064"/>
+        <c:axId val="540189736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4671,7 +4799,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-PE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4700,10 +4828,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="298592672"/>
+        <c:crossAx val="540190912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4740,7 +4868,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4775,7 +4903,7 @@
           <a:cs typeface="+mn-cs"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7396,154 +7524,154 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9" style="63" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" style="63" customWidth="1"/>
-    <col min="3" max="3" width="9" style="63" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="63" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="63" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" style="63" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="63" customWidth="1"/>
-    <col min="8" max="8" width="15" style="63" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="63"/>
+    <col min="1" max="1" width="9" style="62" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" style="62" customWidth="1"/>
+    <col min="3" max="3" width="9" style="62" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="62" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="62" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" style="62" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="62" customWidth="1"/>
+    <col min="8" max="8" width="15" style="62" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="62"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="62"/>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
+      <c r="A1" s="61"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
     </row>
     <row r="2" spans="1:9" ht="15.75">
-      <c r="A2" s="62"/>
-      <c r="B2" s="180" t="s">
+      <c r="A2" s="61"/>
+      <c r="B2" s="170" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="62"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="170"/>
+      <c r="H2" s="170"/>
+      <c r="I2" s="61"/>
     </row>
     <row r="3" spans="1:9" ht="13.5" thickBot="1">
-      <c r="A3" s="62"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
     </row>
     <row r="4" spans="1:9" ht="36.75" customHeight="1" thickBot="1">
-      <c r="A4" s="62"/>
-      <c r="B4" s="64" t="s">
+      <c r="A4" s="61"/>
+      <c r="B4" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="65" t="s">
+      <c r="D4" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="65" t="s">
+      <c r="E4" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="65" t="s">
+      <c r="F4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="65" t="s">
+      <c r="G4" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="66" t="s">
+      <c r="H4" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="62"/>
+      <c r="I4" s="61"/>
     </row>
     <row r="5" spans="1:9" ht="24">
-      <c r="A5" s="62"/>
-      <c r="B5" s="67">
+      <c r="A5" s="61"/>
+      <c r="B5" s="66">
         <v>1</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="67" t="s">
         <v>137</v>
       </c>
-      <c r="D5" s="69">
+      <c r="D5" s="68">
         <v>42297</v>
       </c>
-      <c r="E5" s="70" t="s">
+      <c r="E5" s="69" t="s">
         <v>138</v>
       </c>
-      <c r="F5" s="70" t="s">
+      <c r="F5" s="69" t="s">
         <v>139</v>
       </c>
-      <c r="G5" s="71" t="s">
+      <c r="G5" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="H5" s="72" t="s">
-        <v>196</v>
-      </c>
-      <c r="I5" s="62"/>
+      <c r="H5" s="71" t="s">
+        <v>195</v>
+      </c>
+      <c r="I5" s="61"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="62"/>
-      <c r="B6" s="73"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="62"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="61"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="62"/>
-      <c r="B7" s="73"/>
-      <c r="C7" s="110"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="62"/>
+      <c r="A7" s="61"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="61"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="62"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="62"/>
+      <c r="A8" s="61"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="61"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="62"/>
-      <c r="B9" s="73"/>
-      <c r="C9" s="114"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="62"/>
+      <c r="A9" s="61"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="110"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="61"/>
     </row>
     <row r="10" spans="1:9" ht="13.5" thickBot="1">
-      <c r="B10" s="81"/>
-      <c r="C10" s="82"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="84"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7561,928 +7689,915 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:M87"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64:E64"/>
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="3" style="34" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" style="34" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="34" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="34" customWidth="1"/>
-    <col min="5" max="5" width="62.28515625" style="34" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="34"/>
+    <col min="1" max="1" width="3" style="33" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" style="33" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="33" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="33" customWidth="1"/>
+    <col min="5" max="5" width="62.28515625" style="33" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="57" customFormat="1" ht="12" customHeight="1"/>
-    <row r="2" spans="1:8" s="57" customFormat="1" ht="48.75" customHeight="1">
-      <c r="A2" s="35"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="201" t="s">
+    <row r="1" spans="1:8" s="56" customFormat="1" ht="12" customHeight="1"/>
+    <row r="2" spans="1:8" s="56" customFormat="1" ht="48.75" customHeight="1">
+      <c r="A2" s="34"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="183" t="s">
+        <v>191</v>
+      </c>
+      <c r="D2" s="184"/>
+      <c r="E2" s="185"/>
+    </row>
+    <row r="3" spans="1:8" s="56" customFormat="1">
+      <c r="A3" s="34"/>
+      <c r="B3" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="191" t="s">
         <v>192</v>
       </c>
-      <c r="D2" s="202"/>
-      <c r="E2" s="203"/>
-    </row>
-    <row r="3" spans="1:8" s="57" customFormat="1">
-      <c r="A3" s="35"/>
-      <c r="B3" s="59" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="209" t="s">
+      <c r="D3" s="192"/>
+      <c r="E3" s="193"/>
+    </row>
+    <row r="4" spans="1:8" s="56" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A4" s="34"/>
+      <c r="B4" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+    </row>
+    <row r="5" spans="1:8" ht="24.75" customHeight="1">
+      <c r="A5" s="34"/>
+      <c r="B5" s="186" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="187"/>
+      <c r="D5" s="187"/>
+      <c r="E5" s="188"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="34"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="34"/>
+      <c r="B7" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="34"/>
+      <c r="B8" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="86"/>
+      <c r="D8" s="189" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="190"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="34"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
+    </row>
+    <row r="10" spans="1:8" ht="12" customHeight="1">
+      <c r="A10" s="34"/>
+      <c r="B10" s="89" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="56"/>
+      <c r="D10" s="197" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="197"/>
+    </row>
+    <row r="11" spans="1:8" ht="9.9499999999999993" customHeight="1">
+      <c r="A11" s="34"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="90"/>
+    </row>
+    <row r="12" spans="1:8" ht="12" customHeight="1">
+      <c r="A12" s="34"/>
+      <c r="B12" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="56"/>
+      <c r="D12" s="197" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="197"/>
+    </row>
+    <row r="13" spans="1:8" ht="9.9499999999999993" customHeight="1">
+      <c r="A13" s="34"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="90"/>
+    </row>
+    <row r="14" spans="1:8" ht="12" customHeight="1">
+      <c r="A14" s="32"/>
+      <c r="B14" s="93" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="56"/>
+      <c r="D14" s="197" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="197"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="32"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="90"/>
+    </row>
+    <row r="16" spans="1:8" ht="12" customHeight="1">
+      <c r="A16" s="32"/>
+      <c r="B16" s="94" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="56"/>
+      <c r="D16" s="197" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="197"/>
+      <c r="H16" s="36"/>
+    </row>
+    <row r="17" spans="1:8" s="47" customFormat="1" ht="12" customHeight="1">
+      <c r="A17" s="37"/>
+      <c r="B17" s="38"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="H17" s="39"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="32"/>
+    </row>
+    <row r="19" spans="1:8" s="52" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B19" s="177" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="178"/>
+      <c r="D19" s="178"/>
+      <c r="E19" s="179"/>
+    </row>
+    <row r="20" spans="1:8" s="52" customFormat="1" ht="13.5" customHeight="1">
+      <c r="B20" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="180" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="181"/>
+      <c r="E20" s="182"/>
+    </row>
+    <row r="21" spans="1:8" s="52" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B21" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="194" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="195"/>
+      <c r="E21" s="196"/>
+    </row>
+    <row r="22" spans="1:8" s="52" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B22" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="194" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="195"/>
+      <c r="E22" s="196"/>
+    </row>
+    <row r="23" spans="1:8" s="52" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B23" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="194" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" s="195"/>
+      <c r="E23" s="196"/>
+    </row>
+    <row r="24" spans="1:8" s="52" customFormat="1" ht="13.5" customHeight="1">
+      <c r="B24" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="194" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="195"/>
+      <c r="E24" s="196"/>
+    </row>
+    <row r="25" spans="1:8" s="52" customFormat="1" ht="13.5" customHeight="1">
+      <c r="B25" s="54"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="32"/>
+      <c r="B26" s="45"/>
+    </row>
+    <row r="27" spans="1:8" s="52" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B27" s="177" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="178"/>
+      <c r="D27" s="178"/>
+      <c r="E27" s="179"/>
+    </row>
+    <row r="28" spans="1:8" s="52" customFormat="1" ht="13.5" customHeight="1">
+      <c r="B28" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="180" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="181"/>
+      <c r="E28" s="182"/>
+    </row>
+    <row r="29" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A29" s="32"/>
+      <c r="B29" s="198" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="199"/>
+      <c r="D29" s="199"/>
+      <c r="E29" s="200"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+    </row>
+    <row r="30" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A30" s="32"/>
+      <c r="B30" s="168" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" s="171" t="s">
         <v>193</v>
       </c>
-      <c r="D3" s="210"/>
-      <c r="E3" s="211"/>
-    </row>
-    <row r="4" spans="1:8" s="57" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A4" s="35"/>
-      <c r="B4" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-    </row>
-    <row r="5" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A5" s="35"/>
-      <c r="B5" s="204" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="205"/>
-      <c r="D5" s="205"/>
-      <c r="E5" s="206"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="35"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="35"/>
-      <c r="B7" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="35"/>
-      <c r="B8" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="87"/>
-      <c r="D8" s="207" t="s">
+      <c r="D30" s="172"/>
+      <c r="E30" s="173"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+    </row>
+    <row r="31" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A31" s="32"/>
+      <c r="B31" s="169" t="s">
+        <v>140</v>
+      </c>
+      <c r="C31" s="171" t="s">
+        <v>194</v>
+      </c>
+      <c r="D31" s="172"/>
+      <c r="E31" s="173"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+    </row>
+    <row r="32" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A32" s="32"/>
+      <c r="B32" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="171" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="172"/>
+      <c r="E32" s="173"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+    </row>
+    <row r="33" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A33" s="32"/>
+      <c r="B33" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="171" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" s="172"/>
+      <c r="E33" s="173"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+    </row>
+    <row r="34" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A34" s="32"/>
+      <c r="B34" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="171" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="172"/>
+      <c r="E34" s="173"/>
+    </row>
+    <row r="35" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A35" s="32"/>
+      <c r="B35" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="171" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="172"/>
+      <c r="E35" s="173"/>
+    </row>
+    <row r="36" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A36" s="32"/>
+      <c r="B36" s="198" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="199"/>
+      <c r="D36" s="199"/>
+      <c r="E36" s="200"/>
+    </row>
+    <row r="37" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A37" s="32"/>
+      <c r="B37" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="171" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" s="172"/>
+      <c r="E37" s="173"/>
+    </row>
+    <row r="38" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A38" s="32"/>
+      <c r="B38" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="171" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" s="172"/>
+      <c r="E38" s="173"/>
+    </row>
+    <row r="39" spans="1:7" ht="17.25" customHeight="1">
+      <c r="A39" s="32"/>
+      <c r="B39" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" s="171" t="s">
+        <v>103</v>
+      </c>
+      <c r="D39" s="172"/>
+      <c r="E39" s="173"/>
+    </row>
+    <row r="40" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A40" s="32"/>
+      <c r="B40" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="C40" s="171" t="s">
+        <v>116</v>
+      </c>
+      <c r="D40" s="172"/>
+      <c r="E40" s="173"/>
+    </row>
+    <row r="41" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A41" s="32"/>
+      <c r="B41" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="171" t="s">
+        <v>105</v>
+      </c>
+      <c r="D41" s="172"/>
+      <c r="E41" s="173"/>
+    </row>
+    <row r="42" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A42" s="32"/>
+      <c r="B42" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="171" t="s">
+        <v>104</v>
+      </c>
+      <c r="D42" s="172"/>
+      <c r="E42" s="173"/>
+    </row>
+    <row r="43" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A43" s="32"/>
+      <c r="B43" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" s="171" t="s">
+        <v>78</v>
+      </c>
+      <c r="D43" s="172"/>
+      <c r="E43" s="173"/>
+    </row>
+    <row r="44" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A44" s="32"/>
+      <c r="B44" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" s="171" t="s">
+        <v>79</v>
+      </c>
+      <c r="D44" s="172"/>
+      <c r="E44" s="173"/>
+    </row>
+    <row r="45" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A45" s="32"/>
+      <c r="B45" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="171" t="s">
+        <v>76</v>
+      </c>
+      <c r="D45" s="172"/>
+      <c r="E45" s="173"/>
+    </row>
+    <row r="46" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A46" s="32"/>
+      <c r="B46" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="C46" s="171" t="s">
+        <v>81</v>
+      </c>
+      <c r="D46" s="172"/>
+      <c r="E46" s="173"/>
+    </row>
+    <row r="47" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A47" s="32"/>
+      <c r="B47" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="C47" s="171" t="s">
+        <v>82</v>
+      </c>
+      <c r="D47" s="172"/>
+      <c r="E47" s="173"/>
+    </row>
+    <row r="48" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A48" s="32"/>
+      <c r="B48" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="171" t="s">
+        <v>80</v>
+      </c>
+      <c r="D48" s="172"/>
+      <c r="E48" s="173"/>
+    </row>
+    <row r="49" spans="1:13" ht="16.5" customHeight="1">
+      <c r="A49" s="32"/>
+      <c r="B49" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="C49" s="171" t="s">
+        <v>77</v>
+      </c>
+      <c r="D49" s="172"/>
+      <c r="E49" s="173"/>
+    </row>
+    <row r="50" spans="1:13" ht="16.5" customHeight="1">
+      <c r="A50" s="52"/>
+      <c r="B50" s="84"/>
+      <c r="C50" s="55"/>
+      <c r="D50" s="55"/>
+      <c r="E50" s="55"/>
+      <c r="F50" s="52"/>
+      <c r="G50" s="52"/>
+      <c r="H50" s="52"/>
+      <c r="I50" s="52"/>
+      <c r="J50" s="52"/>
+      <c r="K50" s="52"/>
+      <c r="L50" s="52"/>
+      <c r="M50" s="52"/>
+    </row>
+    <row r="51" spans="1:13" s="52" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A51" s="32"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="33"/>
+      <c r="I51" s="33"/>
+      <c r="J51" s="33"/>
+      <c r="K51" s="33"/>
+      <c r="L51" s="33"/>
+      <c r="M51" s="33"/>
+    </row>
+    <row r="52" spans="1:13" s="52" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B52" s="177" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" s="178"/>
+      <c r="D52" s="178"/>
+      <c r="E52" s="179"/>
+    </row>
+    <row r="53" spans="1:13" ht="16.5" customHeight="1">
+      <c r="A53" s="52"/>
+      <c r="B53" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C53" s="180" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="208"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="35"/>
-      <c r="B9" s="88"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
-    </row>
-    <row r="10" spans="1:8" ht="12" customHeight="1">
-      <c r="A10" s="35"/>
-      <c r="B10" s="90" t="s">
-        <v>93</v>
-      </c>
-      <c r="C10" s="57"/>
-      <c r="D10" s="212" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="212"/>
-    </row>
-    <row r="11" spans="1:8" ht="9.9499999999999993" customHeight="1">
-      <c r="A11" s="35"/>
-      <c r="B11" s="92"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="91"/>
-    </row>
-    <row r="12" spans="1:8" ht="12" customHeight="1">
-      <c r="A12" s="35"/>
-      <c r="B12" s="93" t="s">
-        <v>93</v>
-      </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="212" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="212"/>
-    </row>
-    <row r="13" spans="1:8" ht="9.9499999999999993" customHeight="1">
-      <c r="A13" s="35"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="91"/>
-    </row>
-    <row r="14" spans="1:8" ht="12" customHeight="1">
-      <c r="A14" s="33"/>
-      <c r="B14" s="94" t="s">
-        <v>93</v>
-      </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="212" t="s">
-        <v>100</v>
-      </c>
-      <c r="E14" s="212"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="33"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="91"/>
-    </row>
-    <row r="16" spans="1:8" ht="12" customHeight="1">
-      <c r="A16" s="33"/>
-      <c r="B16" s="95" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="57"/>
-      <c r="D16" s="212" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="212"/>
-      <c r="H16" s="37"/>
-    </row>
-    <row r="17" spans="1:8" s="48" customFormat="1" ht="12" customHeight="1">
-      <c r="A17" s="38"/>
-      <c r="B17" s="39"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="H17" s="40"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="33"/>
-    </row>
-    <row r="19" spans="1:8" s="53" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B19" s="195" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="196"/>
-      <c r="D19" s="196"/>
-      <c r="E19" s="197"/>
-    </row>
-    <row r="20" spans="1:8" s="53" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B20" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" s="198" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="199"/>
-      <c r="E20" s="200"/>
-    </row>
-    <row r="21" spans="1:8" s="53" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B21" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="186" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="187"/>
-      <c r="E21" s="188"/>
-    </row>
-    <row r="22" spans="1:8" s="53" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B22" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="186" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="187"/>
-      <c r="E22" s="188"/>
-    </row>
-    <row r="23" spans="1:8" s="53" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B23" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="186" t="s">
-        <v>101</v>
-      </c>
-      <c r="D23" s="187"/>
-      <c r="E23" s="188"/>
-    </row>
-    <row r="24" spans="1:8" s="53" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B24" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="186" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="187"/>
-      <c r="E24" s="188"/>
-    </row>
-    <row r="25" spans="1:8" s="53" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B25" s="55"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="33"/>
-      <c r="B26" s="46"/>
-    </row>
-    <row r="27" spans="1:8" s="53" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B27" s="195" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" s="196"/>
-      <c r="D27" s="196"/>
-      <c r="E27" s="197"/>
-    </row>
-    <row r="28" spans="1:8" s="53" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B28" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="C28" s="198" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="199"/>
-      <c r="E28" s="200"/>
-    </row>
-    <row r="29" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A29" s="33"/>
-      <c r="B29" s="192" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="193"/>
-      <c r="D29" s="193"/>
-      <c r="E29" s="194"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-    </row>
-    <row r="30" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A30" s="33"/>
-      <c r="B30" s="178" t="s">
-        <v>135</v>
-      </c>
-      <c r="C30" s="182" t="s">
-        <v>194</v>
-      </c>
-      <c r="D30" s="183"/>
-      <c r="E30" s="184"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="53"/>
-    </row>
-    <row r="31" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A31" s="33"/>
-      <c r="B31" s="179" t="s">
-        <v>140</v>
-      </c>
-      <c r="C31" s="182" t="s">
-        <v>195</v>
-      </c>
-      <c r="D31" s="183"/>
-      <c r="E31" s="184"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
-    </row>
-    <row r="32" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A32" s="33"/>
-      <c r="B32" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="182" t="s">
-        <v>53</v>
-      </c>
-      <c r="D32" s="183"/>
-      <c r="E32" s="184"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="53"/>
-    </row>
-    <row r="33" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A33" s="33"/>
-      <c r="B33" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="C33" s="182" t="s">
-        <v>72</v>
-      </c>
-      <c r="D33" s="183"/>
-      <c r="E33" s="184"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
-    </row>
-    <row r="34" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A34" s="33"/>
-      <c r="B34" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" s="182" t="s">
-        <v>73</v>
-      </c>
-      <c r="D34" s="183"/>
-      <c r="E34" s="184"/>
-    </row>
-    <row r="35" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A35" s="33"/>
-      <c r="B35" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="C35" s="182" t="s">
-        <v>74</v>
-      </c>
-      <c r="D35" s="183"/>
-      <c r="E35" s="184"/>
-    </row>
-    <row r="36" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A36" s="33"/>
-      <c r="B36" s="192" t="s">
-        <v>51</v>
-      </c>
-      <c r="C36" s="193"/>
-      <c r="D36" s="193"/>
-      <c r="E36" s="194"/>
-    </row>
-    <row r="37" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A37" s="33"/>
-      <c r="B37" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="C37" s="182" t="s">
+      <c r="D53" s="181"/>
+      <c r="E53" s="182"/>
+      <c r="F53" s="52"/>
+      <c r="G53" s="52"/>
+      <c r="H53" s="52"/>
+      <c r="I53" s="52"/>
+      <c r="J53" s="52"/>
+      <c r="K53" s="52"/>
+      <c r="L53" s="52"/>
+      <c r="M53" s="52"/>
+    </row>
+    <row r="54" spans="1:13" ht="16.5" customHeight="1">
+      <c r="A54" s="32"/>
+      <c r="B54" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C54" s="171" t="s">
         <v>75</v>
       </c>
-      <c r="D37" s="183"/>
-      <c r="E37" s="184"/>
-    </row>
-    <row r="38" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A38" s="33"/>
-      <c r="B38" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" s="182" t="s">
-        <v>86</v>
-      </c>
-      <c r="D38" s="183"/>
-      <c r="E38" s="184"/>
-    </row>
-    <row r="39" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A39" s="33"/>
-      <c r="B39" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="C39" s="182" t="s">
-        <v>103</v>
-      </c>
-      <c r="D39" s="183"/>
-      <c r="E39" s="184"/>
-    </row>
-    <row r="40" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A40" s="33"/>
-      <c r="B40" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="C40" s="182" t="s">
-        <v>116</v>
-      </c>
-      <c r="D40" s="183"/>
-      <c r="E40" s="184"/>
-    </row>
-    <row r="41" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A41" s="33"/>
-      <c r="B41" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="C41" s="182" t="s">
-        <v>105</v>
-      </c>
-      <c r="D41" s="183"/>
-      <c r="E41" s="184"/>
-    </row>
-    <row r="42" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A42" s="33"/>
-      <c r="B42" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" s="182" t="s">
-        <v>104</v>
-      </c>
-      <c r="D42" s="183"/>
-      <c r="E42" s="184"/>
-    </row>
-    <row r="43" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A43" s="33"/>
-      <c r="B43" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="C43" s="182" t="s">
-        <v>78</v>
-      </c>
-      <c r="D43" s="183"/>
-      <c r="E43" s="184"/>
-    </row>
-    <row r="44" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A44" s="33"/>
-      <c r="B44" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="C44" s="182" t="s">
-        <v>79</v>
-      </c>
-      <c r="D44" s="183"/>
-      <c r="E44" s="184"/>
-    </row>
-    <row r="45" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A45" s="33"/>
-      <c r="B45" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="C45" s="182" t="s">
-        <v>76</v>
-      </c>
-      <c r="D45" s="183"/>
-      <c r="E45" s="184"/>
-    </row>
-    <row r="46" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A46" s="33"/>
-      <c r="B46" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="C46" s="182" t="s">
-        <v>81</v>
-      </c>
-      <c r="D46" s="183"/>
-      <c r="E46" s="184"/>
-    </row>
-    <row r="47" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A47" s="33"/>
-      <c r="B47" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="C47" s="182" t="s">
-        <v>82</v>
-      </c>
-      <c r="D47" s="183"/>
-      <c r="E47" s="184"/>
-    </row>
-    <row r="48" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A48" s="33"/>
-      <c r="B48" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="C48" s="182" t="s">
-        <v>80</v>
-      </c>
-      <c r="D48" s="183"/>
-      <c r="E48" s="184"/>
-    </row>
-    <row r="49" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A49" s="33"/>
-      <c r="B49" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="C49" s="182" t="s">
+      <c r="D54" s="172"/>
+      <c r="E54" s="173"/>
+    </row>
+    <row r="55" spans="1:13" ht="16.5" customHeight="1">
+      <c r="A55" s="32"/>
+      <c r="B55" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="C55" s="171" t="s">
+        <v>87</v>
+      </c>
+      <c r="D55" s="172"/>
+      <c r="E55" s="173"/>
+    </row>
+    <row r="56" spans="1:13" ht="16.5" customHeight="1">
+      <c r="A56" s="32"/>
+      <c r="B56" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="C56" s="171" t="s">
+        <v>88</v>
+      </c>
+      <c r="D56" s="172"/>
+      <c r="E56" s="173"/>
+    </row>
+    <row r="57" spans="1:13" ht="16.5" customHeight="1">
+      <c r="A57" s="32"/>
+      <c r="B57" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="C57" s="171" t="s">
+        <v>106</v>
+      </c>
+      <c r="D57" s="175"/>
+      <c r="E57" s="176"/>
+    </row>
+    <row r="58" spans="1:13" ht="16.5" customHeight="1">
+      <c r="A58" s="32"/>
+      <c r="B58" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58" s="171" t="s">
+        <v>92</v>
+      </c>
+      <c r="D58" s="175"/>
+      <c r="E58" s="176"/>
+    </row>
+    <row r="59" spans="1:13" ht="16.5" customHeight="1">
+      <c r="A59" s="32"/>
+      <c r="B59" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C59" s="171" t="s">
+        <v>83</v>
+      </c>
+      <c r="D59" s="175"/>
+      <c r="E59" s="176"/>
+    </row>
+    <row r="60" spans="1:13" ht="54" customHeight="1">
+      <c r="A60" s="32"/>
+      <c r="B60" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="C60" s="171" t="s">
+        <v>107</v>
+      </c>
+      <c r="D60" s="175"/>
+      <c r="E60" s="176"/>
+    </row>
+    <row r="61" spans="1:13" ht="16.5" customHeight="1">
+      <c r="A61" s="32"/>
+      <c r="B61" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="C61" s="174" t="s">
+        <v>91</v>
+      </c>
+      <c r="D61" s="175"/>
+      <c r="E61" s="176"/>
+    </row>
+    <row r="62" spans="1:13" ht="30" customHeight="1">
+      <c r="A62" s="32"/>
+      <c r="B62" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C62" s="171" t="s">
+        <v>56</v>
+      </c>
+      <c r="D62" s="175"/>
+      <c r="E62" s="176"/>
+    </row>
+    <row r="63" spans="1:13" ht="16.5" customHeight="1">
+      <c r="A63" s="32"/>
+      <c r="B63" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="C63" s="174" t="s">
+        <v>61</v>
+      </c>
+      <c r="D63" s="175"/>
+      <c r="E63" s="176"/>
+    </row>
+    <row r="64" spans="1:13" ht="16.5" customHeight="1">
+      <c r="A64" s="32"/>
+      <c r="B64" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="C64" s="174" t="s">
+        <v>84</v>
+      </c>
+      <c r="D64" s="175"/>
+      <c r="E64" s="176"/>
+    </row>
+    <row r="65" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A65" s="32"/>
+      <c r="B65" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="C65" s="171" t="s">
         <v>77</v>
       </c>
-      <c r="D49" s="183"/>
-      <c r="E49" s="184"/>
-    </row>
-    <row r="50" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A50" s="53"/>
-      <c r="B50" s="85"/>
-      <c r="C50" s="56"/>
-      <c r="D50" s="56"/>
-      <c r="E50" s="56"/>
-      <c r="F50" s="53"/>
-      <c r="G50" s="53"/>
-      <c r="H50" s="53"/>
-      <c r="I50" s="53"/>
-      <c r="J50" s="53"/>
-      <c r="K50" s="53"/>
-      <c r="L50" s="53"/>
-      <c r="M50" s="53"/>
-    </row>
-    <row r="51" spans="1:13" s="53" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A51" s="33"/>
-      <c r="B51" s="46"/>
-      <c r="C51" s="34"/>
-      <c r="D51" s="34"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="34"/>
-      <c r="I51" s="34"/>
-      <c r="J51" s="34"/>
-      <c r="K51" s="34"/>
-      <c r="L51" s="34"/>
-      <c r="M51" s="34"/>
-    </row>
-    <row r="52" spans="1:13" s="53" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B52" s="195" t="s">
-        <v>54</v>
-      </c>
-      <c r="C52" s="196"/>
-      <c r="D52" s="196"/>
-      <c r="E52" s="197"/>
-    </row>
-    <row r="53" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A53" s="53"/>
-      <c r="B53" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C53" s="198" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53" s="199"/>
-      <c r="E53" s="200"/>
-      <c r="F53" s="53"/>
-      <c r="G53" s="53"/>
-      <c r="H53" s="53"/>
-      <c r="I53" s="53"/>
-      <c r="J53" s="53"/>
-      <c r="K53" s="53"/>
-      <c r="L53" s="53"/>
-      <c r="M53" s="53"/>
-    </row>
-    <row r="54" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A54" s="33"/>
-      <c r="B54" s="42" t="s">
-        <v>118</v>
-      </c>
-      <c r="C54" s="182" t="s">
-        <v>75</v>
-      </c>
-      <c r="D54" s="183"/>
-      <c r="E54" s="184"/>
-    </row>
-    <row r="55" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A55" s="33"/>
-      <c r="B55" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="C55" s="182" t="s">
-        <v>87</v>
-      </c>
-      <c r="D55" s="183"/>
-      <c r="E55" s="184"/>
-    </row>
-    <row r="56" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A56" s="33"/>
-      <c r="B56" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="C56" s="182" t="s">
-        <v>88</v>
-      </c>
-      <c r="D56" s="183"/>
-      <c r="E56" s="184"/>
-    </row>
-    <row r="57" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A57" s="33"/>
-      <c r="B57" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="C57" s="182" t="s">
-        <v>106</v>
-      </c>
-      <c r="D57" s="189"/>
-      <c r="E57" s="190"/>
-    </row>
-    <row r="58" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A58" s="33"/>
-      <c r="B58" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="C58" s="182" t="s">
-        <v>92</v>
-      </c>
-      <c r="D58" s="189"/>
-      <c r="E58" s="190"/>
-    </row>
-    <row r="59" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A59" s="33"/>
-      <c r="B59" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="C59" s="182" t="s">
-        <v>83</v>
-      </c>
-      <c r="D59" s="189"/>
-      <c r="E59" s="190"/>
-    </row>
-    <row r="60" spans="1:13" ht="54" customHeight="1">
-      <c r="A60" s="33"/>
-      <c r="B60" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="C60" s="182" t="s">
-        <v>107</v>
-      </c>
-      <c r="D60" s="189"/>
-      <c r="E60" s="190"/>
-    </row>
-    <row r="61" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A61" s="33"/>
-      <c r="B61" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="C61" s="191" t="s">
-        <v>91</v>
-      </c>
-      <c r="D61" s="189"/>
-      <c r="E61" s="190"/>
-    </row>
-    <row r="62" spans="1:13" ht="30" customHeight="1">
-      <c r="A62" s="33"/>
-      <c r="B62" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="C62" s="182" t="s">
-        <v>56</v>
-      </c>
-      <c r="D62" s="189"/>
-      <c r="E62" s="190"/>
-    </row>
-    <row r="63" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A63" s="33"/>
-      <c r="B63" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="C63" s="191" t="s">
-        <v>61</v>
-      </c>
-      <c r="D63" s="189"/>
-      <c r="E63" s="190"/>
-    </row>
-    <row r="64" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A64" s="33"/>
-      <c r="B64" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="C64" s="191" t="s">
-        <v>84</v>
-      </c>
-      <c r="D64" s="189"/>
-      <c r="E64" s="190"/>
-    </row>
-    <row r="65" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A65" s="33"/>
-      <c r="B65" s="42" t="s">
-        <v>99</v>
-      </c>
-      <c r="C65" s="182" t="s">
-        <v>77</v>
-      </c>
-      <c r="D65" s="183"/>
-      <c r="E65" s="184"/>
+      <c r="D65" s="172"/>
+      <c r="E65" s="173"/>
     </row>
     <row r="66" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A66" s="33"/>
-      <c r="B66" s="43"/>
-      <c r="C66" s="50"/>
-      <c r="D66" s="51"/>
-      <c r="E66" s="51"/>
+      <c r="A66" s="32"/>
+      <c r="B66" s="42"/>
+      <c r="C66" s="49"/>
+      <c r="D66" s="50"/>
+      <c r="E66" s="50"/>
     </row>
     <row r="67" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A67" s="33"/>
-      <c r="B67" s="185"/>
-      <c r="C67" s="185"/>
-      <c r="D67" s="185"/>
-      <c r="E67" s="185"/>
-      <c r="F67" s="52"/>
-      <c r="G67" s="52"/>
-      <c r="H67" s="52"/>
+      <c r="A67" s="32"/>
+      <c r="B67" s="202"/>
+      <c r="C67" s="202"/>
+      <c r="D67" s="202"/>
+      <c r="E67" s="202"/>
+      <c r="F67" s="51"/>
+      <c r="G67" s="51"/>
+      <c r="H67" s="51"/>
     </row>
     <row r="68" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A68" s="33"/>
-      <c r="B68" s="181"/>
-      <c r="C68" s="181"/>
-      <c r="D68" s="181"/>
-      <c r="E68" s="181"/>
-      <c r="F68" s="52"/>
-      <c r="G68" s="52"/>
-      <c r="H68" s="52"/>
+      <c r="A68" s="32"/>
+      <c r="B68" s="201"/>
+      <c r="C68" s="201"/>
+      <c r="D68" s="201"/>
+      <c r="E68" s="201"/>
+      <c r="F68" s="51"/>
+      <c r="G68" s="51"/>
+      <c r="H68" s="51"/>
     </row>
     <row r="69" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A69" s="33"/>
-      <c r="B69" s="181"/>
-      <c r="C69" s="181"/>
-      <c r="D69" s="181"/>
-      <c r="E69" s="181"/>
-      <c r="F69" s="52"/>
-      <c r="G69" s="52"/>
-      <c r="H69" s="52"/>
+      <c r="A69" s="32"/>
+      <c r="B69" s="201"/>
+      <c r="C69" s="201"/>
+      <c r="D69" s="201"/>
+      <c r="E69" s="201"/>
+      <c r="F69" s="51"/>
+      <c r="G69" s="51"/>
+      <c r="H69" s="51"/>
     </row>
     <row r="70" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A70" s="33"/>
-      <c r="B70" s="181"/>
-      <c r="C70" s="181"/>
-      <c r="D70" s="181"/>
-      <c r="E70" s="181"/>
-      <c r="F70" s="52"/>
-      <c r="G70" s="52"/>
-      <c r="H70" s="52"/>
+      <c r="A70" s="32"/>
+      <c r="B70" s="201"/>
+      <c r="C70" s="201"/>
+      <c r="D70" s="201"/>
+      <c r="E70" s="201"/>
+      <c r="F70" s="51"/>
+      <c r="G70" s="51"/>
+      <c r="H70" s="51"/>
     </row>
     <row r="71" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A71" s="33"/>
-      <c r="B71" s="181"/>
-      <c r="C71" s="181"/>
-      <c r="D71" s="181"/>
-      <c r="E71" s="181"/>
-      <c r="F71" s="52"/>
-      <c r="G71" s="52"/>
-      <c r="H71" s="52"/>
+      <c r="A71" s="32"/>
+      <c r="B71" s="201"/>
+      <c r="C71" s="201"/>
+      <c r="D71" s="201"/>
+      <c r="E71" s="201"/>
+      <c r="F71" s="51"/>
+      <c r="G71" s="51"/>
+      <c r="H71" s="51"/>
     </row>
     <row r="72" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A72" s="33"/>
-      <c r="B72" s="181"/>
-      <c r="C72" s="181"/>
-      <c r="D72" s="181"/>
-      <c r="E72" s="181"/>
-      <c r="F72" s="52"/>
-      <c r="G72" s="52"/>
-      <c r="H72" s="52"/>
+      <c r="A72" s="32"/>
+      <c r="B72" s="201"/>
+      <c r="C72" s="201"/>
+      <c r="D72" s="201"/>
+      <c r="E72" s="201"/>
+      <c r="F72" s="51"/>
+      <c r="G72" s="51"/>
+      <c r="H72" s="51"/>
     </row>
     <row r="73" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A73" s="38"/>
-      <c r="B73" s="181"/>
-      <c r="C73" s="181"/>
-      <c r="D73" s="181"/>
-      <c r="E73" s="181"/>
-      <c r="F73" s="52"/>
-      <c r="G73" s="52"/>
-      <c r="H73" s="52"/>
+      <c r="A73" s="37"/>
+      <c r="B73" s="201"/>
+      <c r="C73" s="201"/>
+      <c r="D73" s="201"/>
+      <c r="E73" s="201"/>
+      <c r="F73" s="51"/>
+      <c r="G73" s="51"/>
+      <c r="H73" s="51"/>
     </row>
     <row r="74" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A74" s="33"/>
-      <c r="B74" s="181"/>
-      <c r="C74" s="181"/>
-      <c r="D74" s="181"/>
-      <c r="E74" s="181"/>
-      <c r="F74" s="52"/>
-      <c r="G74" s="52"/>
-      <c r="H74" s="52"/>
+      <c r="A74" s="32"/>
+      <c r="B74" s="201"/>
+      <c r="C74" s="201"/>
+      <c r="D74" s="201"/>
+      <c r="E74" s="201"/>
+      <c r="F74" s="51"/>
+      <c r="G74" s="51"/>
+      <c r="H74" s="51"/>
     </row>
     <row r="75" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A75" s="33"/>
-      <c r="B75" s="181"/>
-      <c r="C75" s="181"/>
-      <c r="D75" s="181"/>
-      <c r="E75" s="181"/>
-      <c r="F75" s="52"/>
-      <c r="G75" s="52"/>
-      <c r="H75" s="52"/>
+      <c r="A75" s="32"/>
+      <c r="B75" s="201"/>
+      <c r="C75" s="201"/>
+      <c r="D75" s="201"/>
+      <c r="E75" s="201"/>
+      <c r="F75" s="51"/>
+      <c r="G75" s="51"/>
+      <c r="H75" s="51"/>
     </row>
     <row r="76" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A76" s="33"/>
-      <c r="B76" s="181"/>
-      <c r="C76" s="181"/>
-      <c r="D76" s="181"/>
-      <c r="E76" s="181"/>
-      <c r="F76" s="52"/>
-      <c r="G76" s="52"/>
-      <c r="H76" s="52"/>
+      <c r="A76" s="32"/>
+      <c r="B76" s="201"/>
+      <c r="C76" s="201"/>
+      <c r="D76" s="201"/>
+      <c r="E76" s="201"/>
+      <c r="F76" s="51"/>
+      <c r="G76" s="51"/>
+      <c r="H76" s="51"/>
     </row>
     <row r="77" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A77" s="33"/>
-      <c r="B77" s="181"/>
-      <c r="C77" s="181"/>
-      <c r="D77" s="181"/>
-      <c r="E77" s="181"/>
-      <c r="F77" s="52"/>
-      <c r="G77" s="52"/>
-      <c r="H77" s="52"/>
+      <c r="A77" s="32"/>
+      <c r="B77" s="201"/>
+      <c r="C77" s="201"/>
+      <c r="D77" s="201"/>
+      <c r="E77" s="201"/>
+      <c r="F77" s="51"/>
+      <c r="G77" s="51"/>
+      <c r="H77" s="51"/>
     </row>
     <row r="78" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A78" s="33"/>
-      <c r="B78" s="181"/>
-      <c r="C78" s="181"/>
-      <c r="D78" s="181"/>
-      <c r="E78" s="181"/>
-      <c r="F78" s="52"/>
-      <c r="G78" s="52"/>
-      <c r="H78" s="52"/>
+      <c r="A78" s="32"/>
+      <c r="B78" s="201"/>
+      <c r="C78" s="201"/>
+      <c r="D78" s="201"/>
+      <c r="E78" s="201"/>
+      <c r="F78" s="51"/>
+      <c r="G78" s="51"/>
+      <c r="H78" s="51"/>
     </row>
     <row r="79" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A79" s="38"/>
-      <c r="B79" s="181"/>
-      <c r="C79" s="181"/>
-      <c r="D79" s="181"/>
-      <c r="E79" s="181"/>
-      <c r="F79" s="52"/>
-      <c r="G79" s="52"/>
-      <c r="H79" s="52"/>
+      <c r="A79" s="37"/>
+      <c r="B79" s="201"/>
+      <c r="C79" s="201"/>
+      <c r="D79" s="201"/>
+      <c r="E79" s="201"/>
+      <c r="F79" s="51"/>
+      <c r="G79" s="51"/>
+      <c r="H79" s="51"/>
     </row>
     <row r="80" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A80" s="38"/>
-      <c r="B80" s="181"/>
-      <c r="C80" s="181"/>
-      <c r="D80" s="181"/>
-      <c r="E80" s="181"/>
-      <c r="F80" s="52"/>
-      <c r="G80" s="52"/>
-      <c r="H80" s="52"/>
+      <c r="A80" s="37"/>
+      <c r="B80" s="201"/>
+      <c r="C80" s="201"/>
+      <c r="D80" s="201"/>
+      <c r="E80" s="201"/>
+      <c r="F80" s="51"/>
+      <c r="G80" s="51"/>
+      <c r="H80" s="51"/>
     </row>
     <row r="81" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A81" s="38"/>
-      <c r="B81" s="181"/>
-      <c r="C81" s="181"/>
-      <c r="D81" s="181"/>
-      <c r="E81" s="181"/>
-      <c r="F81" s="52"/>
-      <c r="G81" s="52"/>
-      <c r="H81" s="52"/>
+      <c r="A81" s="37"/>
+      <c r="B81" s="201"/>
+      <c r="C81" s="201"/>
+      <c r="D81" s="201"/>
+      <c r="E81" s="201"/>
+      <c r="F81" s="51"/>
+      <c r="G81" s="51"/>
+      <c r="H81" s="51"/>
     </row>
     <row r="82" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A82" s="38"/>
-      <c r="B82" s="181"/>
-      <c r="C82" s="181"/>
-      <c r="D82" s="181"/>
-      <c r="E82" s="181"/>
-      <c r="F82" s="52"/>
-      <c r="G82" s="52"/>
-      <c r="H82" s="52"/>
+      <c r="A82" s="37"/>
+      <c r="B82" s="201"/>
+      <c r="C82" s="201"/>
+      <c r="D82" s="201"/>
+      <c r="E82" s="201"/>
+      <c r="F82" s="51"/>
+      <c r="G82" s="51"/>
+      <c r="H82" s="51"/>
     </row>
     <row r="83" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A83" s="38"/>
-      <c r="B83" s="181"/>
-      <c r="C83" s="181"/>
-      <c r="D83" s="181"/>
-      <c r="E83" s="181"/>
-      <c r="F83" s="52"/>
-      <c r="G83" s="52"/>
-      <c r="H83" s="52"/>
+      <c r="A83" s="37"/>
+      <c r="B83" s="201"/>
+      <c r="C83" s="201"/>
+      <c r="D83" s="201"/>
+      <c r="E83" s="201"/>
+      <c r="F83" s="51"/>
+      <c r="G83" s="51"/>
+      <c r="H83" s="51"/>
     </row>
     <row r="84" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A84" s="38"/>
-      <c r="B84" s="181"/>
-      <c r="C84" s="181"/>
-      <c r="D84" s="181"/>
-      <c r="E84" s="181"/>
-      <c r="F84" s="52"/>
-      <c r="G84" s="52"/>
-      <c r="H84" s="52"/>
+      <c r="A84" s="37"/>
+      <c r="B84" s="201"/>
+      <c r="C84" s="201"/>
+      <c r="D84" s="201"/>
+      <c r="E84" s="201"/>
+      <c r="F84" s="51"/>
+      <c r="G84" s="51"/>
+      <c r="H84" s="51"/>
     </row>
     <row r="85" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A85" s="38"/>
-      <c r="B85" s="181"/>
-      <c r="C85" s="181"/>
-      <c r="D85" s="181"/>
-      <c r="E85" s="181"/>
-      <c r="F85" s="52"/>
-      <c r="G85" s="52"/>
-      <c r="H85" s="52"/>
+      <c r="A85" s="37"/>
+      <c r="B85" s="201"/>
+      <c r="C85" s="201"/>
+      <c r="D85" s="201"/>
+      <c r="E85" s="201"/>
+      <c r="F85" s="51"/>
+      <c r="G85" s="51"/>
+      <c r="H85" s="51"/>
     </row>
     <row r="86" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A86" s="38"/>
-      <c r="B86" s="181"/>
-      <c r="C86" s="181"/>
-      <c r="D86" s="181"/>
-      <c r="E86" s="181"/>
-      <c r="F86" s="52"/>
-      <c r="G86" s="52"/>
-      <c r="H86" s="52"/>
+      <c r="A86" s="37"/>
+      <c r="B86" s="201"/>
+      <c r="C86" s="201"/>
+      <c r="D86" s="201"/>
+      <c r="E86" s="201"/>
+      <c r="F86" s="51"/>
+      <c r="G86" s="51"/>
+      <c r="H86" s="51"/>
     </row>
     <row r="87" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A87" s="38"/>
-      <c r="F87" s="52"/>
-      <c r="G87" s="52"/>
-      <c r="H87" s="52"/>
+      <c r="A87" s="37"/>
+      <c r="F87" s="51"/>
+      <c r="G87" s="51"/>
+      <c r="H87" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="B69:E69"/>
     <mergeCell ref="C31:E31"/>
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="C60:E60"/>
@@ -8499,27 +8614,40 @@
     <mergeCell ref="C39:E39"/>
     <mergeCell ref="C30:E30"/>
     <mergeCell ref="C48:E48"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="B75:E75"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="B80:E80"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="B79:E79"/>
-    <mergeCell ref="B85:E85"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:E43"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8533,671 +8661,718 @@
   <sheetPr codeName="Hoja2">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A3:Y28"/>
+  <dimension ref="A3:Z28"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="3.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="3"/>
-    <col min="3" max="3" width="16.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="42.85546875" style="3" customWidth="1"/>
-    <col min="6" max="7" width="16.5703125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="11.42578125" style="3"/>
-    <col min="14" max="14" width="23.5703125" style="3" customWidth="1"/>
-    <col min="15" max="24" width="11.42578125" style="3"/>
-    <col min="25" max="25" width="15" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="11.42578125" style="3"/>
+    <col min="2" max="2" width="4.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="3"/>
+    <col min="4" max="4" width="16.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="42.85546875" style="3" customWidth="1"/>
+    <col min="7" max="8" width="16.5703125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="11.42578125" style="3"/>
+    <col min="15" max="15" width="23.5703125" style="3" customWidth="1"/>
+    <col min="16" max="25" width="11.42578125" style="3"/>
+    <col min="26" max="26" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:25" ht="18" customHeight="1">
-      <c r="B3" s="213" t="s">
+    <row r="3" spans="2:26" ht="18" customHeight="1">
+      <c r="B3" s="212" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="213"/>
-      <c r="D3" s="213"/>
-      <c r="E3" s="213"/>
-      <c r="F3" s="213"/>
-      <c r="G3" s="213"/>
-      <c r="H3" s="213"/>
-      <c r="I3" s="213"/>
-      <c r="J3" s="213"/>
-      <c r="K3" s="213"/>
-      <c r="L3" s="213"/>
-      <c r="M3" s="213"/>
-      <c r="N3" s="213"/>
-    </row>
-    <row r="4" spans="2:25" ht="11.25" customHeight="1">
+      <c r="C3" s="212"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="212"/>
+      <c r="F3" s="212"/>
+      <c r="G3" s="212"/>
+      <c r="H3" s="212"/>
+      <c r="I3" s="212"/>
+      <c r="J3" s="212"/>
+      <c r="K3" s="212"/>
+      <c r="L3" s="212"/>
+      <c r="M3" s="212"/>
+      <c r="N3" s="212"/>
+      <c r="O3" s="212"/>
+    </row>
+    <row r="4" spans="2:26" ht="11.25" customHeight="1">
       <c r="B4" s="4"/>
-    </row>
-    <row r="5" spans="2:25" ht="15" customHeight="1"/>
-    <row r="6" spans="2:25" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B6" s="215" t="s">
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="2:26" ht="15" customHeight="1"/>
+    <row r="6" spans="2:26" s="5" customFormat="1" ht="15" customHeight="1">
+      <c r="B6" s="204" t="s">
         <v>135</v>
       </c>
-      <c r="C6" s="216"/>
-      <c r="D6" s="217" t="s">
+      <c r="C6" s="234"/>
+      <c r="D6" s="205"/>
+      <c r="E6" s="206" t="s">
         <v>176</v>
       </c>
-      <c r="E6" s="218"/>
-      <c r="F6" s="219"/>
-      <c r="G6" s="214"/>
-      <c r="H6" s="214"/>
-      <c r="N6" s="153"/>
-      <c r="Y6" s="3"/>
-    </row>
-    <row r="7" spans="2:25" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B7" s="215" t="s">
+      <c r="F6" s="207"/>
+      <c r="G6" s="208"/>
+      <c r="H6" s="213"/>
+      <c r="I6" s="213"/>
+      <c r="O6" s="146"/>
+      <c r="Z6" s="3"/>
+    </row>
+    <row r="7" spans="2:26" s="5" customFormat="1" ht="15" customHeight="1">
+      <c r="B7" s="204" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="216"/>
-      <c r="D7" s="217" t="s">
+      <c r="C7" s="234"/>
+      <c r="D7" s="205"/>
+      <c r="E7" s="206" t="s">
         <v>138</v>
       </c>
-      <c r="E7" s="218"/>
-      <c r="F7" s="219"/>
-      <c r="I7" s="220" t="s">
+      <c r="F7" s="207"/>
+      <c r="G7" s="208"/>
+      <c r="J7" s="203" t="s">
         <v>160</v>
       </c>
-      <c r="J7" s="220"/>
-      <c r="K7" s="220"/>
-      <c r="L7" s="220"/>
-      <c r="M7" s="220"/>
-      <c r="N7" s="177">
-        <f>SUM(J13:J23)</f>
+      <c r="K7" s="203"/>
+      <c r="L7" s="203"/>
+      <c r="M7" s="203"/>
+      <c r="N7" s="203"/>
+      <c r="O7" s="167">
+        <f>SUM(K13:K23)</f>
         <v>88</v>
       </c>
-      <c r="Y7" s="3"/>
-    </row>
-    <row r="8" spans="2:25" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B8" s="215" t="s">
+      <c r="Z7" s="3"/>
+    </row>
+    <row r="8" spans="2:26" s="5" customFormat="1" ht="15" customHeight="1">
+      <c r="B8" s="204" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="216"/>
-      <c r="D8" s="217" t="s">
+      <c r="C8" s="234"/>
+      <c r="D8" s="205"/>
+      <c r="E8" s="206" t="s">
         <v>175</v>
       </c>
-      <c r="E8" s="218"/>
-      <c r="F8" s="219"/>
-      <c r="I8" s="220" t="s">
+      <c r="F8" s="207"/>
+      <c r="G8" s="208"/>
+      <c r="J8" s="203" t="s">
         <v>161</v>
       </c>
-      <c r="J8" s="220"/>
-      <c r="K8" s="220"/>
-      <c r="L8" s="220"/>
-      <c r="M8" s="220"/>
-      <c r="N8" s="177">
-        <f>SUM(M13:M23)</f>
+      <c r="K8" s="203"/>
+      <c r="L8" s="203"/>
+      <c r="M8" s="203"/>
+      <c r="N8" s="203"/>
+      <c r="O8" s="167">
+        <f>SUM(N13:N23)</f>
         <v>70</v>
       </c>
-      <c r="Y8" s="3"/>
-    </row>
-    <row r="9" spans="2:25" s="5" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B9" s="215" t="s">
+      <c r="Z8" s="3"/>
+    </row>
+    <row r="9" spans="2:26" s="5" customFormat="1" ht="27.75" customHeight="1">
+      <c r="B9" s="204" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="216"/>
-      <c r="D9" s="135">
+      <c r="C9" s="234"/>
+      <c r="D9" s="205"/>
+      <c r="E9" s="129">
         <v>42262</v>
       </c>
-      <c r="E9" s="96" t="s">
+      <c r="F9" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="131">
+      <c r="G9" s="125">
         <v>42276</v>
       </c>
-      <c r="H9" s="117"/>
-      <c r="N9" s="153"/>
-      <c r="Y9" s="3"/>
-    </row>
-    <row r="10" spans="2:25" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B10" s="215" t="s">
+      <c r="I9" s="113"/>
+      <c r="O9" s="146"/>
+      <c r="Z9" s="3"/>
+    </row>
+    <row r="10" spans="2:26" s="5" customFormat="1" ht="15" customHeight="1">
+      <c r="B10" s="204" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="216"/>
-      <c r="D10" s="221" t="s">
-        <v>197</v>
-      </c>
-      <c r="E10" s="222"/>
-      <c r="F10" s="223"/>
-      <c r="Y10" s="3"/>
-    </row>
-    <row r="11" spans="2:25" s="17" customFormat="1" ht="15" customHeight="1">
+      <c r="C10" s="234"/>
+      <c r="D10" s="205"/>
+      <c r="E10" s="209" t="s">
+        <v>196</v>
+      </c>
+      <c r="F10" s="210"/>
+      <c r="G10" s="211"/>
+      <c r="Z10" s="3"/>
+    </row>
+    <row r="11" spans="2:26" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
-      <c r="D11" s="19"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="19"/>
-      <c r="Y11" s="20"/>
-    </row>
-    <row r="12" spans="2:25" s="130" customFormat="1" ht="38.25">
-      <c r="B12" s="127" t="s">
+      <c r="F11" s="19"/>
+      <c r="Z11" s="20"/>
+    </row>
+    <row r="12" spans="2:26" s="124" customFormat="1" ht="38.25">
+      <c r="B12" s="121" t="s">
+        <v>198</v>
+      </c>
+      <c r="C12" s="121" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="86" t="s">
+      <c r="D12" s="85" t="s">
         <v>114</v>
       </c>
-      <c r="D12" s="128" t="s">
+      <c r="E12" s="122" t="s">
         <v>102</v>
       </c>
-      <c r="E12" s="86" t="s">
+      <c r="F12" s="85" t="s">
         <v>127</v>
       </c>
-      <c r="F12" s="128" t="s">
+      <c r="G12" s="122" t="s">
         <v>124</v>
       </c>
-      <c r="G12" s="128" t="s">
+      <c r="H12" s="122" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="129" t="s">
+      <c r="I12" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="129" t="s">
+      <c r="J12" s="123" t="s">
         <v>11</v>
       </c>
-      <c r="J12" s="129" t="s">
+      <c r="K12" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="129" t="s">
+      <c r="L12" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="L12" s="129" t="s">
+      <c r="M12" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="M12" s="129" t="s">
+      <c r="N12" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="N12" s="129" t="s">
+      <c r="O12" s="123" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="2:25" s="130" customFormat="1" ht="32.1" customHeight="1">
-      <c r="B13" s="86">
+    <row r="13" spans="2:26" s="124" customFormat="1" ht="32.1" customHeight="1">
+      <c r="B13" s="85">
         <v>1</v>
       </c>
-      <c r="C13" s="171" t="s">
+      <c r="C13" s="235">
+        <v>1</v>
+      </c>
+      <c r="D13" s="161" t="s">
         <v>123</v>
       </c>
-      <c r="D13" s="172" t="s">
+      <c r="E13" s="162" t="s">
         <v>131</v>
       </c>
-      <c r="E13" s="173" t="s">
+      <c r="F13" s="163" t="s">
         <v>162</v>
       </c>
-      <c r="F13" s="176" t="s">
+      <c r="G13" s="166" t="s">
         <v>143</v>
       </c>
-      <c r="G13" s="176" t="s">
+      <c r="H13" s="166" t="s">
         <v>141</v>
       </c>
-      <c r="H13" s="244">
+      <c r="I13" s="257">
         <v>42262</v>
       </c>
-      <c r="I13" s="152">
+      <c r="J13" s="258">
         <v>42276</v>
       </c>
-      <c r="J13" s="133">
+      <c r="K13" s="127">
         <v>8</v>
       </c>
-      <c r="K13" s="244">
+      <c r="L13" s="257">
         <v>42262</v>
       </c>
-      <c r="L13" s="152">
+      <c r="M13" s="258">
         <v>42276</v>
       </c>
-      <c r="M13" s="133">
+      <c r="N13" s="127">
         <v>8</v>
       </c>
-      <c r="N13" s="134"/>
-    </row>
-    <row r="14" spans="2:25" s="130" customFormat="1" ht="32.1" customHeight="1">
-      <c r="B14" s="86">
+      <c r="O13" s="128"/>
+    </row>
+    <row r="14" spans="2:26" s="124" customFormat="1" ht="32.1" customHeight="1">
+      <c r="B14" s="85">
         <f>B13+1</f>
         <v>2</v>
       </c>
-      <c r="C14" s="171" t="s">
+      <c r="C14" s="235">
+        <v>1</v>
+      </c>
+      <c r="D14" s="161" t="s">
         <v>123</v>
       </c>
-      <c r="D14" s="172" t="s">
+      <c r="E14" s="162" t="s">
         <v>131</v>
       </c>
-      <c r="E14" s="173" t="s">
+      <c r="F14" s="163" t="s">
         <v>146</v>
       </c>
-      <c r="F14" s="176" t="s">
+      <c r="G14" s="166" t="s">
         <v>143</v>
       </c>
-      <c r="G14" s="176" t="s">
+      <c r="H14" s="166" t="s">
         <v>141</v>
       </c>
-      <c r="H14" s="244">
+      <c r="I14" s="257">
         <v>42262</v>
       </c>
-      <c r="I14" s="152">
+      <c r="J14" s="258">
         <v>42276</v>
       </c>
-      <c r="J14" s="133">
+      <c r="K14" s="127">
         <v>8</v>
       </c>
-      <c r="K14" s="244">
+      <c r="L14" s="257">
         <v>42262</v>
       </c>
-      <c r="L14" s="152">
+      <c r="M14" s="258">
         <v>42276</v>
       </c>
-      <c r="M14" s="133">
+      <c r="N14" s="127">
         <v>8</v>
       </c>
-      <c r="N14" s="134"/>
-    </row>
-    <row r="15" spans="2:25" s="130" customFormat="1" ht="32.1" customHeight="1">
-      <c r="B15" s="86">
+      <c r="O14" s="128"/>
+    </row>
+    <row r="15" spans="2:26" s="124" customFormat="1" ht="32.1" customHeight="1">
+      <c r="B15" s="85">
         <f t="shared" ref="B15:B23" si="0">B14+1</f>
         <v>3</v>
       </c>
-      <c r="C15" s="171" t="s">
+      <c r="C15" s="235">
+        <v>1</v>
+      </c>
+      <c r="D15" s="161" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="172" t="s">
+      <c r="E15" s="162" t="s">
         <v>131</v>
       </c>
-      <c r="E15" s="174" t="s">
+      <c r="F15" s="164" t="s">
         <v>163</v>
       </c>
-      <c r="F15" s="176" t="s">
+      <c r="G15" s="166" t="s">
         <v>143</v>
       </c>
-      <c r="G15" s="176" t="s">
+      <c r="H15" s="166" t="s">
         <v>141</v>
       </c>
-      <c r="H15" s="244">
+      <c r="I15" s="257">
         <v>42262</v>
       </c>
-      <c r="I15" s="152">
+      <c r="J15" s="258">
         <v>42276</v>
       </c>
-      <c r="J15" s="133">
+      <c r="K15" s="127">
         <v>8</v>
       </c>
-      <c r="K15" s="244">
+      <c r="L15" s="257">
         <v>42262</v>
       </c>
-      <c r="L15" s="152">
+      <c r="M15" s="258">
         <v>42276</v>
       </c>
-      <c r="M15" s="133">
+      <c r="N15" s="127">
         <v>8</v>
       </c>
-      <c r="N15" s="134"/>
-    </row>
-    <row r="16" spans="2:25" s="130" customFormat="1" ht="32.1" customHeight="1">
-      <c r="B16" s="86">
+      <c r="O15" s="128"/>
+    </row>
+    <row r="16" spans="2:26" s="124" customFormat="1" ht="32.1" customHeight="1">
+      <c r="B16" s="85">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C16" s="171" t="s">
+      <c r="C16" s="235">
+        <v>1</v>
+      </c>
+      <c r="D16" s="161" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="172" t="s">
+      <c r="E16" s="162" t="s">
         <v>131</v>
       </c>
-      <c r="E16" s="173" t="s">
+      <c r="F16" s="163" t="s">
         <v>150</v>
       </c>
-      <c r="F16" s="176" t="s">
+      <c r="G16" s="166" t="s">
         <v>143</v>
       </c>
-      <c r="G16" s="176" t="s">
+      <c r="H16" s="166" t="s">
         <v>141</v>
       </c>
-      <c r="H16" s="244">
+      <c r="I16" s="257">
         <v>42262</v>
       </c>
-      <c r="I16" s="152">
+      <c r="J16" s="258">
         <v>42276</v>
       </c>
-      <c r="J16" s="133">
+      <c r="K16" s="127">
         <v>8</v>
       </c>
-      <c r="K16" s="244">
+      <c r="L16" s="257">
         <v>42262</v>
       </c>
-      <c r="L16" s="152">
+      <c r="M16" s="258">
         <v>42276</v>
       </c>
-      <c r="M16" s="133">
+      <c r="N16" s="127">
         <v>8</v>
       </c>
-      <c r="N16" s="134"/>
-    </row>
-    <row r="17" spans="1:14" s="130" customFormat="1" ht="32.1" customHeight="1">
-      <c r="B17" s="86">
+      <c r="O16" s="128"/>
+    </row>
+    <row r="17" spans="1:15" s="124" customFormat="1" ht="32.1" customHeight="1">
+      <c r="B17" s="85">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C17" s="171" t="s">
+      <c r="C17" s="235">
+        <v>1</v>
+      </c>
+      <c r="D17" s="161" t="s">
         <v>123</v>
       </c>
-      <c r="D17" s="172" t="s">
+      <c r="E17" s="162" t="s">
         <v>131</v>
       </c>
-      <c r="E17" s="173" t="s">
+      <c r="F17" s="163" t="s">
         <v>147</v>
       </c>
-      <c r="F17" s="176" t="s">
+      <c r="G17" s="166" t="s">
         <v>143</v>
       </c>
-      <c r="G17" s="176" t="s">
+      <c r="H17" s="166" t="s">
         <v>141</v>
       </c>
-      <c r="H17" s="244">
+      <c r="I17" s="257">
         <v>42262</v>
       </c>
-      <c r="I17" s="152">
+      <c r="J17" s="258">
         <v>42276</v>
       </c>
-      <c r="J17" s="133">
+      <c r="K17" s="127">
         <v>8</v>
       </c>
-      <c r="K17" s="244">
+      <c r="L17" s="257">
         <v>42262</v>
       </c>
-      <c r="L17" s="152">
+      <c r="M17" s="258">
         <v>42276</v>
       </c>
-      <c r="M17" s="133">
+      <c r="N17" s="127">
         <v>8</v>
       </c>
-      <c r="N17" s="134"/>
-    </row>
-    <row r="18" spans="1:14" s="130" customFormat="1" ht="32.1" customHeight="1">
-      <c r="B18" s="86">
+      <c r="O17" s="128"/>
+    </row>
+    <row r="18" spans="1:15" s="124" customFormat="1" ht="32.1" customHeight="1">
+      <c r="B18" s="85">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C18" s="171" t="s">
+      <c r="C18" s="235">
+        <v>1</v>
+      </c>
+      <c r="D18" s="161" t="s">
         <v>123</v>
       </c>
-      <c r="D18" s="172" t="s">
+      <c r="E18" s="162" t="s">
         <v>131</v>
       </c>
-      <c r="E18" s="173" t="s">
+      <c r="F18" s="163" t="s">
         <v>164</v>
       </c>
-      <c r="F18" s="176" t="s">
+      <c r="G18" s="166" t="s">
         <v>143</v>
       </c>
-      <c r="G18" s="176" t="s">
+      <c r="H18" s="166" t="s">
         <v>141</v>
       </c>
-      <c r="H18" s="244">
+      <c r="I18" s="257">
         <v>42262</v>
       </c>
-      <c r="I18" s="152">
+      <c r="J18" s="258">
         <v>42276</v>
       </c>
-      <c r="J18" s="133">
+      <c r="K18" s="127">
         <v>8</v>
       </c>
-      <c r="K18" s="244">
+      <c r="L18" s="257">
         <v>42262</v>
       </c>
-      <c r="L18" s="152">
+      <c r="M18" s="258">
         <v>42276</v>
       </c>
-      <c r="M18" s="133">
+      <c r="N18" s="127">
         <v>5</v>
       </c>
-      <c r="N18" s="134"/>
-    </row>
-    <row r="19" spans="1:14" s="130" customFormat="1" ht="32.1" customHeight="1">
-      <c r="B19" s="86">
+      <c r="O18" s="128"/>
+    </row>
+    <row r="19" spans="1:15" s="124" customFormat="1" ht="32.1" customHeight="1">
+      <c r="B19" s="85">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C19" s="171" t="s">
+      <c r="C19" s="235">
+        <v>1</v>
+      </c>
+      <c r="D19" s="161" t="s">
         <v>123</v>
       </c>
-      <c r="D19" s="172" t="s">
+      <c r="E19" s="162" t="s">
         <v>131</v>
       </c>
-      <c r="E19" s="173" t="s">
+      <c r="F19" s="163" t="s">
         <v>165</v>
       </c>
-      <c r="F19" s="176" t="s">
+      <c r="G19" s="166" t="s">
         <v>143</v>
       </c>
-      <c r="G19" s="176" t="s">
+      <c r="H19" s="166" t="s">
         <v>141</v>
       </c>
-      <c r="H19" s="244">
+      <c r="I19" s="257">
         <v>42262</v>
       </c>
-      <c r="I19" s="152">
+      <c r="J19" s="258">
         <v>42276</v>
       </c>
-      <c r="J19" s="133">
+      <c r="K19" s="127">
         <v>8</v>
       </c>
-      <c r="K19" s="244">
+      <c r="L19" s="257">
         <v>42262</v>
       </c>
-      <c r="L19" s="152">
+      <c r="M19" s="258">
         <v>42276</v>
       </c>
-      <c r="M19" s="133">
+      <c r="N19" s="127">
         <v>5</v>
       </c>
-      <c r="N19" s="134"/>
-    </row>
-    <row r="20" spans="1:14" s="130" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A20" s="132"/>
-      <c r="B20" s="86">
+      <c r="O19" s="128"/>
+    </row>
+    <row r="20" spans="1:15" s="124" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A20" s="126"/>
+      <c r="B20" s="85">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C20" s="175" t="s">
+      <c r="C20" s="235">
+        <v>1</v>
+      </c>
+      <c r="D20" s="165" t="s">
         <v>123</v>
       </c>
-      <c r="D20" s="172" t="s">
+      <c r="E20" s="162" t="s">
         <v>179</v>
       </c>
-      <c r="E20" s="173" t="s">
+      <c r="F20" s="163" t="s">
         <v>153</v>
       </c>
-      <c r="F20" s="176" t="s">
+      <c r="G20" s="166" t="s">
         <v>143</v>
       </c>
-      <c r="G20" s="176" t="s">
+      <c r="H20" s="166" t="s">
         <v>141</v>
       </c>
-      <c r="H20" s="244">
+      <c r="I20" s="257">
         <v>42262</v>
       </c>
-      <c r="I20" s="152">
+      <c r="J20" s="258">
         <v>42276</v>
       </c>
-      <c r="J20" s="133">
+      <c r="K20" s="127">
         <v>8</v>
       </c>
-      <c r="K20" s="244">
+      <c r="L20" s="257">
         <v>42262</v>
       </c>
-      <c r="L20" s="152">
+      <c r="M20" s="258">
         <v>42276</v>
       </c>
-      <c r="M20" s="133">
+      <c r="N20" s="127">
         <v>5</v>
       </c>
-      <c r="N20" s="134"/>
-    </row>
-    <row r="21" spans="1:14" s="130" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A21" s="132"/>
-      <c r="B21" s="86">
+      <c r="O20" s="128"/>
+    </row>
+    <row r="21" spans="1:15" s="124" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A21" s="126"/>
+      <c r="B21" s="85">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C21" s="175" t="s">
+      <c r="C21" s="235">
+        <v>1</v>
+      </c>
+      <c r="D21" s="165" t="s">
         <v>123</v>
       </c>
-      <c r="D21" s="172" t="s">
+      <c r="E21" s="162" t="s">
         <v>179</v>
       </c>
-      <c r="E21" s="173" t="s">
+      <c r="F21" s="163" t="s">
         <v>172</v>
       </c>
-      <c r="F21" s="176" t="s">
+      <c r="G21" s="166" t="s">
         <v>143</v>
       </c>
-      <c r="G21" s="176" t="s">
+      <c r="H21" s="166" t="s">
         <v>141</v>
       </c>
-      <c r="H21" s="244">
+      <c r="I21" s="257">
         <v>42262</v>
       </c>
-      <c r="I21" s="152">
+      <c r="J21" s="258">
         <v>42276</v>
       </c>
-      <c r="J21" s="133">
+      <c r="K21" s="127">
         <v>8</v>
       </c>
-      <c r="K21" s="244">
+      <c r="L21" s="257">
         <v>42262</v>
       </c>
-      <c r="L21" s="152">
+      <c r="M21" s="258">
         <v>42276</v>
       </c>
-      <c r="M21" s="133">
+      <c r="N21" s="127">
         <v>5</v>
       </c>
-      <c r="N21" s="134"/>
-    </row>
-    <row r="22" spans="1:14" s="130" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A22" s="132"/>
-      <c r="B22" s="86">
+      <c r="O21" s="128"/>
+    </row>
+    <row r="22" spans="1:15" s="124" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A22" s="126"/>
+      <c r="B22" s="85">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C22" s="175" t="s">
+      <c r="C22" s="235">
+        <v>1</v>
+      </c>
+      <c r="D22" s="165" t="s">
         <v>123</v>
       </c>
-      <c r="D22" s="172" t="s">
+      <c r="E22" s="162" t="s">
         <v>179</v>
       </c>
-      <c r="E22" s="173" t="s">
+      <c r="F22" s="163" t="s">
         <v>173</v>
       </c>
-      <c r="F22" s="176" t="s">
+      <c r="G22" s="166" t="s">
         <v>143</v>
       </c>
-      <c r="G22" s="176" t="s">
+      <c r="H22" s="166" t="s">
         <v>141</v>
       </c>
-      <c r="H22" s="244">
+      <c r="I22" s="257">
         <v>42262</v>
       </c>
-      <c r="I22" s="152">
+      <c r="J22" s="258">
         <v>42276</v>
       </c>
-      <c r="J22" s="133">
+      <c r="K22" s="127">
         <v>8</v>
       </c>
-      <c r="K22" s="244">
+      <c r="L22" s="257">
         <v>42262</v>
       </c>
-      <c r="L22" s="152">
+      <c r="M22" s="258">
         <v>42276</v>
       </c>
-      <c r="M22" s="133">
+      <c r="N22" s="127">
         <v>5</v>
       </c>
-      <c r="N22" s="134"/>
-    </row>
-    <row r="23" spans="1:14" s="130" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A23" s="132"/>
-      <c r="B23" s="86">
+      <c r="O22" s="128"/>
+    </row>
+    <row r="23" spans="1:15" s="124" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A23" s="126"/>
+      <c r="B23" s="85">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C23" s="175" t="s">
+      <c r="C23" s="235">
+        <v>1</v>
+      </c>
+      <c r="D23" s="165" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="172" t="s">
+      <c r="E23" s="162" t="s">
         <v>179</v>
       </c>
-      <c r="E23" s="173" t="s">
+      <c r="F23" s="163" t="s">
         <v>174</v>
       </c>
-      <c r="F23" s="176" t="s">
+      <c r="G23" s="166" t="s">
         <v>143</v>
       </c>
-      <c r="G23" s="176" t="s">
+      <c r="H23" s="166" t="s">
         <v>141</v>
       </c>
-      <c r="H23" s="244">
+      <c r="I23" s="257">
         <v>42262</v>
       </c>
-      <c r="I23" s="152">
+      <c r="J23" s="258">
         <v>42276</v>
       </c>
-      <c r="J23" s="133">
+      <c r="K23" s="127">
         <v>8</v>
       </c>
-      <c r="K23" s="244">
+      <c r="L23" s="257">
         <v>42262</v>
       </c>
-      <c r="L23" s="152">
+      <c r="M23" s="258">
         <v>42276</v>
       </c>
-      <c r="M23" s="133">
+      <c r="N23" s="127">
         <v>5</v>
       </c>
-      <c r="N23" s="134"/>
-    </row>
-    <row r="24" spans="1:14" ht="12.75" customHeight="1">
+      <c r="O23" s="128"/>
+    </row>
+    <row r="24" spans="1:15" ht="12.75" customHeight="1">
       <c r="B24" s="6"/>
-      <c r="J24" s="136"/>
-      <c r="K24" s="137"/>
-      <c r="L24" s="138"/>
-      <c r="M24" s="136"/>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="C24" s="6"/>
+      <c r="K24" s="130"/>
+      <c r="L24" s="131"/>
+      <c r="M24" s="132"/>
+      <c r="N24" s="130"/>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="8"/>
       <c r="B25" s="6"/>
-      <c r="D25" s="7"/>
+      <c r="C25" s="6"/>
       <c r="E25" s="7"/>
-      <c r="J25" s="137"/>
-      <c r="K25" s="137"/>
-      <c r="L25" s="137"/>
-      <c r="M25" s="137"/>
-    </row>
-    <row r="26" spans="1:14">
+      <c r="F25" s="7"/>
+      <c r="K25" s="131"/>
+      <c r="L25" s="131"/>
+      <c r="M25" s="131"/>
+      <c r="N25" s="131"/>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="8"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:15">
       <c r="A27" s="8"/>
     </row>
-    <row r="28" spans="1:14" ht="12.75" customHeight="1"/>
+    <row r="28" spans="1:15" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="I8:M8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="B3:N3"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="B3:O3"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="J7:N7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="J8:N8"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E10:G10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9213,25 +9388,25 @@
           <x14:formula1>
             <xm:f>Tablas!$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>C13:C23</xm:sqref>
+          <xm:sqref>D13:D23</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Tablas!$K$3:$K$5</xm:f>
           </x14:formula1>
-          <xm:sqref>F13:G23</xm:sqref>
+          <xm:sqref>G13:H23</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Tablas!$C$3:$C$8</xm:f>
           </x14:formula1>
-          <xm:sqref>D13:D23</xm:sqref>
+          <xm:sqref>E13:E23</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Tablas!$E$3:$E$41</xm:f>
           </x14:formula1>
-          <xm:sqref>E13:E23</xm:sqref>
+          <xm:sqref>F13:F23</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -9245,7 +9420,7 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="F14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="O12" sqref="O12"/>
@@ -9268,643 +9443,688 @@
     <col min="16" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="26" customFormat="1" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A1" s="224" t="s">
+    <row r="1" spans="1:15" s="25" customFormat="1" ht="64.5" customHeight="1" thickBot="1">
+      <c r="A1" s="214" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="225"/>
-      <c r="C1" s="225"/>
-      <c r="D1" s="225"/>
-      <c r="E1" s="225"/>
-      <c r="F1" s="225"/>
-      <c r="G1" s="225"/>
-      <c r="H1" s="225"/>
-      <c r="I1" s="225"/>
-      <c r="J1" s="225"/>
-      <c r="K1" s="225"/>
-      <c r="L1" s="225"/>
-      <c r="M1" s="225"/>
-      <c r="N1" s="226"/>
-    </row>
-    <row r="2" spans="1:15" s="26" customFormat="1" ht="11.45" customHeight="1">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-    </row>
-    <row r="3" spans="1:15" s="21" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A3" s="29"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="29"/>
-      <c r="M3" s="29"/>
-    </row>
-    <row r="4" spans="1:15" s="25" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="24" t="s">
+      <c r="B1" s="215"/>
+      <c r="C1" s="215"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="215"/>
+      <c r="F1" s="215"/>
+      <c r="G1" s="215"/>
+      <c r="H1" s="215"/>
+      <c r="I1" s="215"/>
+      <c r="J1" s="215"/>
+      <c r="K1" s="215"/>
+      <c r="L1" s="215"/>
+      <c r="M1" s="215"/>
+      <c r="N1" s="216"/>
+    </row>
+    <row r="2" spans="1:15" s="25" customFormat="1" ht="11.45" customHeight="1">
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+    </row>
+    <row r="3" spans="1:15" s="21" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
+      <c r="A3" s="28"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="28"/>
+      <c r="M3" s="28"/>
+    </row>
+    <row r="4" spans="1:15" s="24" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="239" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="240" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="241" t="s">
         <v>114</v>
       </c>
-      <c r="D4" s="86" t="s">
+      <c r="D4" s="241" t="s">
         <v>126</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="240" t="s">
         <v>111</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="240" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="240" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="86" t="s">
+      <c r="H4" s="241" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="I4" s="240" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="J4" s="240" t="s">
         <v>125</v>
       </c>
-      <c r="K4" s="24" t="s">
+      <c r="K4" s="240" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="24" t="s">
+      <c r="L4" s="240" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="24" t="s">
+      <c r="M4" s="240" t="s">
         <v>28</v>
       </c>
-      <c r="N4" s="24" t="s">
+      <c r="N4" s="240" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="24" t="s">
+      <c r="O4" s="242" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="42" customHeight="1">
-      <c r="A5" s="97">
+    <row r="5" spans="1:15" s="116" customFormat="1" ht="42" customHeight="1">
+      <c r="A5" s="243">
         <v>1</v>
       </c>
-      <c r="B5" s="98">
+      <c r="B5" s="236">
         <v>1</v>
       </c>
-      <c r="C5" s="99" t="str">
-        <f>VLOOKUP(B5,Planificación!$B$13:$E$70,2,FALSE)</f>
+      <c r="C5" s="114" t="str">
+        <f>VLOOKUP(A5,Planificación!$B$13:$F$70,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D5" s="165" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A5,Planificación!B$13:G$23,4,FALSE),FIND("_",VLOOKUP(A5,Planificación!B$13:G$23,4,FALSE),1)-1)," / ",VLOOKUP(A5,Planificación!B$13:G$23,3,FALSE))</f>
-        <v>PGPROY / PP_PMC</v>
-      </c>
-      <c r="E5" s="99" t="str">
-        <f>VLOOKUP(A5,Planificación!B$13:G$23,5,FALSE)</f>
+      <c r="D5" s="237" t="str">
+        <f>CONCATENATE(LEFT(VLOOKUP(A5,Planificación!B$13:H$23,5,FALSE),FIND("_",VLOOKUP(A5,Planificación!B$13:H$23,5,FALSE),1)-1)," / ",VLOOKUP(A5,Planificación!B$13:H$23,3,FALSE))</f>
+        <v>PGPROY / Desarrollo de Sistemas</v>
+      </c>
+      <c r="E5" s="114" t="str">
+        <f>VLOOKUP(A5,Planificación!B$13:H$23,6,FALSE)</f>
         <v>Roger</v>
       </c>
-      <c r="F5" s="99" t="str">
-        <f>VLOOKUP(A5,Planificación!$B$13:$G$23,6,FALSE)</f>
+      <c r="F5" s="114" t="str">
+        <f>VLOOKUP(A5,Planificación!$B$13:$H$23,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G5" s="100" t="s">
-        <v>198</v>
-      </c>
-      <c r="H5" s="166" t="s">
+      <c r="G5" s="115" t="s">
+        <v>199</v>
+      </c>
+      <c r="H5" s="157" t="s">
         <v>128</v>
       </c>
-      <c r="I5" s="166" t="s">
+      <c r="I5" s="157" t="s">
         <v>95</v>
       </c>
-      <c r="J5" s="166" t="str">
-        <f>VLOOKUP(A5,Planificación!B$13:G$23,6,FALSE)</f>
+      <c r="J5" s="157" t="str">
+        <f>VLOOKUP(A5,Planificación!B$13:H$23,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="K5" s="168"/>
-      <c r="L5" s="169">
-        <f>VLOOKUP(A5,Planificación!B$13:M$23,8,FALSE)</f>
+      <c r="K5" s="160"/>
+      <c r="L5" s="238">
+        <f>VLOOKUP(A5,Planificación!B$13:N$23,9,FALSE)</f>
         <v>42276</v>
       </c>
-      <c r="M5" s="169">
-        <f>VLOOKUP(A5,Planificación!B$13:M$23,11,FALSE)</f>
+      <c r="M5" s="238">
+        <f>VLOOKUP(A5,Planificación!B$13:N$23,12,FALSE)</f>
         <v>42276</v>
       </c>
-      <c r="N5" s="101"/>
-      <c r="O5" s="155" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="42" customHeight="1">
-      <c r="A6" s="97">
+      <c r="N5" s="254">
+        <v>1</v>
+      </c>
+      <c r="O5" s="244" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="116" customFormat="1" ht="42" customHeight="1">
+      <c r="A6" s="243">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="98">
+      <c r="B6" s="236">
         <v>1</v>
       </c>
-      <c r="C6" s="99" t="str">
-        <f>VLOOKUP(B6,Planificación!$B$13:$E$70,2,FALSE)</f>
+      <c r="C6" s="114" t="str">
+        <f>VLOOKUP(A6,Planificación!$B$13:$F$70,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D6" s="165" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A6,Planificación!B$13:G$23,4,FALSE),FIND("_",VLOOKUP(A6,Planificación!B$13:G$23,4,FALSE),1)-1)," / ",VLOOKUP(A6,Planificación!B$13:G$23,3,FALSE))</f>
-        <v>PPROY / PP_PMC</v>
-      </c>
-      <c r="E6" s="99" t="str">
-        <f>VLOOKUP(A6,Planificación!B$13:G$23,5,FALSE)</f>
+      <c r="D6" s="237" t="str">
+        <f>CONCATENATE(LEFT(VLOOKUP(A6,Planificación!B$13:H$23,5,FALSE),FIND("_",VLOOKUP(A6,Planificación!B$13:H$23,5,FALSE),1)-1)," / ",VLOOKUP(A6,Planificación!B$13:H$23,3,FALSE))</f>
+        <v>PPROY / Desarrollo de Sistemas</v>
+      </c>
+      <c r="E6" s="114" t="str">
+        <f>VLOOKUP(A6,Planificación!B$13:H$23,6,FALSE)</f>
         <v>Roger</v>
       </c>
-      <c r="F6" s="99" t="str">
-        <f>VLOOKUP(A6,Planificación!$B$13:$G$23,6,FALSE)</f>
+      <c r="F6" s="114" t="str">
+        <f>VLOOKUP(A6,Planificación!$B$13:$H$23,7,FALSE)</f>
         <v>Julio</v>
       </c>
       <c r="G6" s="245" t="s">
         <v>200</v>
       </c>
-      <c r="H6" s="166" t="s">
+      <c r="H6" s="157" t="s">
         <v>120</v>
       </c>
-      <c r="I6" s="166" t="s">
+      <c r="I6" s="157" t="s">
         <v>95</v>
       </c>
-      <c r="J6" s="166" t="str">
-        <f>VLOOKUP(A6,Planificación!B$13:G$23,6,FALSE)</f>
+      <c r="J6" s="157" t="str">
+        <f>VLOOKUP(A6,Planificación!B$13:H$23,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="K6" s="168"/>
-      <c r="L6" s="169">
-        <f>VLOOKUP(A6,Planificación!B$13:M$23,8,FALSE)</f>
+      <c r="K6" s="160"/>
+      <c r="L6" s="238">
+        <f>VLOOKUP(A6,Planificación!B$13:N$23,9,FALSE)</f>
         <v>42276</v>
       </c>
-      <c r="M6" s="169">
-        <f>VLOOKUP(A6,Planificación!B$13:M$23,11,FALSE)</f>
+      <c r="M6" s="238">
+        <f>VLOOKUP(A6,Planificación!B$13:N$23,12,FALSE)</f>
         <v>42276</v>
       </c>
-      <c r="N6" s="101"/>
-      <c r="O6" s="154" t="s">
-        <v>201</v>
+      <c r="N6" s="254">
+        <v>1</v>
+      </c>
+      <c r="O6" s="244" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="42" customHeight="1">
-      <c r="A7" s="97">
+      <c r="A7" s="243">
         <f t="shared" ref="A7:A15" si="0">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="98">
+      <c r="B7" s="96">
         <v>1</v>
       </c>
-      <c r="C7" s="99" t="str">
-        <f>VLOOKUP(B7,Planificación!$B$13:$E$70,2,FALSE)</f>
+      <c r="C7" s="97" t="str">
+        <f>VLOOKUP(A7,Planificación!$B$13:$F$70,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D7" s="165" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A7,Planificación!B$13:G$23,4,FALSE),FIND("_",VLOOKUP(A7,Planificación!B$13:G$23,4,FALSE),1)-1)," / ",VLOOKUP(A7,Planificación!B$13:G$23,3,FALSE))</f>
-        <v>ACREVPRO / PP_PMC</v>
-      </c>
-      <c r="E7" s="99" t="str">
-        <f>VLOOKUP(A7,Planificación!B$13:G$23,5,FALSE)</f>
+      <c r="D7" s="155" t="str">
+        <f>CONCATENATE(LEFT(VLOOKUP(A7,Planificación!B$13:H$23,5,FALSE),FIND("_",VLOOKUP(A7,Planificación!B$13:H$23,5,FALSE),1)-1)," / ",VLOOKUP(A7,Planificación!B$13:H$23,3,FALSE))</f>
+        <v>ACREVPRO / Desarrollo de Sistemas</v>
+      </c>
+      <c r="E7" s="97" t="str">
+        <f>VLOOKUP(A7,Planificación!B$13:H$23,6,FALSE)</f>
         <v>Roger</v>
       </c>
-      <c r="F7" s="99" t="str">
-        <f>VLOOKUP(A7,Planificación!$B$13:$G$23,6,FALSE)</f>
+      <c r="F7" s="97" t="str">
+        <f>VLOOKUP(A7,Planificación!$B$13:$H$23,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G7" s="100" t="s">
-        <v>200</v>
-      </c>
-      <c r="H7" s="166" t="s">
+      <c r="G7" s="98" t="s">
+        <v>197</v>
+      </c>
+      <c r="H7" s="156" t="s">
         <v>120</v>
       </c>
-      <c r="I7" s="166" t="s">
+      <c r="I7" s="156" t="s">
         <v>95</v>
       </c>
-      <c r="J7" s="166" t="str">
-        <f>VLOOKUP(A7,Planificación!B$13:G$23,6,FALSE)</f>
+      <c r="J7" s="156" t="str">
+        <f>VLOOKUP(A7,Planificación!B$13:H$23,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="K7" s="168"/>
-      <c r="L7" s="169">
-        <f>VLOOKUP(A7,Planificación!B$13:M$23,8,FALSE)</f>
+      <c r="K7" s="158"/>
+      <c r="L7" s="159">
+        <f>VLOOKUP(A7,Planificación!B$13:N$23,9,FALSE)</f>
         <v>42276</v>
       </c>
-      <c r="M7" s="169">
-        <f>VLOOKUP(A7,Planificación!B$13:M$23,11,FALSE)</f>
+      <c r="M7" s="159">
+        <f>VLOOKUP(A7,Planificación!B$13:N$23,12,FALSE)</f>
         <v>42276</v>
       </c>
-      <c r="N7" s="101"/>
-      <c r="O7" s="111"/>
-    </row>
-    <row r="8" spans="1:15" ht="42" customHeight="1">
-      <c r="A8" s="97">
+      <c r="N7" s="254">
+        <v>1</v>
+      </c>
+      <c r="O7" s="244" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="116" customFormat="1" ht="42" customHeight="1">
+      <c r="A8" s="243">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="98">
+      <c r="B8" s="236">
         <v>1</v>
       </c>
-      <c r="C8" s="118" t="str">
-        <f>VLOOKUP(B8,Planificación!$B$13:$E$70,2,FALSE)</f>
+      <c r="C8" s="114" t="str">
+        <f>VLOOKUP(A8,Planificación!$B$13:$F$70,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D8" s="165" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A8,Planificación!B$13:G$23,4,FALSE),FIND("_",VLOOKUP(A8,Planificación!B$13:G$23,4,FALSE),1)-1)," / ",VLOOKUP(A8,Planificación!B$13:G$23,3,FALSE))</f>
-        <v>CPROY / PP_PMC</v>
-      </c>
-      <c r="E8" s="99" t="str">
-        <f>VLOOKUP(A8,Planificación!B$13:G$23,5,FALSE)</f>
+      <c r="D8" s="237" t="str">
+        <f>CONCATENATE(LEFT(VLOOKUP(A8,Planificación!B$13:H$23,5,FALSE),FIND("_",VLOOKUP(A8,Planificación!B$13:H$23,5,FALSE),1)-1)," / ",VLOOKUP(A8,Planificación!B$13:H$23,3,FALSE))</f>
+        <v>CPROY / Desarrollo de Sistemas</v>
+      </c>
+      <c r="E8" s="114" t="str">
+        <f>VLOOKUP(A8,Planificación!B$13:H$23,6,FALSE)</f>
         <v>Roger</v>
       </c>
-      <c r="F8" s="99" t="str">
-        <f>VLOOKUP(A8,Planificación!$B$13:$G$23,6,FALSE)</f>
+      <c r="F8" s="114" t="str">
+        <f>VLOOKUP(A8,Planificación!$B$13:$H$23,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G8" s="100" t="s">
-        <v>202</v>
-      </c>
-      <c r="H8" s="167" t="s">
+      <c r="G8" s="115" t="s">
+        <v>201</v>
+      </c>
+      <c r="H8" s="157" t="s">
         <v>120</v>
       </c>
-      <c r="I8" s="167" t="s">
+      <c r="I8" s="157" t="s">
         <v>95</v>
       </c>
-      <c r="J8" s="166" t="str">
-        <f>VLOOKUP(A8,Planificación!B$13:G$23,6,FALSE)</f>
+      <c r="J8" s="157" t="str">
+        <f>VLOOKUP(A8,Planificación!B$13:H$23,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="K8" s="170"/>
-      <c r="L8" s="169">
-        <f>VLOOKUP(A8,Planificación!B$13:M$23,8,FALSE)</f>
+      <c r="K8" s="160"/>
+      <c r="L8" s="238">
+        <f>VLOOKUP(A8,Planificación!B$13:N$23,9,FALSE)</f>
         <v>42276</v>
       </c>
-      <c r="M8" s="169">
-        <f>VLOOKUP(A8,Planificación!B$13:M$23,11,FALSE)</f>
+      <c r="M8" s="238">
+        <f>VLOOKUP(A8,Planificación!B$13:N$23,12,FALSE)</f>
         <v>42276</v>
       </c>
-      <c r="N8" s="120"/>
-      <c r="O8" s="156" t="s">
+      <c r="N8" s="254">
+        <v>1</v>
+      </c>
+      <c r="O8" s="244" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="42" customHeight="1">
-      <c r="A9" s="97">
+      <c r="A9" s="243">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="98">
+      <c r="B9" s="96">
         <v>1</v>
       </c>
-      <c r="C9" s="118" t="str">
-        <f>VLOOKUP(B9,Planificación!$B$13:$E$70,2,FALSE)</f>
+      <c r="C9" s="97" t="str">
+        <f>VLOOKUP(A9,Planificación!$B$13:$F$70,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D9" s="165" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A9,Planificación!B$13:G$23,4,FALSE),FIND("_",VLOOKUP(A9,Planificación!B$13:G$23,4,FALSE),1)-1)," / ",VLOOKUP(A9,Planificación!B$13:G$23,3,FALSE))</f>
-        <v>REGRI / PP_PMC</v>
-      </c>
-      <c r="E9" s="99" t="str">
-        <f>VLOOKUP(A9,Planificación!B$13:G$23,5,FALSE)</f>
+      <c r="D9" s="155" t="str">
+        <f>CONCATENATE(LEFT(VLOOKUP(A9,Planificación!B$13:H$23,5,FALSE),FIND("_",VLOOKUP(A9,Planificación!B$13:H$23,5,FALSE),1)-1)," / ",VLOOKUP(A9,Planificación!B$13:H$23,3,FALSE))</f>
+        <v>REGRI / Desarrollo de Sistemas</v>
+      </c>
+      <c r="E9" s="97" t="str">
+        <f>VLOOKUP(A9,Planificación!B$13:H$23,6,FALSE)</f>
         <v>Roger</v>
       </c>
-      <c r="F9" s="99" t="str">
-        <f>VLOOKUP(A9,Planificación!$B$13:$G$23,6,FALSE)</f>
+      <c r="F9" s="97" t="str">
+        <f>VLOOKUP(A9,Planificación!$B$13:$H$23,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G9" s="119" t="s">
+      <c r="G9" s="115" t="s">
         <v>178</v>
       </c>
-      <c r="H9" s="167" t="s">
+      <c r="H9" s="157" t="s">
         <v>120</v>
       </c>
-      <c r="I9" s="167" t="s">
+      <c r="I9" s="157" t="s">
         <v>95</v>
       </c>
-      <c r="J9" s="166" t="str">
-        <f>VLOOKUP(A9,Planificación!B$13:G$23,6,FALSE)</f>
+      <c r="J9" s="156" t="str">
+        <f>VLOOKUP(A9,Planificación!B$13:H$23,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="K9" s="170"/>
-      <c r="L9" s="169">
-        <f>VLOOKUP(A9,Planificación!B$13:M$23,8,FALSE)</f>
+      <c r="K9" s="160"/>
+      <c r="L9" s="159">
+        <f>VLOOKUP(A9,Planificación!B$13:N$23,9,FALSE)</f>
         <v>42276</v>
       </c>
-      <c r="M9" s="169">
-        <f>VLOOKUP(A9,Planificación!B$13:M$23,11,FALSE)</f>
+      <c r="M9" s="159">
+        <f>VLOOKUP(A9,Planificación!B$13:N$23,12,FALSE)</f>
         <v>42276</v>
       </c>
-      <c r="N9" s="120"/>
-      <c r="O9" s="121"/>
-    </row>
-    <row r="10" spans="1:15" ht="42" customHeight="1">
-      <c r="A10" s="97">
+      <c r="N9" s="254">
+        <v>1</v>
+      </c>
+      <c r="O9" s="244" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="116" customFormat="1" ht="42" customHeight="1">
+      <c r="A10" s="243">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="98">
+      <c r="B10" s="236">
         <v>1</v>
       </c>
-      <c r="C10" s="99" t="str">
-        <f>VLOOKUP(B10,Planificación!$B$13:$E$70,2,FALSE)</f>
+      <c r="C10" s="114" t="str">
+        <f>VLOOKUP(A10,Planificación!$B$13:$F$70,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D10" s="165" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A10,Planificación!B$13:G$23,4,FALSE),FIND("_",VLOOKUP(A10,Planificación!B$13:G$23,4,FALSE),1)-1)," / ",VLOOKUP(A10,Planificación!B$13:G$23,3,FALSE))</f>
-        <v>ACCPRO / PP_PMC</v>
-      </c>
-      <c r="E10" s="99" t="str">
-        <f>VLOOKUP(A10,Planificación!B$13:G$23,5,FALSE)</f>
+      <c r="D10" s="237" t="str">
+        <f>CONCATENATE(LEFT(VLOOKUP(A10,Planificación!B$13:H$23,5,FALSE),FIND("_",VLOOKUP(A10,Planificación!B$13:H$23,5,FALSE),1)-1)," / ",VLOOKUP(A10,Planificación!B$13:H$23,3,FALSE))</f>
+        <v>ACCPRO / Desarrollo de Sistemas</v>
+      </c>
+      <c r="E10" s="114" t="str">
+        <f>VLOOKUP(A10,Planificación!B$13:H$23,6,FALSE)</f>
         <v>Roger</v>
       </c>
-      <c r="F10" s="99" t="str">
-        <f>VLOOKUP(A10,Planificación!$B$13:$G$23,6,FALSE)</f>
+      <c r="F10" s="114" t="str">
+        <f>VLOOKUP(A10,Planificación!$B$13:$H$23,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G10" s="100" t="s">
-        <v>191</v>
-      </c>
-      <c r="H10" s="166" t="s">
+      <c r="G10" s="115" t="s">
+        <v>202</v>
+      </c>
+      <c r="H10" s="157" t="s">
         <v>120</v>
       </c>
-      <c r="I10" s="166" t="s">
+      <c r="I10" s="157" t="s">
         <v>95</v>
       </c>
-      <c r="J10" s="166" t="str">
-        <f>VLOOKUP(A10,Planificación!B$13:G$23,6,FALSE)</f>
+      <c r="J10" s="157" t="str">
+        <f>VLOOKUP(A10,Planificación!B$13:H$23,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="K10" s="168"/>
-      <c r="L10" s="169">
-        <f>VLOOKUP(A10,Planificación!B$13:M$23,8,FALSE)</f>
+      <c r="K10" s="160"/>
+      <c r="L10" s="238">
+        <f>VLOOKUP(A10,Planificación!B$13:N$23,9,FALSE)</f>
         <v>42276</v>
       </c>
-      <c r="M10" s="169">
-        <f>VLOOKUP(A10,Planificación!B$13:M$23,11,FALSE)</f>
+      <c r="M10" s="238">
+        <f>VLOOKUP(A10,Planificación!B$13:N$23,12,FALSE)</f>
         <v>42276</v>
       </c>
-      <c r="N10" s="101"/>
-      <c r="O10" s="154" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="42" customHeight="1">
-      <c r="A11" s="97">
+      <c r="N10" s="254">
+        <v>1</v>
+      </c>
+      <c r="O10" s="244" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="116" customFormat="1" ht="42" customHeight="1">
+      <c r="A11" s="243">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="98">
+      <c r="B11" s="236">
         <v>1</v>
       </c>
-      <c r="C11" s="99" t="s">
-        <v>123</v>
-      </c>
-      <c r="D11" s="165" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A11,Planificación!B$13:G$23,4,FALSE),FIND("_",VLOOKUP(A11,Planificación!B$13:G$23,4,FALSE),1)-1)," / ",VLOOKUP(A11,Planificación!B$13:G$23,3,FALSE))</f>
-        <v>ACREPRO / PP_PMC</v>
-      </c>
-      <c r="E11" s="99" t="str">
-        <f>VLOOKUP(A11,Planificación!B$13:G$23,5,FALSE)</f>
+      <c r="C11" s="114" t="str">
+        <f>VLOOKUP(A11,Planificación!$B$13:$F$70,3,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D11" s="237" t="str">
+        <f>CONCATENATE(LEFT(VLOOKUP(A11,Planificación!B$13:H$23,5,FALSE),FIND("_",VLOOKUP(A11,Planificación!B$13:H$23,5,FALSE),1)-1)," / ",VLOOKUP(A11,Planificación!B$13:H$23,3,FALSE))</f>
+        <v>ACREPRO / Desarrollo de Sistemas</v>
+      </c>
+      <c r="E11" s="114" t="str">
+        <f>VLOOKUP(A11,Planificación!B$13:H$23,6,FALSE)</f>
         <v>Roger</v>
       </c>
-      <c r="F11" s="99" t="str">
-        <f>VLOOKUP(A11,Planificación!$B$13:$G$23,6,FALSE)</f>
+      <c r="F11" s="114" t="str">
+        <f>VLOOKUP(A11,Planificación!$B$13:$H$23,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G11" s="100" t="s">
-        <v>191</v>
-      </c>
-      <c r="H11" s="166" t="s">
+      <c r="G11" s="115" t="s">
+        <v>202</v>
+      </c>
+      <c r="H11" s="157" t="s">
         <v>120</v>
       </c>
-      <c r="I11" s="166" t="s">
+      <c r="I11" s="157" t="s">
         <v>95</v>
       </c>
-      <c r="J11" s="166" t="str">
-        <f>VLOOKUP(A11,Planificación!B$13:G$23,6,FALSE)</f>
+      <c r="J11" s="157" t="str">
+        <f>VLOOKUP(A11,Planificación!B$13:H$23,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="K11" s="168"/>
-      <c r="L11" s="169">
-        <f>VLOOKUP(A11,Planificación!B$13:M$23,8,FALSE)</f>
+      <c r="K11" s="160"/>
+      <c r="L11" s="238">
+        <f>VLOOKUP(A11,Planificación!B$13:N$23,9,FALSE)</f>
         <v>42276</v>
       </c>
-      <c r="M11" s="169">
-        <f>VLOOKUP(A11,Planificación!B$13:M$23,11,FALSE)</f>
+      <c r="M11" s="238">
+        <f>VLOOKUP(A11,Planificación!B$13:N$23,12,FALSE)</f>
         <v>42276</v>
       </c>
-      <c r="N11" s="101"/>
-      <c r="O11" s="154" t="s">
-        <v>204</v>
+      <c r="N11" s="254">
+        <v>1</v>
+      </c>
+      <c r="O11" s="244" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="42" customHeight="1">
-      <c r="A12" s="97">
+      <c r="A12" s="243">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="98">
+      <c r="B12" s="96">
         <v>1</v>
       </c>
-      <c r="C12" s="99" t="s">
-        <v>123</v>
-      </c>
-      <c r="D12" s="165" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A12,Planificación!B$13:G$23,4,FALSE),FIND("_",VLOOKUP(A12,Planificación!B$13:G$23,4,FALSE),1)-1)," / ",VLOOKUP(A12,Planificación!B$13:G$23,3,FALSE))</f>
-        <v>AREXT / PROY</v>
-      </c>
-      <c r="E12" s="99" t="str">
-        <f>VLOOKUP(A12,Planificación!B$13:G$23,5,FALSE)</f>
+      <c r="C12" s="97" t="str">
+        <f>VLOOKUP(A12,Planificación!$B$13:$F$70,3,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D12" s="155" t="str">
+        <f>CONCATENATE(LEFT(VLOOKUP(A12,Planificación!B$13:H$23,5,FALSE),FIND("_",VLOOKUP(A12,Planificación!B$13:H$23,5,FALSE),1)-1)," / ",VLOOKUP(A12,Planificación!B$13:H$23,3,FALSE))</f>
+        <v>AREXT / Desarrollo de Sistemas</v>
+      </c>
+      <c r="E12" s="97" t="str">
+        <f>VLOOKUP(A12,Planificación!B$13:H$23,6,FALSE)</f>
         <v>Roger</v>
       </c>
-      <c r="F12" s="99" t="str">
-        <f>VLOOKUP(A12,Planificación!$B$13:$G$23,6,FALSE)</f>
+      <c r="F12" s="97" t="str">
+        <f>VLOOKUP(A12,Planificación!$B$13:$H$23,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G12" s="100" t="s">
+      <c r="G12" s="98" t="s">
         <v>177</v>
       </c>
-      <c r="H12" s="166" t="s">
+      <c r="H12" s="156" t="s">
         <v>128</v>
       </c>
-      <c r="I12" s="166" t="s">
+      <c r="I12" s="156" t="s">
         <v>95</v>
       </c>
-      <c r="J12" s="166" t="str">
-        <f>VLOOKUP(A12,Planificación!B$13:G$23,6,FALSE)</f>
+      <c r="J12" s="156" t="str">
+        <f>VLOOKUP(A12,Planificación!B$13:H$23,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="K12" s="168"/>
-      <c r="L12" s="169">
-        <f>VLOOKUP(A12,Planificación!B$13:M$23,8,FALSE)</f>
+      <c r="K12" s="158"/>
+      <c r="L12" s="159">
+        <f>VLOOKUP(A12,Planificación!B$13:N$23,9,FALSE)</f>
         <v>42276</v>
       </c>
-      <c r="M12" s="169">
-        <f>VLOOKUP(A12,Planificación!B$13:M$23,11,FALSE)</f>
+      <c r="M12" s="159">
+        <f>VLOOKUP(A12,Planificación!B$13:N$23,12,FALSE)</f>
         <v>42276</v>
       </c>
-      <c r="N12" s="101"/>
-      <c r="O12" s="154"/>
+      <c r="N12" s="254">
+        <v>1</v>
+      </c>
+      <c r="O12" s="244" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="13" spans="1:15" ht="42" customHeight="1">
-      <c r="A13" s="97">
+      <c r="A13" s="243">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="98">
+      <c r="B13" s="96">
         <v>1</v>
       </c>
-      <c r="C13" s="99" t="str">
-        <f>VLOOKUP(B13,Planificación!$B$13:$E$70,2,FALSE)</f>
+      <c r="C13" s="97" t="str">
+        <f>VLOOKUP(A13,Planificación!$B$13:$F$70,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D13" s="165" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A13,Planificación!B$13:G$23,4,FALSE),FIND("_",VLOOKUP(A13,Planificación!B$13:G$23,4,FALSE),1)-1)," / ",VLOOKUP(A13,Planificación!B$13:G$23,3,FALSE))</f>
-        <v>IAQUIN / PROY</v>
-      </c>
-      <c r="E13" s="99" t="str">
-        <f>VLOOKUP(A13,Planificación!B$13:G$23,5,FALSE)</f>
+      <c r="D13" s="155" t="str">
+        <f>CONCATENATE(LEFT(VLOOKUP(A13,Planificación!B$13:H$23,5,FALSE),FIND("_",VLOOKUP(A13,Planificación!B$13:H$23,5,FALSE),1)-1)," / ",VLOOKUP(A13,Planificación!B$13:H$23,3,FALSE))</f>
+        <v>IAQUIN / Desarrollo de Sistemas</v>
+      </c>
+      <c r="E13" s="97" t="str">
+        <f>VLOOKUP(A13,Planificación!B$13:H$23,6,FALSE)</f>
         <v>Roger</v>
       </c>
-      <c r="F13" s="99" t="str">
-        <f>VLOOKUP(A13,Planificación!$B$13:$G$23,6,FALSE)</f>
+      <c r="F13" s="97" t="str">
+        <f>VLOOKUP(A13,Planificación!$B$13:$H$23,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G13" s="100" t="s">
+      <c r="G13" s="98" t="s">
         <v>177</v>
       </c>
-      <c r="H13" s="166" t="s">
+      <c r="H13" s="156" t="s">
         <v>120</v>
       </c>
-      <c r="I13" s="166" t="s">
+      <c r="I13" s="156" t="s">
         <v>95</v>
       </c>
-      <c r="J13" s="166" t="str">
-        <f>VLOOKUP(A13,Planificación!B$13:G$23,6,FALSE)</f>
+      <c r="J13" s="156" t="str">
+        <f>VLOOKUP(A13,Planificación!B$13:H$23,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="K13" s="168"/>
-      <c r="L13" s="169">
-        <f>VLOOKUP(A13,Planificación!B$13:M$23,8,FALSE)</f>
+      <c r="K13" s="158"/>
+      <c r="L13" s="159">
+        <f>VLOOKUP(A13,Planificación!B$13:N$23,9,FALSE)</f>
         <v>42276</v>
       </c>
-      <c r="M13" s="169">
-        <f>VLOOKUP(A13,Planificación!B$13:M$23,11,FALSE)</f>
+      <c r="M13" s="159">
+        <f>VLOOKUP(A13,Planificación!B$13:N$23,12,FALSE)</f>
         <v>42276</v>
       </c>
-      <c r="N13" s="101"/>
-      <c r="O13" s="154"/>
-    </row>
-    <row r="14" spans="1:15" s="122" customFormat="1" ht="42" customHeight="1">
-      <c r="A14" s="97">
+      <c r="N13" s="254">
+        <v>1</v>
+      </c>
+      <c r="O13" s="244" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="116" customFormat="1" ht="42" customHeight="1">
+      <c r="A14" s="243">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B14" s="98">
+      <c r="B14" s="96">
         <v>1</v>
       </c>
-      <c r="C14" s="118" t="str">
-        <f>VLOOKUP(B14,Planificación!$B$13:$E$70,2,FALSE)</f>
+      <c r="C14" s="97" t="str">
+        <f>VLOOKUP(A14,Planificación!$B$13:$F$70,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D14" s="165" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A14,Planificación!B$13:G$23,4,FALSE),FIND("_",VLOOKUP(A14,Planificación!B$13:G$23,4,FALSE),1)-1)," / ",VLOOKUP(A14,Planificación!B$13:G$23,3,FALSE))</f>
-        <v>ARINT / PROY</v>
-      </c>
-      <c r="E14" s="99" t="str">
-        <f>VLOOKUP(A14,Planificación!B$13:G$23,5,FALSE)</f>
+      <c r="D14" s="155" t="str">
+        <f>CONCATENATE(LEFT(VLOOKUP(A14,Planificación!B$13:H$23,5,FALSE),FIND("_",VLOOKUP(A14,Planificación!B$13:H$23,5,FALSE),1)-1)," / ",VLOOKUP(A14,Planificación!B$13:H$23,3,FALSE))</f>
+        <v>ARINT / Desarrollo de Sistemas</v>
+      </c>
+      <c r="E14" s="97" t="str">
+        <f>VLOOKUP(A14,Planificación!B$13:H$23,6,FALSE)</f>
         <v>Roger</v>
       </c>
-      <c r="F14" s="99" t="str">
-        <f>VLOOKUP(A14,Planificación!$B$13:$G$23,6,FALSE)</f>
+      <c r="F14" s="97" t="str">
+        <f>VLOOKUP(A14,Planificación!$B$13:$H$23,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G14" s="100" t="s">
+      <c r="G14" s="98" t="s">
         <v>177</v>
       </c>
-      <c r="H14" s="167" t="s">
+      <c r="H14" s="157" t="s">
         <v>120</v>
       </c>
-      <c r="I14" s="167" t="s">
+      <c r="I14" s="157" t="s">
         <v>95</v>
       </c>
-      <c r="J14" s="166" t="str">
-        <f>VLOOKUP(A14,Planificación!B$13:G$23,6,FALSE)</f>
+      <c r="J14" s="156" t="str">
+        <f>VLOOKUP(A14,Planificación!B$13:H$23,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="K14" s="170"/>
-      <c r="L14" s="169">
-        <f>VLOOKUP(A14,Planificación!B$13:M$23,8,FALSE)</f>
+      <c r="K14" s="160"/>
+      <c r="L14" s="159">
+        <f>VLOOKUP(A14,Planificación!B$13:N$23,9,FALSE)</f>
         <v>42276</v>
       </c>
-      <c r="M14" s="169">
-        <f>VLOOKUP(A14,Planificación!B$13:M$23,11,FALSE)</f>
+      <c r="M14" s="159">
+        <f>VLOOKUP(A14,Planificación!B$13:N$23,12,FALSE)</f>
         <v>42276</v>
       </c>
-      <c r="N14" s="120"/>
-      <c r="O14" s="156"/>
-    </row>
-    <row r="15" spans="1:15" ht="42" customHeight="1">
-      <c r="A15" s="97">
+      <c r="N14" s="254">
+        <v>1</v>
+      </c>
+      <c r="O14" s="244" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="42" customHeight="1" thickBot="1">
+      <c r="A15" s="246">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B15" s="98">
+      <c r="B15" s="247">
         <v>1</v>
       </c>
-      <c r="C15" s="99" t="str">
-        <f>VLOOKUP(B15,Planificación!$B$13:$E$70,2,FALSE)</f>
+      <c r="C15" s="248" t="str">
+        <f>VLOOKUP(A15,Planificación!$B$13:$F$70,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D15" s="165" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A15,Planificación!B$13:G$23,4,FALSE),FIND("_",VLOOKUP(A15,Planificación!B$13:G$23,4,FALSE),1)-1)," / ",VLOOKUP(A15,Planificación!B$13:G$23,3,FALSE))</f>
-        <v>ACENTRE / PROY</v>
-      </c>
-      <c r="E15" s="99" t="str">
-        <f>VLOOKUP(A15,Planificación!B$13:G$23,5,FALSE)</f>
+      <c r="D15" s="249" t="str">
+        <f>CONCATENATE(LEFT(VLOOKUP(A15,Planificación!B$13:H$23,5,FALSE),FIND("_",VLOOKUP(A15,Planificación!B$13:H$23,5,FALSE),1)-1)," / ",VLOOKUP(A15,Planificación!B$13:H$23,3,FALSE))</f>
+        <v>ACENTRE / Desarrollo de Sistemas</v>
+      </c>
+      <c r="E15" s="248" t="str">
+        <f>VLOOKUP(A15,Planificación!B$13:H$23,6,FALSE)</f>
         <v>Roger</v>
       </c>
-      <c r="F15" s="99" t="str">
-        <f>VLOOKUP(A15,Planificación!$B$13:$G$23,6,FALSE)</f>
+      <c r="F15" s="248" t="str">
+        <f>VLOOKUP(A15,Planificación!$B$13:$H$23,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G15" s="100" t="s">
+      <c r="G15" s="250" t="s">
         <v>177</v>
       </c>
-      <c r="H15" s="166" t="s">
+      <c r="H15" s="251" t="s">
         <v>120</v>
       </c>
-      <c r="I15" s="166" t="s">
+      <c r="I15" s="251" t="s">
         <v>95</v>
       </c>
-      <c r="J15" s="166" t="str">
-        <f>VLOOKUP(A15,Planificación!B$13:G$23,6,FALSE)</f>
+      <c r="J15" s="251" t="str">
+        <f>VLOOKUP(A15,Planificación!B$13:H$23,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="K15" s="168"/>
-      <c r="L15" s="169">
-        <f>VLOOKUP(A15,Planificación!B$13:M$23,8,FALSE)</f>
+      <c r="K15" s="252"/>
+      <c r="L15" s="253">
+        <f>VLOOKUP(A15,Planificación!B$13:N$23,9,FALSE)</f>
         <v>42276</v>
       </c>
-      <c r="M15" s="169">
-        <f>VLOOKUP(A15,Planificación!B$13:M$23,11,FALSE)</f>
+      <c r="M15" s="253">
+        <f>VLOOKUP(A15,Planificación!B$13:N$23,12,FALSE)</f>
         <v>42276</v>
       </c>
-      <c r="N15" s="101"/>
-      <c r="O15" s="111"/>
+      <c r="N15" s="255">
+        <v>1</v>
+      </c>
+      <c r="O15" s="256" t="s">
+        <v>203</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:N1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="N5:N15">
+    <cfRule type="iconSet" priority="1">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="95"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H15">
       <formula1>TiposNC</formula1>
@@ -9929,8 +10149,8 @@
   <sheetPr codeName="Hoja5"/>
   <dimension ref="A2:P62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -9955,27 +10175,27 @@
       <c r="G2" s="233"/>
       <c r="H2" s="233"/>
       <c r="I2" s="233"/>
-      <c r="J2" s="159"/>
-      <c r="K2" s="159"/>
-      <c r="L2" s="159"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" ht="34.5" customHeight="1">
       <c r="A3" s="11"/>
     </row>
     <row r="4" spans="1:12" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="11"/>
-      <c r="C4" s="227" t="s">
+      <c r="C4" s="230" t="s">
         <v>135</v>
       </c>
-      <c r="D4" s="227"/>
-      <c r="E4" s="228" t="str">
-        <f>IF(Planificación!D6&lt;&gt;"",Planificación!D6,"")</f>
+      <c r="D4" s="230"/>
+      <c r="E4" s="220" t="str">
+        <f>IF(Planificación!E6&lt;&gt;"",Planificación!E6,"")</f>
         <v>Roger Apaéstegui Ortega</v>
       </c>
-      <c r="F4" s="229"/>
-      <c r="G4" s="229"/>
-      <c r="H4" s="229"/>
-      <c r="I4" s="230"/>
+      <c r="F4" s="221"/>
+      <c r="G4" s="221"/>
+      <c r="H4" s="221"/>
+      <c r="I4" s="222"/>
     </row>
     <row r="5" spans="1:12" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="11"/>
@@ -9984,70 +10204,70 @@
         <v>Analista de Calidad</v>
       </c>
       <c r="D5" s="232"/>
-      <c r="E5" s="228" t="str">
-        <f>IF(Planificación!D7&lt;&gt;"",Planificación!D7,"")</f>
+      <c r="E5" s="220" t="str">
+        <f>IF(Planificación!E7&lt;&gt;"",Planificación!E7,"")</f>
         <v>Julio Leonardo Paredes</v>
       </c>
-      <c r="F5" s="229"/>
-      <c r="G5" s="229"/>
-      <c r="H5" s="229"/>
-      <c r="I5" s="230"/>
+      <c r="F5" s="221"/>
+      <c r="G5" s="221"/>
+      <c r="H5" s="221"/>
+      <c r="I5" s="222"/>
     </row>
     <row r="6" spans="1:12" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A6" s="11"/>
-      <c r="C6" s="235" t="s">
+      <c r="C6" s="218" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="236"/>
-      <c r="E6" s="228" t="str">
-        <f>IF(Planificación!D8&lt;&gt;"",Planificación!D8,"")</f>
+      <c r="D6" s="219"/>
+      <c r="E6" s="220" t="str">
+        <f>IF(Planificación!E8&lt;&gt;"",Planificación!E8,"")</f>
         <v>Julio Leonardo Paredes,  Roger Apaéstegui Ortega</v>
       </c>
-      <c r="F6" s="229"/>
-      <c r="G6" s="229"/>
-      <c r="H6" s="229"/>
-      <c r="I6" s="230"/>
+      <c r="F6" s="221"/>
+      <c r="G6" s="221"/>
+      <c r="H6" s="221"/>
+      <c r="I6" s="222"/>
     </row>
     <row r="7" spans="1:12" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A7" s="11"/>
-      <c r="C7" s="238" t="s">
+      <c r="C7" s="224" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="238"/>
-      <c r="E7" s="239">
-        <f>IF(Planificación!D9&lt;&gt;"",Planificación!D9,"")</f>
+      <c r="D7" s="224"/>
+      <c r="E7" s="225">
+        <f>IF(Planificación!E9&lt;&gt;"",Planificación!E9,"")</f>
         <v>42262</v>
       </c>
-      <c r="F7" s="240"/>
-      <c r="G7" s="241" t="s">
+      <c r="F7" s="226"/>
+      <c r="G7" s="227" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="242"/>
-      <c r="I7" s="102">
-        <f>IF(Planificación!F9&lt;&gt;"",Planificación!F9,"")</f>
+      <c r="H7" s="228"/>
+      <c r="I7" s="99">
+        <f>IF(Planificación!G9&lt;&gt;"",Planificación!G9,"")</f>
         <v>42276</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A8" s="11"/>
-      <c r="C8" s="238" t="s">
+      <c r="C8" s="224" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="243"/>
-      <c r="E8" s="228" t="str">
-        <f>IF(Planificación!D10&lt;&gt;"",Planificación!D10,"")</f>
+      <c r="D8" s="229"/>
+      <c r="E8" s="220" t="str">
+        <f>IF(Planificación!E10&lt;&gt;"",Planificación!E10,"")</f>
         <v>SETIEMBRE</v>
       </c>
-      <c r="F8" s="229"/>
-      <c r="G8" s="229"/>
-      <c r="H8" s="229"/>
-      <c r="I8" s="230"/>
+      <c r="F8" s="221"/>
+      <c r="G8" s="221"/>
+      <c r="H8" s="221"/>
+      <c r="I8" s="222"/>
     </row>
     <row r="13" spans="1:12" ht="15">
-      <c r="C13" s="237" t="s">
+      <c r="C13" s="223" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="237"/>
+      <c r="D13" s="223"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -10056,43 +10276,43 @@
       <c r="J13" s="9"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="C14" s="104" t="s">
+      <c r="C14" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="163">
+      <c r="D14" s="153">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="14.25" customHeight="1">
-      <c r="C15" s="104" t="s">
+      <c r="C15" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="161">
+      <c r="D15" s="151">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="C16" s="104" t="s">
+      <c r="C16" s="101" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="162">
+      <c r="D16" s="152">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="3:14">
-      <c r="C17" s="104" t="s">
+      <c r="C17" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="103">
+      <c r="D17" s="100">
         <f>(D16/(IF(D14=0,1,D14)))</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="18" spans="3:14">
-      <c r="C18" s="104" t="s">
+      <c r="C18" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="103">
+      <c r="D18" s="100">
         <f>1-D17</f>
         <v>0.66666666666666674</v>
       </c>
@@ -10103,194 +10323,199 @@
       <c r="E19" s="9"/>
     </row>
     <row r="20" spans="3:14">
-      <c r="C20" s="113"/>
+      <c r="C20" s="109"/>
       <c r="D20" s="23"/>
       <c r="E20" s="9"/>
     </row>
     <row r="21" spans="3:14">
-      <c r="C21" s="113"/>
+      <c r="C21" s="109"/>
       <c r="D21" s="23"/>
       <c r="E21" s="9"/>
     </row>
     <row r="22" spans="3:14">
-      <c r="C22" s="113"/>
+      <c r="C22" s="109"/>
       <c r="D22" s="23"/>
       <c r="E22" s="9"/>
-      <c r="N22" s="157"/>
+      <c r="N22" s="147"/>
     </row>
     <row r="23" spans="3:14">
-      <c r="C23" s="113"/>
+      <c r="C23" s="109"/>
       <c r="D23" s="23"/>
       <c r="E23" s="9"/>
     </row>
     <row r="24" spans="3:14">
-      <c r="C24" s="113"/>
+      <c r="C24" s="109"/>
       <c r="D24" s="23"/>
       <c r="E24" s="9"/>
     </row>
     <row r="26" spans="3:14" ht="15" customHeight="1">
-      <c r="C26" s="234" t="s">
+      <c r="C26" s="217" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="234"/>
+      <c r="D26" s="217"/>
     </row>
     <row r="27" spans="3:14">
-      <c r="C27" s="31" t="s">
+      <c r="C27" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="30" t="s">
+      <c r="D27" s="29" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="28" spans="3:14">
-      <c r="C28" s="105" t="s">
+      <c r="C28" s="102" t="s">
         <v>120</v>
       </c>
-      <c r="D28" s="164">
+      <c r="D28" s="154">
         <f>COUNTIFS('Seguimiento de NC'!G5:G15,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!H5:H15,C28)</f>
         <v>6</v>
       </c>
     </row>
     <row r="29" spans="3:14">
-      <c r="C29" s="105" t="s">
+      <c r="C29" s="102" t="s">
         <v>121</v>
       </c>
-      <c r="D29" s="164">
+      <c r="D29" s="154">
         <f>COUNTIFS('Seguimiento de NC'!G5:G15,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!H5:H15,C29)</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="3:14">
-      <c r="C30" s="105" t="s">
+      <c r="C30" s="102" t="s">
         <v>122</v>
       </c>
-      <c r="D30" s="164">
+      <c r="D30" s="154">
         <f>COUNTIFS('Seguimiento de NC'!G5:G15,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!H5:H15,C30)</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="3:14">
-      <c r="C31" s="105" t="s">
+      <c r="C31" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="164">
+      <c r="D31" s="154">
         <f>COUNTIFS('Seguimiento de NC'!G5:G15,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!H5:H15,C31)</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="3:14">
-      <c r="C32" s="105" t="s">
+      <c r="C32" s="102" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="164">
+      <c r="D32" s="154">
         <f>COUNTIFS('Seguimiento de NC'!G5:G15,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!H5:H15,C32)</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="3:16">
-      <c r="C33" s="105" t="s">
+      <c r="C33" s="102" t="s">
         <v>128</v>
       </c>
-      <c r="D33" s="164">
+      <c r="D33" s="154">
         <f>COUNTIFS('Seguimiento de NC'!G5:G15,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!H5:H15,C33)</f>
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="3:16">
-      <c r="C34" s="106" t="s">
+      <c r="C34" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="116">
+      <c r="D34" s="112">
         <f>SUM(D28:D33)</f>
         <v>7</v>
       </c>
     </row>
     <row r="40" spans="3:16" ht="15">
-      <c r="C40" s="234" t="s">
+      <c r="C40" s="217" t="s">
         <v>108</v>
       </c>
-      <c r="D40" s="234"/>
-      <c r="P40" s="157"/>
+      <c r="D40" s="217"/>
+      <c r="P40" s="147"/>
     </row>
     <row r="41" spans="3:16">
-      <c r="C41" s="106" t="s">
+      <c r="C41" s="103" t="s">
         <v>109</v>
       </c>
-      <c r="D41" s="115">
-        <f>Planificación!N7</f>
+      <c r="D41" s="111">
+        <f>Planificación!O7</f>
         <v>88</v>
       </c>
     </row>
     <row r="42" spans="3:16">
-      <c r="C42" s="106" t="s">
+      <c r="C42" s="103" t="s">
         <v>110</v>
       </c>
-      <c r="D42" s="115">
-        <f>Planificación!N8</f>
+      <c r="D42" s="111">
+        <f>Planificación!O8</f>
         <v>70</v>
       </c>
     </row>
     <row r="43" spans="3:16">
-      <c r="C43" s="106" t="s">
+      <c r="C43" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="D43" s="115">
+      <c r="D43" s="111">
         <f>D42</f>
         <v>70</v>
       </c>
     </row>
     <row r="57" spans="3:4" ht="15">
-      <c r="C57" s="234" t="s">
+      <c r="C57" s="217" t="s">
         <v>119</v>
       </c>
-      <c r="D57" s="234"/>
+      <c r="D57" s="217"/>
     </row>
     <row r="58" spans="3:4">
-      <c r="C58" s="31" t="s">
+      <c r="C58" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D58" s="30" t="s">
+      <c r="D58" s="29" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="59" spans="3:4">
-      <c r="C59" s="107" t="s">
+      <c r="C59" s="104" t="s">
         <v>95</v>
       </c>
-      <c r="D59" s="158">
+      <c r="D59" s="148">
         <f>COUNTIFS('Seguimiento de NC'!G5:G15,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!I5:I15,C59)</f>
         <v>7</v>
       </c>
     </row>
     <row r="60" spans="3:4">
-      <c r="C60" s="107" t="s">
+      <c r="C60" s="104" t="s">
         <v>97</v>
       </c>
-      <c r="D60" s="115">
+      <c r="D60" s="111">
         <f>COUNTIFS('Seguimiento de NC'!G5:G15,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!I5:I15,C60)</f>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="3:4">
-      <c r="C61" s="107" t="s">
+      <c r="C61" s="104" t="s">
         <v>98</v>
       </c>
-      <c r="D61" s="115">
+      <c r="D61" s="111">
         <f>COUNTIFS('Seguimiento de NC'!G5:G15,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!I5:I15,C61)</f>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="3:4">
-      <c r="C62" s="106" t="s">
+      <c r="C62" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="D62" s="116">
+      <c r="D62" s="112">
         <f>SUM(D59:D61)</f>
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="C2:I2"/>
     <mergeCell ref="C57:D57"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:I6"/>
@@ -10302,11 +10527,6 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="C2:I2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10347,448 +10567,448 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="119" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="151"/>
-      <c r="C2" s="125" t="s">
+      <c r="B2" s="145"/>
+      <c r="C2" s="119" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="125" t="s">
+      <c r="E2" s="119" t="s">
         <v>145</v>
       </c>
-      <c r="G2" s="124" t="s">
+      <c r="G2" s="118" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="112"/>
-      <c r="I2" s="124" t="s">
+      <c r="H2" s="108"/>
+      <c r="I2" s="118" t="s">
         <v>96</v>
       </c>
-      <c r="J2" s="112"/>
-      <c r="K2" s="125" t="s">
+      <c r="J2" s="108"/>
+      <c r="K2" s="119" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A3" s="148" t="s">
+      <c r="A3" s="142" t="s">
         <v>123</v>
       </c>
-      <c r="B3" s="150"/>
-      <c r="C3" s="149" t="s">
+      <c r="B3" s="144"/>
+      <c r="C3" s="143" t="s">
         <v>131</v>
       </c>
-      <c r="E3" s="126" t="s">
+      <c r="E3" s="120" t="s">
         <v>162</v>
       </c>
-      <c r="G3" s="107" t="s">
+      <c r="G3" s="104" t="s">
         <v>95</v>
       </c>
-      <c r="H3" s="112"/>
-      <c r="I3" s="107" t="s">
+      <c r="H3" s="108"/>
+      <c r="I3" s="104" t="s">
         <v>128</v>
       </c>
-      <c r="J3" s="112"/>
-      <c r="K3" s="123" t="s">
+      <c r="J3" s="108"/>
+      <c r="K3" s="117" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A4" s="145"/>
-      <c r="B4" s="145"/>
-      <c r="C4" s="149" t="s">
+      <c r="A4" s="139"/>
+      <c r="B4" s="139"/>
+      <c r="C4" s="143" t="s">
         <v>132</v>
       </c>
-      <c r="D4" s="112"/>
-      <c r="E4" s="126" t="s">
+      <c r="D4" s="108"/>
+      <c r="E4" s="120" t="s">
         <v>146</v>
       </c>
-      <c r="G4" s="107" t="s">
+      <c r="G4" s="104" t="s">
         <v>97</v>
       </c>
-      <c r="H4" s="112"/>
-      <c r="I4" s="107" t="s">
+      <c r="H4" s="108"/>
+      <c r="I4" s="104" t="s">
         <v>120</v>
       </c>
-      <c r="J4" s="112"/>
-      <c r="K4" s="123" t="s">
+      <c r="J4" s="108"/>
+      <c r="K4" s="117" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A5" s="145"/>
-      <c r="B5" s="145"/>
-      <c r="C5" s="149" t="s">
+      <c r="A5" s="139"/>
+      <c r="B5" s="139"/>
+      <c r="C5" s="143" t="s">
         <v>130</v>
       </c>
-      <c r="D5" s="112"/>
-      <c r="E5" s="139" t="s">
+      <c r="D5" s="108"/>
+      <c r="E5" s="133" t="s">
         <v>163</v>
       </c>
-      <c r="G5" s="107" t="s">
+      <c r="G5" s="104" t="s">
         <v>98</v>
       </c>
-      <c r="H5" s="112"/>
-      <c r="I5" s="107" t="s">
+      <c r="H5" s="108"/>
+      <c r="I5" s="104" t="s">
         <v>121</v>
       </c>
-      <c r="J5" s="112"/>
-      <c r="K5" s="123" t="s">
+      <c r="J5" s="108"/>
+      <c r="K5" s="117" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A6" s="145"/>
-      <c r="B6" s="145"/>
-      <c r="C6" s="149" t="s">
+      <c r="A6" s="139"/>
+      <c r="B6" s="139"/>
+      <c r="C6" s="143" t="s">
         <v>133</v>
       </c>
-      <c r="D6" s="112"/>
-      <c r="E6" s="126" t="s">
+      <c r="D6" s="108"/>
+      <c r="E6" s="120" t="s">
         <v>150</v>
       </c>
-      <c r="H6" s="112"/>
-      <c r="I6" s="107" t="s">
+      <c r="H6" s="108"/>
+      <c r="I6" s="104" t="s">
         <v>122</v>
       </c>
-      <c r="J6" s="112"/>
-      <c r="K6" s="140"/>
+      <c r="J6" s="108"/>
+      <c r="K6" s="134"/>
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A7" s="145"/>
-      <c r="B7" s="145"/>
-      <c r="C7" s="149" t="s">
+      <c r="A7" s="139"/>
+      <c r="B7" s="139"/>
+      <c r="C7" s="143" t="s">
         <v>134</v>
       </c>
-      <c r="D7" s="112"/>
-      <c r="E7" s="126" t="s">
+      <c r="D7" s="108"/>
+      <c r="E7" s="120" t="s">
         <v>147</v>
       </c>
-      <c r="H7" s="112"/>
-      <c r="I7" s="107" t="s">
+      <c r="H7" s="108"/>
+      <c r="I7" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="112"/>
-      <c r="K7" s="112"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="108"/>
     </row>
     <row r="8" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A8" s="145"/>
-      <c r="B8" s="145"/>
-      <c r="C8" s="160" t="s">
+      <c r="A8" s="139"/>
+      <c r="B8" s="139"/>
+      <c r="C8" s="150" t="s">
         <v>179</v>
       </c>
-      <c r="D8" s="112"/>
-      <c r="E8" s="126" t="s">
+      <c r="D8" s="108"/>
+      <c r="E8" s="120" t="s">
         <v>164</v>
       </c>
-      <c r="H8" s="112"/>
-      <c r="I8" s="107" t="s">
+      <c r="H8" s="108"/>
+      <c r="I8" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="J8" s="112"/>
-      <c r="K8" s="112"/>
+      <c r="J8" s="108"/>
+      <c r="K8" s="108"/>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A9" s="145"/>
-      <c r="B9" s="145"/>
-      <c r="C9" s="145"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="126" t="s">
+      <c r="A9" s="139"/>
+      <c r="B9" s="139"/>
+      <c r="C9" s="139"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="120" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A10" s="145"/>
-      <c r="B10" s="145"/>
-      <c r="C10" s="145"/>
-      <c r="D10" s="112"/>
-      <c r="E10" s="126" t="s">
+      <c r="A10" s="139"/>
+      <c r="B10" s="139"/>
+      <c r="C10" s="139"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="120" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A11" s="145"/>
-      <c r="B11" s="145"/>
-      <c r="C11" s="145"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="126" t="s">
+      <c r="A11" s="139"/>
+      <c r="B11" s="139"/>
+      <c r="C11" s="139"/>
+      <c r="D11" s="108"/>
+      <c r="E11" s="120" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A12" s="145"/>
-      <c r="B12" s="145"/>
-      <c r="C12" s="145"/>
-      <c r="D12" s="112"/>
-      <c r="E12" s="141" t="s">
+      <c r="A12" s="139"/>
+      <c r="B12" s="139"/>
+      <c r="C12" s="139"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="135" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A13" s="145"/>
-      <c r="B13" s="145"/>
-      <c r="C13" s="145"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="141" t="s">
+      <c r="A13" s="139"/>
+      <c r="B13" s="139"/>
+      <c r="C13" s="139"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="135" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A14" s="145"/>
-      <c r="B14" s="145"/>
-      <c r="C14" s="145"/>
-      <c r="D14" s="112"/>
-      <c r="E14" s="141" t="s">
+      <c r="A14" s="139"/>
+      <c r="B14" s="139"/>
+      <c r="C14" s="139"/>
+      <c r="D14" s="108"/>
+      <c r="E14" s="135" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A15" s="145"/>
-      <c r="B15" s="145"/>
-      <c r="C15" s="145"/>
-      <c r="D15" s="112"/>
-      <c r="E15" s="141" t="s">
+      <c r="A15" s="139"/>
+      <c r="B15" s="139"/>
+      <c r="C15" s="139"/>
+      <c r="D15" s="108"/>
+      <c r="E15" s="135" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A16" s="145"/>
-      <c r="B16" s="145"/>
-      <c r="C16" s="145"/>
-      <c r="D16" s="112"/>
-      <c r="E16" s="141" t="s">
+      <c r="A16" s="139"/>
+      <c r="B16" s="139"/>
+      <c r="C16" s="139"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="135" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A17" s="145"/>
-      <c r="B17" s="145"/>
-      <c r="C17" s="145"/>
-      <c r="D17" s="112"/>
-      <c r="E17" s="141" t="s">
+      <c r="A17" s="139"/>
+      <c r="B17" s="139"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="108"/>
+      <c r="E17" s="135" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A18" s="145"/>
-      <c r="B18" s="145"/>
-      <c r="C18" s="145"/>
-      <c r="D18" s="112"/>
-      <c r="E18" s="141" t="s">
+      <c r="A18" s="139"/>
+      <c r="B18" s="139"/>
+      <c r="C18" s="139"/>
+      <c r="D18" s="108"/>
+      <c r="E18" s="135" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A19" s="145"/>
-      <c r="B19" s="145"/>
-      <c r="C19" s="145"/>
-      <c r="D19" s="112"/>
-      <c r="E19" s="142" t="s">
+      <c r="A19" s="139"/>
+      <c r="B19" s="139"/>
+      <c r="C19" s="139"/>
+      <c r="D19" s="108"/>
+      <c r="E19" s="136" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A20" s="145"/>
-      <c r="B20" s="145"/>
-      <c r="C20" s="145"/>
-      <c r="D20" s="112"/>
-      <c r="E20" s="141" t="s">
+      <c r="A20" s="139"/>
+      <c r="B20" s="139"/>
+      <c r="C20" s="139"/>
+      <c r="D20" s="108"/>
+      <c r="E20" s="135" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A21" s="145"/>
-      <c r="B21" s="145"/>
-      <c r="C21" s="145"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="141" t="s">
+      <c r="A21" s="139"/>
+      <c r="B21" s="139"/>
+      <c r="C21" s="139"/>
+      <c r="D21" s="108"/>
+      <c r="E21" s="135" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A22" s="145"/>
-      <c r="B22" s="145"/>
-      <c r="C22" s="145"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="141" t="s">
+      <c r="A22" s="139"/>
+      <c r="B22" s="139"/>
+      <c r="C22" s="139"/>
+      <c r="D22" s="108"/>
+      <c r="E22" s="135" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A23" s="145"/>
-      <c r="B23" s="145"/>
-      <c r="C23" s="145"/>
-      <c r="D23" s="112"/>
-      <c r="E23" s="141" t="s">
+      <c r="A23" s="139"/>
+      <c r="B23" s="139"/>
+      <c r="C23" s="139"/>
+      <c r="D23" s="108"/>
+      <c r="E23" s="135" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A24" s="145"/>
-      <c r="B24" s="145"/>
-      <c r="C24" s="145"/>
-      <c r="D24" s="112"/>
-      <c r="E24" s="141" t="s">
+      <c r="A24" s="139"/>
+      <c r="B24" s="139"/>
+      <c r="C24" s="139"/>
+      <c r="D24" s="108"/>
+      <c r="E24" s="135" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A25" s="145"/>
-      <c r="B25" s="145"/>
-      <c r="C25" s="145"/>
-      <c r="D25" s="112"/>
-      <c r="E25" s="141" t="s">
+      <c r="A25" s="139"/>
+      <c r="B25" s="139"/>
+      <c r="C25" s="139"/>
+      <c r="D25" s="108"/>
+      <c r="E25" s="135" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A26" s="145"/>
-      <c r="B26" s="145"/>
-      <c r="C26" s="145"/>
-      <c r="D26" s="112"/>
-      <c r="E26" s="141" t="s">
+      <c r="A26" s="139"/>
+      <c r="B26" s="139"/>
+      <c r="C26" s="139"/>
+      <c r="D26" s="108"/>
+      <c r="E26" s="135" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A27" s="145"/>
-      <c r="B27" s="145"/>
-      <c r="C27" s="145"/>
-      <c r="D27" s="112"/>
-      <c r="E27" s="141" t="s">
+      <c r="A27" s="139"/>
+      <c r="B27" s="139"/>
+      <c r="C27" s="139"/>
+      <c r="D27" s="108"/>
+      <c r="E27" s="135" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A28" s="145"/>
-      <c r="B28" s="145"/>
-      <c r="C28" s="145"/>
-      <c r="D28" s="112"/>
-      <c r="E28" s="141" t="s">
+      <c r="A28" s="139"/>
+      <c r="B28" s="139"/>
+      <c r="C28" s="139"/>
+      <c r="D28" s="108"/>
+      <c r="E28" s="135" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A29" s="145"/>
-      <c r="B29" s="145"/>
-      <c r="C29" s="145"/>
-      <c r="D29" s="112"/>
-      <c r="E29" s="141" t="s">
+      <c r="A29" s="139"/>
+      <c r="B29" s="139"/>
+      <c r="C29" s="139"/>
+      <c r="D29" s="108"/>
+      <c r="E29" s="135" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A30" s="145"/>
-      <c r="B30" s="145"/>
-      <c r="C30" s="145"/>
-      <c r="D30" s="112"/>
-      <c r="E30" s="141" t="s">
+      <c r="A30" s="139"/>
+      <c r="B30" s="139"/>
+      <c r="C30" s="139"/>
+      <c r="D30" s="108"/>
+      <c r="E30" s="135" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A31" s="145"/>
-      <c r="B31" s="145"/>
-      <c r="C31" s="145"/>
-      <c r="D31" s="112"/>
-      <c r="E31" s="141" t="s">
+      <c r="A31" s="139"/>
+      <c r="B31" s="139"/>
+      <c r="C31" s="139"/>
+      <c r="D31" s="108"/>
+      <c r="E31" s="135" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A32" s="145"/>
-      <c r="B32" s="145"/>
-      <c r="C32" s="145"/>
-      <c r="D32" s="112"/>
-      <c r="E32" s="141" t="s">
+      <c r="A32" s="139"/>
+      <c r="B32" s="139"/>
+      <c r="C32" s="139"/>
+      <c r="D32" s="108"/>
+      <c r="E32" s="135" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A33" s="145"/>
-      <c r="B33" s="145"/>
-      <c r="C33" s="145"/>
-      <c r="D33" s="112"/>
-      <c r="E33" s="143" t="s">
+      <c r="A33" s="139"/>
+      <c r="B33" s="139"/>
+      <c r="C33" s="139"/>
+      <c r="D33" s="108"/>
+      <c r="E33" s="137" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A34" s="145"/>
-      <c r="B34" s="145"/>
-      <c r="C34" s="145"/>
-      <c r="D34" s="112"/>
-      <c r="E34" s="141" t="s">
+      <c r="A34" s="139"/>
+      <c r="B34" s="139"/>
+      <c r="C34" s="139"/>
+      <c r="D34" s="108"/>
+      <c r="E34" s="135" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A35" s="145"/>
-      <c r="B35" s="145"/>
-      <c r="C35" s="145"/>
-      <c r="D35" s="112"/>
-      <c r="E35" s="141" t="s">
+      <c r="A35" s="139"/>
+      <c r="B35" s="139"/>
+      <c r="C35" s="139"/>
+      <c r="D35" s="108"/>
+      <c r="E35" s="135" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A36" s="145"/>
-      <c r="B36" s="145"/>
-      <c r="C36" s="145"/>
-      <c r="D36" s="146"/>
-      <c r="E36" s="141" t="s">
+      <c r="A36" s="139"/>
+      <c r="B36" s="139"/>
+      <c r="C36" s="139"/>
+      <c r="D36" s="140"/>
+      <c r="E36" s="135" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A37" s="145"/>
-      <c r="B37" s="145"/>
-      <c r="C37" s="145"/>
-      <c r="D37" s="146"/>
-      <c r="E37" s="144" t="s">
+      <c r="A37" s="139"/>
+      <c r="B37" s="139"/>
+      <c r="C37" s="139"/>
+      <c r="D37" s="140"/>
+      <c r="E37" s="138" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A38" s="145"/>
-      <c r="B38" s="145"/>
-      <c r="C38" s="145"/>
-      <c r="D38" s="147"/>
-      <c r="E38" s="144" t="s">
+      <c r="A38" s="139"/>
+      <c r="B38" s="139"/>
+      <c r="C38" s="139"/>
+      <c r="D38" s="141"/>
+      <c r="E38" s="138" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A39" s="145"/>
-      <c r="B39" s="145"/>
-      <c r="C39" s="145"/>
-      <c r="D39" s="147"/>
-      <c r="E39" s="144" t="s">
+      <c r="A39" s="139"/>
+      <c r="B39" s="139"/>
+      <c r="C39" s="139"/>
+      <c r="D39" s="141"/>
+      <c r="E39" s="138" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A40" s="145"/>
-      <c r="B40" s="145"/>
-      <c r="C40" s="145"/>
-      <c r="D40" s="147"/>
-      <c r="E40" s="144" t="s">
+      <c r="A40" s="139"/>
+      <c r="B40" s="139"/>
+      <c r="C40" s="139"/>
+      <c r="D40" s="141"/>
+      <c r="E40" s="138" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A41" s="145"/>
-      <c r="B41" s="145"/>
-      <c r="C41" s="145"/>
-      <c r="D41" s="147"/>
-      <c r="E41" s="144" t="s">
+      <c r="A41" s="139"/>
+      <c r="B41" s="139"/>
+      <c r="C41" s="139"/>
+      <c r="D41" s="141"/>
+      <c r="E41" s="138" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="112"/>
-      <c r="B42" s="112"/>
-      <c r="C42" s="112"/>
-      <c r="D42" s="146"/>
+      <c r="A42" s="108"/>
+      <c r="B42" s="108"/>
+      <c r="C42" s="108"/>
+      <c r="D42" s="140"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Area_de_Proceso-_PPQA/HGQA/HGQA_V1.0_2015_SETIEMBRE.xlsx
+++ b/Area_de_Proceso-_PPQA/HGQA/HGQA_V1.0_2015_SETIEMBRE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jleonardo\Desktop\UTP-GPS-ALARM-master\Area_de_Proceso-_PPQA\HGQA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thefa\Documents\GitHub\UTP-GPS-ALARM\Area_de_Proceso-_PPQA\HGQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -57,7 +57,7 @@
     <definedName name="TipoServicio" localSheetId="0">#REF!</definedName>
     <definedName name="TiposNC">Tablas!$I$3:$I$8</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -797,7 +797,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
@@ -2458,9 +2458,99 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="65" fillId="0" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="35" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="19" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="36" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="37" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="30" borderId="21" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="30" borderId="38" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="39" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="24" borderId="39" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="24" borderId="39" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="39" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="24" borderId="39" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="24" borderId="39" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="15" fontId="65" fillId="24" borderId="39" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="51" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="51" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="11" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="44" fillId="24" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2470,14 +2560,35 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2530,58 +2641,45 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="32" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="36" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="44" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="30" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="30" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="30" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -2594,14 +2692,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="44" fillId="24" borderId="31" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2614,6 +2704,34 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="24" borderId="30" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="24" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="55" fillId="25" borderId="10" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2625,18 +2743,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="24" borderId="30" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="52" fillId="25" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -2663,112 +2769,6 @@
     </xf>
     <xf numFmtId="0" fontId="45" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="25" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="25" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="25" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="24" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="30" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="65" fillId="0" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="35" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="19" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="36" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="37" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="30" borderId="21" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="30" borderId="38" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="39" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="24" borderId="39" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="24" borderId="39" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="39" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="24" borderId="39" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="24" borderId="39" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="15" fontId="65" fillId="24" borderId="39" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="51" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="51" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="11" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2791,7 +2791,7 @@
     <cellStyle name="60% - Énfasis4" xfId="16" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis5" xfId="17" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis6" xfId="18" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Buena" xfId="19" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="19" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Cálculo" xfId="20" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Cancel" xfId="21"/>
     <cellStyle name="Celda de comprobación" xfId="22" builtinId="23" customBuiltin="1"/>
@@ -2846,7 +2846,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -2882,7 +2882,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2905,7 +2904,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-PE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2995,7 +2994,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-1E45-479F-AB83-77D83B7E851D}"/>
               </c:ext>
@@ -3040,7 +3039,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-EC92-482A-AE00-7DAF384C4D3C}"/>
               </c:ext>
@@ -3069,7 +3068,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-PE"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3092,10 +3091,8 @@
                 <a:effectLst/>
               </c:spPr>
             </c:leaderLines>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -3127,7 +3124,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-EC92-482A-AE00-7DAF384C4D3C}"/>
             </c:ext>
@@ -3153,7 +3150,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3176,7 +3172,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-PE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3211,7 +3207,7 @@
           <a:cs typeface="+mn-cs"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="es-PE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3223,7 +3219,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -3259,7 +3255,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3282,7 +3277,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-PE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3372,7 +3367,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-9B85-4785-897E-BF8A635C112A}"/>
               </c:ext>
@@ -3417,7 +3412,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-0716-432A-8A0E-B7A5A8092E4A}"/>
               </c:ext>
@@ -3462,7 +3457,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-0716-432A-8A0E-B7A5A8092E4A}"/>
               </c:ext>
@@ -3507,7 +3502,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-0716-432A-8A0E-B7A5A8092E4A}"/>
               </c:ext>
@@ -3552,7 +3547,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-0716-432A-8A0E-B7A5A8092E4A}"/>
               </c:ext>
@@ -3597,7 +3592,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000B-9B85-4785-897E-BF8A635C112A}"/>
               </c:ext>
@@ -3618,12 +3613,10 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-0716-432A-8A0E-B7A5A8092E4A}"/>
-                </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3641,12 +3634,10 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-0716-432A-8A0E-B7A5A8092E4A}"/>
-                </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3664,12 +3655,10 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-0716-432A-8A0E-B7A5A8092E4A}"/>
-                </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3687,12 +3676,10 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-0716-432A-8A0E-B7A5A8092E4A}"/>
-                </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3718,7 +3705,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-PE"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3728,10 +3715,8 @@
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -3787,7 +3772,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-0716-432A-8A0E-B7A5A8092E4A}"/>
             </c:ext>
@@ -3845,7 +3830,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-PE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3880,7 +3865,7 @@
           <a:cs typeface="+mn-cs"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="es-PE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3892,7 +3877,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -3958,7 +3943,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-PE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4007,7 +3992,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-D90A-429B-8317-E4DDE4E6EB04}"/>
               </c:ext>
@@ -4035,7 +4020,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-PE"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -4046,9 +4031,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -4082,7 +4066,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-D90A-429B-8317-E4DDE4E6EB04}"/>
             </c:ext>
@@ -4139,7 +4123,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-PE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="539006600"/>
@@ -4197,7 +4181,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-PE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="539004640"/>
@@ -4214,7 +4198,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4237,7 +4220,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-PE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4272,7 +4255,7 @@
           <a:cs typeface="+mn-cs"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="es-PE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4284,7 +4267,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -4343,7 +4326,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-PE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4467,7 +4450,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7ADE-45C5-8A1C-7D75887A8429}"/>
             </c:ext>
@@ -4536,7 +4519,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7ADE-45C5-8A1C-7D75887A8429}"/>
             </c:ext>
@@ -4605,7 +4588,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-7ADE-45C5-8A1C-7D75887A8429}"/>
             </c:ext>
@@ -4678,7 +4661,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-PE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4713,7 +4696,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-PE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="540189736"/>
@@ -4799,7 +4782,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-PE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4828,7 +4811,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-PE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="540190912"/>
@@ -4868,7 +4851,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-PE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4903,7 +4886,7 @@
           <a:cs typeface="+mn-cs"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="es-PE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7548,15 +7531,15 @@
     </row>
     <row r="2" spans="1:9" ht="15.75">
       <c r="A2" s="61"/>
-      <c r="B2" s="170" t="s">
+      <c r="B2" s="194" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="170"/>
-      <c r="H2" s="170"/>
+      <c r="C2" s="194"/>
+      <c r="D2" s="194"/>
+      <c r="E2" s="194"/>
+      <c r="F2" s="194"/>
+      <c r="G2" s="194"/>
+      <c r="H2" s="194"/>
       <c r="I2" s="61"/>
     </row>
     <row r="3" spans="1:9" ht="13.5" thickBot="1">
@@ -7707,22 +7690,22 @@
     <row r="2" spans="1:8" s="56" customFormat="1" ht="48.75" customHeight="1">
       <c r="A2" s="34"/>
       <c r="B2" s="57"/>
-      <c r="C2" s="183" t="s">
+      <c r="C2" s="215" t="s">
         <v>191</v>
       </c>
-      <c r="D2" s="184"/>
-      <c r="E2" s="185"/>
+      <c r="D2" s="216"/>
+      <c r="E2" s="217"/>
     </row>
     <row r="3" spans="1:8" s="56" customFormat="1">
       <c r="A3" s="34"/>
       <c r="B3" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="191" t="s">
+      <c r="C3" s="223" t="s">
         <v>192</v>
       </c>
-      <c r="D3" s="192"/>
-      <c r="E3" s="193"/>
+      <c r="D3" s="224"/>
+      <c r="E3" s="225"/>
     </row>
     <row r="4" spans="1:8" s="56" customFormat="1" ht="21.75" customHeight="1">
       <c r="A4" s="34"/>
@@ -7734,12 +7717,12 @@
     </row>
     <row r="5" spans="1:8" ht="24.75" customHeight="1">
       <c r="A5" s="34"/>
-      <c r="B5" s="186" t="s">
+      <c r="B5" s="218" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="187"/>
-      <c r="D5" s="187"/>
-      <c r="E5" s="188"/>
+      <c r="C5" s="219"/>
+      <c r="D5" s="219"/>
+      <c r="E5" s="220"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="34"/>
@@ -7762,10 +7745,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="86"/>
-      <c r="D8" s="189" t="s">
+      <c r="D8" s="221" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="190"/>
+      <c r="E8" s="222"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="34"/>
@@ -7780,10 +7763,10 @@
         <v>93</v>
       </c>
       <c r="C10" s="56"/>
-      <c r="D10" s="197" t="s">
+      <c r="D10" s="226" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="197"/>
+      <c r="E10" s="226"/>
     </row>
     <row r="11" spans="1:8" ht="9.9499999999999993" customHeight="1">
       <c r="A11" s="34"/>
@@ -7798,10 +7781,10 @@
         <v>93</v>
       </c>
       <c r="C12" s="56"/>
-      <c r="D12" s="197" t="s">
+      <c r="D12" s="226" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="197"/>
+      <c r="E12" s="226"/>
     </row>
     <row r="13" spans="1:8" ht="9.9499999999999993" customHeight="1">
       <c r="A13" s="34"/>
@@ -7816,10 +7799,10 @@
         <v>93</v>
       </c>
       <c r="C14" s="56"/>
-      <c r="D14" s="197" t="s">
+      <c r="D14" s="226" t="s">
         <v>100</v>
       </c>
-      <c r="E14" s="197"/>
+      <c r="E14" s="226"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="32"/>
@@ -7834,10 +7817,10 @@
         <v>93</v>
       </c>
       <c r="C16" s="56"/>
-      <c r="D16" s="197" t="s">
+      <c r="D16" s="226" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="197"/>
+      <c r="E16" s="226"/>
       <c r="H16" s="36"/>
     </row>
     <row r="17" spans="1:8" s="47" customFormat="1" ht="12" customHeight="1">
@@ -7851,62 +7834,62 @@
       <c r="A18" s="32"/>
     </row>
     <row r="19" spans="1:8" s="52" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B19" s="177" t="s">
+      <c r="B19" s="209" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="178"/>
-      <c r="D19" s="178"/>
-      <c r="E19" s="179"/>
+      <c r="C19" s="210"/>
+      <c r="D19" s="210"/>
+      <c r="E19" s="211"/>
     </row>
     <row r="20" spans="1:8" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="B20" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="180" t="s">
+      <c r="C20" s="212" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="181"/>
-      <c r="E20" s="182"/>
+      <c r="D20" s="213"/>
+      <c r="E20" s="214"/>
     </row>
     <row r="21" spans="1:8" s="52" customFormat="1" ht="12.75" customHeight="1">
       <c r="B21" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="194" t="s">
+      <c r="C21" s="200" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="195"/>
-      <c r="E21" s="196"/>
+      <c r="D21" s="201"/>
+      <c r="E21" s="202"/>
     </row>
     <row r="22" spans="1:8" s="52" customFormat="1" ht="12.75" customHeight="1">
       <c r="B22" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="194" t="s">
+      <c r="C22" s="200" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="195"/>
-      <c r="E22" s="196"/>
+      <c r="D22" s="201"/>
+      <c r="E22" s="202"/>
     </row>
     <row r="23" spans="1:8" s="52" customFormat="1" ht="12.75" customHeight="1">
       <c r="B23" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="194" t="s">
+      <c r="C23" s="200" t="s">
         <v>101</v>
       </c>
-      <c r="D23" s="195"/>
-      <c r="E23" s="196"/>
+      <c r="D23" s="201"/>
+      <c r="E23" s="202"/>
     </row>
     <row r="24" spans="1:8" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="B24" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="194" t="s">
+      <c r="C24" s="200" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="195"/>
-      <c r="E24" s="196"/>
+      <c r="D24" s="201"/>
+      <c r="E24" s="202"/>
     </row>
     <row r="25" spans="1:8" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="B25" s="54"/>
@@ -7919,31 +7902,31 @@
       <c r="B26" s="45"/>
     </row>
     <row r="27" spans="1:8" s="52" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B27" s="177" t="s">
+      <c r="B27" s="209" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="178"/>
-      <c r="D27" s="178"/>
-      <c r="E27" s="179"/>
+      <c r="C27" s="210"/>
+      <c r="D27" s="210"/>
+      <c r="E27" s="211"/>
     </row>
     <row r="28" spans="1:8" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="B28" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="180" t="s">
+      <c r="C28" s="212" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="181"/>
-      <c r="E28" s="182"/>
+      <c r="D28" s="213"/>
+      <c r="E28" s="214"/>
     </row>
     <row r="29" spans="1:8" ht="12.75" customHeight="1">
       <c r="A29" s="32"/>
-      <c r="B29" s="198" t="s">
+      <c r="B29" s="206" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="199"/>
-      <c r="D29" s="199"/>
-      <c r="E29" s="200"/>
+      <c r="C29" s="207"/>
+      <c r="D29" s="207"/>
+      <c r="E29" s="208"/>
       <c r="F29" s="52"/>
       <c r="G29" s="52"/>
     </row>
@@ -7952,11 +7935,11 @@
       <c r="B30" s="168" t="s">
         <v>135</v>
       </c>
-      <c r="C30" s="171" t="s">
+      <c r="C30" s="196" t="s">
         <v>193</v>
       </c>
-      <c r="D30" s="172"/>
-      <c r="E30" s="173"/>
+      <c r="D30" s="197"/>
+      <c r="E30" s="198"/>
       <c r="F30" s="52"/>
       <c r="G30" s="52"/>
     </row>
@@ -7965,11 +7948,11 @@
       <c r="B31" s="169" t="s">
         <v>140</v>
       </c>
-      <c r="C31" s="171" t="s">
+      <c r="C31" s="196" t="s">
         <v>194</v>
       </c>
-      <c r="D31" s="172"/>
-      <c r="E31" s="173"/>
+      <c r="D31" s="197"/>
+      <c r="E31" s="198"/>
       <c r="F31" s="52"/>
       <c r="G31" s="52"/>
     </row>
@@ -7978,11 +7961,11 @@
       <c r="B32" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="171" t="s">
+      <c r="C32" s="196" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="172"/>
-      <c r="E32" s="173"/>
+      <c r="D32" s="197"/>
+      <c r="E32" s="198"/>
       <c r="F32" s="52"/>
       <c r="G32" s="52"/>
     </row>
@@ -7991,11 +7974,11 @@
       <c r="B33" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="171" t="s">
+      <c r="C33" s="196" t="s">
         <v>72</v>
       </c>
-      <c r="D33" s="172"/>
-      <c r="E33" s="173"/>
+      <c r="D33" s="197"/>
+      <c r="E33" s="198"/>
       <c r="F33" s="52"/>
       <c r="G33" s="52"/>
     </row>
@@ -8004,174 +7987,174 @@
       <c r="B34" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="171" t="s">
+      <c r="C34" s="196" t="s">
         <v>73</v>
       </c>
-      <c r="D34" s="172"/>
-      <c r="E34" s="173"/>
+      <c r="D34" s="197"/>
+      <c r="E34" s="198"/>
     </row>
     <row r="35" spans="1:7" ht="16.5" customHeight="1">
       <c r="A35" s="32"/>
       <c r="B35" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="171" t="s">
+      <c r="C35" s="196" t="s">
         <v>74</v>
       </c>
-      <c r="D35" s="172"/>
-      <c r="E35" s="173"/>
+      <c r="D35" s="197"/>
+      <c r="E35" s="198"/>
     </row>
     <row r="36" spans="1:7" ht="16.5" customHeight="1">
       <c r="A36" s="32"/>
-      <c r="B36" s="198" t="s">
+      <c r="B36" s="206" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="199"/>
-      <c r="D36" s="199"/>
-      <c r="E36" s="200"/>
+      <c r="C36" s="207"/>
+      <c r="D36" s="207"/>
+      <c r="E36" s="208"/>
     </row>
     <row r="37" spans="1:7" ht="16.5" customHeight="1">
       <c r="A37" s="32"/>
       <c r="B37" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="171" t="s">
+      <c r="C37" s="196" t="s">
         <v>75</v>
       </c>
-      <c r="D37" s="172"/>
-      <c r="E37" s="173"/>
+      <c r="D37" s="197"/>
+      <c r="E37" s="198"/>
     </row>
     <row r="38" spans="1:7" ht="16.5" customHeight="1">
       <c r="A38" s="32"/>
       <c r="B38" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="171" t="s">
+      <c r="C38" s="196" t="s">
         <v>86</v>
       </c>
-      <c r="D38" s="172"/>
-      <c r="E38" s="173"/>
+      <c r="D38" s="197"/>
+      <c r="E38" s="198"/>
     </row>
     <row r="39" spans="1:7" ht="17.25" customHeight="1">
       <c r="A39" s="32"/>
       <c r="B39" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="C39" s="171" t="s">
+      <c r="C39" s="196" t="s">
         <v>103</v>
       </c>
-      <c r="D39" s="172"/>
-      <c r="E39" s="173"/>
+      <c r="D39" s="197"/>
+      <c r="E39" s="198"/>
     </row>
     <row r="40" spans="1:7" ht="16.5" customHeight="1">
       <c r="A40" s="32"/>
       <c r="B40" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="C40" s="171" t="s">
+      <c r="C40" s="196" t="s">
         <v>116</v>
       </c>
-      <c r="D40" s="172"/>
-      <c r="E40" s="173"/>
+      <c r="D40" s="197"/>
+      <c r="E40" s="198"/>
     </row>
     <row r="41" spans="1:7" ht="16.5" customHeight="1">
       <c r="A41" s="32"/>
       <c r="B41" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="171" t="s">
+      <c r="C41" s="196" t="s">
         <v>105</v>
       </c>
-      <c r="D41" s="172"/>
-      <c r="E41" s="173"/>
+      <c r="D41" s="197"/>
+      <c r="E41" s="198"/>
     </row>
     <row r="42" spans="1:7" ht="16.5" customHeight="1">
       <c r="A42" s="32"/>
       <c r="B42" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="171" t="s">
+      <c r="C42" s="196" t="s">
         <v>104</v>
       </c>
-      <c r="D42" s="172"/>
-      <c r="E42" s="173"/>
+      <c r="D42" s="197"/>
+      <c r="E42" s="198"/>
     </row>
     <row r="43" spans="1:7" ht="16.5" customHeight="1">
       <c r="A43" s="32"/>
       <c r="B43" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="C43" s="171" t="s">
+      <c r="C43" s="196" t="s">
         <v>78</v>
       </c>
-      <c r="D43" s="172"/>
-      <c r="E43" s="173"/>
+      <c r="D43" s="197"/>
+      <c r="E43" s="198"/>
     </row>
     <row r="44" spans="1:7" ht="16.5" customHeight="1">
       <c r="A44" s="32"/>
       <c r="B44" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="C44" s="171" t="s">
+      <c r="C44" s="196" t="s">
         <v>79</v>
       </c>
-      <c r="D44" s="172"/>
-      <c r="E44" s="173"/>
+      <c r="D44" s="197"/>
+      <c r="E44" s="198"/>
     </row>
     <row r="45" spans="1:7" ht="16.5" customHeight="1">
       <c r="A45" s="32"/>
       <c r="B45" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="171" t="s">
+      <c r="C45" s="196" t="s">
         <v>76</v>
       </c>
-      <c r="D45" s="172"/>
-      <c r="E45" s="173"/>
+      <c r="D45" s="197"/>
+      <c r="E45" s="198"/>
     </row>
     <row r="46" spans="1:7" ht="16.5" customHeight="1">
       <c r="A46" s="32"/>
       <c r="B46" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="C46" s="171" t="s">
+      <c r="C46" s="196" t="s">
         <v>81</v>
       </c>
-      <c r="D46" s="172"/>
-      <c r="E46" s="173"/>
+      <c r="D46" s="197"/>
+      <c r="E46" s="198"/>
     </row>
     <row r="47" spans="1:7" ht="16.5" customHeight="1">
       <c r="A47" s="32"/>
       <c r="B47" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="171" t="s">
+      <c r="C47" s="196" t="s">
         <v>82</v>
       </c>
-      <c r="D47" s="172"/>
-      <c r="E47" s="173"/>
+      <c r="D47" s="197"/>
+      <c r="E47" s="198"/>
     </row>
     <row r="48" spans="1:7" ht="16.5" customHeight="1">
       <c r="A48" s="32"/>
       <c r="B48" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="171" t="s">
+      <c r="C48" s="196" t="s">
         <v>80</v>
       </c>
-      <c r="D48" s="172"/>
-      <c r="E48" s="173"/>
+      <c r="D48" s="197"/>
+      <c r="E48" s="198"/>
     </row>
     <row r="49" spans="1:13" ht="16.5" customHeight="1">
       <c r="A49" s="32"/>
       <c r="B49" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="C49" s="171" t="s">
+      <c r="C49" s="196" t="s">
         <v>77</v>
       </c>
-      <c r="D49" s="172"/>
-      <c r="E49" s="173"/>
+      <c r="D49" s="197"/>
+      <c r="E49" s="198"/>
     </row>
     <row r="50" spans="1:13" ht="16.5" customHeight="1">
       <c r="A50" s="52"/>
@@ -8204,23 +8187,23 @@
       <c r="M51" s="33"/>
     </row>
     <row r="52" spans="1:13" s="52" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B52" s="177" t="s">
+      <c r="B52" s="209" t="s">
         <v>54</v>
       </c>
-      <c r="C52" s="178"/>
-      <c r="D52" s="178"/>
-      <c r="E52" s="179"/>
+      <c r="C52" s="210"/>
+      <c r="D52" s="210"/>
+      <c r="E52" s="211"/>
     </row>
     <row r="53" spans="1:13" ht="16.5" customHeight="1">
       <c r="A53" s="52"/>
       <c r="B53" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="C53" s="180" t="s">
+      <c r="C53" s="212" t="s">
         <v>6</v>
       </c>
-      <c r="D53" s="181"/>
-      <c r="E53" s="182"/>
+      <c r="D53" s="213"/>
+      <c r="E53" s="214"/>
       <c r="F53" s="52"/>
       <c r="G53" s="52"/>
       <c r="H53" s="52"/>
@@ -8235,132 +8218,132 @@
       <c r="B54" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="C54" s="171" t="s">
+      <c r="C54" s="196" t="s">
         <v>75</v>
       </c>
-      <c r="D54" s="172"/>
-      <c r="E54" s="173"/>
+      <c r="D54" s="197"/>
+      <c r="E54" s="198"/>
     </row>
     <row r="55" spans="1:13" ht="16.5" customHeight="1">
       <c r="A55" s="32"/>
       <c r="B55" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="C55" s="171" t="s">
+      <c r="C55" s="196" t="s">
         <v>87</v>
       </c>
-      <c r="D55" s="172"/>
-      <c r="E55" s="173"/>
+      <c r="D55" s="197"/>
+      <c r="E55" s="198"/>
     </row>
     <row r="56" spans="1:13" ht="16.5" customHeight="1">
       <c r="A56" s="32"/>
       <c r="B56" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="C56" s="171" t="s">
+      <c r="C56" s="196" t="s">
         <v>88</v>
       </c>
-      <c r="D56" s="172"/>
-      <c r="E56" s="173"/>
+      <c r="D56" s="197"/>
+      <c r="E56" s="198"/>
     </row>
     <row r="57" spans="1:13" ht="16.5" customHeight="1">
       <c r="A57" s="32"/>
       <c r="B57" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="C57" s="171" t="s">
+      <c r="C57" s="196" t="s">
         <v>106</v>
       </c>
-      <c r="D57" s="175"/>
-      <c r="E57" s="176"/>
+      <c r="D57" s="203"/>
+      <c r="E57" s="204"/>
     </row>
     <row r="58" spans="1:13" ht="16.5" customHeight="1">
       <c r="A58" s="32"/>
       <c r="B58" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="171" t="s">
+      <c r="C58" s="196" t="s">
         <v>92</v>
       </c>
-      <c r="D58" s="175"/>
-      <c r="E58" s="176"/>
+      <c r="D58" s="203"/>
+      <c r="E58" s="204"/>
     </row>
     <row r="59" spans="1:13" ht="16.5" customHeight="1">
       <c r="A59" s="32"/>
       <c r="B59" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="C59" s="171" t="s">
+      <c r="C59" s="196" t="s">
         <v>83</v>
       </c>
-      <c r="D59" s="175"/>
-      <c r="E59" s="176"/>
+      <c r="D59" s="203"/>
+      <c r="E59" s="204"/>
     </row>
     <row r="60" spans="1:13" ht="54" customHeight="1">
       <c r="A60" s="32"/>
       <c r="B60" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="C60" s="171" t="s">
+      <c r="C60" s="196" t="s">
         <v>107</v>
       </c>
-      <c r="D60" s="175"/>
-      <c r="E60" s="176"/>
+      <c r="D60" s="203"/>
+      <c r="E60" s="204"/>
     </row>
     <row r="61" spans="1:13" ht="16.5" customHeight="1">
       <c r="A61" s="32"/>
       <c r="B61" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="C61" s="174" t="s">
+      <c r="C61" s="205" t="s">
         <v>91</v>
       </c>
-      <c r="D61" s="175"/>
-      <c r="E61" s="176"/>
+      <c r="D61" s="203"/>
+      <c r="E61" s="204"/>
     </row>
     <row r="62" spans="1:13" ht="30" customHeight="1">
       <c r="A62" s="32"/>
       <c r="B62" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="C62" s="171" t="s">
+      <c r="C62" s="196" t="s">
         <v>56</v>
       </c>
-      <c r="D62" s="175"/>
-      <c r="E62" s="176"/>
+      <c r="D62" s="203"/>
+      <c r="E62" s="204"/>
     </row>
     <row r="63" spans="1:13" ht="16.5" customHeight="1">
       <c r="A63" s="32"/>
       <c r="B63" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C63" s="174" t="s">
+      <c r="C63" s="205" t="s">
         <v>61</v>
       </c>
-      <c r="D63" s="175"/>
-      <c r="E63" s="176"/>
+      <c r="D63" s="203"/>
+      <c r="E63" s="204"/>
     </row>
     <row r="64" spans="1:13" ht="16.5" customHeight="1">
       <c r="A64" s="32"/>
       <c r="B64" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C64" s="174" t="s">
+      <c r="C64" s="205" t="s">
         <v>84</v>
       </c>
-      <c r="D64" s="175"/>
-      <c r="E64" s="176"/>
+      <c r="D64" s="203"/>
+      <c r="E64" s="204"/>
     </row>
     <row r="65" spans="1:8" ht="16.5" customHeight="1">
       <c r="A65" s="32"/>
       <c r="B65" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="C65" s="171" t="s">
+      <c r="C65" s="196" t="s">
         <v>77</v>
       </c>
-      <c r="D65" s="172"/>
-      <c r="E65" s="173"/>
+      <c r="D65" s="197"/>
+      <c r="E65" s="198"/>
     </row>
     <row r="66" spans="1:8" ht="16.5" customHeight="1">
       <c r="A66" s="32"/>
@@ -8371,200 +8354,200 @@
     </row>
     <row r="67" spans="1:8" ht="16.5" customHeight="1">
       <c r="A67" s="32"/>
-      <c r="B67" s="202"/>
-      <c r="C67" s="202"/>
-      <c r="D67" s="202"/>
-      <c r="E67" s="202"/>
+      <c r="B67" s="199"/>
+      <c r="C67" s="199"/>
+      <c r="D67" s="199"/>
+      <c r="E67" s="199"/>
       <c r="F67" s="51"/>
       <c r="G67" s="51"/>
       <c r="H67" s="51"/>
     </row>
     <row r="68" spans="1:8" ht="16.5" customHeight="1">
       <c r="A68" s="32"/>
-      <c r="B68" s="201"/>
-      <c r="C68" s="201"/>
-      <c r="D68" s="201"/>
-      <c r="E68" s="201"/>
+      <c r="B68" s="195"/>
+      <c r="C68" s="195"/>
+      <c r="D68" s="195"/>
+      <c r="E68" s="195"/>
       <c r="F68" s="51"/>
       <c r="G68" s="51"/>
       <c r="H68" s="51"/>
     </row>
     <row r="69" spans="1:8" ht="16.5" customHeight="1">
       <c r="A69" s="32"/>
-      <c r="B69" s="201"/>
-      <c r="C69" s="201"/>
-      <c r="D69" s="201"/>
-      <c r="E69" s="201"/>
+      <c r="B69" s="195"/>
+      <c r="C69" s="195"/>
+      <c r="D69" s="195"/>
+      <c r="E69" s="195"/>
       <c r="F69" s="51"/>
       <c r="G69" s="51"/>
       <c r="H69" s="51"/>
     </row>
     <row r="70" spans="1:8" ht="16.5" customHeight="1">
       <c r="A70" s="32"/>
-      <c r="B70" s="201"/>
-      <c r="C70" s="201"/>
-      <c r="D70" s="201"/>
-      <c r="E70" s="201"/>
+      <c r="B70" s="195"/>
+      <c r="C70" s="195"/>
+      <c r="D70" s="195"/>
+      <c r="E70" s="195"/>
       <c r="F70" s="51"/>
       <c r="G70" s="51"/>
       <c r="H70" s="51"/>
     </row>
     <row r="71" spans="1:8" ht="16.5" customHeight="1">
       <c r="A71" s="32"/>
-      <c r="B71" s="201"/>
-      <c r="C71" s="201"/>
-      <c r="D71" s="201"/>
-      <c r="E71" s="201"/>
+      <c r="B71" s="195"/>
+      <c r="C71" s="195"/>
+      <c r="D71" s="195"/>
+      <c r="E71" s="195"/>
       <c r="F71" s="51"/>
       <c r="G71" s="51"/>
       <c r="H71" s="51"/>
     </row>
     <row r="72" spans="1:8" ht="16.5" customHeight="1">
       <c r="A72" s="32"/>
-      <c r="B72" s="201"/>
-      <c r="C72" s="201"/>
-      <c r="D72" s="201"/>
-      <c r="E72" s="201"/>
+      <c r="B72" s="195"/>
+      <c r="C72" s="195"/>
+      <c r="D72" s="195"/>
+      <c r="E72" s="195"/>
       <c r="F72" s="51"/>
       <c r="G72" s="51"/>
       <c r="H72" s="51"/>
     </row>
     <row r="73" spans="1:8" ht="16.5" customHeight="1">
       <c r="A73" s="37"/>
-      <c r="B73" s="201"/>
-      <c r="C73" s="201"/>
-      <c r="D73" s="201"/>
-      <c r="E73" s="201"/>
+      <c r="B73" s="195"/>
+      <c r="C73" s="195"/>
+      <c r="D73" s="195"/>
+      <c r="E73" s="195"/>
       <c r="F73" s="51"/>
       <c r="G73" s="51"/>
       <c r="H73" s="51"/>
     </row>
     <row r="74" spans="1:8" ht="16.5" customHeight="1">
       <c r="A74" s="32"/>
-      <c r="B74" s="201"/>
-      <c r="C74" s="201"/>
-      <c r="D74" s="201"/>
-      <c r="E74" s="201"/>
+      <c r="B74" s="195"/>
+      <c r="C74" s="195"/>
+      <c r="D74" s="195"/>
+      <c r="E74" s="195"/>
       <c r="F74" s="51"/>
       <c r="G74" s="51"/>
       <c r="H74" s="51"/>
     </row>
     <row r="75" spans="1:8" ht="16.5" customHeight="1">
       <c r="A75" s="32"/>
-      <c r="B75" s="201"/>
-      <c r="C75" s="201"/>
-      <c r="D75" s="201"/>
-      <c r="E75" s="201"/>
+      <c r="B75" s="195"/>
+      <c r="C75" s="195"/>
+      <c r="D75" s="195"/>
+      <c r="E75" s="195"/>
       <c r="F75" s="51"/>
       <c r="G75" s="51"/>
       <c r="H75" s="51"/>
     </row>
     <row r="76" spans="1:8" ht="16.5" customHeight="1">
       <c r="A76" s="32"/>
-      <c r="B76" s="201"/>
-      <c r="C76" s="201"/>
-      <c r="D76" s="201"/>
-      <c r="E76" s="201"/>
+      <c r="B76" s="195"/>
+      <c r="C76" s="195"/>
+      <c r="D76" s="195"/>
+      <c r="E76" s="195"/>
       <c r="F76" s="51"/>
       <c r="G76" s="51"/>
       <c r="H76" s="51"/>
     </row>
     <row r="77" spans="1:8" ht="16.5" customHeight="1">
       <c r="A77" s="32"/>
-      <c r="B77" s="201"/>
-      <c r="C77" s="201"/>
-      <c r="D77" s="201"/>
-      <c r="E77" s="201"/>
+      <c r="B77" s="195"/>
+      <c r="C77" s="195"/>
+      <c r="D77" s="195"/>
+      <c r="E77" s="195"/>
       <c r="F77" s="51"/>
       <c r="G77" s="51"/>
       <c r="H77" s="51"/>
     </row>
     <row r="78" spans="1:8" ht="16.5" customHeight="1">
       <c r="A78" s="32"/>
-      <c r="B78" s="201"/>
-      <c r="C78" s="201"/>
-      <c r="D78" s="201"/>
-      <c r="E78" s="201"/>
+      <c r="B78" s="195"/>
+      <c r="C78" s="195"/>
+      <c r="D78" s="195"/>
+      <c r="E78" s="195"/>
       <c r="F78" s="51"/>
       <c r="G78" s="51"/>
       <c r="H78" s="51"/>
     </row>
     <row r="79" spans="1:8" ht="16.5" customHeight="1">
       <c r="A79" s="37"/>
-      <c r="B79" s="201"/>
-      <c r="C79" s="201"/>
-      <c r="D79" s="201"/>
-      <c r="E79" s="201"/>
+      <c r="B79" s="195"/>
+      <c r="C79" s="195"/>
+      <c r="D79" s="195"/>
+      <c r="E79" s="195"/>
       <c r="F79" s="51"/>
       <c r="G79" s="51"/>
       <c r="H79" s="51"/>
     </row>
     <row r="80" spans="1:8" ht="16.5" customHeight="1">
       <c r="A80" s="37"/>
-      <c r="B80" s="201"/>
-      <c r="C80" s="201"/>
-      <c r="D80" s="201"/>
-      <c r="E80" s="201"/>
+      <c r="B80" s="195"/>
+      <c r="C80" s="195"/>
+      <c r="D80" s="195"/>
+      <c r="E80" s="195"/>
       <c r="F80" s="51"/>
       <c r="G80" s="51"/>
       <c r="H80" s="51"/>
     </row>
     <row r="81" spans="1:8" ht="16.5" customHeight="1">
       <c r="A81" s="37"/>
-      <c r="B81" s="201"/>
-      <c r="C81" s="201"/>
-      <c r="D81" s="201"/>
-      <c r="E81" s="201"/>
+      <c r="B81" s="195"/>
+      <c r="C81" s="195"/>
+      <c r="D81" s="195"/>
+      <c r="E81" s="195"/>
       <c r="F81" s="51"/>
       <c r="G81" s="51"/>
       <c r="H81" s="51"/>
     </row>
     <row r="82" spans="1:8" ht="16.5" customHeight="1">
       <c r="A82" s="37"/>
-      <c r="B82" s="201"/>
-      <c r="C82" s="201"/>
-      <c r="D82" s="201"/>
-      <c r="E82" s="201"/>
+      <c r="B82" s="195"/>
+      <c r="C82" s="195"/>
+      <c r="D82" s="195"/>
+      <c r="E82" s="195"/>
       <c r="F82" s="51"/>
       <c r="G82" s="51"/>
       <c r="H82" s="51"/>
     </row>
     <row r="83" spans="1:8" ht="16.5" customHeight="1">
       <c r="A83" s="37"/>
-      <c r="B83" s="201"/>
-      <c r="C83" s="201"/>
-      <c r="D83" s="201"/>
-      <c r="E83" s="201"/>
+      <c r="B83" s="195"/>
+      <c r="C83" s="195"/>
+      <c r="D83" s="195"/>
+      <c r="E83" s="195"/>
       <c r="F83" s="51"/>
       <c r="G83" s="51"/>
       <c r="H83" s="51"/>
     </row>
     <row r="84" spans="1:8" ht="16.5" customHeight="1">
       <c r="A84" s="37"/>
-      <c r="B84" s="201"/>
-      <c r="C84" s="201"/>
-      <c r="D84" s="201"/>
-      <c r="E84" s="201"/>
+      <c r="B84" s="195"/>
+      <c r="C84" s="195"/>
+      <c r="D84" s="195"/>
+      <c r="E84" s="195"/>
       <c r="F84" s="51"/>
       <c r="G84" s="51"/>
       <c r="H84" s="51"/>
     </row>
     <row r="85" spans="1:8" ht="16.5" customHeight="1">
       <c r="A85" s="37"/>
-      <c r="B85" s="201"/>
-      <c r="C85" s="201"/>
-      <c r="D85" s="201"/>
-      <c r="E85" s="201"/>
+      <c r="B85" s="195"/>
+      <c r="C85" s="195"/>
+      <c r="D85" s="195"/>
+      <c r="E85" s="195"/>
       <c r="F85" s="51"/>
       <c r="G85" s="51"/>
       <c r="H85" s="51"/>
     </row>
     <row r="86" spans="1:8" ht="16.5" customHeight="1">
       <c r="A86" s="37"/>
-      <c r="B86" s="201"/>
-      <c r="C86" s="201"/>
-      <c r="D86" s="201"/>
-      <c r="E86" s="201"/>
+      <c r="B86" s="195"/>
+      <c r="C86" s="195"/>
+      <c r="D86" s="195"/>
+      <c r="E86" s="195"/>
       <c r="F86" s="51"/>
       <c r="G86" s="51"/>
       <c r="H86" s="51"/>
@@ -8577,27 +8560,40 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="B75:E75"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="B80:E80"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="B79:E79"/>
-    <mergeCell ref="B85:E85"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D16:E16"/>
     <mergeCell ref="C31:E31"/>
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="C60:E60"/>
@@ -8614,40 +8610,27 @@
     <mergeCell ref="C39:E39"/>
     <mergeCell ref="C30:E30"/>
     <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="B84:E84"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8663,7 +8646,7 @@
   </sheetPr>
   <dimension ref="A3:Z28"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -8686,22 +8669,22 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:26" ht="18" customHeight="1">
-      <c r="B3" s="212" t="s">
+      <c r="B3" s="227" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="212"/>
-      <c r="D3" s="212"/>
-      <c r="E3" s="212"/>
-      <c r="F3" s="212"/>
-      <c r="G3" s="212"/>
-      <c r="H3" s="212"/>
-      <c r="I3" s="212"/>
-      <c r="J3" s="212"/>
-      <c r="K3" s="212"/>
-      <c r="L3" s="212"/>
-      <c r="M3" s="212"/>
-      <c r="N3" s="212"/>
-      <c r="O3" s="212"/>
+      <c r="C3" s="227"/>
+      <c r="D3" s="227"/>
+      <c r="E3" s="227"/>
+      <c r="F3" s="227"/>
+      <c r="G3" s="227"/>
+      <c r="H3" s="227"/>
+      <c r="I3" s="227"/>
+      <c r="J3" s="227"/>
+      <c r="K3" s="227"/>
+      <c r="L3" s="227"/>
+      <c r="M3" s="227"/>
+      <c r="N3" s="227"/>
+      <c r="O3" s="227"/>
     </row>
     <row r="4" spans="2:26" ht="11.25" customHeight="1">
       <c r="B4" s="4"/>
@@ -8709,39 +8692,39 @@
     </row>
     <row r="5" spans="2:26" ht="15" customHeight="1"/>
     <row r="6" spans="2:26" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B6" s="204" t="s">
+      <c r="B6" s="229" t="s">
         <v>135</v>
       </c>
-      <c r="C6" s="234"/>
-      <c r="D6" s="205"/>
-      <c r="E6" s="206" t="s">
+      <c r="C6" s="230"/>
+      <c r="D6" s="231"/>
+      <c r="E6" s="232" t="s">
         <v>176</v>
       </c>
-      <c r="F6" s="207"/>
-      <c r="G6" s="208"/>
-      <c r="H6" s="213"/>
-      <c r="I6" s="213"/>
+      <c r="F6" s="233"/>
+      <c r="G6" s="234"/>
+      <c r="H6" s="228"/>
+      <c r="I6" s="228"/>
       <c r="O6" s="146"/>
       <c r="Z6" s="3"/>
     </row>
     <row r="7" spans="2:26" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B7" s="204" t="s">
+      <c r="B7" s="229" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="234"/>
-      <c r="D7" s="205"/>
-      <c r="E7" s="206" t="s">
+      <c r="C7" s="230"/>
+      <c r="D7" s="231"/>
+      <c r="E7" s="232" t="s">
         <v>138</v>
       </c>
-      <c r="F7" s="207"/>
-      <c r="G7" s="208"/>
-      <c r="J7" s="203" t="s">
+      <c r="F7" s="233"/>
+      <c r="G7" s="234"/>
+      <c r="J7" s="235" t="s">
         <v>160</v>
       </c>
-      <c r="K7" s="203"/>
-      <c r="L7" s="203"/>
-      <c r="M7" s="203"/>
-      <c r="N7" s="203"/>
+      <c r="K7" s="235"/>
+      <c r="L7" s="235"/>
+      <c r="M7" s="235"/>
+      <c r="N7" s="235"/>
       <c r="O7" s="167">
         <f>SUM(K13:K23)</f>
         <v>88</v>
@@ -8749,23 +8732,23 @@
       <c r="Z7" s="3"/>
     </row>
     <row r="8" spans="2:26" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B8" s="204" t="s">
+      <c r="B8" s="229" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="234"/>
-      <c r="D8" s="205"/>
-      <c r="E8" s="206" t="s">
+      <c r="C8" s="230"/>
+      <c r="D8" s="231"/>
+      <c r="E8" s="232" t="s">
         <v>175</v>
       </c>
-      <c r="F8" s="207"/>
-      <c r="G8" s="208"/>
-      <c r="J8" s="203" t="s">
+      <c r="F8" s="233"/>
+      <c r="G8" s="234"/>
+      <c r="J8" s="235" t="s">
         <v>161</v>
       </c>
-      <c r="K8" s="203"/>
-      <c r="L8" s="203"/>
-      <c r="M8" s="203"/>
-      <c r="N8" s="203"/>
+      <c r="K8" s="235"/>
+      <c r="L8" s="235"/>
+      <c r="M8" s="235"/>
+      <c r="N8" s="235"/>
       <c r="O8" s="167">
         <f>SUM(N13:N23)</f>
         <v>70</v>
@@ -8773,11 +8756,11 @@
       <c r="Z8" s="3"/>
     </row>
     <row r="9" spans="2:26" s="5" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B9" s="204" t="s">
+      <c r="B9" s="229" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="234"/>
-      <c r="D9" s="205"/>
+      <c r="C9" s="230"/>
+      <c r="D9" s="231"/>
       <c r="E9" s="129">
         <v>42262</v>
       </c>
@@ -8792,16 +8775,16 @@
       <c r="Z9" s="3"/>
     </row>
     <row r="10" spans="2:26" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B10" s="204" t="s">
+      <c r="B10" s="229" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="234"/>
-      <c r="D10" s="205"/>
-      <c r="E10" s="209" t="s">
+      <c r="C10" s="230"/>
+      <c r="D10" s="231"/>
+      <c r="E10" s="236" t="s">
         <v>196</v>
       </c>
-      <c r="F10" s="210"/>
-      <c r="G10" s="211"/>
+      <c r="F10" s="237"/>
+      <c r="G10" s="238"/>
       <c r="Z10" s="3"/>
     </row>
     <row r="11" spans="2:26" s="17" customFormat="1" ht="15" customHeight="1">
@@ -8860,7 +8843,7 @@
       <c r="B13" s="85">
         <v>1</v>
       </c>
-      <c r="C13" s="235">
+      <c r="C13" s="170">
         <v>1</v>
       </c>
       <c r="D13" s="161" t="s">
@@ -8878,19 +8861,19 @@
       <c r="H13" s="166" t="s">
         <v>141</v>
       </c>
-      <c r="I13" s="257">
+      <c r="I13" s="192">
         <v>42262</v>
       </c>
-      <c r="J13" s="258">
+      <c r="J13" s="193">
         <v>42276</v>
       </c>
       <c r="K13" s="127">
         <v>8</v>
       </c>
-      <c r="L13" s="257">
+      <c r="L13" s="192">
         <v>42262</v>
       </c>
-      <c r="M13" s="258">
+      <c r="M13" s="193">
         <v>42276</v>
       </c>
       <c r="N13" s="127">
@@ -8903,7 +8886,7 @@
         <f>B13+1</f>
         <v>2</v>
       </c>
-      <c r="C14" s="235">
+      <c r="C14" s="170">
         <v>1</v>
       </c>
       <c r="D14" s="161" t="s">
@@ -8921,19 +8904,19 @@
       <c r="H14" s="166" t="s">
         <v>141</v>
       </c>
-      <c r="I14" s="257">
+      <c r="I14" s="192">
         <v>42262</v>
       </c>
-      <c r="J14" s="258">
+      <c r="J14" s="193">
         <v>42276</v>
       </c>
       <c r="K14" s="127">
         <v>8</v>
       </c>
-      <c r="L14" s="257">
+      <c r="L14" s="192">
         <v>42262</v>
       </c>
-      <c r="M14" s="258">
+      <c r="M14" s="193">
         <v>42276</v>
       </c>
       <c r="N14" s="127">
@@ -8946,7 +8929,7 @@
         <f t="shared" ref="B15:B23" si="0">B14+1</f>
         <v>3</v>
       </c>
-      <c r="C15" s="235">
+      <c r="C15" s="170">
         <v>1</v>
       </c>
       <c r="D15" s="161" t="s">
@@ -8964,19 +8947,19 @@
       <c r="H15" s="166" t="s">
         <v>141</v>
       </c>
-      <c r="I15" s="257">
+      <c r="I15" s="192">
         <v>42262</v>
       </c>
-      <c r="J15" s="258">
+      <c r="J15" s="193">
         <v>42276</v>
       </c>
       <c r="K15" s="127">
         <v>8</v>
       </c>
-      <c r="L15" s="257">
+      <c r="L15" s="192">
         <v>42262</v>
       </c>
-      <c r="M15" s="258">
+      <c r="M15" s="193">
         <v>42276</v>
       </c>
       <c r="N15" s="127">
@@ -8989,7 +8972,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C16" s="235">
+      <c r="C16" s="170">
         <v>1</v>
       </c>
       <c r="D16" s="161" t="s">
@@ -9007,19 +8990,19 @@
       <c r="H16" s="166" t="s">
         <v>141</v>
       </c>
-      <c r="I16" s="257">
+      <c r="I16" s="192">
         <v>42262</v>
       </c>
-      <c r="J16" s="258">
+      <c r="J16" s="193">
         <v>42276</v>
       </c>
       <c r="K16" s="127">
         <v>8</v>
       </c>
-      <c r="L16" s="257">
+      <c r="L16" s="192">
         <v>42262</v>
       </c>
-      <c r="M16" s="258">
+      <c r="M16" s="193">
         <v>42276</v>
       </c>
       <c r="N16" s="127">
@@ -9032,7 +9015,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C17" s="235">
+      <c r="C17" s="170">
         <v>1</v>
       </c>
       <c r="D17" s="161" t="s">
@@ -9050,19 +9033,19 @@
       <c r="H17" s="166" t="s">
         <v>141</v>
       </c>
-      <c r="I17" s="257">
+      <c r="I17" s="192">
         <v>42262</v>
       </c>
-      <c r="J17" s="258">
+      <c r="J17" s="193">
         <v>42276</v>
       </c>
       <c r="K17" s="127">
         <v>8</v>
       </c>
-      <c r="L17" s="257">
+      <c r="L17" s="192">
         <v>42262</v>
       </c>
-      <c r="M17" s="258">
+      <c r="M17" s="193">
         <v>42276</v>
       </c>
       <c r="N17" s="127">
@@ -9075,7 +9058,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C18" s="235">
+      <c r="C18" s="170">
         <v>1</v>
       </c>
       <c r="D18" s="161" t="s">
@@ -9093,19 +9076,19 @@
       <c r="H18" s="166" t="s">
         <v>141</v>
       </c>
-      <c r="I18" s="257">
+      <c r="I18" s="192">
         <v>42262</v>
       </c>
-      <c r="J18" s="258">
+      <c r="J18" s="193">
         <v>42276</v>
       </c>
       <c r="K18" s="127">
         <v>8</v>
       </c>
-      <c r="L18" s="257">
+      <c r="L18" s="192">
         <v>42262</v>
       </c>
-      <c r="M18" s="258">
+      <c r="M18" s="193">
         <v>42276</v>
       </c>
       <c r="N18" s="127">
@@ -9118,7 +9101,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C19" s="235">
+      <c r="C19" s="170">
         <v>1</v>
       </c>
       <c r="D19" s="161" t="s">
@@ -9136,19 +9119,19 @@
       <c r="H19" s="166" t="s">
         <v>141</v>
       </c>
-      <c r="I19" s="257">
+      <c r="I19" s="192">
         <v>42262</v>
       </c>
-      <c r="J19" s="258">
+      <c r="J19" s="193">
         <v>42276</v>
       </c>
       <c r="K19" s="127">
         <v>8</v>
       </c>
-      <c r="L19" s="257">
+      <c r="L19" s="192">
         <v>42262</v>
       </c>
-      <c r="M19" s="258">
+      <c r="M19" s="193">
         <v>42276</v>
       </c>
       <c r="N19" s="127">
@@ -9162,7 +9145,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C20" s="235">
+      <c r="C20" s="170">
         <v>1</v>
       </c>
       <c r="D20" s="165" t="s">
@@ -9180,19 +9163,19 @@
       <c r="H20" s="166" t="s">
         <v>141</v>
       </c>
-      <c r="I20" s="257">
+      <c r="I20" s="192">
         <v>42262</v>
       </c>
-      <c r="J20" s="258">
+      <c r="J20" s="193">
         <v>42276</v>
       </c>
       <c r="K20" s="127">
         <v>8</v>
       </c>
-      <c r="L20" s="257">
+      <c r="L20" s="192">
         <v>42262</v>
       </c>
-      <c r="M20" s="258">
+      <c r="M20" s="193">
         <v>42276</v>
       </c>
       <c r="N20" s="127">
@@ -9206,7 +9189,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C21" s="235">
+      <c r="C21" s="170">
         <v>1</v>
       </c>
       <c r="D21" s="165" t="s">
@@ -9224,19 +9207,19 @@
       <c r="H21" s="166" t="s">
         <v>141</v>
       </c>
-      <c r="I21" s="257">
+      <c r="I21" s="192">
         <v>42262</v>
       </c>
-      <c r="J21" s="258">
+      <c r="J21" s="193">
         <v>42276</v>
       </c>
       <c r="K21" s="127">
         <v>8</v>
       </c>
-      <c r="L21" s="257">
+      <c r="L21" s="192">
         <v>42262</v>
       </c>
-      <c r="M21" s="258">
+      <c r="M21" s="193">
         <v>42276</v>
       </c>
       <c r="N21" s="127">
@@ -9250,7 +9233,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C22" s="235">
+      <c r="C22" s="170">
         <v>1</v>
       </c>
       <c r="D22" s="165" t="s">
@@ -9268,19 +9251,19 @@
       <c r="H22" s="166" t="s">
         <v>141</v>
       </c>
-      <c r="I22" s="257">
+      <c r="I22" s="192">
         <v>42262</v>
       </c>
-      <c r="J22" s="258">
+      <c r="J22" s="193">
         <v>42276</v>
       </c>
       <c r="K22" s="127">
         <v>8</v>
       </c>
-      <c r="L22" s="257">
+      <c r="L22" s="192">
         <v>42262</v>
       </c>
-      <c r="M22" s="258">
+      <c r="M22" s="193">
         <v>42276</v>
       </c>
       <c r="N22" s="127">
@@ -9294,7 +9277,7 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C23" s="235">
+      <c r="C23" s="170">
         <v>1</v>
       </c>
       <c r="D23" s="165" t="s">
@@ -9312,19 +9295,19 @@
       <c r="H23" s="166" t="s">
         <v>141</v>
       </c>
-      <c r="I23" s="257">
+      <c r="I23" s="192">
         <v>42262</v>
       </c>
-      <c r="J23" s="258">
+      <c r="J23" s="193">
         <v>42276</v>
       </c>
       <c r="K23" s="127">
         <v>8</v>
       </c>
-      <c r="L23" s="257">
+      <c r="L23" s="192">
         <v>42262</v>
       </c>
-      <c r="M23" s="258">
+      <c r="M23" s="193">
         <v>42276</v>
       </c>
       <c r="N23" s="127">
@@ -9360,6 +9343,12 @@
     <row r="28" spans="1:15" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="J8:N8"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E10:G10"/>
     <mergeCell ref="B3:O3"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="B6:D6"/>
@@ -9367,12 +9356,6 @@
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="J7:N7"/>
     <mergeCell ref="E7:G7"/>
-    <mergeCell ref="J8:N8"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E10:G10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9420,7 +9403,7 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="I11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="O12" sqref="O12"/>
@@ -9444,22 +9427,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="25" customFormat="1" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A1" s="214" t="s">
+      <c r="A1" s="239" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="215"/>
-      <c r="C1" s="215"/>
-      <c r="D1" s="215"/>
-      <c r="E1" s="215"/>
-      <c r="F1" s="215"/>
-      <c r="G1" s="215"/>
-      <c r="H1" s="215"/>
-      <c r="I1" s="215"/>
-      <c r="J1" s="215"/>
-      <c r="K1" s="215"/>
-      <c r="L1" s="215"/>
-      <c r="M1" s="215"/>
-      <c r="N1" s="216"/>
+      <c r="B1" s="240"/>
+      <c r="C1" s="240"/>
+      <c r="D1" s="240"/>
+      <c r="E1" s="240"/>
+      <c r="F1" s="240"/>
+      <c r="G1" s="240"/>
+      <c r="H1" s="240"/>
+      <c r="I1" s="240"/>
+      <c r="J1" s="240"/>
+      <c r="K1" s="240"/>
+      <c r="L1" s="240"/>
+      <c r="M1" s="240"/>
+      <c r="N1" s="241"/>
     </row>
     <row r="2" spans="1:15" s="25" customFormat="1" ht="11.45" customHeight="1">
       <c r="A2" s="26"/>
@@ -9483,64 +9466,64 @@
       <c r="M3" s="28"/>
     </row>
     <row r="4" spans="1:15" s="24" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="239" t="s">
+      <c r="A4" s="174" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="240" t="s">
+      <c r="B4" s="175" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="241" t="s">
+      <c r="C4" s="176" t="s">
         <v>114</v>
       </c>
-      <c r="D4" s="241" t="s">
+      <c r="D4" s="176" t="s">
         <v>126</v>
       </c>
-      <c r="E4" s="240" t="s">
+      <c r="E4" s="175" t="s">
         <v>111</v>
       </c>
-      <c r="F4" s="240" t="s">
+      <c r="F4" s="175" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="240" t="s">
+      <c r="G4" s="175" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="241" t="s">
+      <c r="H4" s="176" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="240" t="s">
+      <c r="I4" s="175" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="240" t="s">
+      <c r="J4" s="175" t="s">
         <v>125</v>
       </c>
-      <c r="K4" s="240" t="s">
+      <c r="K4" s="175" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="240" t="s">
+      <c r="L4" s="175" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="240" t="s">
+      <c r="M4" s="175" t="s">
         <v>28</v>
       </c>
-      <c r="N4" s="240" t="s">
+      <c r="N4" s="175" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="242" t="s">
+      <c r="O4" s="177" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="116" customFormat="1" ht="42" customHeight="1">
-      <c r="A5" s="243">
+      <c r="A5" s="178">
         <v>1</v>
       </c>
-      <c r="B5" s="236">
+      <c r="B5" s="171">
         <v>1</v>
       </c>
       <c r="C5" s="114" t="str">
         <f>VLOOKUP(A5,Planificación!$B$13:$F$70,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D5" s="237" t="str">
+      <c r="D5" s="172" t="str">
         <f>CONCATENATE(LEFT(VLOOKUP(A5,Planificación!B$13:H$23,5,FALSE),FIND("_",VLOOKUP(A5,Planificación!B$13:H$23,5,FALSE),1)-1)," / ",VLOOKUP(A5,Planificación!B$13:H$23,3,FALSE))</f>
         <v>PGPROY / Desarrollo de Sistemas</v>
       </c>
@@ -9566,34 +9549,34 @@
         <v>Julio</v>
       </c>
       <c r="K5" s="160"/>
-      <c r="L5" s="238">
+      <c r="L5" s="173">
         <f>VLOOKUP(A5,Planificación!B$13:N$23,9,FALSE)</f>
         <v>42276</v>
       </c>
-      <c r="M5" s="238">
+      <c r="M5" s="173">
         <f>VLOOKUP(A5,Planificación!B$13:N$23,12,FALSE)</f>
         <v>42276</v>
       </c>
-      <c r="N5" s="254">
+      <c r="N5" s="189">
         <v>1</v>
       </c>
-      <c r="O5" s="244" t="s">
+      <c r="O5" s="179" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="116" customFormat="1" ht="42" customHeight="1">
-      <c r="A6" s="243">
+      <c r="A6" s="178">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="236">
+      <c r="B6" s="171">
         <v>1</v>
       </c>
       <c r="C6" s="114" t="str">
         <f>VLOOKUP(A6,Planificación!$B$13:$F$70,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D6" s="237" t="str">
+      <c r="D6" s="172" t="str">
         <f>CONCATENATE(LEFT(VLOOKUP(A6,Planificación!B$13:H$23,5,FALSE),FIND("_",VLOOKUP(A6,Planificación!B$13:H$23,5,FALSE),1)-1)," / ",VLOOKUP(A6,Planificación!B$13:H$23,3,FALSE))</f>
         <v>PPROY / Desarrollo de Sistemas</v>
       </c>
@@ -9605,7 +9588,7 @@
         <f>VLOOKUP(A6,Planificación!$B$13:$H$23,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G6" s="245" t="s">
+      <c r="G6" s="180" t="s">
         <v>200</v>
       </c>
       <c r="H6" s="157" t="s">
@@ -9619,23 +9602,23 @@
         <v>Julio</v>
       </c>
       <c r="K6" s="160"/>
-      <c r="L6" s="238">
+      <c r="L6" s="173">
         <f>VLOOKUP(A6,Planificación!B$13:N$23,9,FALSE)</f>
         <v>42276</v>
       </c>
-      <c r="M6" s="238">
+      <c r="M6" s="173">
         <f>VLOOKUP(A6,Planificación!B$13:N$23,12,FALSE)</f>
         <v>42276</v>
       </c>
-      <c r="N6" s="254">
+      <c r="N6" s="189">
         <v>1</v>
       </c>
-      <c r="O6" s="244" t="s">
+      <c r="O6" s="179" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="42" customHeight="1">
-      <c r="A7" s="243">
+      <c r="A7" s="178">
         <f t="shared" ref="A7:A15" si="0">A6+1</f>
         <v>3</v>
       </c>
@@ -9680,26 +9663,26 @@
         <f>VLOOKUP(A7,Planificación!B$13:N$23,12,FALSE)</f>
         <v>42276</v>
       </c>
-      <c r="N7" s="254">
+      <c r="N7" s="189">
         <v>1</v>
       </c>
-      <c r="O7" s="244" t="s">
+      <c r="O7" s="179" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="116" customFormat="1" ht="42" customHeight="1">
-      <c r="A8" s="243">
+      <c r="A8" s="178">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="236">
+      <c r="B8" s="171">
         <v>1</v>
       </c>
       <c r="C8" s="114" t="str">
         <f>VLOOKUP(A8,Planificación!$B$13:$F$70,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D8" s="237" t="str">
+      <c r="D8" s="172" t="str">
         <f>CONCATENATE(LEFT(VLOOKUP(A8,Planificación!B$13:H$23,5,FALSE),FIND("_",VLOOKUP(A8,Planificación!B$13:H$23,5,FALSE),1)-1)," / ",VLOOKUP(A8,Planificación!B$13:H$23,3,FALSE))</f>
         <v>CPROY / Desarrollo de Sistemas</v>
       </c>
@@ -9725,23 +9708,23 @@
         <v>Julio</v>
       </c>
       <c r="K8" s="160"/>
-      <c r="L8" s="238">
+      <c r="L8" s="173">
         <f>VLOOKUP(A8,Planificación!B$13:N$23,9,FALSE)</f>
         <v>42276</v>
       </c>
-      <c r="M8" s="238">
+      <c r="M8" s="173">
         <f>VLOOKUP(A8,Planificación!B$13:N$23,12,FALSE)</f>
         <v>42276</v>
       </c>
-      <c r="N8" s="254">
+      <c r="N8" s="189">
         <v>1</v>
       </c>
-      <c r="O8" s="244" t="s">
+      <c r="O8" s="179" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="42" customHeight="1">
-      <c r="A9" s="243">
+      <c r="A9" s="178">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -9786,26 +9769,26 @@
         <f>VLOOKUP(A9,Planificación!B$13:N$23,12,FALSE)</f>
         <v>42276</v>
       </c>
-      <c r="N9" s="254">
+      <c r="N9" s="189">
         <v>1</v>
       </c>
-      <c r="O9" s="244" t="s">
+      <c r="O9" s="179" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="116" customFormat="1" ht="42" customHeight="1">
-      <c r="A10" s="243">
+      <c r="A10" s="178">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="236">
+      <c r="B10" s="171">
         <v>1</v>
       </c>
       <c r="C10" s="114" t="str">
         <f>VLOOKUP(A10,Planificación!$B$13:$F$70,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D10" s="237" t="str">
+      <c r="D10" s="172" t="str">
         <f>CONCATENATE(LEFT(VLOOKUP(A10,Planificación!B$13:H$23,5,FALSE),FIND("_",VLOOKUP(A10,Planificación!B$13:H$23,5,FALSE),1)-1)," / ",VLOOKUP(A10,Planificación!B$13:H$23,3,FALSE))</f>
         <v>ACCPRO / Desarrollo de Sistemas</v>
       </c>
@@ -9831,34 +9814,34 @@
         <v>Julio</v>
       </c>
       <c r="K10" s="160"/>
-      <c r="L10" s="238">
+      <c r="L10" s="173">
         <f>VLOOKUP(A10,Planificación!B$13:N$23,9,FALSE)</f>
         <v>42276</v>
       </c>
-      <c r="M10" s="238">
+      <c r="M10" s="173">
         <f>VLOOKUP(A10,Planificación!B$13:N$23,12,FALSE)</f>
         <v>42276</v>
       </c>
-      <c r="N10" s="254">
+      <c r="N10" s="189">
         <v>1</v>
       </c>
-      <c r="O10" s="244" t="s">
+      <c r="O10" s="179" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="116" customFormat="1" ht="42" customHeight="1">
-      <c r="A11" s="243">
+      <c r="A11" s="178">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="236">
+      <c r="B11" s="171">
         <v>1</v>
       </c>
       <c r="C11" s="114" t="str">
         <f>VLOOKUP(A11,Planificación!$B$13:$F$70,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D11" s="237" t="str">
+      <c r="D11" s="172" t="str">
         <f>CONCATENATE(LEFT(VLOOKUP(A11,Planificación!B$13:H$23,5,FALSE),FIND("_",VLOOKUP(A11,Planificación!B$13:H$23,5,FALSE),1)-1)," / ",VLOOKUP(A11,Planificación!B$13:H$23,3,FALSE))</f>
         <v>ACREPRO / Desarrollo de Sistemas</v>
       </c>
@@ -9884,23 +9867,23 @@
         <v>Julio</v>
       </c>
       <c r="K11" s="160"/>
-      <c r="L11" s="238">
+      <c r="L11" s="173">
         <f>VLOOKUP(A11,Planificación!B$13:N$23,9,FALSE)</f>
         <v>42276</v>
       </c>
-      <c r="M11" s="238">
+      <c r="M11" s="173">
         <f>VLOOKUP(A11,Planificación!B$13:N$23,12,FALSE)</f>
         <v>42276</v>
       </c>
-      <c r="N11" s="254">
+      <c r="N11" s="189">
         <v>1</v>
       </c>
-      <c r="O11" s="244" t="s">
+      <c r="O11" s="179" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="42" customHeight="1">
-      <c r="A12" s="243">
+      <c r="A12" s="178">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -9945,15 +9928,15 @@
         <f>VLOOKUP(A12,Planificación!B$13:N$23,12,FALSE)</f>
         <v>42276</v>
       </c>
-      <c r="N12" s="254">
+      <c r="N12" s="189">
         <v>1</v>
       </c>
-      <c r="O12" s="244" t="s">
+      <c r="O12" s="179" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="42" customHeight="1">
-      <c r="A13" s="243">
+      <c r="A13" s="178">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -9998,15 +9981,15 @@
         <f>VLOOKUP(A13,Planificación!B$13:N$23,12,FALSE)</f>
         <v>42276</v>
       </c>
-      <c r="N13" s="254">
+      <c r="N13" s="189">
         <v>1</v>
       </c>
-      <c r="O13" s="244" t="s">
+      <c r="O13" s="179" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="116" customFormat="1" ht="42" customHeight="1">
-      <c r="A14" s="243">
+      <c r="A14" s="178">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -10051,63 +10034,63 @@
         <f>VLOOKUP(A14,Planificación!B$13:N$23,12,FALSE)</f>
         <v>42276</v>
       </c>
-      <c r="N14" s="254">
+      <c r="N14" s="189">
         <v>1</v>
       </c>
-      <c r="O14" s="244" t="s">
+      <c r="O14" s="179" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="42" customHeight="1" thickBot="1">
-      <c r="A15" s="246">
+      <c r="A15" s="181">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B15" s="247">
+      <c r="B15" s="182">
         <v>1</v>
       </c>
-      <c r="C15" s="248" t="str">
+      <c r="C15" s="183" t="str">
         <f>VLOOKUP(A15,Planificación!$B$13:$F$70,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D15" s="249" t="str">
+      <c r="D15" s="184" t="str">
         <f>CONCATENATE(LEFT(VLOOKUP(A15,Planificación!B$13:H$23,5,FALSE),FIND("_",VLOOKUP(A15,Planificación!B$13:H$23,5,FALSE),1)-1)," / ",VLOOKUP(A15,Planificación!B$13:H$23,3,FALSE))</f>
         <v>ACENTRE / Desarrollo de Sistemas</v>
       </c>
-      <c r="E15" s="248" t="str">
+      <c r="E15" s="183" t="str">
         <f>VLOOKUP(A15,Planificación!B$13:H$23,6,FALSE)</f>
         <v>Roger</v>
       </c>
-      <c r="F15" s="248" t="str">
+      <c r="F15" s="183" t="str">
         <f>VLOOKUP(A15,Planificación!$B$13:$H$23,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G15" s="250" t="s">
+      <c r="G15" s="185" t="s">
         <v>177</v>
       </c>
-      <c r="H15" s="251" t="s">
+      <c r="H15" s="186" t="s">
         <v>120</v>
       </c>
-      <c r="I15" s="251" t="s">
+      <c r="I15" s="186" t="s">
         <v>95</v>
       </c>
-      <c r="J15" s="251" t="str">
+      <c r="J15" s="186" t="str">
         <f>VLOOKUP(A15,Planificación!B$13:H$23,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="K15" s="252"/>
-      <c r="L15" s="253">
+      <c r="K15" s="187"/>
+      <c r="L15" s="188">
         <f>VLOOKUP(A15,Planificación!B$13:N$23,9,FALSE)</f>
         <v>42276</v>
       </c>
-      <c r="M15" s="253">
+      <c r="M15" s="188">
         <f>VLOOKUP(A15,Planificación!B$13:N$23,12,FALSE)</f>
         <v>42276</v>
       </c>
-      <c r="N15" s="255">
+      <c r="N15" s="190">
         <v>1</v>
       </c>
-      <c r="O15" s="256" t="s">
+      <c r="O15" s="191" t="s">
         <v>203</v>
       </c>
     </row>
@@ -10166,15 +10149,15 @@
   <sheetData>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="17.25" customHeight="1">
       <c r="A2" s="10"/>
-      <c r="C2" s="233" t="s">
+      <c r="C2" s="248" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="233"/>
-      <c r="E2" s="233"/>
-      <c r="F2" s="233"/>
-      <c r="G2" s="233"/>
-      <c r="H2" s="233"/>
-      <c r="I2" s="233"/>
+      <c r="D2" s="248"/>
+      <c r="E2" s="248"/>
+      <c r="F2" s="248"/>
+      <c r="G2" s="248"/>
+      <c r="H2" s="248"/>
+      <c r="I2" s="248"/>
       <c r="J2" s="149"/>
       <c r="K2" s="149"/>
       <c r="L2" s="149"/>
@@ -10184,65 +10167,65 @@
     </row>
     <row r="4" spans="1:12" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="11"/>
-      <c r="C4" s="230" t="s">
+      <c r="C4" s="242" t="s">
         <v>135</v>
       </c>
-      <c r="D4" s="230"/>
-      <c r="E4" s="220" t="str">
+      <c r="D4" s="242"/>
+      <c r="E4" s="243" t="str">
         <f>IF(Planificación!E6&lt;&gt;"",Planificación!E6,"")</f>
         <v>Roger Apaéstegui Ortega</v>
       </c>
-      <c r="F4" s="221"/>
-      <c r="G4" s="221"/>
-      <c r="H4" s="221"/>
-      <c r="I4" s="222"/>
+      <c r="F4" s="244"/>
+      <c r="G4" s="244"/>
+      <c r="H4" s="244"/>
+      <c r="I4" s="245"/>
     </row>
     <row r="5" spans="1:12" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="11"/>
-      <c r="C5" s="231" t="str">
+      <c r="C5" s="246" t="str">
         <f>Planificación!B7</f>
         <v>Analista de Calidad</v>
       </c>
-      <c r="D5" s="232"/>
-      <c r="E5" s="220" t="str">
+      <c r="D5" s="247"/>
+      <c r="E5" s="243" t="str">
         <f>IF(Planificación!E7&lt;&gt;"",Planificación!E7,"")</f>
         <v>Julio Leonardo Paredes</v>
       </c>
-      <c r="F5" s="221"/>
-      <c r="G5" s="221"/>
-      <c r="H5" s="221"/>
-      <c r="I5" s="222"/>
+      <c r="F5" s="244"/>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="245"/>
     </row>
     <row r="6" spans="1:12" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A6" s="11"/>
-      <c r="C6" s="218" t="s">
+      <c r="C6" s="250" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="219"/>
-      <c r="E6" s="220" t="str">
+      <c r="D6" s="251"/>
+      <c r="E6" s="243" t="str">
         <f>IF(Planificación!E8&lt;&gt;"",Planificación!E8,"")</f>
         <v>Julio Leonardo Paredes,  Roger Apaéstegui Ortega</v>
       </c>
-      <c r="F6" s="221"/>
-      <c r="G6" s="221"/>
-      <c r="H6" s="221"/>
-      <c r="I6" s="222"/>
+      <c r="F6" s="244"/>
+      <c r="G6" s="244"/>
+      <c r="H6" s="244"/>
+      <c r="I6" s="245"/>
     </row>
     <row r="7" spans="1:12" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A7" s="11"/>
-      <c r="C7" s="224" t="s">
+      <c r="C7" s="253" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="224"/>
-      <c r="E7" s="225">
+      <c r="D7" s="253"/>
+      <c r="E7" s="254">
         <f>IF(Planificación!E9&lt;&gt;"",Planificación!E9,"")</f>
         <v>42262</v>
       </c>
-      <c r="F7" s="226"/>
-      <c r="G7" s="227" t="s">
+      <c r="F7" s="255"/>
+      <c r="G7" s="256" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="228"/>
+      <c r="H7" s="257"/>
       <c r="I7" s="99">
         <f>IF(Planificación!G9&lt;&gt;"",Planificación!G9,"")</f>
         <v>42276</v>
@@ -10250,24 +10233,24 @@
     </row>
     <row r="8" spans="1:12" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A8" s="11"/>
-      <c r="C8" s="224" t="s">
+      <c r="C8" s="253" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="229"/>
-      <c r="E8" s="220" t="str">
+      <c r="D8" s="258"/>
+      <c r="E8" s="243" t="str">
         <f>IF(Planificación!E10&lt;&gt;"",Planificación!E10,"")</f>
         <v>SETIEMBRE</v>
       </c>
-      <c r="F8" s="221"/>
-      <c r="G8" s="221"/>
-      <c r="H8" s="221"/>
-      <c r="I8" s="222"/>
+      <c r="F8" s="244"/>
+      <c r="G8" s="244"/>
+      <c r="H8" s="244"/>
+      <c r="I8" s="245"/>
     </row>
     <row r="13" spans="1:12" ht="15">
-      <c r="C13" s="223" t="s">
+      <c r="C13" s="252" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="223"/>
+      <c r="D13" s="252"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -10349,10 +10332,10 @@
       <c r="E24" s="9"/>
     </row>
     <row r="26" spans="3:14" ht="15" customHeight="1">
-      <c r="C26" s="217" t="s">
+      <c r="C26" s="249" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="217"/>
+      <c r="D26" s="249"/>
     </row>
     <row r="27" spans="3:14">
       <c r="C27" s="30" t="s">
@@ -10426,10 +10409,10 @@
       </c>
     </row>
     <row r="40" spans="3:16" ht="15">
-      <c r="C40" s="217" t="s">
+      <c r="C40" s="249" t="s">
         <v>108</v>
       </c>
-      <c r="D40" s="217"/>
+      <c r="D40" s="249"/>
       <c r="P40" s="147"/>
     </row>
     <row r="41" spans="3:16">
@@ -10460,10 +10443,10 @@
       </c>
     </row>
     <row r="57" spans="3:4" ht="15">
-      <c r="C57" s="217" t="s">
+      <c r="C57" s="249" t="s">
         <v>119</v>
       </c>
-      <c r="D57" s="217"/>
+      <c r="D57" s="249"/>
     </row>
     <row r="58" spans="3:4">
       <c r="C58" s="30" t="s">
@@ -10511,11 +10494,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="C2:I2"/>
     <mergeCell ref="C57:D57"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:I6"/>
@@ -10527,6 +10505,11 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="C2:I2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Area_de_Proceso-_PPQA/HGQA/HGQA_V1.0_2015_SETIEMBRE.xlsx
+++ b/Area_de_Proceso-_PPQA/HGQA/HGQA_V1.0_2015_SETIEMBRE.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thefa\Documents\GitHub\UTP-GPS-ALARM\Area_de_Proceso-_PPQA\HGQA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UTP-GPS-ALARM\UTP-GPS-ALARM\Area_de_Proceso-_PPQA\HGQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="9195" tabRatio="642" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="2400" windowWidth="17280" windowHeight="9195" tabRatio="642" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Historial de Revisiones" sheetId="14" r:id="rId1"/>
@@ -57,7 +57,7 @@
     <definedName name="TipoServicio" localSheetId="0">#REF!</definedName>
     <definedName name="TiposNC">Tablas!$I$3:$I$8</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -124,7 +124,7 @@
             <family val="2"/>
           </rPr>
           <t>Las acciones realizadas para solucionar la no conformidad
-ó
+o
 El Nro. De Oportunidad de Mejora generada</t>
         </r>
       </text>
@@ -172,15 +172,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="209">
   <si>
     <t>Analista Responsable</t>
   </si>
   <si>
     <t>Periodo de Medición:</t>
-  </si>
-  <si>
-    <t>ASEGURAMIENTO DE LA CALIDAD - INFORME</t>
   </si>
   <si>
     <t>Seguimiento de NC</t>
@@ -268,9 +265,6 @@
     <t>Indicador Cierre</t>
   </si>
   <si>
-    <t>SEGUIMIENTO DE NO CONFORMIDADES</t>
-  </si>
-  <si>
     <t>A. Resumen de Revisiones</t>
   </si>
   <si>
@@ -296,12 +290,6 @@
   </si>
   <si>
     <t>B. Resumen por Tipo de No Conformidad</t>
-  </si>
-  <si>
-    <t>Nro de revisiones de Planificadas:</t>
-  </si>
-  <si>
-    <t>Nro de revisiones Ejecutadas:</t>
   </si>
   <si>
     <t>Objetivo</t>
@@ -501,309 +489,336 @@
     <t>Analista de procesos responsable del artefacto, según hoja "Planificación"</t>
   </si>
   <si>
+    <t>C. Esfuerzo invertido en revisiones de QA.</t>
+  </si>
+  <si>
+    <t>Duración Planificada</t>
+  </si>
+  <si>
+    <t>Duración Real</t>
+  </si>
+  <si>
+    <t>Revisado / Analista Responsable</t>
+  </si>
+  <si>
+    <t>Revisado Analista responsable</t>
+  </si>
+  <si>
+    <t>Tipo Proyecto</t>
+  </si>
+  <si>
+    <t>Tipo de Proyecto</t>
+  </si>
+  <si>
+    <t>Entregable</t>
+  </si>
+  <si>
+    <t>Nombre del entregable revisado</t>
+  </si>
+  <si>
+    <t>Comentarios</t>
+  </si>
+  <si>
+    <t>Nro. de Revisión</t>
+  </si>
+  <si>
+    <t>D. Resumen por Origen de NC</t>
+  </si>
+  <si>
+    <t>Documento</t>
+  </si>
+  <si>
+    <t>Funcionalidad</t>
+  </si>
+  <si>
+    <t>Base de Datos</t>
+  </si>
+  <si>
+    <t>Desarrollo de Sistemas</t>
+  </si>
+  <si>
+    <t>Revisado / Auditado</t>
+  </si>
+  <si>
+    <t>Responsable (s) de levantar no conformidad</t>
+  </si>
+  <si>
+    <t>Entregable / Proceso revisado</t>
+  </si>
+  <si>
+    <t>Entregable / Proceso</t>
+  </si>
+  <si>
+    <t>Proceso</t>
+  </si>
+  <si>
+    <t>PPQA</t>
+  </si>
+  <si>
+    <t>PP_PMC</t>
+  </si>
+  <si>
+    <t>REQM</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>Jefe de Proyecto:</t>
+  </si>
+  <si>
+    <t>PGC_Proceso de Gestion de Configuracion</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>Julio Leonardo Paredes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UTP-GPS-ALARM </t>
+  </si>
+  <si>
+    <t>Analista de Calidad</t>
+  </si>
+  <si>
+    <t>Julio</t>
+  </si>
+  <si>
+    <t>Gaspar</t>
+  </si>
+  <si>
+    <t>Roger</t>
+  </si>
+  <si>
+    <t>Revisores y/o Revisados</t>
+  </si>
+  <si>
+    <t>Entregables y Procesos</t>
+  </si>
+  <si>
+    <t>PPROY_Plan de Proyecto</t>
+  </si>
+  <si>
+    <t>REGRI_Registro de Riesgos</t>
+  </si>
+  <si>
+    <t>LMREQM_Lista Maestra de Requerimientos</t>
+  </si>
+  <si>
+    <t>SOLACC_Solicitud de Accesos</t>
+  </si>
+  <si>
+    <t>CPROY_Cronograma de Proyecto</t>
+  </si>
+  <si>
+    <t>RCREQM_Registro de Cambios a Requerimientos</t>
+  </si>
+  <si>
+    <t>SOLCREQ_Solicitud de Cambios a Requerimientos</t>
+  </si>
+  <si>
+    <t>AREXT_Acta de reunion Externa</t>
+  </si>
+  <si>
+    <t>REGITCON_Registro de Items de Configuracion</t>
+  </si>
+  <si>
+    <t>MTREQM_Matriz Trazabilidad de Requerimientos</t>
+  </si>
+  <si>
+    <t>PGREQM_Proceso de Gestion de Requerimientos</t>
+  </si>
+  <si>
+    <t>DANA_Documento de Analisis</t>
+  </si>
+  <si>
+    <t>MANUSER_Manual de Usuario</t>
+  </si>
+  <si>
+    <t>GUINSTALL_Guia de Instalacion</t>
+  </si>
+  <si>
+    <t>HORAS PROGRAMADAS PARA REVISIÓN</t>
+  </si>
+  <si>
+    <t>HORAS INVERTIDAS EN REVISIÓN</t>
+  </si>
+  <si>
+    <t>PGPROY_Proceso de Gestion</t>
+  </si>
+  <si>
+    <t>ACREVPRO_Acta de Revision de Plan de Proyecto</t>
+  </si>
+  <si>
+    <t>ACCPRO_Acta de Cierre de Proyecto</t>
+  </si>
+  <si>
+    <t>ACREPRO_Acta de Relatorio de Proyecto</t>
+  </si>
+  <si>
+    <t>ASCR_Acta de Solicitud de Cambios a Requerimientos</t>
+  </si>
+  <si>
+    <t>INPRUIN_Informe de Pruebas Internas</t>
+  </si>
+  <si>
+    <t>IAUDICM_Informe de Auditoria de CM</t>
+  </si>
+  <si>
+    <t>FMVREQM_Ficha de Metricas de Volatilidad de Requerimientos</t>
+  </si>
+  <si>
+    <t>FMICIC_Ficha de Metrica de Indice de Cambios en Items de Configuracion</t>
+  </si>
+  <si>
+    <t>FMEXRI_Ficha de Metrica de Exposicion al Riesgo</t>
+  </si>
+  <si>
+    <t>IAQUIN_Informe Avance Quincenal</t>
+  </si>
+  <si>
+    <t>ARINT_Actas de Reunion Quincenal</t>
+  </si>
+  <si>
+    <t>ACENTRE_Acta de Aceptacion  de Entregables</t>
+  </si>
+  <si>
+    <t>Julio Leonardo Paredes,  Roger Apaéstegui Ortega</t>
+  </si>
+  <si>
+    <t>Roger Apaéstegui Ortega</t>
+  </si>
+  <si>
+    <t>No se encontraron No Conformidades</t>
+  </si>
+  <si>
+    <t>PROY</t>
+  </si>
+  <si>
+    <t>DDIS_Documento de Diseño</t>
+  </si>
+  <si>
+    <t>PQA_Proceso de Aseguramiento de Calidad</t>
+  </si>
+  <si>
+    <t>HGQA_Herramienta Gestion de Aseguramiento de Calidad</t>
+  </si>
+  <si>
+    <t>INREQA_Informe de Revisión General de Aseguramiento de Calidad</t>
+  </si>
+  <si>
+    <t>SOLQA_Solicitud de Aseguramiento de Calidad</t>
+  </si>
+  <si>
+    <t>CHKQA_CheckList de Aseguramiento de Calidad</t>
+  </si>
+  <si>
+    <t>ICIC_Indice Cambios Items de Configuracion</t>
+  </si>
+  <si>
+    <t>PROMM_Proceso de Medicion de Metrica</t>
+  </si>
+  <si>
+    <t>TABM_Tablero de Metricas</t>
+  </si>
+  <si>
+    <t>FMNCONQAP_Ficha de Metricas de N Conformidades QA de Producto</t>
+  </si>
+  <si>
+    <t>INPRUEX_Informe de Pruebas Externas</t>
+  </si>
+  <si>
+    <t>Fecha Efectiva: 20/10/2015</t>
+  </si>
+  <si>
+    <t>Nombre del Jefe de Proyecto</t>
+  </si>
+  <si>
+    <t>Nombre del Analista de Calidad</t>
+  </si>
+  <si>
+    <t>MST E.I.R.L</t>
+  </si>
+  <si>
+    <t>SETIEMBRE</t>
+  </si>
+  <si>
+    <t>Actualizar Datos del Documento y corregir definiciones</t>
+  </si>
+  <si>
+    <t>Nro.</t>
+  </si>
+  <si>
+    <t>Modificar Documento a Formato del Proyecto (Aplica a todo el Documento)</t>
+  </si>
+  <si>
+    <t>Actualizar Datos del Documento y corregir definiciones(Todo el Inciso 7, 8, 9 y 10)</t>
+  </si>
+  <si>
+    <t>Corregir fechas de actividades por desconfiguración de la misma (Procesos de Gestión y Proceso de ingeniería)</t>
+  </si>
+  <si>
+    <t>Ajustar documento a formato de documentos del proyecto (Aplica solo a plantilla, no al contenido)</t>
+  </si>
+  <si>
+    <t>Solución de No Conformidad el 26/09/2015</t>
+  </si>
+  <si>
+    <t>HGQA_V1.0_2015 SETIEMBRE Herramienta de Gestión QA-Producto</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HGQA Herramienta de Gestión QA - Producto</t>
+  </si>
+  <si>
+    <t>HGQA SEGUIMIENTO DE NO CONFORMIDADES</t>
+  </si>
+  <si>
+    <t>HGQA ASEGURAMIENTO DE LA CALIDAD - INFORME</t>
+  </si>
+  <si>
+    <t>Nro. de revisiones de Planificadas:</t>
+  </si>
+  <si>
+    <t>Nro. de revisiones Ejecutadas:</t>
+  </si>
+  <si>
+    <t>Definir nuevos riesgos que aún no están contemplados y son de importancia en el Proyecto</t>
+  </si>
+  <si>
+    <t>PGPROY_Proceso de Gestión</t>
+  </si>
+  <si>
+    <t>ACREVPRO_Acta de Revisión de Plan de Proyecto</t>
+  </si>
+  <si>
+    <t>AREXT_Acta de reunión Externa</t>
+  </si>
+  <si>
+    <t>ARINT_Actas de Reunión Quincenal</t>
+  </si>
+  <si>
+    <t>ACENTRE_Acta de Aceptación  de Entregables</t>
+  </si>
+  <si>
     <t>Clasificación de la disconformidad.
-Estandar: No cumple con el estandar.
-Control de Configuración: No Cumple con la nomenclatura  ni con la ruta en la lista de Items de configuración.</t>
-  </si>
-  <si>
-    <t>C. Esfuerzo invertido en revisiones de QA.</t>
-  </si>
-  <si>
-    <t>Duración Planificada</t>
-  </si>
-  <si>
-    <t>Duración Real</t>
-  </si>
-  <si>
-    <t>Revisado / Analista Responsable</t>
-  </si>
-  <si>
-    <t>Revisado Analista responsable</t>
-  </si>
-  <si>
-    <t>Tipo Proyecto</t>
-  </si>
-  <si>
-    <t>Tipo de Proyecto</t>
-  </si>
-  <si>
-    <t>Entregable</t>
-  </si>
-  <si>
-    <t>Nombre del entregable revisado</t>
-  </si>
-  <si>
-    <t>Comentarios</t>
-  </si>
-  <si>
-    <t>Nro. de Revisión</t>
-  </si>
-  <si>
-    <t>D. Resumen por Origen de NC</t>
-  </si>
-  <si>
-    <t>Documento</t>
-  </si>
-  <si>
-    <t>Funcionalidad</t>
-  </si>
-  <si>
-    <t>Base de Datos</t>
-  </si>
-  <si>
-    <t>Desarrollo de Sistemas</t>
-  </si>
-  <si>
-    <t>Revisado / Auditado</t>
-  </si>
-  <si>
-    <t>Responsable (s) de levantar no conformidad</t>
-  </si>
-  <si>
-    <t>Entregable / Proceso revisado</t>
-  </si>
-  <si>
-    <t>Entregable / Proceso</t>
-  </si>
-  <si>
-    <t>Proceso</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> HGPRD_0.1_2014 REVISIÓN DE ASEGURAMIENTO DE LA CALIDAD - PRODUCTO</t>
-  </si>
-  <si>
-    <t>PPQA</t>
-  </si>
-  <si>
-    <t>PP_PMC</t>
-  </si>
-  <si>
-    <t>REQM</t>
-  </si>
-  <si>
-    <t>CM</t>
-  </si>
-  <si>
-    <t>MA</t>
-  </si>
-  <si>
-    <t>Jefe de Proyecto:</t>
-  </si>
-  <si>
-    <t>PGC_Proceso de Gestion de Configuracion</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>Julio Leonardo Paredes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UTP-GPS-ALARM </t>
-  </si>
-  <si>
-    <t>Analista de Calidad</t>
-  </si>
-  <si>
-    <t>Julio</t>
-  </si>
-  <si>
-    <t>Gaspar</t>
-  </si>
-  <si>
-    <t>Roger</t>
-  </si>
-  <si>
-    <t>Revisores y/o Revisados</t>
-  </si>
-  <si>
-    <t>Entregables y Procesos</t>
-  </si>
-  <si>
-    <t>PPROY_Plan de Proyecto</t>
-  </si>
-  <si>
-    <t>REGRI_Registro de Riesgos</t>
-  </si>
-  <si>
-    <t>LMREQM_Lista Maestra de Requerimientos</t>
-  </si>
-  <si>
-    <t>SOLACC_Solicitud de Accesos</t>
-  </si>
-  <si>
-    <t>CPROY_Cronograma de Proyecto</t>
-  </si>
-  <si>
-    <t>RCREQM_Registro de Cambios a Requerimientos</t>
-  </si>
-  <si>
-    <t>SOLCREQ_Solicitud de Cambios a Requerimientos</t>
-  </si>
-  <si>
-    <t>AREXT_Acta de reunion Externa</t>
-  </si>
-  <si>
-    <t>REGITCON_Registro de Items de Configuracion</t>
-  </si>
-  <si>
-    <t>MTREQM_Matriz Trazabilidad de Requerimientos</t>
-  </si>
-  <si>
-    <t>PGREQM_Proceso de Gestion de Requerimientos</t>
-  </si>
-  <si>
-    <t>DANA_Documento de Analisis</t>
-  </si>
-  <si>
-    <t>MANUSER_Manual de Usuario</t>
-  </si>
-  <si>
-    <t>GUINSTALL_Guia de Instalacion</t>
-  </si>
-  <si>
-    <t>HORAS PROGRAMADAS PARA REVISIÓN</t>
-  </si>
-  <si>
-    <t>HORAS INVERTIDAS EN REVISIÓN</t>
-  </si>
-  <si>
-    <t>PGPROY_Proceso de Gestion</t>
-  </si>
-  <si>
-    <t>ACREVPRO_Acta de Revision de Plan de Proyecto</t>
-  </si>
-  <si>
-    <t>ACCPRO_Acta de Cierre de Proyecto</t>
-  </si>
-  <si>
-    <t>ACREPRO_Acta de Relatorio de Proyecto</t>
-  </si>
-  <si>
-    <t>ASCR_Acta de Solicitud de Cambios a Requerimientos</t>
-  </si>
-  <si>
-    <t>INPRUIN_Informe de Pruebas Internas</t>
-  </si>
-  <si>
-    <t>IAUDICM_Informe de Auditoria de CM</t>
-  </si>
-  <si>
-    <t>FMVREQM_Ficha de Metricas de Volatilidad de Requerimientos</t>
-  </si>
-  <si>
-    <t>FMICIC_Ficha de Metrica de Indice de Cambios en Items de Configuracion</t>
-  </si>
-  <si>
-    <t>FMEXRI_Ficha de Metrica de Exposicion al Riesgo</t>
-  </si>
-  <si>
-    <t>IAQUIN_Informe Avance Quincenal</t>
-  </si>
-  <si>
-    <t>ARINT_Actas de Reunion Quincenal</t>
-  </si>
-  <si>
-    <t>ACENTRE_Acta de Aceptacion  de Entregables</t>
-  </si>
-  <si>
-    <t>Julio Leonardo Paredes,  Roger Apaéstegui Ortega</t>
-  </si>
-  <si>
-    <t>Roger Apaéstegui Ortega</t>
-  </si>
-  <si>
-    <t>No se encontraron No Conformidades</t>
-  </si>
-  <si>
-    <t>Definir nuevos riesgos que aún no estan contemplados y son de importancia en el Proyecto</t>
-  </si>
-  <si>
-    <t>PROY</t>
-  </si>
-  <si>
-    <t>DDIS_Documento de Diseño</t>
-  </si>
-  <si>
-    <t>PQA_Proceso de Aseguramiento de Calidad</t>
-  </si>
-  <si>
-    <t>HGQA_Herramienta Gestion de Aseguramiento de Calidad</t>
-  </si>
-  <si>
-    <t>INREQA_Informe de Revisión General de Aseguramiento de Calidad</t>
-  </si>
-  <si>
-    <t>SOLQA_Solicitud de Aseguramiento de Calidad</t>
-  </si>
-  <si>
-    <t>CHKQA_CheckList de Aseguramiento de Calidad</t>
-  </si>
-  <si>
-    <t>ICIC_Indice Cambios Items de Configuracion</t>
-  </si>
-  <si>
-    <t>PROMM_Proceso de Medicion de Metrica</t>
-  </si>
-  <si>
-    <t>TABM_Tablero de Metricas</t>
-  </si>
-  <si>
-    <t>FMNCONQAP_Ficha de Metricas de N Conformidades QA de Producto</t>
-  </si>
-  <si>
-    <t>INPRUEX_Informe de Pruebas Externas</t>
-  </si>
-  <si>
-    <t>HGQA_V1.0_2015 Herramienta de Gestión QA-Producto</t>
-  </si>
-  <si>
-    <t>Fecha Efectiva: 20/10/2015</t>
-  </si>
-  <si>
-    <t>Nombre del Jefe de Proyecto</t>
-  </si>
-  <si>
-    <t>Nombre del Analista de Calidad</t>
-  </si>
-  <si>
-    <t>MST E.I.R.L</t>
-  </si>
-  <si>
-    <t>SETIEMBRE</t>
-  </si>
-  <si>
-    <t>Actualizar Datos del Documento y corregir definiciones</t>
-  </si>
-  <si>
-    <t>Nro.</t>
-  </si>
-  <si>
-    <t>Modificar Documento a Formato del Proyecto (Aplica a todo el Documento)</t>
-  </si>
-  <si>
-    <t>Actualizar Datos del Documento y corregir definiciones(Todo el Inciso 7, 8, 9 y 10)</t>
-  </si>
-  <si>
-    <t>Corregir fechas de actividades por desconfiguración de la misma (Procesos de Gestión y Proceso de ingeniería)</t>
-  </si>
-  <si>
-    <t>Ajustar documento a formato de documentos del proyecto (Aplica solo a plantilla, no al contenido)</t>
-  </si>
-  <si>
-    <t>Solución de No Conformidad el 26/09/2015</t>
+Estándar: No cumple con el estándar.
+Control de Configuración: No Cumple con la nomenclatura  ni con la ruta en la lista de Ítems de configuración.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_)"/>
   </numFmts>
-  <fonts count="66">
+  <fonts count="65">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1161,13 +1176,6 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1936,7 +1944,7 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="259">
+  <cellXfs count="266">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="32" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -2097,9 +2105,6 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="36" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2133,10 +2138,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -2357,13 +2358,13 @@
     <xf numFmtId="0" fontId="59" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2397,58 +2398,58 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="24" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="63" fillId="24" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="62" fillId="24" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="24" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="64" fillId="24" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="24" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="64" fillId="24" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="24" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="64" fillId="24" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="15" fontId="65" fillId="24" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="15" fontId="64" fillId="24" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="11" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="11" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="11" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="11" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="64" fillId="0" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="63" fillId="0" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2466,10 +2467,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="65" fillId="0" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="15" fontId="64" fillId="0" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2508,22 +2509,22 @@
     <xf numFmtId="0" fontId="49" fillId="24" borderId="39" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="24" borderId="39" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="64" fillId="24" borderId="39" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="39" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="24" borderId="39" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="64" fillId="24" borderId="39" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="24" borderId="39" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="64" fillId="24" borderId="39" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="15" fontId="65" fillId="24" borderId="39" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="15" fontId="64" fillId="24" borderId="39" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2544,6 +2545,39 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="43" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="18" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="18" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="44" fillId="24" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2608,7 +2642,7 @@
     <xf numFmtId="0" fontId="12" fillId="26" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2791,7 +2825,7 @@
     <cellStyle name="60% - Énfasis4" xfId="16" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis5" xfId="17" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis6" xfId="18" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bueno" xfId="19" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Buena" xfId="19" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Cálculo" xfId="20" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Cancel" xfId="21"/>
     <cellStyle name="Celda de comprobación" xfId="22" builtinId="23" customBuiltin="1"/>
@@ -2846,7 +2880,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -2882,6 +2916,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2904,7 +2939,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2994,7 +3029,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-1E45-479F-AB83-77D83B7E851D}"/>
               </c:ext>
@@ -3039,7 +3074,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-EC92-482A-AE00-7DAF384C4D3C}"/>
               </c:ext>
@@ -3068,7 +3103,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-PE"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3091,8 +3126,10 @@
                 <a:effectLst/>
               </c:spPr>
             </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -3104,7 +3141,7 @@
                   <c:v>Nro. De revisiones no Ejecutadas</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Nro de revisiones Ejecutadas:</c:v>
+                  <c:v>Nro. de revisiones Ejecutadas:</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3124,7 +3161,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-EC92-482A-AE00-7DAF384C4D3C}"/>
             </c:ext>
@@ -3150,6 +3187,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3172,7 +3210,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3207,7 +3245,7 @@
           <a:cs typeface="+mn-cs"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3219,7 +3257,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -3255,6 +3293,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3277,7 +3316,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3367,7 +3406,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-9B85-4785-897E-BF8A635C112A}"/>
               </c:ext>
@@ -3412,7 +3451,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-0716-432A-8A0E-B7A5A8092E4A}"/>
               </c:ext>
@@ -3457,7 +3496,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-0716-432A-8A0E-B7A5A8092E4A}"/>
               </c:ext>
@@ -3502,7 +3541,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-0716-432A-8A0E-B7A5A8092E4A}"/>
               </c:ext>
@@ -3547,7 +3586,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-0716-432A-8A0E-B7A5A8092E4A}"/>
               </c:ext>
@@ -3592,7 +3631,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000B-9B85-4785-897E-BF8A635C112A}"/>
               </c:ext>
@@ -3613,10 +3652,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-0716-432A-8A0E-B7A5A8092E4A}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3634,10 +3675,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-0716-432A-8A0E-B7A5A8092E4A}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3655,10 +3698,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-0716-432A-8A0E-B7A5A8092E4A}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3676,10 +3721,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-0716-432A-8A0E-B7A5A8092E4A}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3705,7 +3752,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-PE"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3715,8 +3762,10 @@
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -3772,7 +3821,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-0716-432A-8A0E-B7A5A8092E4A}"/>
             </c:ext>
@@ -3830,7 +3879,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3865,7 +3914,7 @@
           <a:cs typeface="+mn-cs"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3877,7 +3926,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -3943,7 +3992,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3992,7 +4041,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-D90A-429B-8317-E4DDE4E6EB04}"/>
               </c:ext>
@@ -4020,7 +4069,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-PE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -4031,7 +4080,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -4066,7 +4115,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-D90A-429B-8317-E4DDE4E6EB04}"/>
             </c:ext>
@@ -4082,11 +4131,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="539004640"/>
-        <c:axId val="539006600"/>
+        <c:axId val="243285808"/>
+        <c:axId val="243288160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="539004640"/>
+        <c:axId val="243285808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4123,10 +4172,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="539006600"/>
+        <c:crossAx val="243288160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4136,7 +4185,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="539006600"/>
+        <c:axId val="243288160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4181,10 +4230,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="539004640"/>
+        <c:crossAx val="243285808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4220,7 +4269,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4255,7 +4304,7 @@
           <a:cs typeface="+mn-cs"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4267,7 +4316,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -4303,7 +4352,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4326,7 +4374,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4450,7 +4498,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7ADE-45C5-8A1C-7D75887A8429}"/>
             </c:ext>
@@ -4519,7 +4567,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7ADE-45C5-8A1C-7D75887A8429}"/>
             </c:ext>
@@ -4588,7 +4636,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-7ADE-45C5-8A1C-7D75887A8429}"/>
             </c:ext>
@@ -4604,12 +4652,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="540190912"/>
-        <c:axId val="540189736"/>
+        <c:axId val="243288944"/>
+        <c:axId val="243286984"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="540190912"/>
+        <c:axId val="243288944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4638,7 +4686,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4661,7 +4708,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-PE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4696,10 +4743,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="540189736"/>
+        <c:crossAx val="243286984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4709,7 +4756,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="540189736"/>
+        <c:axId val="243286984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4782,7 +4829,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-PE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4811,10 +4858,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="540190912"/>
+        <c:crossAx val="243288944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4828,7 +4875,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4851,7 +4897,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4886,7 +4932,7 @@
           <a:cs typeface="+mn-cs"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6960,6 +7006,152 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1698048</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1032196</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="1 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="523875" y="180975"/>
+          <a:ext cx="1374198" cy="1003621"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1352550</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2257425</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>60784</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="1 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5200650" y="95250"/>
+          <a:ext cx="904875" cy="660859"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -7006,10 +7198,78 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>775159</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="1 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5095875" y="114300"/>
+          <a:ext cx="904875" cy="660859"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7137,6 +7397,74 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1247775</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>100491</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="1 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="971550" y="57150"/>
+          <a:ext cx="581025" cy="424341"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7502,159 +7830,159 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F10" sqref="F10:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9" style="62" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" style="62" customWidth="1"/>
-    <col min="3" max="3" width="9" style="62" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="62" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="62" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" style="62" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="62" customWidth="1"/>
-    <col min="8" max="8" width="15" style="62" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="62"/>
+    <col min="1" max="1" width="9" style="61" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" style="61" customWidth="1"/>
+    <col min="3" max="3" width="9" style="61" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="61" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="61" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" style="61" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="61" customWidth="1"/>
+    <col min="8" max="8" width="15" style="61" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="61"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="61"/>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
+      <c r="A1" s="60"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
     </row>
     <row r="2" spans="1:9" ht="15.75">
-      <c r="A2" s="61"/>
-      <c r="B2" s="194" t="s">
+      <c r="A2" s="60"/>
+      <c r="B2" s="201" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="201"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="201"/>
+      <c r="F2" s="201"/>
+      <c r="G2" s="201"/>
+      <c r="H2" s="201"/>
+      <c r="I2" s="60"/>
+    </row>
+    <row r="3" spans="1:9" ht="13.5" thickBot="1">
+      <c r="A3" s="60"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+    </row>
+    <row r="4" spans="1:9" ht="36.75" customHeight="1" thickBot="1">
+      <c r="A4" s="60"/>
+      <c r="B4" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="194"/>
-      <c r="D2" s="194"/>
-      <c r="E2" s="194"/>
-      <c r="F2" s="194"/>
-      <c r="G2" s="194"/>
-      <c r="H2" s="194"/>
-      <c r="I2" s="61"/>
-    </row>
-    <row r="3" spans="1:9" ht="13.5" thickBot="1">
-      <c r="A3" s="61"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-    </row>
-    <row r="4" spans="1:9" ht="36.75" customHeight="1" thickBot="1">
-      <c r="A4" s="61"/>
-      <c r="B4" s="63" t="s">
+      <c r="F4" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="64" t="s">
+      <c r="H4" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="I4" s="60"/>
+    </row>
+    <row r="5" spans="1:9" s="199" customFormat="1" ht="24">
+      <c r="A5" s="192"/>
+      <c r="B5" s="193">
+        <v>1</v>
+      </c>
+      <c r="C5" s="194" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" s="195">
+        <v>42297</v>
+      </c>
+      <c r="E5" s="196" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" s="196" t="s">
+        <v>133</v>
+      </c>
+      <c r="G5" s="197" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="64" t="s">
-        <v>66</v>
-      </c>
-      <c r="F4" s="64" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="64" t="s">
-        <v>67</v>
-      </c>
-      <c r="H4" s="65" t="s">
-        <v>68</v>
-      </c>
-      <c r="I4" s="61"/>
-    </row>
-    <row r="5" spans="1:9" ht="24">
-      <c r="A5" s="61"/>
-      <c r="B5" s="66">
-        <v>1</v>
-      </c>
-      <c r="C5" s="67" t="s">
-        <v>137</v>
-      </c>
-      <c r="D5" s="68">
-        <v>42297</v>
-      </c>
-      <c r="E5" s="69" t="s">
-        <v>138</v>
-      </c>
-      <c r="F5" s="69" t="s">
-        <v>139</v>
-      </c>
-      <c r="G5" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="H5" s="71" t="s">
-        <v>195</v>
-      </c>
-      <c r="I5" s="61"/>
+      <c r="H5" s="198" t="s">
+        <v>187</v>
+      </c>
+      <c r="I5" s="192"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="61"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="106"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="61"/>
+      <c r="A6" s="60"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="60"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="61"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="61"/>
+      <c r="A7" s="60"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="60"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="61"/>
-      <c r="B8" s="66"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="61"/>
+      <c r="A8" s="60"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="60"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="61"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="110"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="61"/>
+      <c r="A9" s="60"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="108"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="60"/>
     </row>
     <row r="10" spans="1:9" ht="13.5" thickBot="1">
-      <c r="B10" s="80"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="83"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7672,8 +8000,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:M87"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:XFD37"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -7687,42 +8015,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="56" customFormat="1" ht="12" customHeight="1"/>
-    <row r="2" spans="1:8" s="56" customFormat="1" ht="48.75" customHeight="1">
+    <row r="2" spans="1:8" s="56" customFormat="1" ht="82.5" customHeight="1">
       <c r="A2" s="34"/>
       <c r="B2" s="57"/>
-      <c r="C2" s="215" t="s">
-        <v>191</v>
-      </c>
-      <c r="D2" s="216"/>
-      <c r="E2" s="217"/>
+      <c r="C2" s="222" t="s">
+        <v>196</v>
+      </c>
+      <c r="D2" s="223"/>
+      <c r="E2" s="224"/>
     </row>
     <row r="3" spans="1:8" s="56" customFormat="1">
       <c r="A3" s="34"/>
-      <c r="B3" s="58" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="223" t="s">
-        <v>192</v>
-      </c>
-      <c r="D3" s="224"/>
-      <c r="E3" s="225"/>
+      <c r="B3" s="200" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="230" t="s">
+        <v>184</v>
+      </c>
+      <c r="D3" s="231"/>
+      <c r="E3" s="232"/>
     </row>
     <row r="4" spans="1:8" s="56" customFormat="1" ht="21.75" customHeight="1">
       <c r="A4" s="34"/>
-      <c r="B4" s="59" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
+      <c r="B4" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
     </row>
     <row r="5" spans="1:8" ht="24.75" customHeight="1">
       <c r="A5" s="34"/>
-      <c r="B5" s="218" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="219"/>
-      <c r="D5" s="219"/>
-      <c r="E5" s="220"/>
+      <c r="B5" s="225" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="226"/>
+      <c r="D5" s="226"/>
+      <c r="E5" s="227"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="34"/>
@@ -7734,7 +8062,7 @@
     <row r="7" spans="1:8">
       <c r="A7" s="34"/>
       <c r="B7" s="45" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="44"/>
       <c r="D7" s="44"/>
@@ -7742,85 +8070,85 @@
     <row r="8" spans="1:8">
       <c r="A8" s="34"/>
       <c r="B8" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="84"/>
+      <c r="D8" s="228" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="86"/>
-      <c r="D8" s="221" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="222"/>
+      <c r="E8" s="229"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="34"/>
-      <c r="B9" s="87"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="88"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
     </row>
     <row r="10" spans="1:8" ht="12" customHeight="1">
       <c r="A10" s="34"/>
-      <c r="B10" s="89" t="s">
-        <v>93</v>
+      <c r="B10" s="87" t="s">
+        <v>89</v>
       </c>
       <c r="C10" s="56"/>
-      <c r="D10" s="226" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="226"/>
+      <c r="D10" s="233" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="233"/>
     </row>
     <row r="11" spans="1:8" ht="9.9499999999999993" customHeight="1">
       <c r="A11" s="34"/>
-      <c r="B11" s="91"/>
+      <c r="B11" s="89"/>
       <c r="C11" s="56"/>
-      <c r="D11" s="90"/>
-      <c r="E11" s="90"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
     </row>
     <row r="12" spans="1:8" ht="12" customHeight="1">
       <c r="A12" s="34"/>
-      <c r="B12" s="92" t="s">
-        <v>93</v>
+      <c r="B12" s="90" t="s">
+        <v>89</v>
       </c>
       <c r="C12" s="56"/>
-      <c r="D12" s="226" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="226"/>
+      <c r="D12" s="233" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="233"/>
     </row>
     <row r="13" spans="1:8" ht="9.9499999999999993" customHeight="1">
       <c r="A13" s="34"/>
       <c r="B13" s="56"/>
       <c r="C13" s="56"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="90"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
     </row>
     <row r="14" spans="1:8" ht="12" customHeight="1">
       <c r="A14" s="32"/>
-      <c r="B14" s="93" t="s">
-        <v>93</v>
+      <c r="B14" s="91" t="s">
+        <v>89</v>
       </c>
       <c r="C14" s="56"/>
-      <c r="D14" s="226" t="s">
-        <v>100</v>
-      </c>
-      <c r="E14" s="226"/>
+      <c r="D14" s="233" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="233"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="32"/>
       <c r="B15" s="56"/>
       <c r="C15" s="56"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="90"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
     </row>
     <row r="16" spans="1:8" ht="12" customHeight="1">
       <c r="A16" s="32"/>
-      <c r="B16" s="94" t="s">
-        <v>93</v>
+      <c r="B16" s="92" t="s">
+        <v>89</v>
       </c>
       <c r="C16" s="56"/>
-      <c r="D16" s="226" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="226"/>
+      <c r="D16" s="233" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="233"/>
       <c r="H16" s="36"/>
     </row>
     <row r="17" spans="1:8" s="47" customFormat="1" ht="12" customHeight="1">
@@ -7834,62 +8162,62 @@
       <c r="A18" s="32"/>
     </row>
     <row r="19" spans="1:8" s="52" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B19" s="209" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="210"/>
-      <c r="D19" s="210"/>
-      <c r="E19" s="211"/>
+      <c r="B19" s="216" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="217"/>
+      <c r="D19" s="217"/>
+      <c r="E19" s="218"/>
     </row>
     <row r="20" spans="1:8" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="B20" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" s="212" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="213"/>
-      <c r="E20" s="214"/>
+        <v>67</v>
+      </c>
+      <c r="C20" s="219" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="220"/>
+      <c r="E20" s="221"/>
     </row>
     <row r="21" spans="1:8" s="52" customFormat="1" ht="12.75" customHeight="1">
       <c r="B21" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="200" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="201"/>
-      <c r="E21" s="202"/>
+        <v>44</v>
+      </c>
+      <c r="C21" s="207" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="208"/>
+      <c r="E21" s="209"/>
     </row>
     <row r="22" spans="1:8" s="52" customFormat="1" ht="12.75" customHeight="1">
       <c r="B22" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="207" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="200" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="201"/>
-      <c r="E22" s="202"/>
+      <c r="D22" s="208"/>
+      <c r="E22" s="209"/>
     </row>
     <row r="23" spans="1:8" s="52" customFormat="1" ht="12.75" customHeight="1">
       <c r="B23" s="53" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="200" t="s">
-        <v>101</v>
-      </c>
-      <c r="D23" s="201"/>
-      <c r="E23" s="202"/>
+        <v>2</v>
+      </c>
+      <c r="C23" s="207" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="208"/>
+      <c r="E23" s="209"/>
     </row>
     <row r="24" spans="1:8" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="B24" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="207" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="200" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="201"/>
-      <c r="E24" s="202"/>
+      <c r="D24" s="208"/>
+      <c r="E24" s="209"/>
     </row>
     <row r="25" spans="1:8" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="B25" s="54"/>
@@ -7902,83 +8230,83 @@
       <c r="B26" s="45"/>
     </row>
     <row r="27" spans="1:8" s="52" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B27" s="209" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" s="210"/>
-      <c r="D27" s="210"/>
-      <c r="E27" s="211"/>
+      <c r="B27" s="216" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="217"/>
+      <c r="D27" s="217"/>
+      <c r="E27" s="218"/>
     </row>
     <row r="28" spans="1:8" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="B28" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="C28" s="212" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="213"/>
-      <c r="E28" s="214"/>
+        <v>67</v>
+      </c>
+      <c r="C28" s="219" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="220"/>
+      <c r="E28" s="221"/>
     </row>
     <row r="29" spans="1:8" ht="12.75" customHeight="1">
       <c r="A29" s="32"/>
-      <c r="B29" s="206" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="207"/>
-      <c r="D29" s="207"/>
-      <c r="E29" s="208"/>
+      <c r="B29" s="213" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="214"/>
+      <c r="D29" s="214"/>
+      <c r="E29" s="215"/>
       <c r="F29" s="52"/>
       <c r="G29" s="52"/>
     </row>
     <row r="30" spans="1:8" ht="16.5" customHeight="1">
       <c r="A30" s="32"/>
-      <c r="B30" s="168" t="s">
-        <v>135</v>
-      </c>
-      <c r="C30" s="196" t="s">
-        <v>193</v>
-      </c>
-      <c r="D30" s="197"/>
-      <c r="E30" s="198"/>
+      <c r="B30" s="166" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" s="203" t="s">
+        <v>185</v>
+      </c>
+      <c r="D30" s="204"/>
+      <c r="E30" s="205"/>
       <c r="F30" s="52"/>
       <c r="G30" s="52"/>
     </row>
     <row r="31" spans="1:8" ht="16.5" customHeight="1">
       <c r="A31" s="32"/>
-      <c r="B31" s="169" t="s">
-        <v>140</v>
-      </c>
-      <c r="C31" s="196" t="s">
-        <v>194</v>
-      </c>
-      <c r="D31" s="197"/>
-      <c r="E31" s="198"/>
+      <c r="B31" s="167" t="s">
+        <v>134</v>
+      </c>
+      <c r="C31" s="203" t="s">
+        <v>186</v>
+      </c>
+      <c r="D31" s="204"/>
+      <c r="E31" s="205"/>
       <c r="F31" s="52"/>
       <c r="G31" s="52"/>
     </row>
     <row r="32" spans="1:8" ht="16.5" customHeight="1">
       <c r="A32" s="32"/>
       <c r="B32" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="196" t="s">
-        <v>53</v>
-      </c>
-      <c r="D32" s="197"/>
-      <c r="E32" s="198"/>
+        <v>8</v>
+      </c>
+      <c r="C32" s="203" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="204"/>
+      <c r="E32" s="205"/>
       <c r="F32" s="52"/>
       <c r="G32" s="52"/>
     </row>
     <row r="33" spans="1:7" ht="16.5" customHeight="1">
       <c r="A33" s="32"/>
       <c r="B33" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="C33" s="196" t="s">
-        <v>72</v>
-      </c>
-      <c r="D33" s="197"/>
-      <c r="E33" s="198"/>
+        <v>20</v>
+      </c>
+      <c r="C33" s="203" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" s="204"/>
+      <c r="E33" s="205"/>
       <c r="F33" s="52"/>
       <c r="G33" s="52"/>
     </row>
@@ -7987,178 +8315,178 @@
       <c r="B34" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="196" t="s">
-        <v>73</v>
-      </c>
-      <c r="D34" s="197"/>
-      <c r="E34" s="198"/>
+      <c r="C34" s="203" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="204"/>
+      <c r="E34" s="205"/>
     </row>
     <row r="35" spans="1:7" ht="16.5" customHeight="1">
       <c r="A35" s="32"/>
       <c r="B35" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="C35" s="196" t="s">
-        <v>74</v>
-      </c>
-      <c r="D35" s="197"/>
-      <c r="E35" s="198"/>
+        <v>21</v>
+      </c>
+      <c r="C35" s="203" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" s="204"/>
+      <c r="E35" s="205"/>
     </row>
     <row r="36" spans="1:7" ht="16.5" customHeight="1">
       <c r="A36" s="32"/>
-      <c r="B36" s="206" t="s">
-        <v>51</v>
-      </c>
-      <c r="C36" s="207"/>
-      <c r="D36" s="207"/>
-      <c r="E36" s="208"/>
+      <c r="B36" s="213" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="214"/>
+      <c r="D36" s="214"/>
+      <c r="E36" s="215"/>
     </row>
     <row r="37" spans="1:7" ht="16.5" customHeight="1">
       <c r="A37" s="32"/>
       <c r="B37" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="C37" s="196" t="s">
-        <v>75</v>
-      </c>
-      <c r="D37" s="197"/>
-      <c r="E37" s="198"/>
+        <v>30</v>
+      </c>
+      <c r="C37" s="203" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="204"/>
+      <c r="E37" s="205"/>
     </row>
     <row r="38" spans="1:7" ht="16.5" customHeight="1">
       <c r="A38" s="32"/>
       <c r="B38" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" s="196" t="s">
-        <v>86</v>
-      </c>
-      <c r="D38" s="197"/>
-      <c r="E38" s="198"/>
+        <v>36</v>
+      </c>
+      <c r="C38" s="203" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" s="204"/>
+      <c r="E38" s="205"/>
     </row>
     <row r="39" spans="1:7" ht="17.25" customHeight="1">
       <c r="A39" s="32"/>
       <c r="B39" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="C39" s="196" t="s">
-        <v>103</v>
-      </c>
-      <c r="D39" s="197"/>
-      <c r="E39" s="198"/>
+        <v>98</v>
+      </c>
+      <c r="C39" s="203" t="s">
+        <v>99</v>
+      </c>
+      <c r="D39" s="204"/>
+      <c r="E39" s="205"/>
     </row>
     <row r="40" spans="1:7" ht="16.5" customHeight="1">
       <c r="A40" s="32"/>
       <c r="B40" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="C40" s="196" t="s">
-        <v>116</v>
-      </c>
-      <c r="D40" s="197"/>
-      <c r="E40" s="198"/>
+        <v>110</v>
+      </c>
+      <c r="C40" s="203" t="s">
+        <v>111</v>
+      </c>
+      <c r="D40" s="204"/>
+      <c r="E40" s="205"/>
     </row>
     <row r="41" spans="1:7" ht="16.5" customHeight="1">
       <c r="A41" s="32"/>
       <c r="B41" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="196" t="s">
-        <v>105</v>
-      </c>
-      <c r="D41" s="197"/>
-      <c r="E41" s="198"/>
+      <c r="C41" s="203" t="s">
+        <v>101</v>
+      </c>
+      <c r="D41" s="204"/>
+      <c r="E41" s="205"/>
     </row>
     <row r="42" spans="1:7" ht="16.5" customHeight="1">
       <c r="A42" s="32"/>
       <c r="B42" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" s="196" t="s">
-        <v>104</v>
-      </c>
-      <c r="D42" s="197"/>
-      <c r="E42" s="198"/>
+        <v>3</v>
+      </c>
+      <c r="C42" s="203" t="s">
+        <v>100</v>
+      </c>
+      <c r="D42" s="204"/>
+      <c r="E42" s="205"/>
     </row>
     <row r="43" spans="1:7" ht="16.5" customHeight="1">
       <c r="A43" s="32"/>
       <c r="B43" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="C43" s="196" t="s">
-        <v>78</v>
-      </c>
-      <c r="D43" s="197"/>
-      <c r="E43" s="198"/>
+        <v>53</v>
+      </c>
+      <c r="C43" s="203" t="s">
+        <v>74</v>
+      </c>
+      <c r="D43" s="204"/>
+      <c r="E43" s="205"/>
     </row>
     <row r="44" spans="1:7" ht="16.5" customHeight="1">
       <c r="A44" s="32"/>
       <c r="B44" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="C44" s="196" t="s">
-        <v>79</v>
-      </c>
-      <c r="D44" s="197"/>
-      <c r="E44" s="198"/>
+        <v>54</v>
+      </c>
+      <c r="C44" s="203" t="s">
+        <v>75</v>
+      </c>
+      <c r="D44" s="204"/>
+      <c r="E44" s="205"/>
     </row>
     <row r="45" spans="1:7" ht="16.5" customHeight="1">
       <c r="A45" s="32"/>
       <c r="B45" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="C45" s="196" t="s">
-        <v>76</v>
-      </c>
-      <c r="D45" s="197"/>
-      <c r="E45" s="198"/>
+        <v>13</v>
+      </c>
+      <c r="C45" s="203" t="s">
+        <v>72</v>
+      </c>
+      <c r="D45" s="204"/>
+      <c r="E45" s="205"/>
     </row>
     <row r="46" spans="1:7" ht="16.5" customHeight="1">
       <c r="A46" s="32"/>
       <c r="B46" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="C46" s="196" t="s">
-        <v>81</v>
-      </c>
-      <c r="D46" s="197"/>
-      <c r="E46" s="198"/>
+        <v>55</v>
+      </c>
+      <c r="C46" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="D46" s="204"/>
+      <c r="E46" s="205"/>
     </row>
     <row r="47" spans="1:7" ht="16.5" customHeight="1">
       <c r="A47" s="32"/>
       <c r="B47" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="C47" s="196" t="s">
-        <v>82</v>
-      </c>
-      <c r="D47" s="197"/>
-      <c r="E47" s="198"/>
+        <v>56</v>
+      </c>
+      <c r="C47" s="203" t="s">
+        <v>78</v>
+      </c>
+      <c r="D47" s="204"/>
+      <c r="E47" s="205"/>
     </row>
     <row r="48" spans="1:7" ht="16.5" customHeight="1">
       <c r="A48" s="32"/>
       <c r="B48" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="C48" s="196" t="s">
-        <v>80</v>
-      </c>
-      <c r="D48" s="197"/>
-      <c r="E48" s="198"/>
+        <v>14</v>
+      </c>
+      <c r="C48" s="203" t="s">
+        <v>76</v>
+      </c>
+      <c r="D48" s="204"/>
+      <c r="E48" s="205"/>
     </row>
     <row r="49" spans="1:13" ht="16.5" customHeight="1">
       <c r="A49" s="32"/>
       <c r="B49" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="C49" s="196" t="s">
-        <v>77</v>
-      </c>
-      <c r="D49" s="197"/>
-      <c r="E49" s="198"/>
+        <v>112</v>
+      </c>
+      <c r="C49" s="203" t="s">
+        <v>73</v>
+      </c>
+      <c r="D49" s="204"/>
+      <c r="E49" s="205"/>
     </row>
     <row r="50" spans="1:13" ht="16.5" customHeight="1">
       <c r="A50" s="52"/>
-      <c r="B50" s="84"/>
+      <c r="B50" s="82"/>
       <c r="C50" s="55"/>
       <c r="D50" s="55"/>
       <c r="E50" s="55"/>
@@ -8187,23 +8515,23 @@
       <c r="M51" s="33"/>
     </row>
     <row r="52" spans="1:13" s="52" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B52" s="209" t="s">
-        <v>54</v>
-      </c>
-      <c r="C52" s="210"/>
-      <c r="D52" s="210"/>
-      <c r="E52" s="211"/>
+      <c r="B52" s="216" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52" s="217"/>
+      <c r="D52" s="217"/>
+      <c r="E52" s="218"/>
     </row>
     <row r="53" spans="1:13" ht="16.5" customHeight="1">
       <c r="A53" s="52"/>
       <c r="B53" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="C53" s="212" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53" s="213"/>
-      <c r="E53" s="214"/>
+        <v>43</v>
+      </c>
+      <c r="C53" s="219" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="220"/>
+      <c r="E53" s="221"/>
       <c r="F53" s="52"/>
       <c r="G53" s="52"/>
       <c r="H53" s="52"/>
@@ -8216,134 +8544,134 @@
     <row r="54" spans="1:13" ht="16.5" customHeight="1">
       <c r="A54" s="32"/>
       <c r="B54" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="C54" s="196" t="s">
-        <v>75</v>
-      </c>
-      <c r="D54" s="197"/>
-      <c r="E54" s="198"/>
+        <v>113</v>
+      </c>
+      <c r="C54" s="203" t="s">
+        <v>71</v>
+      </c>
+      <c r="D54" s="204"/>
+      <c r="E54" s="205"/>
     </row>
     <row r="55" spans="1:13" ht="16.5" customHeight="1">
       <c r="A55" s="32"/>
       <c r="B55" s="41" t="s">
-        <v>114</v>
-      </c>
-      <c r="C55" s="196" t="s">
-        <v>87</v>
-      </c>
-      <c r="D55" s="197"/>
-      <c r="E55" s="198"/>
+        <v>109</v>
+      </c>
+      <c r="C55" s="203" t="s">
+        <v>83</v>
+      </c>
+      <c r="D55" s="204"/>
+      <c r="E55" s="205"/>
     </row>
     <row r="56" spans="1:13" ht="16.5" customHeight="1">
       <c r="A56" s="32"/>
       <c r="B56" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="C56" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="D56" s="197"/>
-      <c r="E56" s="198"/>
+        <v>81</v>
+      </c>
+      <c r="C56" s="203" t="s">
+        <v>84</v>
+      </c>
+      <c r="D56" s="204"/>
+      <c r="E56" s="205"/>
     </row>
     <row r="57" spans="1:13" ht="16.5" customHeight="1">
       <c r="A57" s="32"/>
       <c r="B57" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="C57" s="196" t="s">
-        <v>106</v>
-      </c>
-      <c r="D57" s="203"/>
-      <c r="E57" s="204"/>
+        <v>107</v>
+      </c>
+      <c r="C57" s="203" t="s">
+        <v>102</v>
+      </c>
+      <c r="D57" s="210"/>
+      <c r="E57" s="211"/>
     </row>
     <row r="58" spans="1:13" ht="16.5" customHeight="1">
       <c r="A58" s="32"/>
       <c r="B58" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="C58" s="196" t="s">
-        <v>92</v>
-      </c>
-      <c r="D58" s="203"/>
-      <c r="E58" s="204"/>
+        <v>22</v>
+      </c>
+      <c r="C58" s="203" t="s">
+        <v>88</v>
+      </c>
+      <c r="D58" s="210"/>
+      <c r="E58" s="211"/>
     </row>
     <row r="59" spans="1:13" ht="16.5" customHeight="1">
       <c r="A59" s="32"/>
       <c r="B59" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="C59" s="196" t="s">
-        <v>83</v>
-      </c>
-      <c r="D59" s="203"/>
-      <c r="E59" s="204"/>
+        <v>85</v>
+      </c>
+      <c r="C59" s="203" t="s">
+        <v>79</v>
+      </c>
+      <c r="D59" s="210"/>
+      <c r="E59" s="211"/>
     </row>
     <row r="60" spans="1:13" ht="54" customHeight="1">
       <c r="A60" s="32"/>
       <c r="B60" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="C60" s="196" t="s">
-        <v>107</v>
-      </c>
-      <c r="D60" s="203"/>
-      <c r="E60" s="204"/>
+        <v>33</v>
+      </c>
+      <c r="C60" s="203" t="s">
+        <v>208</v>
+      </c>
+      <c r="D60" s="210"/>
+      <c r="E60" s="211"/>
     </row>
     <row r="61" spans="1:13" ht="16.5" customHeight="1">
       <c r="A61" s="32"/>
       <c r="B61" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="C61" s="205" t="s">
-        <v>91</v>
-      </c>
-      <c r="D61" s="203"/>
-      <c r="E61" s="204"/>
+        <v>51</v>
+      </c>
+      <c r="C61" s="212" t="s">
+        <v>87</v>
+      </c>
+      <c r="D61" s="210"/>
+      <c r="E61" s="211"/>
     </row>
     <row r="62" spans="1:13" ht="30" customHeight="1">
       <c r="A62" s="32"/>
       <c r="B62" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="C62" s="196" t="s">
-        <v>56</v>
-      </c>
-      <c r="D62" s="203"/>
-      <c r="E62" s="204"/>
+        <v>26</v>
+      </c>
+      <c r="C62" s="203" t="s">
+        <v>52</v>
+      </c>
+      <c r="D62" s="210"/>
+      <c r="E62" s="211"/>
     </row>
     <row r="63" spans="1:13" ht="16.5" customHeight="1">
       <c r="A63" s="32"/>
       <c r="B63" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="C63" s="205" t="s">
-        <v>61</v>
-      </c>
-      <c r="D63" s="203"/>
-      <c r="E63" s="204"/>
+        <v>27</v>
+      </c>
+      <c r="C63" s="212" t="s">
+        <v>57</v>
+      </c>
+      <c r="D63" s="210"/>
+      <c r="E63" s="211"/>
     </row>
     <row r="64" spans="1:13" ht="16.5" customHeight="1">
       <c r="A64" s="32"/>
       <c r="B64" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="C64" s="205" t="s">
-        <v>84</v>
-      </c>
-      <c r="D64" s="203"/>
-      <c r="E64" s="204"/>
+        <v>28</v>
+      </c>
+      <c r="C64" s="212" t="s">
+        <v>80</v>
+      </c>
+      <c r="D64" s="210"/>
+      <c r="E64" s="211"/>
     </row>
     <row r="65" spans="1:8" ht="16.5" customHeight="1">
       <c r="A65" s="32"/>
       <c r="B65" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="C65" s="196" t="s">
-        <v>77</v>
-      </c>
-      <c r="D65" s="197"/>
-      <c r="E65" s="198"/>
+        <v>95</v>
+      </c>
+      <c r="C65" s="203" t="s">
+        <v>73</v>
+      </c>
+      <c r="D65" s="204"/>
+      <c r="E65" s="205"/>
     </row>
     <row r="66" spans="1:8" ht="16.5" customHeight="1">
       <c r="A66" s="32"/>
@@ -8354,200 +8682,200 @@
     </row>
     <row r="67" spans="1:8" ht="16.5" customHeight="1">
       <c r="A67" s="32"/>
-      <c r="B67" s="199"/>
-      <c r="C67" s="199"/>
-      <c r="D67" s="199"/>
-      <c r="E67" s="199"/>
+      <c r="B67" s="206"/>
+      <c r="C67" s="206"/>
+      <c r="D67" s="206"/>
+      <c r="E67" s="206"/>
       <c r="F67" s="51"/>
       <c r="G67" s="51"/>
       <c r="H67" s="51"/>
     </row>
     <row r="68" spans="1:8" ht="16.5" customHeight="1">
       <c r="A68" s="32"/>
-      <c r="B68" s="195"/>
-      <c r="C68" s="195"/>
-      <c r="D68" s="195"/>
-      <c r="E68" s="195"/>
+      <c r="B68" s="202"/>
+      <c r="C68" s="202"/>
+      <c r="D68" s="202"/>
+      <c r="E68" s="202"/>
       <c r="F68" s="51"/>
       <c r="G68" s="51"/>
       <c r="H68" s="51"/>
     </row>
     <row r="69" spans="1:8" ht="16.5" customHeight="1">
       <c r="A69" s="32"/>
-      <c r="B69" s="195"/>
-      <c r="C69" s="195"/>
-      <c r="D69" s="195"/>
-      <c r="E69" s="195"/>
+      <c r="B69" s="202"/>
+      <c r="C69" s="202"/>
+      <c r="D69" s="202"/>
+      <c r="E69" s="202"/>
       <c r="F69" s="51"/>
       <c r="G69" s="51"/>
       <c r="H69" s="51"/>
     </row>
     <row r="70" spans="1:8" ht="16.5" customHeight="1">
       <c r="A70" s="32"/>
-      <c r="B70" s="195"/>
-      <c r="C70" s="195"/>
-      <c r="D70" s="195"/>
-      <c r="E70" s="195"/>
+      <c r="B70" s="202"/>
+      <c r="C70" s="202"/>
+      <c r="D70" s="202"/>
+      <c r="E70" s="202"/>
       <c r="F70" s="51"/>
       <c r="G70" s="51"/>
       <c r="H70" s="51"/>
     </row>
     <row r="71" spans="1:8" ht="16.5" customHeight="1">
       <c r="A71" s="32"/>
-      <c r="B71" s="195"/>
-      <c r="C71" s="195"/>
-      <c r="D71" s="195"/>
-      <c r="E71" s="195"/>
+      <c r="B71" s="202"/>
+      <c r="C71" s="202"/>
+      <c r="D71" s="202"/>
+      <c r="E71" s="202"/>
       <c r="F71" s="51"/>
       <c r="G71" s="51"/>
       <c r="H71" s="51"/>
     </row>
     <row r="72" spans="1:8" ht="16.5" customHeight="1">
       <c r="A72" s="32"/>
-      <c r="B72" s="195"/>
-      <c r="C72" s="195"/>
-      <c r="D72" s="195"/>
-      <c r="E72" s="195"/>
+      <c r="B72" s="202"/>
+      <c r="C72" s="202"/>
+      <c r="D72" s="202"/>
+      <c r="E72" s="202"/>
       <c r="F72" s="51"/>
       <c r="G72" s="51"/>
       <c r="H72" s="51"/>
     </row>
     <row r="73" spans="1:8" ht="16.5" customHeight="1">
       <c r="A73" s="37"/>
-      <c r="B73" s="195"/>
-      <c r="C73" s="195"/>
-      <c r="D73" s="195"/>
-      <c r="E73" s="195"/>
+      <c r="B73" s="202"/>
+      <c r="C73" s="202"/>
+      <c r="D73" s="202"/>
+      <c r="E73" s="202"/>
       <c r="F73" s="51"/>
       <c r="G73" s="51"/>
       <c r="H73" s="51"/>
     </row>
     <row r="74" spans="1:8" ht="16.5" customHeight="1">
       <c r="A74" s="32"/>
-      <c r="B74" s="195"/>
-      <c r="C74" s="195"/>
-      <c r="D74" s="195"/>
-      <c r="E74" s="195"/>
+      <c r="B74" s="202"/>
+      <c r="C74" s="202"/>
+      <c r="D74" s="202"/>
+      <c r="E74" s="202"/>
       <c r="F74" s="51"/>
       <c r="G74" s="51"/>
       <c r="H74" s="51"/>
     </row>
     <row r="75" spans="1:8" ht="16.5" customHeight="1">
       <c r="A75" s="32"/>
-      <c r="B75" s="195"/>
-      <c r="C75" s="195"/>
-      <c r="D75" s="195"/>
-      <c r="E75" s="195"/>
+      <c r="B75" s="202"/>
+      <c r="C75" s="202"/>
+      <c r="D75" s="202"/>
+      <c r="E75" s="202"/>
       <c r="F75" s="51"/>
       <c r="G75" s="51"/>
       <c r="H75" s="51"/>
     </row>
     <row r="76" spans="1:8" ht="16.5" customHeight="1">
       <c r="A76" s="32"/>
-      <c r="B76" s="195"/>
-      <c r="C76" s="195"/>
-      <c r="D76" s="195"/>
-      <c r="E76" s="195"/>
+      <c r="B76" s="202"/>
+      <c r="C76" s="202"/>
+      <c r="D76" s="202"/>
+      <c r="E76" s="202"/>
       <c r="F76" s="51"/>
       <c r="G76" s="51"/>
       <c r="H76" s="51"/>
     </row>
     <row r="77" spans="1:8" ht="16.5" customHeight="1">
       <c r="A77" s="32"/>
-      <c r="B77" s="195"/>
-      <c r="C77" s="195"/>
-      <c r="D77" s="195"/>
-      <c r="E77" s="195"/>
+      <c r="B77" s="202"/>
+      <c r="C77" s="202"/>
+      <c r="D77" s="202"/>
+      <c r="E77" s="202"/>
       <c r="F77" s="51"/>
       <c r="G77" s="51"/>
       <c r="H77" s="51"/>
     </row>
     <row r="78" spans="1:8" ht="16.5" customHeight="1">
       <c r="A78" s="32"/>
-      <c r="B78" s="195"/>
-      <c r="C78" s="195"/>
-      <c r="D78" s="195"/>
-      <c r="E78" s="195"/>
+      <c r="B78" s="202"/>
+      <c r="C78" s="202"/>
+      <c r="D78" s="202"/>
+      <c r="E78" s="202"/>
       <c r="F78" s="51"/>
       <c r="G78" s="51"/>
       <c r="H78" s="51"/>
     </row>
     <row r="79" spans="1:8" ht="16.5" customHeight="1">
       <c r="A79" s="37"/>
-      <c r="B79" s="195"/>
-      <c r="C79" s="195"/>
-      <c r="D79" s="195"/>
-      <c r="E79" s="195"/>
+      <c r="B79" s="202"/>
+      <c r="C79" s="202"/>
+      <c r="D79" s="202"/>
+      <c r="E79" s="202"/>
       <c r="F79" s="51"/>
       <c r="G79" s="51"/>
       <c r="H79" s="51"/>
     </row>
     <row r="80" spans="1:8" ht="16.5" customHeight="1">
       <c r="A80" s="37"/>
-      <c r="B80" s="195"/>
-      <c r="C80" s="195"/>
-      <c r="D80" s="195"/>
-      <c r="E80" s="195"/>
+      <c r="B80" s="202"/>
+      <c r="C80" s="202"/>
+      <c r="D80" s="202"/>
+      <c r="E80" s="202"/>
       <c r="F80" s="51"/>
       <c r="G80" s="51"/>
       <c r="H80" s="51"/>
     </row>
     <row r="81" spans="1:8" ht="16.5" customHeight="1">
       <c r="A81" s="37"/>
-      <c r="B81" s="195"/>
-      <c r="C81" s="195"/>
-      <c r="D81" s="195"/>
-      <c r="E81" s="195"/>
+      <c r="B81" s="202"/>
+      <c r="C81" s="202"/>
+      <c r="D81" s="202"/>
+      <c r="E81" s="202"/>
       <c r="F81" s="51"/>
       <c r="G81" s="51"/>
       <c r="H81" s="51"/>
     </row>
     <row r="82" spans="1:8" ht="16.5" customHeight="1">
       <c r="A82" s="37"/>
-      <c r="B82" s="195"/>
-      <c r="C82" s="195"/>
-      <c r="D82" s="195"/>
-      <c r="E82" s="195"/>
+      <c r="B82" s="202"/>
+      <c r="C82" s="202"/>
+      <c r="D82" s="202"/>
+      <c r="E82" s="202"/>
       <c r="F82" s="51"/>
       <c r="G82" s="51"/>
       <c r="H82" s="51"/>
     </row>
     <row r="83" spans="1:8" ht="16.5" customHeight="1">
       <c r="A83" s="37"/>
-      <c r="B83" s="195"/>
-      <c r="C83" s="195"/>
-      <c r="D83" s="195"/>
-      <c r="E83" s="195"/>
+      <c r="B83" s="202"/>
+      <c r="C83" s="202"/>
+      <c r="D83" s="202"/>
+      <c r="E83" s="202"/>
       <c r="F83" s="51"/>
       <c r="G83" s="51"/>
       <c r="H83" s="51"/>
     </row>
     <row r="84" spans="1:8" ht="16.5" customHeight="1">
       <c r="A84" s="37"/>
-      <c r="B84" s="195"/>
-      <c r="C84" s="195"/>
-      <c r="D84" s="195"/>
-      <c r="E84" s="195"/>
+      <c r="B84" s="202"/>
+      <c r="C84" s="202"/>
+      <c r="D84" s="202"/>
+      <c r="E84" s="202"/>
       <c r="F84" s="51"/>
       <c r="G84" s="51"/>
       <c r="H84" s="51"/>
     </row>
     <row r="85" spans="1:8" ht="16.5" customHeight="1">
       <c r="A85" s="37"/>
-      <c r="B85" s="195"/>
-      <c r="C85" s="195"/>
-      <c r="D85" s="195"/>
-      <c r="E85" s="195"/>
+      <c r="B85" s="202"/>
+      <c r="C85" s="202"/>
+      <c r="D85" s="202"/>
+      <c r="E85" s="202"/>
       <c r="F85" s="51"/>
       <c r="G85" s="51"/>
       <c r="H85" s="51"/>
     </row>
     <row r="86" spans="1:8" ht="16.5" customHeight="1">
       <c r="A86" s="37"/>
-      <c r="B86" s="195"/>
-      <c r="C86" s="195"/>
-      <c r="D86" s="195"/>
-      <c r="E86" s="195"/>
+      <c r="B86" s="202"/>
+      <c r="C86" s="202"/>
+      <c r="D86" s="202"/>
+      <c r="E86" s="202"/>
       <c r="F86" s="51"/>
       <c r="G86" s="51"/>
       <c r="H86" s="51"/>
@@ -8636,6 +8964,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -8646,8 +8975,8 @@
   </sheetPr>
   <dimension ref="A3:Z28"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -8669,22 +8998,22 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:26" ht="18" customHeight="1">
-      <c r="B3" s="227" t="s">
-        <v>129</v>
-      </c>
-      <c r="C3" s="227"/>
-      <c r="D3" s="227"/>
-      <c r="E3" s="227"/>
-      <c r="F3" s="227"/>
-      <c r="G3" s="227"/>
-      <c r="H3" s="227"/>
-      <c r="I3" s="227"/>
-      <c r="J3" s="227"/>
-      <c r="K3" s="227"/>
-      <c r="L3" s="227"/>
-      <c r="M3" s="227"/>
-      <c r="N3" s="227"/>
-      <c r="O3" s="227"/>
+      <c r="B3" s="234" t="s">
+        <v>197</v>
+      </c>
+      <c r="C3" s="234"/>
+      <c r="D3" s="234"/>
+      <c r="E3" s="234"/>
+      <c r="F3" s="234"/>
+      <c r="G3" s="234"/>
+      <c r="H3" s="234"/>
+      <c r="I3" s="234"/>
+      <c r="J3" s="234"/>
+      <c r="K3" s="234"/>
+      <c r="L3" s="234"/>
+      <c r="M3" s="234"/>
+      <c r="N3" s="234"/>
+      <c r="O3" s="234"/>
     </row>
     <row r="4" spans="2:26" ht="11.25" customHeight="1">
       <c r="B4" s="4"/>
@@ -8692,99 +9021,99 @@
     </row>
     <row r="5" spans="2:26" ht="15" customHeight="1"/>
     <row r="6" spans="2:26" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B6" s="229" t="s">
-        <v>135</v>
-      </c>
-      <c r="C6" s="230"/>
-      <c r="D6" s="231"/>
-      <c r="E6" s="232" t="s">
-        <v>176</v>
-      </c>
-      <c r="F6" s="233"/>
-      <c r="G6" s="234"/>
-      <c r="H6" s="228"/>
-      <c r="I6" s="228"/>
-      <c r="O6" s="146"/>
+      <c r="B6" s="236" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" s="237"/>
+      <c r="D6" s="238"/>
+      <c r="E6" s="239" t="s">
+        <v>170</v>
+      </c>
+      <c r="F6" s="240"/>
+      <c r="G6" s="241"/>
+      <c r="H6" s="235"/>
+      <c r="I6" s="235"/>
+      <c r="O6" s="144"/>
       <c r="Z6" s="3"/>
     </row>
     <row r="7" spans="2:26" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B7" s="229" t="s">
-        <v>140</v>
-      </c>
-      <c r="C7" s="230"/>
-      <c r="D7" s="231"/>
-      <c r="E7" s="232" t="s">
-        <v>138</v>
-      </c>
-      <c r="F7" s="233"/>
-      <c r="G7" s="234"/>
-      <c r="J7" s="235" t="s">
-        <v>160</v>
-      </c>
-      <c r="K7" s="235"/>
-      <c r="L7" s="235"/>
-      <c r="M7" s="235"/>
-      <c r="N7" s="235"/>
-      <c r="O7" s="167">
+      <c r="B7" s="236" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="237"/>
+      <c r="D7" s="238"/>
+      <c r="E7" s="239" t="s">
+        <v>132</v>
+      </c>
+      <c r="F7" s="240"/>
+      <c r="G7" s="241"/>
+      <c r="J7" s="242" t="s">
+        <v>154</v>
+      </c>
+      <c r="K7" s="242"/>
+      <c r="L7" s="242"/>
+      <c r="M7" s="242"/>
+      <c r="N7" s="242"/>
+      <c r="O7" s="165">
         <f>SUM(K13:K23)</f>
         <v>88</v>
       </c>
       <c r="Z7" s="3"/>
     </row>
     <row r="8" spans="2:26" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B8" s="229" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="230"/>
-      <c r="D8" s="231"/>
-      <c r="E8" s="232" t="s">
-        <v>175</v>
-      </c>
-      <c r="F8" s="233"/>
-      <c r="G8" s="234"/>
-      <c r="J8" s="235" t="s">
-        <v>161</v>
-      </c>
-      <c r="K8" s="235"/>
-      <c r="L8" s="235"/>
-      <c r="M8" s="235"/>
-      <c r="N8" s="235"/>
-      <c r="O8" s="167">
+      <c r="B8" s="236" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="237"/>
+      <c r="D8" s="238"/>
+      <c r="E8" s="239" t="s">
+        <v>169</v>
+      </c>
+      <c r="F8" s="240"/>
+      <c r="G8" s="241"/>
+      <c r="J8" s="242" t="s">
+        <v>155</v>
+      </c>
+      <c r="K8" s="242"/>
+      <c r="L8" s="242"/>
+      <c r="M8" s="242"/>
+      <c r="N8" s="242"/>
+      <c r="O8" s="165">
         <f>SUM(N13:N23)</f>
         <v>70</v>
       </c>
       <c r="Z8" s="3"/>
     </row>
     <row r="9" spans="2:26" s="5" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B9" s="229" t="s">
+      <c r="B9" s="236" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="237"/>
+      <c r="D9" s="238"/>
+      <c r="E9" s="127">
+        <v>42262</v>
+      </c>
+      <c r="F9" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="230"/>
-      <c r="D9" s="231"/>
-      <c r="E9" s="129">
-        <v>42262</v>
-      </c>
-      <c r="F9" s="95" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="125">
+      <c r="G9" s="123">
         <v>42276</v>
       </c>
-      <c r="I9" s="113"/>
-      <c r="O9" s="146"/>
+      <c r="I9" s="111"/>
+      <c r="O9" s="144"/>
       <c r="Z9" s="3"/>
     </row>
     <row r="10" spans="2:26" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B10" s="229" t="s">
+      <c r="B10" s="236" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="230"/>
-      <c r="D10" s="231"/>
-      <c r="E10" s="236" t="s">
-        <v>196</v>
-      </c>
-      <c r="F10" s="237"/>
-      <c r="G10" s="238"/>
+      <c r="C10" s="237"/>
+      <c r="D10" s="238"/>
+      <c r="E10" s="243" t="s">
+        <v>188</v>
+      </c>
+      <c r="F10" s="244"/>
+      <c r="G10" s="245"/>
       <c r="Z10" s="3"/>
     </row>
     <row r="11" spans="2:26" s="17" customFormat="1" ht="15" customHeight="1">
@@ -8795,533 +9124,533 @@
       <c r="F11" s="19"/>
       <c r="Z11" s="20"/>
     </row>
-    <row r="12" spans="2:26" s="124" customFormat="1" ht="38.25">
-      <c r="B12" s="121" t="s">
-        <v>198</v>
-      </c>
-      <c r="C12" s="121" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="85" t="s">
-        <v>114</v>
-      </c>
-      <c r="E12" s="122" t="s">
-        <v>102</v>
-      </c>
-      <c r="F12" s="85" t="s">
-        <v>127</v>
-      </c>
-      <c r="G12" s="122" t="s">
-        <v>124</v>
-      </c>
-      <c r="H12" s="122" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="123" t="s">
+    <row r="12" spans="2:26" s="122" customFormat="1" ht="38.25">
+      <c r="B12" s="119" t="s">
+        <v>190</v>
+      </c>
+      <c r="C12" s="119" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="83" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" s="120" t="s">
+        <v>98</v>
+      </c>
+      <c r="F12" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="G12" s="120" t="s">
+        <v>119</v>
+      </c>
+      <c r="H12" s="120" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="121" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="J12" s="123" t="s">
+      <c r="K12" s="121" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" s="121" t="s">
         <v>11</v>
       </c>
-      <c r="K12" s="123" t="s">
+      <c r="M12" s="121" t="s">
+        <v>12</v>
+      </c>
+      <c r="N12" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="L12" s="123" t="s">
-        <v>12</v>
-      </c>
-      <c r="M12" s="123" t="s">
-        <v>13</v>
-      </c>
-      <c r="N12" s="123" t="s">
-        <v>15</v>
-      </c>
-      <c r="O12" s="123" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="13" spans="2:26" s="124" customFormat="1" ht="32.1" customHeight="1">
-      <c r="B13" s="85">
+      <c r="O12" s="121" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="2:26" s="122" customFormat="1" ht="32.1" customHeight="1">
+      <c r="B13" s="83">
         <v>1</v>
       </c>
-      <c r="C13" s="170">
+      <c r="C13" s="168">
         <v>1</v>
       </c>
-      <c r="D13" s="161" t="s">
-        <v>123</v>
-      </c>
-      <c r="E13" s="162" t="s">
-        <v>131</v>
-      </c>
-      <c r="F13" s="163" t="s">
-        <v>162</v>
-      </c>
-      <c r="G13" s="166" t="s">
-        <v>143</v>
-      </c>
-      <c r="H13" s="166" t="s">
-        <v>141</v>
-      </c>
-      <c r="I13" s="192">
+      <c r="D13" s="159" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13" s="160" t="s">
+        <v>125</v>
+      </c>
+      <c r="F13" s="161" t="s">
+        <v>203</v>
+      </c>
+      <c r="G13" s="164" t="s">
+        <v>137</v>
+      </c>
+      <c r="H13" s="164" t="s">
+        <v>135</v>
+      </c>
+      <c r="I13" s="190">
         <v>42262</v>
       </c>
-      <c r="J13" s="193">
+      <c r="J13" s="191">
         <v>42276</v>
       </c>
-      <c r="K13" s="127">
+      <c r="K13" s="125">
         <v>8</v>
       </c>
-      <c r="L13" s="192">
+      <c r="L13" s="190">
         <v>42262</v>
       </c>
-      <c r="M13" s="193">
+      <c r="M13" s="191">
         <v>42276</v>
       </c>
-      <c r="N13" s="127">
+      <c r="N13" s="125">
         <v>8</v>
       </c>
-      <c r="O13" s="128"/>
-    </row>
-    <row r="14" spans="2:26" s="124" customFormat="1" ht="32.1" customHeight="1">
-      <c r="B14" s="85">
+      <c r="O13" s="126"/>
+    </row>
+    <row r="14" spans="2:26" s="122" customFormat="1" ht="32.1" customHeight="1">
+      <c r="B14" s="83">
         <f>B13+1</f>
         <v>2</v>
       </c>
-      <c r="C14" s="170">
+      <c r="C14" s="168">
         <v>1</v>
       </c>
-      <c r="D14" s="161" t="s">
-        <v>123</v>
-      </c>
-      <c r="E14" s="162" t="s">
-        <v>131</v>
-      </c>
-      <c r="F14" s="163" t="s">
-        <v>146</v>
-      </c>
-      <c r="G14" s="166" t="s">
-        <v>143</v>
-      </c>
-      <c r="H14" s="166" t="s">
-        <v>141</v>
-      </c>
-      <c r="I14" s="192">
+      <c r="D14" s="159" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14" s="160" t="s">
+        <v>125</v>
+      </c>
+      <c r="F14" s="161" t="s">
+        <v>140</v>
+      </c>
+      <c r="G14" s="164" t="s">
+        <v>137</v>
+      </c>
+      <c r="H14" s="164" t="s">
+        <v>135</v>
+      </c>
+      <c r="I14" s="190">
         <v>42262</v>
       </c>
-      <c r="J14" s="193">
+      <c r="J14" s="191">
         <v>42276</v>
       </c>
-      <c r="K14" s="127">
+      <c r="K14" s="125">
         <v>8</v>
       </c>
-      <c r="L14" s="192">
+      <c r="L14" s="190">
         <v>42262</v>
       </c>
-      <c r="M14" s="193">
+      <c r="M14" s="191">
         <v>42276</v>
       </c>
-      <c r="N14" s="127">
+      <c r="N14" s="125">
         <v>8</v>
       </c>
-      <c r="O14" s="128"/>
-    </row>
-    <row r="15" spans="2:26" s="124" customFormat="1" ht="32.1" customHeight="1">
-      <c r="B15" s="85">
+      <c r="O14" s="126"/>
+    </row>
+    <row r="15" spans="2:26" s="122" customFormat="1" ht="32.1" customHeight="1">
+      <c r="B15" s="83">
         <f t="shared" ref="B15:B23" si="0">B14+1</f>
         <v>3</v>
       </c>
-      <c r="C15" s="170">
+      <c r="C15" s="168">
         <v>1</v>
       </c>
-      <c r="D15" s="161" t="s">
-        <v>123</v>
-      </c>
-      <c r="E15" s="162" t="s">
-        <v>131</v>
-      </c>
-      <c r="F15" s="164" t="s">
-        <v>163</v>
-      </c>
-      <c r="G15" s="166" t="s">
-        <v>143</v>
-      </c>
-      <c r="H15" s="166" t="s">
-        <v>141</v>
-      </c>
-      <c r="I15" s="192">
+      <c r="D15" s="159" t="s">
+        <v>118</v>
+      </c>
+      <c r="E15" s="160" t="s">
+        <v>125</v>
+      </c>
+      <c r="F15" s="162" t="s">
+        <v>204</v>
+      </c>
+      <c r="G15" s="164" t="s">
+        <v>137</v>
+      </c>
+      <c r="H15" s="164" t="s">
+        <v>135</v>
+      </c>
+      <c r="I15" s="190">
         <v>42262</v>
       </c>
-      <c r="J15" s="193">
+      <c r="J15" s="191">
         <v>42276</v>
       </c>
-      <c r="K15" s="127">
+      <c r="K15" s="125">
         <v>8</v>
       </c>
-      <c r="L15" s="192">
+      <c r="L15" s="190">
         <v>42262</v>
       </c>
-      <c r="M15" s="193">
+      <c r="M15" s="191">
         <v>42276</v>
       </c>
-      <c r="N15" s="127">
+      <c r="N15" s="125">
         <v>8</v>
       </c>
-      <c r="O15" s="128"/>
-    </row>
-    <row r="16" spans="2:26" s="124" customFormat="1" ht="32.1" customHeight="1">
-      <c r="B16" s="85">
+      <c r="O15" s="126"/>
+    </row>
+    <row r="16" spans="2:26" s="122" customFormat="1" ht="32.1" customHeight="1">
+      <c r="B16" s="83">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C16" s="170">
+      <c r="C16" s="168">
         <v>1</v>
       </c>
-      <c r="D16" s="161" t="s">
-        <v>123</v>
-      </c>
-      <c r="E16" s="162" t="s">
-        <v>131</v>
-      </c>
-      <c r="F16" s="163" t="s">
-        <v>150</v>
-      </c>
-      <c r="G16" s="166" t="s">
-        <v>143</v>
-      </c>
-      <c r="H16" s="166" t="s">
-        <v>141</v>
-      </c>
-      <c r="I16" s="192">
+      <c r="D16" s="159" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16" s="160" t="s">
+        <v>125</v>
+      </c>
+      <c r="F16" s="161" t="s">
+        <v>144</v>
+      </c>
+      <c r="G16" s="164" t="s">
+        <v>137</v>
+      </c>
+      <c r="H16" s="164" t="s">
+        <v>135</v>
+      </c>
+      <c r="I16" s="190">
         <v>42262</v>
       </c>
-      <c r="J16" s="193">
+      <c r="J16" s="191">
         <v>42276</v>
       </c>
-      <c r="K16" s="127">
+      <c r="K16" s="125">
         <v>8</v>
       </c>
-      <c r="L16" s="192">
+      <c r="L16" s="190">
         <v>42262</v>
       </c>
-      <c r="M16" s="193">
+      <c r="M16" s="191">
         <v>42276</v>
       </c>
-      <c r="N16" s="127">
+      <c r="N16" s="125">
         <v>8</v>
       </c>
-      <c r="O16" s="128"/>
-    </row>
-    <row r="17" spans="1:15" s="124" customFormat="1" ht="32.1" customHeight="1">
-      <c r="B17" s="85">
+      <c r="O16" s="126"/>
+    </row>
+    <row r="17" spans="1:15" s="122" customFormat="1" ht="32.1" customHeight="1">
+      <c r="B17" s="83">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C17" s="170">
+      <c r="C17" s="168">
         <v>1</v>
       </c>
-      <c r="D17" s="161" t="s">
-        <v>123</v>
-      </c>
-      <c r="E17" s="162" t="s">
-        <v>131</v>
-      </c>
-      <c r="F17" s="163" t="s">
-        <v>147</v>
-      </c>
-      <c r="G17" s="166" t="s">
-        <v>143</v>
-      </c>
-      <c r="H17" s="166" t="s">
+      <c r="D17" s="159" t="s">
+        <v>118</v>
+      </c>
+      <c r="E17" s="160" t="s">
+        <v>125</v>
+      </c>
+      <c r="F17" s="161" t="s">
         <v>141</v>
       </c>
-      <c r="I17" s="192">
+      <c r="G17" s="164" t="s">
+        <v>137</v>
+      </c>
+      <c r="H17" s="164" t="s">
+        <v>135</v>
+      </c>
+      <c r="I17" s="190">
         <v>42262</v>
       </c>
-      <c r="J17" s="193">
+      <c r="J17" s="191">
         <v>42276</v>
       </c>
-      <c r="K17" s="127">
+      <c r="K17" s="125">
         <v>8</v>
       </c>
-      <c r="L17" s="192">
+      <c r="L17" s="190">
         <v>42262</v>
       </c>
-      <c r="M17" s="193">
+      <c r="M17" s="191">
         <v>42276</v>
       </c>
-      <c r="N17" s="127">
+      <c r="N17" s="125">
         <v>8</v>
       </c>
-      <c r="O17" s="128"/>
-    </row>
-    <row r="18" spans="1:15" s="124" customFormat="1" ht="32.1" customHeight="1">
-      <c r="B18" s="85">
+      <c r="O17" s="126"/>
+    </row>
+    <row r="18" spans="1:15" s="122" customFormat="1" ht="32.1" customHeight="1">
+      <c r="B18" s="83">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C18" s="170">
+      <c r="C18" s="168">
         <v>1</v>
       </c>
-      <c r="D18" s="161" t="s">
-        <v>123</v>
-      </c>
-      <c r="E18" s="162" t="s">
-        <v>131</v>
-      </c>
-      <c r="F18" s="163" t="s">
-        <v>164</v>
-      </c>
-      <c r="G18" s="166" t="s">
-        <v>143</v>
-      </c>
-      <c r="H18" s="166" t="s">
-        <v>141</v>
-      </c>
-      <c r="I18" s="192">
+      <c r="D18" s="159" t="s">
+        <v>118</v>
+      </c>
+      <c r="E18" s="160" t="s">
+        <v>125</v>
+      </c>
+      <c r="F18" s="161" t="s">
+        <v>158</v>
+      </c>
+      <c r="G18" s="164" t="s">
+        <v>137</v>
+      </c>
+      <c r="H18" s="164" t="s">
+        <v>135</v>
+      </c>
+      <c r="I18" s="190">
         <v>42262</v>
       </c>
-      <c r="J18" s="193">
+      <c r="J18" s="191">
         <v>42276</v>
       </c>
-      <c r="K18" s="127">
+      <c r="K18" s="125">
         <v>8</v>
       </c>
-      <c r="L18" s="192">
+      <c r="L18" s="190">
         <v>42262</v>
       </c>
-      <c r="M18" s="193">
+      <c r="M18" s="191">
         <v>42276</v>
       </c>
-      <c r="N18" s="127">
+      <c r="N18" s="125">
         <v>5</v>
       </c>
-      <c r="O18" s="128"/>
-    </row>
-    <row r="19" spans="1:15" s="124" customFormat="1" ht="32.1" customHeight="1">
-      <c r="B19" s="85">
+      <c r="O18" s="126"/>
+    </row>
+    <row r="19" spans="1:15" s="122" customFormat="1" ht="32.1" customHeight="1">
+      <c r="B19" s="83">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C19" s="170">
+      <c r="C19" s="168">
         <v>1</v>
       </c>
-      <c r="D19" s="161" t="s">
-        <v>123</v>
-      </c>
-      <c r="E19" s="162" t="s">
-        <v>131</v>
-      </c>
-      <c r="F19" s="163" t="s">
-        <v>165</v>
-      </c>
-      <c r="G19" s="166" t="s">
-        <v>143</v>
-      </c>
-      <c r="H19" s="166" t="s">
-        <v>141</v>
-      </c>
-      <c r="I19" s="192">
+      <c r="D19" s="159" t="s">
+        <v>118</v>
+      </c>
+      <c r="E19" s="160" t="s">
+        <v>125</v>
+      </c>
+      <c r="F19" s="161" t="s">
+        <v>159</v>
+      </c>
+      <c r="G19" s="164" t="s">
+        <v>137</v>
+      </c>
+      <c r="H19" s="164" t="s">
+        <v>135</v>
+      </c>
+      <c r="I19" s="190">
         <v>42262</v>
       </c>
-      <c r="J19" s="193">
+      <c r="J19" s="191">
         <v>42276</v>
       </c>
-      <c r="K19" s="127">
+      <c r="K19" s="125">
         <v>8</v>
       </c>
-      <c r="L19" s="192">
+      <c r="L19" s="190">
         <v>42262</v>
       </c>
-      <c r="M19" s="193">
+      <c r="M19" s="191">
         <v>42276</v>
       </c>
-      <c r="N19" s="127">
+      <c r="N19" s="125">
         <v>5</v>
       </c>
-      <c r="O19" s="128"/>
-    </row>
-    <row r="20" spans="1:15" s="124" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A20" s="126"/>
-      <c r="B20" s="85">
+      <c r="O19" s="126"/>
+    </row>
+    <row r="20" spans="1:15" s="122" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A20" s="124"/>
+      <c r="B20" s="83">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C20" s="170">
+      <c r="C20" s="168">
         <v>1</v>
       </c>
-      <c r="D20" s="165" t="s">
-        <v>123</v>
-      </c>
-      <c r="E20" s="162" t="s">
-        <v>179</v>
-      </c>
-      <c r="F20" s="163" t="s">
-        <v>153</v>
-      </c>
-      <c r="G20" s="166" t="s">
-        <v>143</v>
-      </c>
-      <c r="H20" s="166" t="s">
-        <v>141</v>
-      </c>
-      <c r="I20" s="192">
+      <c r="D20" s="163" t="s">
+        <v>118</v>
+      </c>
+      <c r="E20" s="160" t="s">
+        <v>172</v>
+      </c>
+      <c r="F20" s="161" t="s">
+        <v>205</v>
+      </c>
+      <c r="G20" s="164" t="s">
+        <v>137</v>
+      </c>
+      <c r="H20" s="164" t="s">
+        <v>135</v>
+      </c>
+      <c r="I20" s="190">
         <v>42262</v>
       </c>
-      <c r="J20" s="193">
+      <c r="J20" s="191">
         <v>42276</v>
       </c>
-      <c r="K20" s="127">
+      <c r="K20" s="125">
         <v>8</v>
       </c>
-      <c r="L20" s="192">
+      <c r="L20" s="190">
         <v>42262</v>
       </c>
-      <c r="M20" s="193">
+      <c r="M20" s="191">
         <v>42276</v>
       </c>
-      <c r="N20" s="127">
+      <c r="N20" s="125">
         <v>5</v>
       </c>
-      <c r="O20" s="128"/>
-    </row>
-    <row r="21" spans="1:15" s="124" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A21" s="126"/>
-      <c r="B21" s="85">
+      <c r="O20" s="126"/>
+    </row>
+    <row r="21" spans="1:15" s="122" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A21" s="124"/>
+      <c r="B21" s="83">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C21" s="170">
+      <c r="C21" s="168">
         <v>1</v>
       </c>
-      <c r="D21" s="165" t="s">
-        <v>123</v>
-      </c>
-      <c r="E21" s="162" t="s">
-        <v>179</v>
-      </c>
-      <c r="F21" s="163" t="s">
+      <c r="D21" s="163" t="s">
+        <v>118</v>
+      </c>
+      <c r="E21" s="160" t="s">
         <v>172</v>
       </c>
-      <c r="G21" s="166" t="s">
-        <v>143</v>
-      </c>
-      <c r="H21" s="166" t="s">
-        <v>141</v>
-      </c>
-      <c r="I21" s="192">
+      <c r="F21" s="161" t="s">
+        <v>166</v>
+      </c>
+      <c r="G21" s="164" t="s">
+        <v>137</v>
+      </c>
+      <c r="H21" s="164" t="s">
+        <v>135</v>
+      </c>
+      <c r="I21" s="190">
         <v>42262</v>
       </c>
-      <c r="J21" s="193">
+      <c r="J21" s="191">
         <v>42276</v>
       </c>
-      <c r="K21" s="127">
+      <c r="K21" s="125">
         <v>8</v>
       </c>
-      <c r="L21" s="192">
+      <c r="L21" s="190">
         <v>42262</v>
       </c>
-      <c r="M21" s="193">
+      <c r="M21" s="191">
         <v>42276</v>
       </c>
-      <c r="N21" s="127">
+      <c r="N21" s="125">
         <v>5</v>
       </c>
-      <c r="O21" s="128"/>
-    </row>
-    <row r="22" spans="1:15" s="124" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A22" s="126"/>
-      <c r="B22" s="85">
+      <c r="O21" s="126"/>
+    </row>
+    <row r="22" spans="1:15" s="122" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A22" s="124"/>
+      <c r="B22" s="83">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C22" s="170">
+      <c r="C22" s="168">
         <v>1</v>
       </c>
-      <c r="D22" s="165" t="s">
-        <v>123</v>
-      </c>
-      <c r="E22" s="162" t="s">
-        <v>179</v>
-      </c>
-      <c r="F22" s="163" t="s">
-        <v>173</v>
-      </c>
-      <c r="G22" s="166" t="s">
-        <v>143</v>
-      </c>
-      <c r="H22" s="166" t="s">
-        <v>141</v>
-      </c>
-      <c r="I22" s="192">
+      <c r="D22" s="163" t="s">
+        <v>118</v>
+      </c>
+      <c r="E22" s="160" t="s">
+        <v>172</v>
+      </c>
+      <c r="F22" s="161" t="s">
+        <v>206</v>
+      </c>
+      <c r="G22" s="164" t="s">
+        <v>137</v>
+      </c>
+      <c r="H22" s="164" t="s">
+        <v>135</v>
+      </c>
+      <c r="I22" s="190">
         <v>42262</v>
       </c>
-      <c r="J22" s="193">
+      <c r="J22" s="191">
         <v>42276</v>
       </c>
-      <c r="K22" s="127">
+      <c r="K22" s="125">
         <v>8</v>
       </c>
-      <c r="L22" s="192">
+      <c r="L22" s="190">
         <v>42262</v>
       </c>
-      <c r="M22" s="193">
+      <c r="M22" s="191">
         <v>42276</v>
       </c>
-      <c r="N22" s="127">
+      <c r="N22" s="125">
         <v>5</v>
       </c>
-      <c r="O22" s="128"/>
-    </row>
-    <row r="23" spans="1:15" s="124" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A23" s="126"/>
-      <c r="B23" s="85">
+      <c r="O22" s="126"/>
+    </row>
+    <row r="23" spans="1:15" s="122" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A23" s="124"/>
+      <c r="B23" s="83">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C23" s="170">
+      <c r="C23" s="168">
         <v>1</v>
       </c>
-      <c r="D23" s="165" t="s">
-        <v>123</v>
-      </c>
-      <c r="E23" s="162" t="s">
-        <v>179</v>
-      </c>
-      <c r="F23" s="163" t="s">
-        <v>174</v>
-      </c>
-      <c r="G23" s="166" t="s">
-        <v>143</v>
-      </c>
-      <c r="H23" s="166" t="s">
-        <v>141</v>
-      </c>
-      <c r="I23" s="192">
+      <c r="D23" s="163" t="s">
+        <v>118</v>
+      </c>
+      <c r="E23" s="160" t="s">
+        <v>172</v>
+      </c>
+      <c r="F23" s="161" t="s">
+        <v>207</v>
+      </c>
+      <c r="G23" s="164" t="s">
+        <v>137</v>
+      </c>
+      <c r="H23" s="164" t="s">
+        <v>135</v>
+      </c>
+      <c r="I23" s="190">
         <v>42262</v>
       </c>
-      <c r="J23" s="193">
+      <c r="J23" s="191">
         <v>42276</v>
       </c>
-      <c r="K23" s="127">
+      <c r="K23" s="125">
         <v>8</v>
       </c>
-      <c r="L23" s="192">
+      <c r="L23" s="190">
         <v>42262</v>
       </c>
-      <c r="M23" s="193">
+      <c r="M23" s="191">
         <v>42276</v>
       </c>
-      <c r="N23" s="127">
+      <c r="N23" s="125">
         <v>5</v>
       </c>
-      <c r="O23" s="128"/>
+      <c r="O23" s="126"/>
     </row>
     <row r="24" spans="1:15" ht="12.75" customHeight="1">
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
-      <c r="K24" s="130"/>
-      <c r="L24" s="131"/>
-      <c r="M24" s="132"/>
-      <c r="N24" s="130"/>
+      <c r="K24" s="128"/>
+      <c r="L24" s="129"/>
+      <c r="M24" s="130"/>
+      <c r="N24" s="128"/>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="8"/>
@@ -9329,10 +9658,10 @@
       <c r="C25" s="6"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
-      <c r="K25" s="131"/>
-      <c r="L25" s="131"/>
-      <c r="M25" s="131"/>
-      <c r="N25" s="131"/>
+      <c r="K25" s="129"/>
+      <c r="L25" s="129"/>
+      <c r="M25" s="129"/>
+      <c r="N25" s="129"/>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="8"/>
@@ -9363,7 +9692,8 @@
   <headerFooter alignWithMargins="0">
     <oddFooter xml:space="preserve">&amp;LRev. 1.0&amp;CFecha Efectiva: 16/06/2008&amp;RPágina &amp;P de &amp;N </oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
@@ -9403,10 +9733,10 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="I11" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="O12" sqref="O12"/>
+      <selection pane="bottomRight" activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25"/>
@@ -9427,22 +9757,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="25" customFormat="1" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A1" s="239" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="240"/>
-      <c r="C1" s="240"/>
-      <c r="D1" s="240"/>
-      <c r="E1" s="240"/>
-      <c r="F1" s="240"/>
-      <c r="G1" s="240"/>
-      <c r="H1" s="240"/>
-      <c r="I1" s="240"/>
-      <c r="J1" s="240"/>
-      <c r="K1" s="240"/>
-      <c r="L1" s="240"/>
-      <c r="M1" s="240"/>
-      <c r="N1" s="241"/>
+      <c r="A1" s="246" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
+      <c r="E1" s="247"/>
+      <c r="F1" s="247"/>
+      <c r="G1" s="247"/>
+      <c r="H1" s="247"/>
+      <c r="I1" s="247"/>
+      <c r="J1" s="247"/>
+      <c r="K1" s="247"/>
+      <c r="L1" s="247"/>
+      <c r="M1" s="247"/>
+      <c r="N1" s="248"/>
     </row>
     <row r="2" spans="1:15" s="25" customFormat="1" ht="11.45" customHeight="1">
       <c r="A2" s="26"/>
@@ -9466,632 +9796,632 @@
       <c r="M3" s="28"/>
     </row>
     <row r="4" spans="1:15" s="24" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="174" t="s">
+      <c r="A4" s="172" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="173" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="174" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="174" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" s="173" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="173" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="173" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="175" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="176" t="s">
-        <v>114</v>
-      </c>
-      <c r="D4" s="176" t="s">
-        <v>126</v>
-      </c>
-      <c r="E4" s="175" t="s">
-        <v>111</v>
-      </c>
-      <c r="F4" s="175" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="175" t="s">
+      <c r="H4" s="174" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="173" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="173" t="s">
+        <v>120</v>
+      </c>
+      <c r="K4" s="173" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="173" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="176" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="175" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="175" t="s">
-        <v>125</v>
-      </c>
-      <c r="K4" s="175" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" s="175" t="s">
+      <c r="M4" s="173" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="175" t="s">
+      <c r="N4" s="173" t="s">
         <v>28</v>
       </c>
-      <c r="N4" s="175" t="s">
-        <v>29</v>
-      </c>
-      <c r="O4" s="177" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="116" customFormat="1" ht="42" customHeight="1">
-      <c r="A5" s="178">
+      <c r="O4" s="175" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="114" customFormat="1" ht="42" customHeight="1">
+      <c r="A5" s="176">
         <v>1</v>
       </c>
-      <c r="B5" s="171">
+      <c r="B5" s="169">
         <v>1</v>
       </c>
-      <c r="C5" s="114" t="str">
+      <c r="C5" s="112" t="str">
         <f>VLOOKUP(A5,Planificación!$B$13:$F$70,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D5" s="172" t="str">
+      <c r="D5" s="170" t="str">
         <f>CONCATENATE(LEFT(VLOOKUP(A5,Planificación!B$13:H$23,5,FALSE),FIND("_",VLOOKUP(A5,Planificación!B$13:H$23,5,FALSE),1)-1)," / ",VLOOKUP(A5,Planificación!B$13:H$23,3,FALSE))</f>
         <v>PGPROY / Desarrollo de Sistemas</v>
       </c>
-      <c r="E5" s="114" t="str">
+      <c r="E5" s="112" t="str">
         <f>VLOOKUP(A5,Planificación!B$13:H$23,6,FALSE)</f>
         <v>Roger</v>
       </c>
-      <c r="F5" s="114" t="str">
+      <c r="F5" s="112" t="str">
         <f>VLOOKUP(A5,Planificación!$B$13:$H$23,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G5" s="115" t="s">
-        <v>199</v>
-      </c>
-      <c r="H5" s="157" t="s">
-        <v>128</v>
-      </c>
-      <c r="I5" s="157" t="s">
-        <v>95</v>
-      </c>
-      <c r="J5" s="157" t="str">
+      <c r="G5" s="113" t="s">
+        <v>191</v>
+      </c>
+      <c r="H5" s="155" t="s">
+        <v>123</v>
+      </c>
+      <c r="I5" s="155" t="s">
+        <v>91</v>
+      </c>
+      <c r="J5" s="155" t="str">
         <f>VLOOKUP(A5,Planificación!B$13:H$23,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="K5" s="160"/>
-      <c r="L5" s="173">
+      <c r="K5" s="158"/>
+      <c r="L5" s="171">
         <f>VLOOKUP(A5,Planificación!B$13:N$23,9,FALSE)</f>
         <v>42276</v>
       </c>
-      <c r="M5" s="173">
+      <c r="M5" s="171">
         <f>VLOOKUP(A5,Planificación!B$13:N$23,12,FALSE)</f>
         <v>42276</v>
       </c>
-      <c r="N5" s="189">
+      <c r="N5" s="187">
         <v>1</v>
       </c>
-      <c r="O5" s="179" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="116" customFormat="1" ht="42" customHeight="1">
-      <c r="A6" s="178">
+      <c r="O5" s="177" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="114" customFormat="1" ht="42" customHeight="1">
+      <c r="A6" s="176">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="171">
+      <c r="B6" s="169">
         <v>1</v>
       </c>
-      <c r="C6" s="114" t="str">
+      <c r="C6" s="112" t="str">
         <f>VLOOKUP(A6,Planificación!$B$13:$F$70,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D6" s="172" t="str">
+      <c r="D6" s="170" t="str">
         <f>CONCATENATE(LEFT(VLOOKUP(A6,Planificación!B$13:H$23,5,FALSE),FIND("_",VLOOKUP(A6,Planificación!B$13:H$23,5,FALSE),1)-1)," / ",VLOOKUP(A6,Planificación!B$13:H$23,3,FALSE))</f>
         <v>PPROY / Desarrollo de Sistemas</v>
       </c>
-      <c r="E6" s="114" t="str">
+      <c r="E6" s="112" t="str">
         <f>VLOOKUP(A6,Planificación!B$13:H$23,6,FALSE)</f>
         <v>Roger</v>
       </c>
-      <c r="F6" s="114" t="str">
+      <c r="F6" s="112" t="str">
         <f>VLOOKUP(A6,Planificación!$B$13:$H$23,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G6" s="180" t="s">
-        <v>200</v>
-      </c>
-      <c r="H6" s="157" t="s">
-        <v>120</v>
-      </c>
-      <c r="I6" s="157" t="s">
-        <v>95</v>
-      </c>
-      <c r="J6" s="157" t="str">
+      <c r="G6" s="178" t="s">
+        <v>192</v>
+      </c>
+      <c r="H6" s="155" t="s">
+        <v>115</v>
+      </c>
+      <c r="I6" s="155" t="s">
+        <v>91</v>
+      </c>
+      <c r="J6" s="155" t="str">
         <f>VLOOKUP(A6,Planificación!B$13:H$23,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="K6" s="160"/>
-      <c r="L6" s="173">
+      <c r="K6" s="158"/>
+      <c r="L6" s="171">
         <f>VLOOKUP(A6,Planificación!B$13:N$23,9,FALSE)</f>
         <v>42276</v>
       </c>
-      <c r="M6" s="173">
+      <c r="M6" s="171">
         <f>VLOOKUP(A6,Planificación!B$13:N$23,12,FALSE)</f>
         <v>42276</v>
       </c>
-      <c r="N6" s="189">
+      <c r="N6" s="187">
         <v>1</v>
       </c>
-      <c r="O6" s="179" t="s">
-        <v>203</v>
+      <c r="O6" s="177" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="42" customHeight="1">
-      <c r="A7" s="178">
+      <c r="A7" s="176">
         <f t="shared" ref="A7:A15" si="0">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="96">
+      <c r="B7" s="94">
         <v>1</v>
       </c>
-      <c r="C7" s="97" t="str">
+      <c r="C7" s="95" t="str">
         <f>VLOOKUP(A7,Planificación!$B$13:$F$70,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D7" s="155" t="str">
+      <c r="D7" s="153" t="str">
         <f>CONCATENATE(LEFT(VLOOKUP(A7,Planificación!B$13:H$23,5,FALSE),FIND("_",VLOOKUP(A7,Planificación!B$13:H$23,5,FALSE),1)-1)," / ",VLOOKUP(A7,Planificación!B$13:H$23,3,FALSE))</f>
         <v>ACREVPRO / Desarrollo de Sistemas</v>
       </c>
-      <c r="E7" s="97" t="str">
+      <c r="E7" s="95" t="str">
         <f>VLOOKUP(A7,Planificación!B$13:H$23,6,FALSE)</f>
         <v>Roger</v>
       </c>
-      <c r="F7" s="97" t="str">
+      <c r="F7" s="95" t="str">
         <f>VLOOKUP(A7,Planificación!$B$13:$H$23,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G7" s="98" t="s">
-        <v>197</v>
-      </c>
-      <c r="H7" s="156" t="s">
-        <v>120</v>
-      </c>
-      <c r="I7" s="156" t="s">
-        <v>95</v>
-      </c>
-      <c r="J7" s="156" t="str">
+      <c r="G7" s="96" t="s">
+        <v>189</v>
+      </c>
+      <c r="H7" s="154" t="s">
+        <v>115</v>
+      </c>
+      <c r="I7" s="154" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" s="154" t="str">
         <f>VLOOKUP(A7,Planificación!B$13:H$23,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="K7" s="158"/>
-      <c r="L7" s="159">
+      <c r="K7" s="156"/>
+      <c r="L7" s="157">
         <f>VLOOKUP(A7,Planificación!B$13:N$23,9,FALSE)</f>
         <v>42276</v>
       </c>
-      <c r="M7" s="159">
+      <c r="M7" s="157">
         <f>VLOOKUP(A7,Planificación!B$13:N$23,12,FALSE)</f>
         <v>42276</v>
       </c>
-      <c r="N7" s="189">
+      <c r="N7" s="187">
         <v>1</v>
       </c>
-      <c r="O7" s="179" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="116" customFormat="1" ht="42" customHeight="1">
-      <c r="A8" s="178">
+      <c r="O7" s="177" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="114" customFormat="1" ht="42" customHeight="1">
+      <c r="A8" s="176">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="171">
+      <c r="B8" s="169">
         <v>1</v>
       </c>
-      <c r="C8" s="114" t="str">
+      <c r="C8" s="112" t="str">
         <f>VLOOKUP(A8,Planificación!$B$13:$F$70,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D8" s="172" t="str">
+      <c r="D8" s="170" t="str">
         <f>CONCATENATE(LEFT(VLOOKUP(A8,Planificación!B$13:H$23,5,FALSE),FIND("_",VLOOKUP(A8,Planificación!B$13:H$23,5,FALSE),1)-1)," / ",VLOOKUP(A8,Planificación!B$13:H$23,3,FALSE))</f>
         <v>CPROY / Desarrollo de Sistemas</v>
       </c>
-      <c r="E8" s="114" t="str">
+      <c r="E8" s="112" t="str">
         <f>VLOOKUP(A8,Planificación!B$13:H$23,6,FALSE)</f>
         <v>Roger</v>
       </c>
-      <c r="F8" s="114" t="str">
+      <c r="F8" s="112" t="str">
         <f>VLOOKUP(A8,Planificación!$B$13:$H$23,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G8" s="115" t="s">
-        <v>201</v>
-      </c>
-      <c r="H8" s="157" t="s">
-        <v>120</v>
-      </c>
-      <c r="I8" s="157" t="s">
-        <v>95</v>
-      </c>
-      <c r="J8" s="157" t="str">
+      <c r="G8" s="113" t="s">
+        <v>193</v>
+      </c>
+      <c r="H8" s="155" t="s">
+        <v>115</v>
+      </c>
+      <c r="I8" s="155" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" s="155" t="str">
         <f>VLOOKUP(A8,Planificación!B$13:H$23,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="K8" s="160"/>
-      <c r="L8" s="173">
+      <c r="K8" s="158"/>
+      <c r="L8" s="171">
         <f>VLOOKUP(A8,Planificación!B$13:N$23,9,FALSE)</f>
         <v>42276</v>
       </c>
-      <c r="M8" s="173">
+      <c r="M8" s="171">
         <f>VLOOKUP(A8,Planificación!B$13:N$23,12,FALSE)</f>
         <v>42276</v>
       </c>
-      <c r="N8" s="189">
+      <c r="N8" s="187">
         <v>1</v>
       </c>
-      <c r="O8" s="179" t="s">
-        <v>203</v>
+      <c r="O8" s="177" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="42" customHeight="1">
-      <c r="A9" s="178">
+      <c r="A9" s="176">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="96">
+      <c r="B9" s="94">
         <v>1</v>
       </c>
-      <c r="C9" s="97" t="str">
+      <c r="C9" s="95" t="str">
         <f>VLOOKUP(A9,Planificación!$B$13:$F$70,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D9" s="155" t="str">
+      <c r="D9" s="153" t="str">
         <f>CONCATENATE(LEFT(VLOOKUP(A9,Planificación!B$13:H$23,5,FALSE),FIND("_",VLOOKUP(A9,Planificación!B$13:H$23,5,FALSE),1)-1)," / ",VLOOKUP(A9,Planificación!B$13:H$23,3,FALSE))</f>
         <v>REGRI / Desarrollo de Sistemas</v>
       </c>
-      <c r="E9" s="97" t="str">
+      <c r="E9" s="95" t="str">
         <f>VLOOKUP(A9,Planificación!B$13:H$23,6,FALSE)</f>
         <v>Roger</v>
       </c>
-      <c r="F9" s="97" t="str">
+      <c r="F9" s="95" t="str">
         <f>VLOOKUP(A9,Planificación!$B$13:$H$23,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G9" s="115" t="s">
-        <v>178</v>
-      </c>
-      <c r="H9" s="157" t="s">
-        <v>120</v>
-      </c>
-      <c r="I9" s="157" t="s">
-        <v>95</v>
-      </c>
-      <c r="J9" s="156" t="str">
+      <c r="G9" s="113" t="s">
+        <v>202</v>
+      </c>
+      <c r="H9" s="155" t="s">
+        <v>115</v>
+      </c>
+      <c r="I9" s="155" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" s="154" t="str">
         <f>VLOOKUP(A9,Planificación!B$13:H$23,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="K9" s="160"/>
-      <c r="L9" s="159">
+      <c r="K9" s="158"/>
+      <c r="L9" s="157">
         <f>VLOOKUP(A9,Planificación!B$13:N$23,9,FALSE)</f>
         <v>42276</v>
       </c>
-      <c r="M9" s="159">
+      <c r="M9" s="157">
         <f>VLOOKUP(A9,Planificación!B$13:N$23,12,FALSE)</f>
         <v>42276</v>
       </c>
-      <c r="N9" s="189">
+      <c r="N9" s="187">
         <v>1</v>
       </c>
-      <c r="O9" s="179" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="116" customFormat="1" ht="42" customHeight="1">
-      <c r="A10" s="178">
+      <c r="O9" s="177" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="114" customFormat="1" ht="42" customHeight="1">
+      <c r="A10" s="176">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="171">
+      <c r="B10" s="169">
         <v>1</v>
       </c>
-      <c r="C10" s="114" t="str">
+      <c r="C10" s="112" t="str">
         <f>VLOOKUP(A10,Planificación!$B$13:$F$70,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D10" s="172" t="str">
+      <c r="D10" s="170" t="str">
         <f>CONCATENATE(LEFT(VLOOKUP(A10,Planificación!B$13:H$23,5,FALSE),FIND("_",VLOOKUP(A10,Planificación!B$13:H$23,5,FALSE),1)-1)," / ",VLOOKUP(A10,Planificación!B$13:H$23,3,FALSE))</f>
         <v>ACCPRO / Desarrollo de Sistemas</v>
       </c>
-      <c r="E10" s="114" t="str">
+      <c r="E10" s="112" t="str">
         <f>VLOOKUP(A10,Planificación!B$13:H$23,6,FALSE)</f>
         <v>Roger</v>
       </c>
-      <c r="F10" s="114" t="str">
+      <c r="F10" s="112" t="str">
         <f>VLOOKUP(A10,Planificación!$B$13:$H$23,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G10" s="115" t="s">
-        <v>202</v>
-      </c>
-      <c r="H10" s="157" t="s">
-        <v>120</v>
-      </c>
-      <c r="I10" s="157" t="s">
-        <v>95</v>
-      </c>
-      <c r="J10" s="157" t="str">
+      <c r="G10" s="113" t="s">
+        <v>194</v>
+      </c>
+      <c r="H10" s="155" t="s">
+        <v>115</v>
+      </c>
+      <c r="I10" s="155" t="s">
+        <v>91</v>
+      </c>
+      <c r="J10" s="155" t="str">
         <f>VLOOKUP(A10,Planificación!B$13:H$23,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="K10" s="160"/>
-      <c r="L10" s="173">
+      <c r="K10" s="158"/>
+      <c r="L10" s="171">
         <f>VLOOKUP(A10,Planificación!B$13:N$23,9,FALSE)</f>
         <v>42276</v>
       </c>
-      <c r="M10" s="173">
+      <c r="M10" s="171">
         <f>VLOOKUP(A10,Planificación!B$13:N$23,12,FALSE)</f>
         <v>42276</v>
       </c>
-      <c r="N10" s="189">
+      <c r="N10" s="187">
         <v>1</v>
       </c>
-      <c r="O10" s="179" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" s="116" customFormat="1" ht="42" customHeight="1">
-      <c r="A11" s="178">
+      <c r="O10" s="177" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="114" customFormat="1" ht="42" customHeight="1">
+      <c r="A11" s="176">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="171">
+      <c r="B11" s="169">
         <v>1</v>
       </c>
-      <c r="C11" s="114" t="str">
+      <c r="C11" s="112" t="str">
         <f>VLOOKUP(A11,Planificación!$B$13:$F$70,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D11" s="172" t="str">
+      <c r="D11" s="170" t="str">
         <f>CONCATENATE(LEFT(VLOOKUP(A11,Planificación!B$13:H$23,5,FALSE),FIND("_",VLOOKUP(A11,Planificación!B$13:H$23,5,FALSE),1)-1)," / ",VLOOKUP(A11,Planificación!B$13:H$23,3,FALSE))</f>
         <v>ACREPRO / Desarrollo de Sistemas</v>
       </c>
-      <c r="E11" s="114" t="str">
+      <c r="E11" s="112" t="str">
         <f>VLOOKUP(A11,Planificación!B$13:H$23,6,FALSE)</f>
         <v>Roger</v>
       </c>
-      <c r="F11" s="114" t="str">
+      <c r="F11" s="112" t="str">
         <f>VLOOKUP(A11,Planificación!$B$13:$H$23,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G11" s="115" t="s">
-        <v>202</v>
-      </c>
-      <c r="H11" s="157" t="s">
-        <v>120</v>
-      </c>
-      <c r="I11" s="157" t="s">
-        <v>95</v>
-      </c>
-      <c r="J11" s="157" t="str">
+      <c r="G11" s="113" t="s">
+        <v>194</v>
+      </c>
+      <c r="H11" s="155" t="s">
+        <v>115</v>
+      </c>
+      <c r="I11" s="155" t="s">
+        <v>91</v>
+      </c>
+      <c r="J11" s="155" t="str">
         <f>VLOOKUP(A11,Planificación!B$13:H$23,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="K11" s="160"/>
-      <c r="L11" s="173">
+      <c r="K11" s="158"/>
+      <c r="L11" s="171">
         <f>VLOOKUP(A11,Planificación!B$13:N$23,9,FALSE)</f>
         <v>42276</v>
       </c>
-      <c r="M11" s="173">
+      <c r="M11" s="171">
         <f>VLOOKUP(A11,Planificación!B$13:N$23,12,FALSE)</f>
         <v>42276</v>
       </c>
-      <c r="N11" s="189">
+      <c r="N11" s="187">
         <v>1</v>
       </c>
-      <c r="O11" s="179" t="s">
-        <v>203</v>
+      <c r="O11" s="177" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="42" customHeight="1">
-      <c r="A12" s="178">
+      <c r="A12" s="176">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="96">
+      <c r="B12" s="94">
         <v>1</v>
       </c>
-      <c r="C12" s="97" t="str">
+      <c r="C12" s="95" t="str">
         <f>VLOOKUP(A12,Planificación!$B$13:$F$70,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D12" s="155" t="str">
+      <c r="D12" s="153" t="str">
         <f>CONCATENATE(LEFT(VLOOKUP(A12,Planificación!B$13:H$23,5,FALSE),FIND("_",VLOOKUP(A12,Planificación!B$13:H$23,5,FALSE),1)-1)," / ",VLOOKUP(A12,Planificación!B$13:H$23,3,FALSE))</f>
         <v>AREXT / Desarrollo de Sistemas</v>
       </c>
-      <c r="E12" s="97" t="str">
+      <c r="E12" s="95" t="str">
         <f>VLOOKUP(A12,Planificación!B$13:H$23,6,FALSE)</f>
         <v>Roger</v>
       </c>
-      <c r="F12" s="97" t="str">
+      <c r="F12" s="95" t="str">
         <f>VLOOKUP(A12,Planificación!$B$13:$H$23,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G12" s="98" t="s">
-        <v>177</v>
-      </c>
-      <c r="H12" s="156" t="s">
-        <v>128</v>
-      </c>
-      <c r="I12" s="156" t="s">
-        <v>95</v>
-      </c>
-      <c r="J12" s="156" t="str">
+      <c r="G12" s="96" t="s">
+        <v>171</v>
+      </c>
+      <c r="H12" s="154" t="s">
+        <v>123</v>
+      </c>
+      <c r="I12" s="154" t="s">
+        <v>91</v>
+      </c>
+      <c r="J12" s="154" t="str">
         <f>VLOOKUP(A12,Planificación!B$13:H$23,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="K12" s="158"/>
-      <c r="L12" s="159">
+      <c r="K12" s="156"/>
+      <c r="L12" s="157">
         <f>VLOOKUP(A12,Planificación!B$13:N$23,9,FALSE)</f>
         <v>42276</v>
       </c>
-      <c r="M12" s="159">
+      <c r="M12" s="157">
         <f>VLOOKUP(A12,Planificación!B$13:N$23,12,FALSE)</f>
         <v>42276</v>
       </c>
-      <c r="N12" s="189">
+      <c r="N12" s="187">
         <v>1</v>
       </c>
-      <c r="O12" s="179" t="s">
-        <v>203</v>
+      <c r="O12" s="177" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="42" customHeight="1">
-      <c r="A13" s="178">
+      <c r="A13" s="176">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="96">
+      <c r="B13" s="94">
         <v>1</v>
       </c>
-      <c r="C13" s="97" t="str">
+      <c r="C13" s="95" t="str">
         <f>VLOOKUP(A13,Planificación!$B$13:$F$70,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D13" s="155" t="str">
+      <c r="D13" s="153" t="str">
         <f>CONCATENATE(LEFT(VLOOKUP(A13,Planificación!B$13:H$23,5,FALSE),FIND("_",VLOOKUP(A13,Planificación!B$13:H$23,5,FALSE),1)-1)," / ",VLOOKUP(A13,Planificación!B$13:H$23,3,FALSE))</f>
         <v>IAQUIN / Desarrollo de Sistemas</v>
       </c>
-      <c r="E13" s="97" t="str">
+      <c r="E13" s="95" t="str">
         <f>VLOOKUP(A13,Planificación!B$13:H$23,6,FALSE)</f>
         <v>Roger</v>
       </c>
-      <c r="F13" s="97" t="str">
+      <c r="F13" s="95" t="str">
         <f>VLOOKUP(A13,Planificación!$B$13:$H$23,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G13" s="98" t="s">
-        <v>177</v>
-      </c>
-      <c r="H13" s="156" t="s">
-        <v>120</v>
-      </c>
-      <c r="I13" s="156" t="s">
-        <v>95</v>
-      </c>
-      <c r="J13" s="156" t="str">
+      <c r="G13" s="96" t="s">
+        <v>171</v>
+      </c>
+      <c r="H13" s="154" t="s">
+        <v>115</v>
+      </c>
+      <c r="I13" s="154" t="s">
+        <v>91</v>
+      </c>
+      <c r="J13" s="154" t="str">
         <f>VLOOKUP(A13,Planificación!B$13:H$23,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="K13" s="158"/>
-      <c r="L13" s="159">
+      <c r="K13" s="156"/>
+      <c r="L13" s="157">
         <f>VLOOKUP(A13,Planificación!B$13:N$23,9,FALSE)</f>
         <v>42276</v>
       </c>
-      <c r="M13" s="159">
+      <c r="M13" s="157">
         <f>VLOOKUP(A13,Planificación!B$13:N$23,12,FALSE)</f>
         <v>42276</v>
       </c>
-      <c r="N13" s="189">
+      <c r="N13" s="187">
         <v>1</v>
       </c>
-      <c r="O13" s="179" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" s="116" customFormat="1" ht="42" customHeight="1">
-      <c r="A14" s="178">
+      <c r="O13" s="177" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="114" customFormat="1" ht="42" customHeight="1">
+      <c r="A14" s="176">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B14" s="96">
+      <c r="B14" s="94">
         <v>1</v>
       </c>
-      <c r="C14" s="97" t="str">
+      <c r="C14" s="95" t="str">
         <f>VLOOKUP(A14,Planificación!$B$13:$F$70,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D14" s="155" t="str">
+      <c r="D14" s="153" t="str">
         <f>CONCATENATE(LEFT(VLOOKUP(A14,Planificación!B$13:H$23,5,FALSE),FIND("_",VLOOKUP(A14,Planificación!B$13:H$23,5,FALSE),1)-1)," / ",VLOOKUP(A14,Planificación!B$13:H$23,3,FALSE))</f>
         <v>ARINT / Desarrollo de Sistemas</v>
       </c>
-      <c r="E14" s="97" t="str">
+      <c r="E14" s="95" t="str">
         <f>VLOOKUP(A14,Planificación!B$13:H$23,6,FALSE)</f>
         <v>Roger</v>
       </c>
-      <c r="F14" s="97" t="str">
+      <c r="F14" s="95" t="str">
         <f>VLOOKUP(A14,Planificación!$B$13:$H$23,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G14" s="98" t="s">
-        <v>177</v>
-      </c>
-      <c r="H14" s="157" t="s">
-        <v>120</v>
-      </c>
-      <c r="I14" s="157" t="s">
-        <v>95</v>
-      </c>
-      <c r="J14" s="156" t="str">
+      <c r="G14" s="96" t="s">
+        <v>171</v>
+      </c>
+      <c r="H14" s="155" t="s">
+        <v>115</v>
+      </c>
+      <c r="I14" s="155" t="s">
+        <v>91</v>
+      </c>
+      <c r="J14" s="154" t="str">
         <f>VLOOKUP(A14,Planificación!B$13:H$23,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="K14" s="160"/>
-      <c r="L14" s="159">
+      <c r="K14" s="158"/>
+      <c r="L14" s="157">
         <f>VLOOKUP(A14,Planificación!B$13:N$23,9,FALSE)</f>
         <v>42276</v>
       </c>
-      <c r="M14" s="159">
+      <c r="M14" s="157">
         <f>VLOOKUP(A14,Planificación!B$13:N$23,12,FALSE)</f>
         <v>42276</v>
       </c>
-      <c r="N14" s="189">
+      <c r="N14" s="187">
         <v>1</v>
       </c>
-      <c r="O14" s="179" t="s">
-        <v>203</v>
+      <c r="O14" s="177" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="42" customHeight="1" thickBot="1">
-      <c r="A15" s="181">
+      <c r="A15" s="179">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B15" s="182">
+      <c r="B15" s="180">
         <v>1</v>
       </c>
-      <c r="C15" s="183" t="str">
+      <c r="C15" s="181" t="str">
         <f>VLOOKUP(A15,Planificación!$B$13:$F$70,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D15" s="184" t="str">
+      <c r="D15" s="182" t="str">
         <f>CONCATENATE(LEFT(VLOOKUP(A15,Planificación!B$13:H$23,5,FALSE),FIND("_",VLOOKUP(A15,Planificación!B$13:H$23,5,FALSE),1)-1)," / ",VLOOKUP(A15,Planificación!B$13:H$23,3,FALSE))</f>
         <v>ACENTRE / Desarrollo de Sistemas</v>
       </c>
-      <c r="E15" s="183" t="str">
+      <c r="E15" s="181" t="str">
         <f>VLOOKUP(A15,Planificación!B$13:H$23,6,FALSE)</f>
         <v>Roger</v>
       </c>
-      <c r="F15" s="183" t="str">
+      <c r="F15" s="181" t="str">
         <f>VLOOKUP(A15,Planificación!$B$13:$H$23,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="G15" s="185" t="s">
-        <v>177</v>
-      </c>
-      <c r="H15" s="186" t="s">
-        <v>120</v>
-      </c>
-      <c r="I15" s="186" t="s">
-        <v>95</v>
-      </c>
-      <c r="J15" s="186" t="str">
+      <c r="G15" s="183" t="s">
+        <v>171</v>
+      </c>
+      <c r="H15" s="184" t="s">
+        <v>115</v>
+      </c>
+      <c r="I15" s="184" t="s">
+        <v>91</v>
+      </c>
+      <c r="J15" s="184" t="str">
         <f>VLOOKUP(A15,Planificación!B$13:H$23,7,FALSE)</f>
         <v>Julio</v>
       </c>
-      <c r="K15" s="187"/>
-      <c r="L15" s="188">
+      <c r="K15" s="185"/>
+      <c r="L15" s="186">
         <f>VLOOKUP(A15,Planificación!B$13:N$23,9,FALSE)</f>
         <v>42276</v>
       </c>
-      <c r="M15" s="188">
+      <c r="M15" s="186">
         <f>VLOOKUP(A15,Planificación!B$13:N$23,12,FALSE)</f>
         <v>42276</v>
       </c>
-      <c r="N15" s="190">
+      <c r="N15" s="188">
         <v>1</v>
       </c>
-      <c r="O15" s="191" t="s">
-        <v>203</v>
+      <c r="O15" s="189" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -10132,8 +10462,8 @@
   <sheetPr codeName="Hoja5"/>
   <dimension ref="A2:P62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -10149,108 +10479,108 @@
   <sheetData>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="17.25" customHeight="1">
       <c r="A2" s="10"/>
-      <c r="C2" s="248" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="248"/>
-      <c r="E2" s="248"/>
-      <c r="F2" s="248"/>
-      <c r="G2" s="248"/>
-      <c r="H2" s="248"/>
-      <c r="I2" s="248"/>
-      <c r="J2" s="149"/>
-      <c r="K2" s="149"/>
-      <c r="L2" s="149"/>
+      <c r="C2" s="255" t="s">
+        <v>199</v>
+      </c>
+      <c r="D2" s="255"/>
+      <c r="E2" s="255"/>
+      <c r="F2" s="255"/>
+      <c r="G2" s="255"/>
+      <c r="H2" s="255"/>
+      <c r="I2" s="255"/>
+      <c r="J2" s="147"/>
+      <c r="K2" s="147"/>
+      <c r="L2" s="147"/>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" ht="34.5" customHeight="1">
       <c r="A3" s="11"/>
     </row>
     <row r="4" spans="1:12" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="11"/>
-      <c r="C4" s="242" t="s">
-        <v>135</v>
-      </c>
-      <c r="D4" s="242"/>
-      <c r="E4" s="243" t="str">
+      <c r="C4" s="249" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" s="249"/>
+      <c r="E4" s="250" t="str">
         <f>IF(Planificación!E6&lt;&gt;"",Planificación!E6,"")</f>
         <v>Roger Apaéstegui Ortega</v>
       </c>
-      <c r="F4" s="244"/>
-      <c r="G4" s="244"/>
-      <c r="H4" s="244"/>
-      <c r="I4" s="245"/>
+      <c r="F4" s="251"/>
+      <c r="G4" s="251"/>
+      <c r="H4" s="251"/>
+      <c r="I4" s="252"/>
     </row>
     <row r="5" spans="1:12" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="11"/>
-      <c r="C5" s="246" t="str">
+      <c r="C5" s="253" t="str">
         <f>Planificación!B7</f>
         <v>Analista de Calidad</v>
       </c>
-      <c r="D5" s="247"/>
-      <c r="E5" s="243" t="str">
+      <c r="D5" s="254"/>
+      <c r="E5" s="250" t="str">
         <f>IF(Planificación!E7&lt;&gt;"",Planificación!E7,"")</f>
         <v>Julio Leonardo Paredes</v>
       </c>
-      <c r="F5" s="244"/>
-      <c r="G5" s="244"/>
-      <c r="H5" s="244"/>
-      <c r="I5" s="245"/>
+      <c r="F5" s="251"/>
+      <c r="G5" s="251"/>
+      <c r="H5" s="251"/>
+      <c r="I5" s="252"/>
     </row>
     <row r="6" spans="1:12" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A6" s="11"/>
-      <c r="C6" s="250" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="251"/>
-      <c r="E6" s="243" t="str">
+      <c r="C6" s="257" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="258"/>
+      <c r="E6" s="250" t="str">
         <f>IF(Planificación!E8&lt;&gt;"",Planificación!E8,"")</f>
         <v>Julio Leonardo Paredes,  Roger Apaéstegui Ortega</v>
       </c>
-      <c r="F6" s="244"/>
-      <c r="G6" s="244"/>
-      <c r="H6" s="244"/>
-      <c r="I6" s="245"/>
+      <c r="F6" s="251"/>
+      <c r="G6" s="251"/>
+      <c r="H6" s="251"/>
+      <c r="I6" s="252"/>
     </row>
     <row r="7" spans="1:12" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A7" s="11"/>
-      <c r="C7" s="253" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="253"/>
-      <c r="E7" s="254">
+      <c r="C7" s="260" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="260"/>
+      <c r="E7" s="261">
         <f>IF(Planificación!E9&lt;&gt;"",Planificación!E9,"")</f>
         <v>42262</v>
       </c>
-      <c r="F7" s="255"/>
-      <c r="G7" s="256" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="257"/>
-      <c r="I7" s="99">
+      <c r="F7" s="262"/>
+      <c r="G7" s="263" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="264"/>
+      <c r="I7" s="97">
         <f>IF(Planificación!G9&lt;&gt;"",Planificación!G9,"")</f>
         <v>42276</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A8" s="11"/>
-      <c r="C8" s="253" t="s">
+      <c r="C8" s="260" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="258"/>
-      <c r="E8" s="243" t="str">
+      <c r="D8" s="265"/>
+      <c r="E8" s="250" t="str">
         <f>IF(Planificación!E10&lt;&gt;"",Planificación!E10,"")</f>
         <v>SETIEMBRE</v>
       </c>
-      <c r="F8" s="244"/>
-      <c r="G8" s="244"/>
-      <c r="H8" s="244"/>
-      <c r="I8" s="245"/>
+      <c r="F8" s="251"/>
+      <c r="G8" s="251"/>
+      <c r="H8" s="251"/>
+      <c r="I8" s="252"/>
     </row>
     <row r="13" spans="1:12" ht="15">
-      <c r="C13" s="252" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="252"/>
+      <c r="C13" s="259" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="259"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -10259,43 +10589,43 @@
       <c r="J13" s="9"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="C14" s="101" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="153">
+      <c r="C14" s="99" t="s">
+        <v>200</v>
+      </c>
+      <c r="D14" s="151">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="14.25" customHeight="1">
-      <c r="C15" s="101" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="151">
+      <c r="C15" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="149">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="C16" s="101" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="152">
+      <c r="C16" s="99" t="s">
+        <v>201</v>
+      </c>
+      <c r="D16" s="150">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="3:14">
-      <c r="C17" s="101" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="100">
+      <c r="C17" s="99" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="98">
         <f>(D16/(IF(D14=0,1,D14)))</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="18" spans="3:14">
-      <c r="C18" s="101" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="100">
+      <c r="C18" s="99" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="98">
         <f>1-D17</f>
         <v>0.66666666666666674</v>
       </c>
@@ -10306,188 +10636,188 @@
       <c r="E19" s="9"/>
     </row>
     <row r="20" spans="3:14">
-      <c r="C20" s="109"/>
+      <c r="C20" s="107"/>
       <c r="D20" s="23"/>
       <c r="E20" s="9"/>
     </row>
     <row r="21" spans="3:14">
-      <c r="C21" s="109"/>
+      <c r="C21" s="107"/>
       <c r="D21" s="23"/>
       <c r="E21" s="9"/>
     </row>
     <row r="22" spans="3:14">
-      <c r="C22" s="109"/>
+      <c r="C22" s="107"/>
       <c r="D22" s="23"/>
       <c r="E22" s="9"/>
-      <c r="N22" s="147"/>
+      <c r="N22" s="145"/>
     </row>
     <row r="23" spans="3:14">
-      <c r="C23" s="109"/>
+      <c r="C23" s="107"/>
       <c r="D23" s="23"/>
       <c r="E23" s="9"/>
     </row>
     <row r="24" spans="3:14">
-      <c r="C24" s="109"/>
+      <c r="C24" s="107"/>
       <c r="D24" s="23"/>
       <c r="E24" s="9"/>
     </row>
     <row r="26" spans="3:14" ht="15" customHeight="1">
-      <c r="C26" s="249" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="249"/>
+      <c r="C26" s="256" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="256"/>
     </row>
     <row r="27" spans="3:14">
       <c r="C27" s="30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="3:14">
-      <c r="C28" s="102" t="s">
-        <v>120</v>
-      </c>
-      <c r="D28" s="154">
+      <c r="C28" s="100" t="s">
+        <v>115</v>
+      </c>
+      <c r="D28" s="152">
         <f>COUNTIFS('Seguimiento de NC'!G5:G15,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!H5:H15,C28)</f>
         <v>6</v>
       </c>
     </row>
     <row r="29" spans="3:14">
-      <c r="C29" s="102" t="s">
-        <v>121</v>
-      </c>
-      <c r="D29" s="154">
+      <c r="C29" s="100" t="s">
+        <v>116</v>
+      </c>
+      <c r="D29" s="152">
         <f>COUNTIFS('Seguimiento de NC'!G5:G15,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!H5:H15,C29)</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="3:14">
-      <c r="C30" s="102" t="s">
-        <v>122</v>
-      </c>
-      <c r="D30" s="154">
+      <c r="C30" s="100" t="s">
+        <v>117</v>
+      </c>
+      <c r="D30" s="152">
         <f>COUNTIFS('Seguimiento de NC'!G5:G15,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!H5:H15,C30)</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="3:14">
-      <c r="C31" s="102" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" s="154">
+      <c r="C31" s="100" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="152">
         <f>COUNTIFS('Seguimiento de NC'!G5:G15,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!H5:H15,C31)</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="3:14">
-      <c r="C32" s="102" t="s">
-        <v>36</v>
-      </c>
-      <c r="D32" s="154">
+      <c r="C32" s="100" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="152">
         <f>COUNTIFS('Seguimiento de NC'!G5:G15,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!H5:H15,C32)</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="3:16">
-      <c r="C33" s="102" t="s">
-        <v>128</v>
-      </c>
-      <c r="D33" s="154">
+      <c r="C33" s="100" t="s">
+        <v>123</v>
+      </c>
+      <c r="D33" s="152">
         <f>COUNTIFS('Seguimiento de NC'!G5:G15,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!H5:H15,C33)</f>
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="3:16">
-      <c r="C34" s="103" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34" s="112">
+      <c r="C34" s="101" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="110">
         <f>SUM(D28:D33)</f>
         <v>7</v>
       </c>
     </row>
     <row r="40" spans="3:16" ht="15">
-      <c r="C40" s="249" t="s">
-        <v>108</v>
-      </c>
-      <c r="D40" s="249"/>
-      <c r="P40" s="147"/>
+      <c r="C40" s="256" t="s">
+        <v>103</v>
+      </c>
+      <c r="D40" s="256"/>
+      <c r="P40" s="145"/>
     </row>
     <row r="41" spans="3:16">
-      <c r="C41" s="103" t="s">
-        <v>109</v>
-      </c>
-      <c r="D41" s="111">
+      <c r="C41" s="101" t="s">
+        <v>104</v>
+      </c>
+      <c r="D41" s="109">
         <f>Planificación!O7</f>
         <v>88</v>
       </c>
     </row>
     <row r="42" spans="3:16">
-      <c r="C42" s="103" t="s">
-        <v>110</v>
-      </c>
-      <c r="D42" s="111">
+      <c r="C42" s="101" t="s">
+        <v>105</v>
+      </c>
+      <c r="D42" s="109">
         <f>Planificación!O8</f>
         <v>70</v>
       </c>
     </row>
     <row r="43" spans="3:16">
-      <c r="C43" s="103" t="s">
-        <v>16</v>
-      </c>
-      <c r="D43" s="111">
+      <c r="C43" s="101" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="109">
         <f>D42</f>
         <v>70</v>
       </c>
     </row>
     <row r="57" spans="3:4" ht="15">
-      <c r="C57" s="249" t="s">
-        <v>119</v>
-      </c>
-      <c r="D57" s="249"/>
+      <c r="C57" s="256" t="s">
+        <v>114</v>
+      </c>
+      <c r="D57" s="256"/>
     </row>
     <row r="58" spans="3:4">
       <c r="C58" s="30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D58" s="29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="3:4">
-      <c r="C59" s="104" t="s">
-        <v>95</v>
-      </c>
-      <c r="D59" s="148">
+      <c r="C59" s="102" t="s">
+        <v>91</v>
+      </c>
+      <c r="D59" s="146">
         <f>COUNTIFS('Seguimiento de NC'!G5:G15,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!I5:I15,C59)</f>
         <v>7</v>
       </c>
     </row>
     <row r="60" spans="3:4">
-      <c r="C60" s="104" t="s">
-        <v>97</v>
-      </c>
-      <c r="D60" s="111">
+      <c r="C60" s="102" t="s">
+        <v>93</v>
+      </c>
+      <c r="D60" s="109">
         <f>COUNTIFS('Seguimiento de NC'!G5:G15,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!I5:I15,C60)</f>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="3:4">
-      <c r="C61" s="104" t="s">
-        <v>98</v>
-      </c>
-      <c r="D61" s="111">
+      <c r="C61" s="102" t="s">
+        <v>94</v>
+      </c>
+      <c r="D61" s="109">
         <f>COUNTIFS('Seguimiento de NC'!G5:G15,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!I5:I15,C61)</f>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="3:4">
-      <c r="C62" s="103" t="s">
-        <v>16</v>
-      </c>
-      <c r="D62" s="112">
+      <c r="C62" s="101" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" s="110">
         <f>SUM(D59:D61)</f>
         <v>7</v>
       </c>
@@ -10530,7 +10860,7 @@
   <dimension ref="A2:K42"/>
   <sheetViews>
     <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -10550,448 +10880,448 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11">
-      <c r="A2" s="119" t="s">
-        <v>113</v>
-      </c>
-      <c r="B2" s="145"/>
-      <c r="C2" s="119" t="s">
-        <v>102</v>
-      </c>
-      <c r="E2" s="119" t="s">
+      <c r="A2" s="117" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="143"/>
+      <c r="C2" s="117" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="117" t="s">
+        <v>139</v>
+      </c>
+      <c r="G2" s="116" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="106"/>
+      <c r="I2" s="116" t="s">
+        <v>92</v>
+      </c>
+      <c r="J2" s="106"/>
+      <c r="K2" s="117" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A3" s="140" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="142"/>
+      <c r="C3" s="141" t="s">
+        <v>125</v>
+      </c>
+      <c r="E3" s="118" t="s">
+        <v>156</v>
+      </c>
+      <c r="G3" s="102" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" s="106"/>
+      <c r="I3" s="102" t="s">
+        <v>123</v>
+      </c>
+      <c r="J3" s="106"/>
+      <c r="K3" s="115" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A4" s="137"/>
+      <c r="B4" s="137"/>
+      <c r="C4" s="141" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="106"/>
+      <c r="E4" s="118" t="s">
+        <v>140</v>
+      </c>
+      <c r="G4" s="102" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4" s="106"/>
+      <c r="I4" s="102" t="s">
+        <v>115</v>
+      </c>
+      <c r="J4" s="106"/>
+      <c r="K4" s="115" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A5" s="137"/>
+      <c r="B5" s="137"/>
+      <c r="C5" s="141" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" s="106"/>
+      <c r="E5" s="131" t="s">
+        <v>157</v>
+      </c>
+      <c r="G5" s="102" t="s">
+        <v>94</v>
+      </c>
+      <c r="H5" s="106"/>
+      <c r="I5" s="102" t="s">
+        <v>116</v>
+      </c>
+      <c r="J5" s="106"/>
+      <c r="K5" s="115" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A6" s="137"/>
+      <c r="B6" s="137"/>
+      <c r="C6" s="141" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" s="106"/>
+      <c r="E6" s="118" t="s">
+        <v>144</v>
+      </c>
+      <c r="H6" s="106"/>
+      <c r="I6" s="102" t="s">
+        <v>117</v>
+      </c>
+      <c r="J6" s="106"/>
+      <c r="K6" s="132"/>
+    </row>
+    <row r="7" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A7" s="137"/>
+      <c r="B7" s="137"/>
+      <c r="C7" s="141" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="106"/>
+      <c r="E7" s="118" t="s">
+        <v>141</v>
+      </c>
+      <c r="H7" s="106"/>
+      <c r="I7" s="102" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+    </row>
+    <row r="8" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A8" s="137"/>
+      <c r="B8" s="137"/>
+      <c r="C8" s="148" t="s">
+        <v>172</v>
+      </c>
+      <c r="D8" s="106"/>
+      <c r="E8" s="118" t="s">
+        <v>158</v>
+      </c>
+      <c r="H8" s="106"/>
+      <c r="I8" s="102" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="106"/>
+      <c r="K8" s="106"/>
+    </row>
+    <row r="9" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A9" s="137"/>
+      <c r="B9" s="137"/>
+      <c r="C9" s="137"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="118" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A10" s="137"/>
+      <c r="B10" s="137"/>
+      <c r="C10" s="137"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="118" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A11" s="137"/>
+      <c r="B11" s="137"/>
+      <c r="C11" s="137"/>
+      <c r="D11" s="106"/>
+      <c r="E11" s="118" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A12" s="137"/>
+      <c r="B12" s="137"/>
+      <c r="C12" s="137"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="133" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A13" s="137"/>
+      <c r="B13" s="137"/>
+      <c r="C13" s="137"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="133" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A14" s="137"/>
+      <c r="B14" s="137"/>
+      <c r="C14" s="137"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="133" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A15" s="137"/>
+      <c r="B15" s="137"/>
+      <c r="C15" s="137"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="133" t="s">
         <v>145</v>
       </c>
-      <c r="G2" s="118" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="108"/>
-      <c r="I2" s="118" t="s">
-        <v>96</v>
-      </c>
-      <c r="J2" s="108"/>
-      <c r="K2" s="119" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A3" s="142" t="s">
-        <v>123</v>
-      </c>
-      <c r="B3" s="144"/>
-      <c r="C3" s="143" t="s">
-        <v>131</v>
-      </c>
-      <c r="E3" s="120" t="s">
+    </row>
+    <row r="16" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A16" s="137"/>
+      <c r="B16" s="137"/>
+      <c r="C16" s="137"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="133" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A17" s="137"/>
+      <c r="B17" s="137"/>
+      <c r="C17" s="137"/>
+      <c r="D17" s="106"/>
+      <c r="E17" s="133" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A18" s="137"/>
+      <c r="B18" s="137"/>
+      <c r="C18" s="137"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="133" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A19" s="137"/>
+      <c r="B19" s="137"/>
+      <c r="C19" s="137"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="134" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A20" s="137"/>
+      <c r="B20" s="137"/>
+      <c r="C20" s="137"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="133" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A21" s="137"/>
+      <c r="B21" s="137"/>
+      <c r="C21" s="137"/>
+      <c r="D21" s="106"/>
+      <c r="E21" s="133" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A22" s="137"/>
+      <c r="B22" s="137"/>
+      <c r="C22" s="137"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="133" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A23" s="137"/>
+      <c r="B23" s="137"/>
+      <c r="C23" s="137"/>
+      <c r="D23" s="106"/>
+      <c r="E23" s="133" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A24" s="137"/>
+      <c r="B24" s="137"/>
+      <c r="C24" s="137"/>
+      <c r="D24" s="106"/>
+      <c r="E24" s="133" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A25" s="137"/>
+      <c r="B25" s="137"/>
+      <c r="C25" s="137"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="133" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A26" s="137"/>
+      <c r="B26" s="137"/>
+      <c r="C26" s="137"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="133" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A27" s="137"/>
+      <c r="B27" s="137"/>
+      <c r="C27" s="137"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="133" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A28" s="137"/>
+      <c r="B28" s="137"/>
+      <c r="C28" s="137"/>
+      <c r="D28" s="106"/>
+      <c r="E28" s="133" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A29" s="137"/>
+      <c r="B29" s="137"/>
+      <c r="C29" s="137"/>
+      <c r="D29" s="106"/>
+      <c r="E29" s="133" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A30" s="137"/>
+      <c r="B30" s="137"/>
+      <c r="C30" s="137"/>
+      <c r="D30" s="106"/>
+      <c r="E30" s="133" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A31" s="137"/>
+      <c r="B31" s="137"/>
+      <c r="C31" s="137"/>
+      <c r="D31" s="106"/>
+      <c r="E31" s="133" t="s">
         <v>162</v>
       </c>
-      <c r="G3" s="104" t="s">
-        <v>95</v>
-      </c>
-      <c r="H3" s="108"/>
-      <c r="I3" s="104" t="s">
-        <v>128</v>
-      </c>
-      <c r="J3" s="108"/>
-      <c r="K3" s="117" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A4" s="139"/>
-      <c r="B4" s="139"/>
-      <c r="C4" s="143" t="s">
-        <v>132</v>
-      </c>
-      <c r="D4" s="108"/>
-      <c r="E4" s="120" t="s">
-        <v>146</v>
-      </c>
-      <c r="G4" s="104" t="s">
-        <v>97</v>
-      </c>
-      <c r="H4" s="108"/>
-      <c r="I4" s="104" t="s">
-        <v>120</v>
-      </c>
-      <c r="J4" s="108"/>
-      <c r="K4" s="117" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A5" s="139"/>
-      <c r="B5" s="139"/>
-      <c r="C5" s="143" t="s">
-        <v>130</v>
-      </c>
-      <c r="D5" s="108"/>
-      <c r="E5" s="133" t="s">
+    </row>
+    <row r="32" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A32" s="137"/>
+      <c r="B32" s="137"/>
+      <c r="C32" s="137"/>
+      <c r="D32" s="106"/>
+      <c r="E32" s="133" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A33" s="137"/>
+      <c r="B33" s="137"/>
+      <c r="C33" s="137"/>
+      <c r="D33" s="106"/>
+      <c r="E33" s="135" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A34" s="137"/>
+      <c r="B34" s="137"/>
+      <c r="C34" s="137"/>
+      <c r="D34" s="106"/>
+      <c r="E34" s="133" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A35" s="137"/>
+      <c r="B35" s="137"/>
+      <c r="C35" s="137"/>
+      <c r="D35" s="106"/>
+      <c r="E35" s="133" t="s">
         <v>163</v>
       </c>
-      <c r="G5" s="104" t="s">
-        <v>98</v>
-      </c>
-      <c r="H5" s="108"/>
-      <c r="I5" s="104" t="s">
-        <v>121</v>
-      </c>
-      <c r="J5" s="108"/>
-      <c r="K5" s="117" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A6" s="139"/>
-      <c r="B6" s="139"/>
-      <c r="C6" s="143" t="s">
-        <v>133</v>
-      </c>
-      <c r="D6" s="108"/>
-      <c r="E6" s="120" t="s">
-        <v>150</v>
-      </c>
-      <c r="H6" s="108"/>
-      <c r="I6" s="104" t="s">
-        <v>122</v>
-      </c>
-      <c r="J6" s="108"/>
-      <c r="K6" s="134"/>
-    </row>
-    <row r="7" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A7" s="139"/>
-      <c r="B7" s="139"/>
-      <c r="C7" s="143" t="s">
-        <v>134</v>
-      </c>
-      <c r="D7" s="108"/>
-      <c r="E7" s="120" t="s">
+    </row>
+    <row r="36" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A36" s="137"/>
+      <c r="B36" s="137"/>
+      <c r="C36" s="137"/>
+      <c r="D36" s="138"/>
+      <c r="E36" s="133" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A37" s="137"/>
+      <c r="B37" s="137"/>
+      <c r="C37" s="137"/>
+      <c r="D37" s="138"/>
+      <c r="E37" s="136" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A38" s="137"/>
+      <c r="B38" s="137"/>
+      <c r="C38" s="137"/>
+      <c r="D38" s="139"/>
+      <c r="E38" s="136" t="s">
         <v>147</v>
       </c>
-      <c r="H7" s="108"/>
-      <c r="I7" s="104" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" s="108"/>
-      <c r="K7" s="108"/>
-    </row>
-    <row r="8" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A8" s="139"/>
-      <c r="B8" s="139"/>
-      <c r="C8" s="150" t="s">
-        <v>179</v>
-      </c>
-      <c r="D8" s="108"/>
-      <c r="E8" s="120" t="s">
-        <v>164</v>
-      </c>
-      <c r="H8" s="108"/>
-      <c r="I8" s="104" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" s="108"/>
-      <c r="K8" s="108"/>
-    </row>
-    <row r="9" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A9" s="139"/>
-      <c r="B9" s="139"/>
-      <c r="C9" s="139"/>
-      <c r="D9" s="108"/>
-      <c r="E9" s="120" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A10" s="139"/>
-      <c r="B10" s="139"/>
-      <c r="C10" s="139"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="120" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A11" s="139"/>
-      <c r="B11" s="139"/>
-      <c r="C11" s="139"/>
-      <c r="D11" s="108"/>
-      <c r="E11" s="120" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A12" s="139"/>
-      <c r="B12" s="139"/>
-      <c r="C12" s="139"/>
-      <c r="D12" s="108"/>
-      <c r="E12" s="135" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A13" s="139"/>
-      <c r="B13" s="139"/>
-      <c r="C13" s="139"/>
-      <c r="D13" s="108"/>
-      <c r="E13" s="135" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A14" s="139"/>
-      <c r="B14" s="139"/>
-      <c r="C14" s="139"/>
-      <c r="D14" s="108"/>
-      <c r="E14" s="135" t="s">
+    </row>
+    <row r="39" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A39" s="137"/>
+      <c r="B39" s="137"/>
+      <c r="C39" s="137"/>
+      <c r="D39" s="139"/>
+      <c r="E39" s="136" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A15" s="139"/>
-      <c r="B15" s="139"/>
-      <c r="C15" s="139"/>
-      <c r="D15" s="108"/>
-      <c r="E15" s="135" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A16" s="139"/>
-      <c r="B16" s="139"/>
-      <c r="C16" s="139"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="135" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A17" s="139"/>
-      <c r="B17" s="139"/>
-      <c r="C17" s="139"/>
-      <c r="D17" s="108"/>
-      <c r="E17" s="135" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A18" s="139"/>
-      <c r="B18" s="139"/>
-      <c r="C18" s="139"/>
-      <c r="D18" s="108"/>
-      <c r="E18" s="135" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A19" s="139"/>
-      <c r="B19" s="139"/>
-      <c r="C19" s="139"/>
-      <c r="D19" s="108"/>
-      <c r="E19" s="136" t="s">
+    <row r="40" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A40" s="137"/>
+      <c r="B40" s="137"/>
+      <c r="C40" s="137"/>
+      <c r="D40" s="139"/>
+      <c r="E40" s="136" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A20" s="139"/>
-      <c r="B20" s="139"/>
-      <c r="C20" s="139"/>
-      <c r="D20" s="108"/>
-      <c r="E20" s="135" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A21" s="139"/>
-      <c r="B21" s="139"/>
-      <c r="C21" s="139"/>
-      <c r="D21" s="108"/>
-      <c r="E21" s="135" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A22" s="139"/>
-      <c r="B22" s="139"/>
-      <c r="C22" s="139"/>
-      <c r="D22" s="108"/>
-      <c r="E22" s="135" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A23" s="139"/>
-      <c r="B23" s="139"/>
-      <c r="C23" s="139"/>
-      <c r="D23" s="108"/>
-      <c r="E23" s="135" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A24" s="139"/>
-      <c r="B24" s="139"/>
-      <c r="C24" s="139"/>
-      <c r="D24" s="108"/>
-      <c r="E24" s="135" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A25" s="139"/>
-      <c r="B25" s="139"/>
-      <c r="C25" s="139"/>
-      <c r="D25" s="108"/>
-      <c r="E25" s="135" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A26" s="139"/>
-      <c r="B26" s="139"/>
-      <c r="C26" s="139"/>
-      <c r="D26" s="108"/>
-      <c r="E26" s="135" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A27" s="139"/>
-      <c r="B27" s="139"/>
-      <c r="C27" s="139"/>
-      <c r="D27" s="108"/>
-      <c r="E27" s="135" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A28" s="139"/>
-      <c r="B28" s="139"/>
-      <c r="C28" s="139"/>
-      <c r="D28" s="108"/>
-      <c r="E28" s="135" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A29" s="139"/>
-      <c r="B29" s="139"/>
-      <c r="C29" s="139"/>
-      <c r="D29" s="108"/>
-      <c r="E29" s="135" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A30" s="139"/>
-      <c r="B30" s="139"/>
-      <c r="C30" s="139"/>
-      <c r="D30" s="108"/>
-      <c r="E30" s="135" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A31" s="139"/>
-      <c r="B31" s="139"/>
-      <c r="C31" s="139"/>
-      <c r="D31" s="108"/>
-      <c r="E31" s="135" t="s">
+    <row r="41" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A41" s="137"/>
+      <c r="B41" s="137"/>
+      <c r="C41" s="137"/>
+      <c r="D41" s="139"/>
+      <c r="E41" s="136" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A32" s="139"/>
-      <c r="B32" s="139"/>
-      <c r="C32" s="139"/>
-      <c r="D32" s="108"/>
-      <c r="E32" s="135" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A33" s="139"/>
-      <c r="B33" s="139"/>
-      <c r="C33" s="139"/>
-      <c r="D33" s="108"/>
-      <c r="E33" s="137" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A34" s="139"/>
-      <c r="B34" s="139"/>
-      <c r="C34" s="139"/>
-      <c r="D34" s="108"/>
-      <c r="E34" s="135" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A35" s="139"/>
-      <c r="B35" s="139"/>
-      <c r="C35" s="139"/>
-      <c r="D35" s="108"/>
-      <c r="E35" s="135" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A36" s="139"/>
-      <c r="B36" s="139"/>
-      <c r="C36" s="139"/>
-      <c r="D36" s="140"/>
-      <c r="E36" s="135" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A37" s="139"/>
-      <c r="B37" s="139"/>
-      <c r="C37" s="139"/>
-      <c r="D37" s="140"/>
-      <c r="E37" s="138" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A38" s="139"/>
-      <c r="B38" s="139"/>
-      <c r="C38" s="139"/>
-      <c r="D38" s="141"/>
-      <c r="E38" s="138" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A39" s="139"/>
-      <c r="B39" s="139"/>
-      <c r="C39" s="139"/>
-      <c r="D39" s="141"/>
-      <c r="E39" s="138" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A40" s="139"/>
-      <c r="B40" s="139"/>
-      <c r="C40" s="139"/>
-      <c r="D40" s="141"/>
-      <c r="E40" s="138" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A41" s="139"/>
-      <c r="B41" s="139"/>
-      <c r="C41" s="139"/>
-      <c r="D41" s="141"/>
-      <c r="E41" s="138" t="s">
-        <v>174</v>
-      </c>
-    </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="108"/>
-      <c r="B42" s="108"/>
-      <c r="C42" s="108"/>
-      <c r="D42" s="140"/>
+      <c r="A42" s="106"/>
+      <c r="B42" s="106"/>
+      <c r="C42" s="106"/>
+      <c r="D42" s="138"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Area_de_Proceso-_PPQA/HGQA/HGQA_V1.0_2015_SETIEMBRE.xlsx
+++ b/Area_de_Proceso-_PPQA/HGQA/HGQA_V1.0_2015_SETIEMBRE.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UTP-GPS-ALARM\UTP-GPS-ALARM\Area_de_Proceso-_PPQA\HGQA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thefa\Documents\GitHub\UTP-GPS-ALARM\Area_de_Proceso-_PPQA\HGQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2400" windowWidth="17280" windowHeight="9195" tabRatio="642" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2400" windowWidth="17280" windowHeight="9195" tabRatio="642"/>
   </bookViews>
   <sheets>
     <sheet name="Historial de Revisiones" sheetId="14" r:id="rId1"/>
@@ -57,7 +57,7 @@
     <definedName name="TipoServicio" localSheetId="0">#REF!</definedName>
     <definedName name="TiposNC">Tablas!$I$3:$I$8</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -741,9 +741,6 @@
     <t>Nombre del Analista de Calidad</t>
   </si>
   <si>
-    <t>MST E.I.R.L</t>
-  </si>
-  <si>
     <t>SETIEMBRE</t>
   </si>
   <si>
@@ -807,12 +804,15 @@
     <t>Clasificación de la disconformidad.
 Estándar: No cumple con el estándar.
 Control de Configuración: No Cumple con la nomenclatura  ni con la ruta en la lista de Ítems de configuración.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roger Apaéstegui </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
@@ -2581,102 +2581,142 @@
     <xf numFmtId="0" fontId="44" fillId="24" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="30" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="30" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="32" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="32" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="36" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="30" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="30" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="30" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="30" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="32" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="32" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="36" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="30" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2686,46 +2726,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="30" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="30" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="30" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="44" fillId="24" borderId="31" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2738,22 +2738,61 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="55" fillId="25" borderId="10" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="13" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="34" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="24" borderId="30" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="25" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="49" fillId="24" borderId="13" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="49" fillId="24" borderId="34" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="13" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="34" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="45" fillId="25" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="24" borderId="30" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="45" fillId="25" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -2764,45 +2803,6 @@
     </xf>
     <xf numFmtId="0" fontId="44" fillId="24" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="55" fillId="25" borderId="10" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="25" borderId="13" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="25" borderId="34" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="25" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="25" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="49" fillId="24" borderId="13" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="49" fillId="24" borderId="34" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="25" borderId="13" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="25" borderId="34" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2825,7 +2825,7 @@
     <cellStyle name="60% - Énfasis4" xfId="16" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis5" xfId="17" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis6" xfId="18" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Buena" xfId="19" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="19" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Cálculo" xfId="20" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Cancel" xfId="21"/>
     <cellStyle name="Celda de comprobación" xfId="22" builtinId="23" customBuiltin="1"/>
@@ -2880,7 +2880,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -2916,7 +2916,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2939,7 +2938,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-PE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3029,7 +3028,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-1E45-479F-AB83-77D83B7E851D}"/>
               </c:ext>
@@ -3074,7 +3073,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-EC92-482A-AE00-7DAF384C4D3C}"/>
               </c:ext>
@@ -3103,7 +3102,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-PE"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3126,10 +3125,8 @@
                 <a:effectLst/>
               </c:spPr>
             </c:leaderLines>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -3161,7 +3158,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-EC92-482A-AE00-7DAF384C4D3C}"/>
             </c:ext>
@@ -3187,7 +3184,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3210,7 +3206,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-PE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3245,7 +3241,7 @@
           <a:cs typeface="+mn-cs"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="es-PE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3257,7 +3253,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -3293,7 +3289,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3316,7 +3311,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-PE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3406,7 +3401,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-9B85-4785-897E-BF8A635C112A}"/>
               </c:ext>
@@ -3451,7 +3446,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-0716-432A-8A0E-B7A5A8092E4A}"/>
               </c:ext>
@@ -3496,7 +3491,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-0716-432A-8A0E-B7A5A8092E4A}"/>
               </c:ext>
@@ -3541,7 +3536,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-0716-432A-8A0E-B7A5A8092E4A}"/>
               </c:ext>
@@ -3586,7 +3581,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-0716-432A-8A0E-B7A5A8092E4A}"/>
               </c:ext>
@@ -3631,7 +3626,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000B-9B85-4785-897E-BF8A635C112A}"/>
               </c:ext>
@@ -3652,12 +3647,10 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-0716-432A-8A0E-B7A5A8092E4A}"/>
-                </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3675,12 +3668,10 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-0716-432A-8A0E-B7A5A8092E4A}"/>
-                </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3698,12 +3689,10 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-0716-432A-8A0E-B7A5A8092E4A}"/>
-                </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3721,12 +3710,10 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-0716-432A-8A0E-B7A5A8092E4A}"/>
-                </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3752,7 +3739,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-PE"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3762,10 +3749,8 @@
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -3821,7 +3806,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-0716-432A-8A0E-B7A5A8092E4A}"/>
             </c:ext>
@@ -3879,7 +3864,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-PE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3914,7 +3899,7 @@
           <a:cs typeface="+mn-cs"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="es-PE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3926,7 +3911,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -3992,7 +3977,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-PE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4041,7 +4026,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-D90A-429B-8317-E4DDE4E6EB04}"/>
               </c:ext>
@@ -4069,7 +4054,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-PE"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -4080,7 +4065,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -4115,7 +4100,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-D90A-429B-8317-E4DDE4E6EB04}"/>
             </c:ext>
@@ -4172,7 +4157,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-PE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="243288160"/>
@@ -4230,7 +4215,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-PE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="243285808"/>
@@ -4269,7 +4254,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-PE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4304,7 +4289,7 @@
           <a:cs typeface="+mn-cs"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="es-PE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4316,7 +4301,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -4374,7 +4359,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-PE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4498,7 +4483,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7ADE-45C5-8A1C-7D75887A8429}"/>
             </c:ext>
@@ -4567,7 +4552,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7ADE-45C5-8A1C-7D75887A8429}"/>
             </c:ext>
@@ -4636,7 +4621,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-7ADE-45C5-8A1C-7D75887A8429}"/>
             </c:ext>
@@ -4708,7 +4693,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-PE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4743,7 +4728,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-PE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="243286984"/>
@@ -4829,7 +4814,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-PE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4858,7 +4843,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-PE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="243288944"/>
@@ -4897,7 +4882,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-PE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4932,7 +4917,7 @@
           <a:cs typeface="+mn-cs"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="es-PE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7829,8 +7814,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10:F11"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -7927,7 +7912,7 @@
         <v>65</v>
       </c>
       <c r="H5" s="198" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="I5" s="192"/>
     </row>
@@ -8000,7 +7985,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:M87"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A47" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A47" workbookViewId="0">
       <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
@@ -8018,22 +8003,22 @@
     <row r="2" spans="1:8" s="56" customFormat="1" ht="82.5" customHeight="1">
       <c r="A2" s="34"/>
       <c r="B2" s="57"/>
-      <c r="C2" s="222" t="s">
-        <v>196</v>
-      </c>
-      <c r="D2" s="223"/>
-      <c r="E2" s="224"/>
+      <c r="C2" s="214" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" s="215"/>
+      <c r="E2" s="216"/>
     </row>
     <row r="3" spans="1:8" s="56" customFormat="1">
       <c r="A3" s="34"/>
       <c r="B3" s="200" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="230" t="s">
+      <c r="C3" s="222" t="s">
         <v>184</v>
       </c>
-      <c r="D3" s="231"/>
-      <c r="E3" s="232"/>
+      <c r="D3" s="223"/>
+      <c r="E3" s="224"/>
     </row>
     <row r="4" spans="1:8" s="56" customFormat="1" ht="21.75" customHeight="1">
       <c r="A4" s="34"/>
@@ -8045,12 +8030,12 @@
     </row>
     <row r="5" spans="1:8" ht="24.75" customHeight="1">
       <c r="A5" s="34"/>
-      <c r="B5" s="225" t="s">
+      <c r="B5" s="217" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="226"/>
-      <c r="D5" s="226"/>
-      <c r="E5" s="227"/>
+      <c r="C5" s="218"/>
+      <c r="D5" s="218"/>
+      <c r="E5" s="219"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="34"/>
@@ -8073,10 +8058,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="84"/>
-      <c r="D8" s="228" t="s">
+      <c r="D8" s="220" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="229"/>
+      <c r="E8" s="221"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="34"/>
@@ -8091,10 +8076,10 @@
         <v>89</v>
       </c>
       <c r="C10" s="56"/>
-      <c r="D10" s="233" t="s">
+      <c r="D10" s="228" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="233"/>
+      <c r="E10" s="228"/>
     </row>
     <row r="11" spans="1:8" ht="9.9499999999999993" customHeight="1">
       <c r="A11" s="34"/>
@@ -8109,10 +8094,10 @@
         <v>89</v>
       </c>
       <c r="C12" s="56"/>
-      <c r="D12" s="233" t="s">
+      <c r="D12" s="228" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="233"/>
+      <c r="E12" s="228"/>
     </row>
     <row r="13" spans="1:8" ht="9.9499999999999993" customHeight="1">
       <c r="A13" s="34"/>
@@ -8127,10 +8112,10 @@
         <v>89</v>
       </c>
       <c r="C14" s="56"/>
-      <c r="D14" s="233" t="s">
+      <c r="D14" s="228" t="s">
         <v>96</v>
       </c>
-      <c r="E14" s="233"/>
+      <c r="E14" s="228"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="32"/>
@@ -8145,10 +8130,10 @@
         <v>89</v>
       </c>
       <c r="C16" s="56"/>
-      <c r="D16" s="233" t="s">
+      <c r="D16" s="228" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="233"/>
+      <c r="E16" s="228"/>
       <c r="H16" s="36"/>
     </row>
     <row r="17" spans="1:8" s="47" customFormat="1" ht="12" customHeight="1">
@@ -8162,62 +8147,62 @@
       <c r="A18" s="32"/>
     </row>
     <row r="19" spans="1:8" s="52" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B19" s="216" t="s">
+      <c r="B19" s="208" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="217"/>
-      <c r="D19" s="217"/>
-      <c r="E19" s="218"/>
+      <c r="C19" s="209"/>
+      <c r="D19" s="209"/>
+      <c r="E19" s="210"/>
     </row>
     <row r="20" spans="1:8" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="B20" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="219" t="s">
+      <c r="C20" s="211" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="220"/>
-      <c r="E20" s="221"/>
+      <c r="D20" s="212"/>
+      <c r="E20" s="213"/>
     </row>
     <row r="21" spans="1:8" s="52" customFormat="1" ht="12.75" customHeight="1">
       <c r="B21" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="207" t="s">
+      <c r="C21" s="225" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="208"/>
-      <c r="E21" s="209"/>
+      <c r="D21" s="226"/>
+      <c r="E21" s="227"/>
     </row>
     <row r="22" spans="1:8" s="52" customFormat="1" ht="12.75" customHeight="1">
       <c r="B22" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="207" t="s">
+      <c r="C22" s="225" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="208"/>
-      <c r="E22" s="209"/>
+      <c r="D22" s="226"/>
+      <c r="E22" s="227"/>
     </row>
     <row r="23" spans="1:8" s="52" customFormat="1" ht="12.75" customHeight="1">
       <c r="B23" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="207" t="s">
+      <c r="C23" s="225" t="s">
         <v>97</v>
       </c>
-      <c r="D23" s="208"/>
-      <c r="E23" s="209"/>
+      <c r="D23" s="226"/>
+      <c r="E23" s="227"/>
     </row>
     <row r="24" spans="1:8" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="B24" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="207" t="s">
+      <c r="C24" s="225" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="208"/>
-      <c r="E24" s="209"/>
+      <c r="D24" s="226"/>
+      <c r="E24" s="227"/>
     </row>
     <row r="25" spans="1:8" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="B25" s="54"/>
@@ -8230,31 +8215,31 @@
       <c r="B26" s="45"/>
     </row>
     <row r="27" spans="1:8" s="52" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B27" s="216" t="s">
+      <c r="B27" s="208" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="217"/>
-      <c r="D27" s="217"/>
-      <c r="E27" s="218"/>
+      <c r="C27" s="209"/>
+      <c r="D27" s="209"/>
+      <c r="E27" s="210"/>
     </row>
     <row r="28" spans="1:8" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="B28" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="219" t="s">
+      <c r="C28" s="211" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="220"/>
-      <c r="E28" s="221"/>
+      <c r="D28" s="212"/>
+      <c r="E28" s="213"/>
     </row>
     <row r="29" spans="1:8" ht="12.75" customHeight="1">
       <c r="A29" s="32"/>
-      <c r="B29" s="213" t="s">
+      <c r="B29" s="229" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="214"/>
-      <c r="D29" s="214"/>
-      <c r="E29" s="215"/>
+      <c r="C29" s="230"/>
+      <c r="D29" s="230"/>
+      <c r="E29" s="231"/>
       <c r="F29" s="52"/>
       <c r="G29" s="52"/>
     </row>
@@ -8263,11 +8248,11 @@
       <c r="B30" s="166" t="s">
         <v>129</v>
       </c>
-      <c r="C30" s="203" t="s">
+      <c r="C30" s="202" t="s">
         <v>185</v>
       </c>
-      <c r="D30" s="204"/>
-      <c r="E30" s="205"/>
+      <c r="D30" s="203"/>
+      <c r="E30" s="204"/>
       <c r="F30" s="52"/>
       <c r="G30" s="52"/>
     </row>
@@ -8276,11 +8261,11 @@
       <c r="B31" s="167" t="s">
         <v>134</v>
       </c>
-      <c r="C31" s="203" t="s">
+      <c r="C31" s="202" t="s">
         <v>186</v>
       </c>
-      <c r="D31" s="204"/>
-      <c r="E31" s="205"/>
+      <c r="D31" s="203"/>
+      <c r="E31" s="204"/>
       <c r="F31" s="52"/>
       <c r="G31" s="52"/>
     </row>
@@ -8289,11 +8274,11 @@
       <c r="B32" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="203" t="s">
+      <c r="C32" s="202" t="s">
         <v>49</v>
       </c>
-      <c r="D32" s="204"/>
-      <c r="E32" s="205"/>
+      <c r="D32" s="203"/>
+      <c r="E32" s="204"/>
       <c r="F32" s="52"/>
       <c r="G32" s="52"/>
     </row>
@@ -8302,11 +8287,11 @@
       <c r="B33" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="203" t="s">
+      <c r="C33" s="202" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="204"/>
-      <c r="E33" s="205"/>
+      <c r="D33" s="203"/>
+      <c r="E33" s="204"/>
       <c r="F33" s="52"/>
       <c r="G33" s="52"/>
     </row>
@@ -8315,174 +8300,174 @@
       <c r="B34" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="203" t="s">
+      <c r="C34" s="202" t="s">
         <v>69</v>
       </c>
-      <c r="D34" s="204"/>
-      <c r="E34" s="205"/>
+      <c r="D34" s="203"/>
+      <c r="E34" s="204"/>
     </row>
     <row r="35" spans="1:7" ht="16.5" customHeight="1">
       <c r="A35" s="32"/>
       <c r="B35" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="203" t="s">
+      <c r="C35" s="202" t="s">
         <v>70</v>
       </c>
-      <c r="D35" s="204"/>
-      <c r="E35" s="205"/>
+      <c r="D35" s="203"/>
+      <c r="E35" s="204"/>
     </row>
     <row r="36" spans="1:7" ht="16.5" customHeight="1">
       <c r="A36" s="32"/>
-      <c r="B36" s="213" t="s">
+      <c r="B36" s="229" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="214"/>
-      <c r="D36" s="214"/>
-      <c r="E36" s="215"/>
+      <c r="C36" s="230"/>
+      <c r="D36" s="230"/>
+      <c r="E36" s="231"/>
     </row>
     <row r="37" spans="1:7" ht="16.5" customHeight="1">
       <c r="A37" s="32"/>
       <c r="B37" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="203" t="s">
+      <c r="C37" s="202" t="s">
         <v>71</v>
       </c>
-      <c r="D37" s="204"/>
-      <c r="E37" s="205"/>
+      <c r="D37" s="203"/>
+      <c r="E37" s="204"/>
     </row>
     <row r="38" spans="1:7" ht="16.5" customHeight="1">
       <c r="A38" s="32"/>
       <c r="B38" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="203" t="s">
+      <c r="C38" s="202" t="s">
         <v>82</v>
       </c>
-      <c r="D38" s="204"/>
-      <c r="E38" s="205"/>
+      <c r="D38" s="203"/>
+      <c r="E38" s="204"/>
     </row>
     <row r="39" spans="1:7" ht="17.25" customHeight="1">
       <c r="A39" s="32"/>
       <c r="B39" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="C39" s="203" t="s">
+      <c r="C39" s="202" t="s">
         <v>99</v>
       </c>
-      <c r="D39" s="204"/>
-      <c r="E39" s="205"/>
+      <c r="D39" s="203"/>
+      <c r="E39" s="204"/>
     </row>
     <row r="40" spans="1:7" ht="16.5" customHeight="1">
       <c r="A40" s="32"/>
       <c r="B40" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="C40" s="203" t="s">
+      <c r="C40" s="202" t="s">
         <v>111</v>
       </c>
-      <c r="D40" s="204"/>
-      <c r="E40" s="205"/>
+      <c r="D40" s="203"/>
+      <c r="E40" s="204"/>
     </row>
     <row r="41" spans="1:7" ht="16.5" customHeight="1">
       <c r="A41" s="32"/>
       <c r="B41" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="203" t="s">
+      <c r="C41" s="202" t="s">
         <v>101</v>
       </c>
-      <c r="D41" s="204"/>
-      <c r="E41" s="205"/>
+      <c r="D41" s="203"/>
+      <c r="E41" s="204"/>
     </row>
     <row r="42" spans="1:7" ht="16.5" customHeight="1">
       <c r="A42" s="32"/>
       <c r="B42" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="203" t="s">
+      <c r="C42" s="202" t="s">
         <v>100</v>
       </c>
-      <c r="D42" s="204"/>
-      <c r="E42" s="205"/>
+      <c r="D42" s="203"/>
+      <c r="E42" s="204"/>
     </row>
     <row r="43" spans="1:7" ht="16.5" customHeight="1">
       <c r="A43" s="32"/>
       <c r="B43" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="C43" s="203" t="s">
+      <c r="C43" s="202" t="s">
         <v>74</v>
       </c>
-      <c r="D43" s="204"/>
-      <c r="E43" s="205"/>
+      <c r="D43" s="203"/>
+      <c r="E43" s="204"/>
     </row>
     <row r="44" spans="1:7" ht="16.5" customHeight="1">
       <c r="A44" s="32"/>
       <c r="B44" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="C44" s="203" t="s">
+      <c r="C44" s="202" t="s">
         <v>75</v>
       </c>
-      <c r="D44" s="204"/>
-      <c r="E44" s="205"/>
+      <c r="D44" s="203"/>
+      <c r="E44" s="204"/>
     </row>
     <row r="45" spans="1:7" ht="16.5" customHeight="1">
       <c r="A45" s="32"/>
       <c r="B45" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="C45" s="203" t="s">
+      <c r="C45" s="202" t="s">
         <v>72</v>
       </c>
-      <c r="D45" s="204"/>
-      <c r="E45" s="205"/>
+      <c r="D45" s="203"/>
+      <c r="E45" s="204"/>
     </row>
     <row r="46" spans="1:7" ht="16.5" customHeight="1">
       <c r="A46" s="32"/>
       <c r="B46" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="C46" s="203" t="s">
+      <c r="C46" s="202" t="s">
         <v>77</v>
       </c>
-      <c r="D46" s="204"/>
-      <c r="E46" s="205"/>
+      <c r="D46" s="203"/>
+      <c r="E46" s="204"/>
     </row>
     <row r="47" spans="1:7" ht="16.5" customHeight="1">
       <c r="A47" s="32"/>
       <c r="B47" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="C47" s="203" t="s">
+      <c r="C47" s="202" t="s">
         <v>78</v>
       </c>
-      <c r="D47" s="204"/>
-      <c r="E47" s="205"/>
+      <c r="D47" s="203"/>
+      <c r="E47" s="204"/>
     </row>
     <row r="48" spans="1:7" ht="16.5" customHeight="1">
       <c r="A48" s="32"/>
       <c r="B48" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="203" t="s">
+      <c r="C48" s="202" t="s">
         <v>76</v>
       </c>
-      <c r="D48" s="204"/>
-      <c r="E48" s="205"/>
+      <c r="D48" s="203"/>
+      <c r="E48" s="204"/>
     </row>
     <row r="49" spans="1:13" ht="16.5" customHeight="1">
       <c r="A49" s="32"/>
       <c r="B49" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="C49" s="203" t="s">
+      <c r="C49" s="202" t="s">
         <v>73</v>
       </c>
-      <c r="D49" s="204"/>
-      <c r="E49" s="205"/>
+      <c r="D49" s="203"/>
+      <c r="E49" s="204"/>
     </row>
     <row r="50" spans="1:13" ht="16.5" customHeight="1">
       <c r="A50" s="52"/>
@@ -8515,23 +8500,23 @@
       <c r="M51" s="33"/>
     </row>
     <row r="52" spans="1:13" s="52" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B52" s="216" t="s">
+      <c r="B52" s="208" t="s">
         <v>50</v>
       </c>
-      <c r="C52" s="217"/>
-      <c r="D52" s="217"/>
-      <c r="E52" s="218"/>
+      <c r="C52" s="209"/>
+      <c r="D52" s="209"/>
+      <c r="E52" s="210"/>
     </row>
     <row r="53" spans="1:13" ht="16.5" customHeight="1">
       <c r="A53" s="52"/>
       <c r="B53" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="C53" s="219" t="s">
+      <c r="C53" s="211" t="s">
         <v>5</v>
       </c>
-      <c r="D53" s="220"/>
-      <c r="E53" s="221"/>
+      <c r="D53" s="212"/>
+      <c r="E53" s="213"/>
       <c r="F53" s="52"/>
       <c r="G53" s="52"/>
       <c r="H53" s="52"/>
@@ -8546,132 +8531,132 @@
       <c r="B54" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="C54" s="203" t="s">
+      <c r="C54" s="202" t="s">
         <v>71</v>
       </c>
-      <c r="D54" s="204"/>
-      <c r="E54" s="205"/>
+      <c r="D54" s="203"/>
+      <c r="E54" s="204"/>
     </row>
     <row r="55" spans="1:13" ht="16.5" customHeight="1">
       <c r="A55" s="32"/>
       <c r="B55" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="C55" s="203" t="s">
+      <c r="C55" s="202" t="s">
         <v>83</v>
       </c>
-      <c r="D55" s="204"/>
-      <c r="E55" s="205"/>
+      <c r="D55" s="203"/>
+      <c r="E55" s="204"/>
     </row>
     <row r="56" spans="1:13" ht="16.5" customHeight="1">
       <c r="A56" s="32"/>
       <c r="B56" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="C56" s="203" t="s">
+      <c r="C56" s="202" t="s">
         <v>84</v>
       </c>
-      <c r="D56" s="204"/>
-      <c r="E56" s="205"/>
+      <c r="D56" s="203"/>
+      <c r="E56" s="204"/>
     </row>
     <row r="57" spans="1:13" ht="16.5" customHeight="1">
       <c r="A57" s="32"/>
       <c r="B57" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="C57" s="203" t="s">
+      <c r="C57" s="202" t="s">
         <v>102</v>
       </c>
-      <c r="D57" s="210"/>
-      <c r="E57" s="211"/>
+      <c r="D57" s="206"/>
+      <c r="E57" s="207"/>
     </row>
     <row r="58" spans="1:13" ht="16.5" customHeight="1">
       <c r="A58" s="32"/>
       <c r="B58" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="C58" s="203" t="s">
+      <c r="C58" s="202" t="s">
         <v>88</v>
       </c>
-      <c r="D58" s="210"/>
-      <c r="E58" s="211"/>
+      <c r="D58" s="206"/>
+      <c r="E58" s="207"/>
     </row>
     <row r="59" spans="1:13" ht="16.5" customHeight="1">
       <c r="A59" s="32"/>
       <c r="B59" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="C59" s="203" t="s">
+      <c r="C59" s="202" t="s">
         <v>79</v>
       </c>
-      <c r="D59" s="210"/>
-      <c r="E59" s="211"/>
+      <c r="D59" s="206"/>
+      <c r="E59" s="207"/>
     </row>
     <row r="60" spans="1:13" ht="54" customHeight="1">
       <c r="A60" s="32"/>
       <c r="B60" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="C60" s="203" t="s">
-        <v>208</v>
-      </c>
-      <c r="D60" s="210"/>
-      <c r="E60" s="211"/>
+      <c r="C60" s="202" t="s">
+        <v>207</v>
+      </c>
+      <c r="D60" s="206"/>
+      <c r="E60" s="207"/>
     </row>
     <row r="61" spans="1:13" ht="16.5" customHeight="1">
       <c r="A61" s="32"/>
       <c r="B61" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="C61" s="212" t="s">
+      <c r="C61" s="205" t="s">
         <v>87</v>
       </c>
-      <c r="D61" s="210"/>
-      <c r="E61" s="211"/>
+      <c r="D61" s="206"/>
+      <c r="E61" s="207"/>
     </row>
     <row r="62" spans="1:13" ht="30" customHeight="1">
       <c r="A62" s="32"/>
       <c r="B62" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="C62" s="203" t="s">
+      <c r="C62" s="202" t="s">
         <v>52</v>
       </c>
-      <c r="D62" s="210"/>
-      <c r="E62" s="211"/>
+      <c r="D62" s="206"/>
+      <c r="E62" s="207"/>
     </row>
     <row r="63" spans="1:13" ht="16.5" customHeight="1">
       <c r="A63" s="32"/>
       <c r="B63" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="C63" s="212" t="s">
+      <c r="C63" s="205" t="s">
         <v>57</v>
       </c>
-      <c r="D63" s="210"/>
-      <c r="E63" s="211"/>
+      <c r="D63" s="206"/>
+      <c r="E63" s="207"/>
     </row>
     <row r="64" spans="1:13" ht="16.5" customHeight="1">
       <c r="A64" s="32"/>
       <c r="B64" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C64" s="212" t="s">
+      <c r="C64" s="205" t="s">
         <v>80</v>
       </c>
-      <c r="D64" s="210"/>
-      <c r="E64" s="211"/>
+      <c r="D64" s="206"/>
+      <c r="E64" s="207"/>
     </row>
     <row r="65" spans="1:8" ht="16.5" customHeight="1">
       <c r="A65" s="32"/>
       <c r="B65" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="C65" s="203" t="s">
+      <c r="C65" s="202" t="s">
         <v>73</v>
       </c>
-      <c r="D65" s="204"/>
-      <c r="E65" s="205"/>
+      <c r="D65" s="203"/>
+      <c r="E65" s="204"/>
     </row>
     <row r="66" spans="1:8" ht="16.5" customHeight="1">
       <c r="A66" s="32"/>
@@ -8682,200 +8667,200 @@
     </row>
     <row r="67" spans="1:8" ht="16.5" customHeight="1">
       <c r="A67" s="32"/>
-      <c r="B67" s="206"/>
-      <c r="C67" s="206"/>
-      <c r="D67" s="206"/>
-      <c r="E67" s="206"/>
+      <c r="B67" s="233"/>
+      <c r="C67" s="233"/>
+      <c r="D67" s="233"/>
+      <c r="E67" s="233"/>
       <c r="F67" s="51"/>
       <c r="G67" s="51"/>
       <c r="H67" s="51"/>
     </row>
     <row r="68" spans="1:8" ht="16.5" customHeight="1">
       <c r="A68" s="32"/>
-      <c r="B68" s="202"/>
-      <c r="C68" s="202"/>
-      <c r="D68" s="202"/>
-      <c r="E68" s="202"/>
+      <c r="B68" s="232"/>
+      <c r="C68" s="232"/>
+      <c r="D68" s="232"/>
+      <c r="E68" s="232"/>
       <c r="F68" s="51"/>
       <c r="G68" s="51"/>
       <c r="H68" s="51"/>
     </row>
     <row r="69" spans="1:8" ht="16.5" customHeight="1">
       <c r="A69" s="32"/>
-      <c r="B69" s="202"/>
-      <c r="C69" s="202"/>
-      <c r="D69" s="202"/>
-      <c r="E69" s="202"/>
+      <c r="B69" s="232"/>
+      <c r="C69" s="232"/>
+      <c r="D69" s="232"/>
+      <c r="E69" s="232"/>
       <c r="F69" s="51"/>
       <c r="G69" s="51"/>
       <c r="H69" s="51"/>
     </row>
     <row r="70" spans="1:8" ht="16.5" customHeight="1">
       <c r="A70" s="32"/>
-      <c r="B70" s="202"/>
-      <c r="C70" s="202"/>
-      <c r="D70" s="202"/>
-      <c r="E70" s="202"/>
+      <c r="B70" s="232"/>
+      <c r="C70" s="232"/>
+      <c r="D70" s="232"/>
+      <c r="E70" s="232"/>
       <c r="F70" s="51"/>
       <c r="G70" s="51"/>
       <c r="H70" s="51"/>
     </row>
     <row r="71" spans="1:8" ht="16.5" customHeight="1">
       <c r="A71" s="32"/>
-      <c r="B71" s="202"/>
-      <c r="C71" s="202"/>
-      <c r="D71" s="202"/>
-      <c r="E71" s="202"/>
+      <c r="B71" s="232"/>
+      <c r="C71" s="232"/>
+      <c r="D71" s="232"/>
+      <c r="E71" s="232"/>
       <c r="F71" s="51"/>
       <c r="G71" s="51"/>
       <c r="H71" s="51"/>
     </row>
     <row r="72" spans="1:8" ht="16.5" customHeight="1">
       <c r="A72" s="32"/>
-      <c r="B72" s="202"/>
-      <c r="C72" s="202"/>
-      <c r="D72" s="202"/>
-      <c r="E72" s="202"/>
+      <c r="B72" s="232"/>
+      <c r="C72" s="232"/>
+      <c r="D72" s="232"/>
+      <c r="E72" s="232"/>
       <c r="F72" s="51"/>
       <c r="G72" s="51"/>
       <c r="H72" s="51"/>
     </row>
     <row r="73" spans="1:8" ht="16.5" customHeight="1">
       <c r="A73" s="37"/>
-      <c r="B73" s="202"/>
-      <c r="C73" s="202"/>
-      <c r="D73" s="202"/>
-      <c r="E73" s="202"/>
+      <c r="B73" s="232"/>
+      <c r="C73" s="232"/>
+      <c r="D73" s="232"/>
+      <c r="E73" s="232"/>
       <c r="F73" s="51"/>
       <c r="G73" s="51"/>
       <c r="H73" s="51"/>
     </row>
     <row r="74" spans="1:8" ht="16.5" customHeight="1">
       <c r="A74" s="32"/>
-      <c r="B74" s="202"/>
-      <c r="C74" s="202"/>
-      <c r="D74" s="202"/>
-      <c r="E74" s="202"/>
+      <c r="B74" s="232"/>
+      <c r="C74" s="232"/>
+      <c r="D74" s="232"/>
+      <c r="E74" s="232"/>
       <c r="F74" s="51"/>
       <c r="G74" s="51"/>
       <c r="H74" s="51"/>
     </row>
     <row r="75" spans="1:8" ht="16.5" customHeight="1">
       <c r="A75" s="32"/>
-      <c r="B75" s="202"/>
-      <c r="C75" s="202"/>
-      <c r="D75" s="202"/>
-      <c r="E75" s="202"/>
+      <c r="B75" s="232"/>
+      <c r="C75" s="232"/>
+      <c r="D75" s="232"/>
+      <c r="E75" s="232"/>
       <c r="F75" s="51"/>
       <c r="G75" s="51"/>
       <c r="H75" s="51"/>
     </row>
     <row r="76" spans="1:8" ht="16.5" customHeight="1">
       <c r="A76" s="32"/>
-      <c r="B76" s="202"/>
-      <c r="C76" s="202"/>
-      <c r="D76" s="202"/>
-      <c r="E76" s="202"/>
+      <c r="B76" s="232"/>
+      <c r="C76" s="232"/>
+      <c r="D76" s="232"/>
+      <c r="E76" s="232"/>
       <c r="F76" s="51"/>
       <c r="G76" s="51"/>
       <c r="H76" s="51"/>
     </row>
     <row r="77" spans="1:8" ht="16.5" customHeight="1">
       <c r="A77" s="32"/>
-      <c r="B77" s="202"/>
-      <c r="C77" s="202"/>
-      <c r="D77" s="202"/>
-      <c r="E77" s="202"/>
+      <c r="B77" s="232"/>
+      <c r="C77" s="232"/>
+      <c r="D77" s="232"/>
+      <c r="E77" s="232"/>
       <c r="F77" s="51"/>
       <c r="G77" s="51"/>
       <c r="H77" s="51"/>
     </row>
     <row r="78" spans="1:8" ht="16.5" customHeight="1">
       <c r="A78" s="32"/>
-      <c r="B78" s="202"/>
-      <c r="C78" s="202"/>
-      <c r="D78" s="202"/>
-      <c r="E78" s="202"/>
+      <c r="B78" s="232"/>
+      <c r="C78" s="232"/>
+      <c r="D78" s="232"/>
+      <c r="E78" s="232"/>
       <c r="F78" s="51"/>
       <c r="G78" s="51"/>
       <c r="H78" s="51"/>
     </row>
     <row r="79" spans="1:8" ht="16.5" customHeight="1">
       <c r="A79" s="37"/>
-      <c r="B79" s="202"/>
-      <c r="C79" s="202"/>
-      <c r="D79" s="202"/>
-      <c r="E79" s="202"/>
+      <c r="B79" s="232"/>
+      <c r="C79" s="232"/>
+      <c r="D79" s="232"/>
+      <c r="E79" s="232"/>
       <c r="F79" s="51"/>
       <c r="G79" s="51"/>
       <c r="H79" s="51"/>
     </row>
     <row r="80" spans="1:8" ht="16.5" customHeight="1">
       <c r="A80" s="37"/>
-      <c r="B80" s="202"/>
-      <c r="C80" s="202"/>
-      <c r="D80" s="202"/>
-      <c r="E80" s="202"/>
+      <c r="B80" s="232"/>
+      <c r="C80" s="232"/>
+      <c r="D80" s="232"/>
+      <c r="E80" s="232"/>
       <c r="F80" s="51"/>
       <c r="G80" s="51"/>
       <c r="H80" s="51"/>
     </row>
     <row r="81" spans="1:8" ht="16.5" customHeight="1">
       <c r="A81" s="37"/>
-      <c r="B81" s="202"/>
-      <c r="C81" s="202"/>
-      <c r="D81" s="202"/>
-      <c r="E81" s="202"/>
+      <c r="B81" s="232"/>
+      <c r="C81" s="232"/>
+      <c r="D81" s="232"/>
+      <c r="E81" s="232"/>
       <c r="F81" s="51"/>
       <c r="G81" s="51"/>
       <c r="H81" s="51"/>
     </row>
     <row r="82" spans="1:8" ht="16.5" customHeight="1">
       <c r="A82" s="37"/>
-      <c r="B82" s="202"/>
-      <c r="C82" s="202"/>
-      <c r="D82" s="202"/>
-      <c r="E82" s="202"/>
+      <c r="B82" s="232"/>
+      <c r="C82" s="232"/>
+      <c r="D82" s="232"/>
+      <c r="E82" s="232"/>
       <c r="F82" s="51"/>
       <c r="G82" s="51"/>
       <c r="H82" s="51"/>
     </row>
     <row r="83" spans="1:8" ht="16.5" customHeight="1">
       <c r="A83" s="37"/>
-      <c r="B83" s="202"/>
-      <c r="C83" s="202"/>
-      <c r="D83" s="202"/>
-      <c r="E83" s="202"/>
+      <c r="B83" s="232"/>
+      <c r="C83" s="232"/>
+      <c r="D83" s="232"/>
+      <c r="E83" s="232"/>
       <c r="F83" s="51"/>
       <c r="G83" s="51"/>
       <c r="H83" s="51"/>
     </row>
     <row r="84" spans="1:8" ht="16.5" customHeight="1">
       <c r="A84" s="37"/>
-      <c r="B84" s="202"/>
-      <c r="C84" s="202"/>
-      <c r="D84" s="202"/>
-      <c r="E84" s="202"/>
+      <c r="B84" s="232"/>
+      <c r="C84" s="232"/>
+      <c r="D84" s="232"/>
+      <c r="E84" s="232"/>
       <c r="F84" s="51"/>
       <c r="G84" s="51"/>
       <c r="H84" s="51"/>
     </row>
     <row r="85" spans="1:8" ht="16.5" customHeight="1">
       <c r="A85" s="37"/>
-      <c r="B85" s="202"/>
-      <c r="C85" s="202"/>
-      <c r="D85" s="202"/>
-      <c r="E85" s="202"/>
+      <c r="B85" s="232"/>
+      <c r="C85" s="232"/>
+      <c r="D85" s="232"/>
+      <c r="E85" s="232"/>
       <c r="F85" s="51"/>
       <c r="G85" s="51"/>
       <c r="H85" s="51"/>
     </row>
     <row r="86" spans="1:8" ht="16.5" customHeight="1">
       <c r="A86" s="37"/>
-      <c r="B86" s="202"/>
-      <c r="C86" s="202"/>
-      <c r="D86" s="202"/>
-      <c r="E86" s="202"/>
+      <c r="B86" s="232"/>
+      <c r="C86" s="232"/>
+      <c r="D86" s="232"/>
+      <c r="E86" s="232"/>
       <c r="F86" s="51"/>
       <c r="G86" s="51"/>
       <c r="H86" s="51"/>
@@ -8888,40 +8873,27 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="B69:E69"/>
     <mergeCell ref="C31:E31"/>
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="C60:E60"/>
@@ -8938,27 +8910,40 @@
     <mergeCell ref="C39:E39"/>
     <mergeCell ref="C30:E30"/>
     <mergeCell ref="C48:E48"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="B75:E75"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="B80:E80"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="B79:E79"/>
-    <mergeCell ref="B85:E85"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:E43"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8998,22 +8983,22 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:26" ht="18" customHeight="1">
-      <c r="B3" s="234" t="s">
-        <v>197</v>
-      </c>
-      <c r="C3" s="234"/>
-      <c r="D3" s="234"/>
-      <c r="E3" s="234"/>
-      <c r="F3" s="234"/>
-      <c r="G3" s="234"/>
-      <c r="H3" s="234"/>
-      <c r="I3" s="234"/>
-      <c r="J3" s="234"/>
-      <c r="K3" s="234"/>
-      <c r="L3" s="234"/>
-      <c r="M3" s="234"/>
-      <c r="N3" s="234"/>
-      <c r="O3" s="234"/>
+      <c r="B3" s="244" t="s">
+        <v>196</v>
+      </c>
+      <c r="C3" s="244"/>
+      <c r="D3" s="244"/>
+      <c r="E3" s="244"/>
+      <c r="F3" s="244"/>
+      <c r="G3" s="244"/>
+      <c r="H3" s="244"/>
+      <c r="I3" s="244"/>
+      <c r="J3" s="244"/>
+      <c r="K3" s="244"/>
+      <c r="L3" s="244"/>
+      <c r="M3" s="244"/>
+      <c r="N3" s="244"/>
+      <c r="O3" s="244"/>
     </row>
     <row r="4" spans="2:26" ht="11.25" customHeight="1">
       <c r="B4" s="4"/>
@@ -9021,39 +9006,39 @@
     </row>
     <row r="5" spans="2:26" ht="15" customHeight="1"/>
     <row r="6" spans="2:26" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B6" s="236" t="s">
+      <c r="B6" s="235" t="s">
         <v>129</v>
       </c>
-      <c r="C6" s="237"/>
-      <c r="D6" s="238"/>
-      <c r="E6" s="239" t="s">
+      <c r="C6" s="236"/>
+      <c r="D6" s="237"/>
+      <c r="E6" s="238" t="s">
         <v>170</v>
       </c>
-      <c r="F6" s="240"/>
-      <c r="G6" s="241"/>
-      <c r="H6" s="235"/>
-      <c r="I6" s="235"/>
+      <c r="F6" s="239"/>
+      <c r="G6" s="240"/>
+      <c r="H6" s="245"/>
+      <c r="I6" s="245"/>
       <c r="O6" s="144"/>
       <c r="Z6" s="3"/>
     </row>
     <row r="7" spans="2:26" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B7" s="236" t="s">
+      <c r="B7" s="235" t="s">
         <v>134</v>
       </c>
-      <c r="C7" s="237"/>
-      <c r="D7" s="238"/>
-      <c r="E7" s="239" t="s">
+      <c r="C7" s="236"/>
+      <c r="D7" s="237"/>
+      <c r="E7" s="238" t="s">
         <v>132</v>
       </c>
-      <c r="F7" s="240"/>
-      <c r="G7" s="241"/>
-      <c r="J7" s="242" t="s">
+      <c r="F7" s="239"/>
+      <c r="G7" s="240"/>
+      <c r="J7" s="234" t="s">
         <v>154</v>
       </c>
-      <c r="K7" s="242"/>
-      <c r="L7" s="242"/>
-      <c r="M7" s="242"/>
-      <c r="N7" s="242"/>
+      <c r="K7" s="234"/>
+      <c r="L7" s="234"/>
+      <c r="M7" s="234"/>
+      <c r="N7" s="234"/>
       <c r="O7" s="165">
         <f>SUM(K13:K23)</f>
         <v>88</v>
@@ -9061,23 +9046,23 @@
       <c r="Z7" s="3"/>
     </row>
     <row r="8" spans="2:26" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B8" s="236" t="s">
+      <c r="B8" s="235" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="237"/>
-      <c r="D8" s="238"/>
-      <c r="E8" s="239" t="s">
+      <c r="C8" s="236"/>
+      <c r="D8" s="237"/>
+      <c r="E8" s="238" t="s">
         <v>169</v>
       </c>
-      <c r="F8" s="240"/>
-      <c r="G8" s="241"/>
-      <c r="J8" s="242" t="s">
+      <c r="F8" s="239"/>
+      <c r="G8" s="240"/>
+      <c r="J8" s="234" t="s">
         <v>155</v>
       </c>
-      <c r="K8" s="242"/>
-      <c r="L8" s="242"/>
-      <c r="M8" s="242"/>
-      <c r="N8" s="242"/>
+      <c r="K8" s="234"/>
+      <c r="L8" s="234"/>
+      <c r="M8" s="234"/>
+      <c r="N8" s="234"/>
       <c r="O8" s="165">
         <f>SUM(N13:N23)</f>
         <v>70</v>
@@ -9085,11 +9070,11 @@
       <c r="Z8" s="3"/>
     </row>
     <row r="9" spans="2:26" s="5" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B9" s="236" t="s">
+      <c r="B9" s="235" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="237"/>
-      <c r="D9" s="238"/>
+      <c r="C9" s="236"/>
+      <c r="D9" s="237"/>
       <c r="E9" s="127">
         <v>42262</v>
       </c>
@@ -9104,16 +9089,16 @@
       <c r="Z9" s="3"/>
     </row>
     <row r="10" spans="2:26" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B10" s="236" t="s">
+      <c r="B10" s="235" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="237"/>
-      <c r="D10" s="238"/>
-      <c r="E10" s="243" t="s">
-        <v>188</v>
-      </c>
-      <c r="F10" s="244"/>
-      <c r="G10" s="245"/>
+      <c r="C10" s="236"/>
+      <c r="D10" s="237"/>
+      <c r="E10" s="241" t="s">
+        <v>187</v>
+      </c>
+      <c r="F10" s="242"/>
+      <c r="G10" s="243"/>
       <c r="Z10" s="3"/>
     </row>
     <row r="11" spans="2:26" s="17" customFormat="1" ht="15" customHeight="1">
@@ -9126,7 +9111,7 @@
     </row>
     <row r="12" spans="2:26" s="122" customFormat="1" ht="38.25">
       <c r="B12" s="119" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C12" s="119" t="s">
         <v>30</v>
@@ -9182,7 +9167,7 @@
         <v>125</v>
       </c>
       <c r="F13" s="161" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G13" s="164" t="s">
         <v>137</v>
@@ -9268,7 +9253,7 @@
         <v>125</v>
       </c>
       <c r="F15" s="162" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G15" s="164" t="s">
         <v>137</v>
@@ -9484,7 +9469,7 @@
         <v>172</v>
       </c>
       <c r="F20" s="161" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G20" s="164" t="s">
         <v>137</v>
@@ -9572,7 +9557,7 @@
         <v>172</v>
       </c>
       <c r="F22" s="161" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G22" s="164" t="s">
         <v>137</v>
@@ -9616,7 +9601,7 @@
         <v>172</v>
       </c>
       <c r="F23" s="161" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G23" s="164" t="s">
         <v>137</v>
@@ -9672,12 +9657,6 @@
     <row r="28" spans="1:15" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="J8:N8"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E10:G10"/>
     <mergeCell ref="B3:O3"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="B6:D6"/>
@@ -9685,6 +9664,12 @@
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="J7:N7"/>
     <mergeCell ref="E7:G7"/>
+    <mergeCell ref="J8:N8"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E10:G10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9758,7 +9743,7 @@
   <sheetData>
     <row r="1" spans="1:15" s="25" customFormat="1" ht="64.5" customHeight="1" thickBot="1">
       <c r="A1" s="246" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B1" s="247"/>
       <c r="C1" s="247"/>
@@ -9866,7 +9851,7 @@
         <v>Julio</v>
       </c>
       <c r="G5" s="113" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H5" s="155" t="s">
         <v>123</v>
@@ -9891,7 +9876,7 @@
         <v>1</v>
       </c>
       <c r="O5" s="177" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="114" customFormat="1" ht="42" customHeight="1">
@@ -9919,7 +9904,7 @@
         <v>Julio</v>
       </c>
       <c r="G6" s="178" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H6" s="155" t="s">
         <v>115</v>
@@ -9944,7 +9929,7 @@
         <v>1</v>
       </c>
       <c r="O6" s="177" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="42" customHeight="1">
@@ -9972,7 +9957,7 @@
         <v>Julio</v>
       </c>
       <c r="G7" s="96" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H7" s="154" t="s">
         <v>115</v>
@@ -9997,7 +9982,7 @@
         <v>1</v>
       </c>
       <c r="O7" s="177" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="114" customFormat="1" ht="42" customHeight="1">
@@ -10025,7 +10010,7 @@
         <v>Julio</v>
       </c>
       <c r="G8" s="113" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H8" s="155" t="s">
         <v>115</v>
@@ -10050,7 +10035,7 @@
         <v>1</v>
       </c>
       <c r="O8" s="177" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="42" customHeight="1">
@@ -10078,7 +10063,7 @@
         <v>Julio</v>
       </c>
       <c r="G9" s="113" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H9" s="155" t="s">
         <v>115</v>
@@ -10103,7 +10088,7 @@
         <v>1</v>
       </c>
       <c r="O9" s="177" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="114" customFormat="1" ht="42" customHeight="1">
@@ -10131,7 +10116,7 @@
         <v>Julio</v>
       </c>
       <c r="G10" s="113" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H10" s="155" t="s">
         <v>115</v>
@@ -10156,7 +10141,7 @@
         <v>1</v>
       </c>
       <c r="O10" s="177" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="114" customFormat="1" ht="42" customHeight="1">
@@ -10184,7 +10169,7 @@
         <v>Julio</v>
       </c>
       <c r="G11" s="113" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H11" s="155" t="s">
         <v>115</v>
@@ -10209,7 +10194,7 @@
         <v>1</v>
       </c>
       <c r="O11" s="177" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="42" customHeight="1">
@@ -10262,7 +10247,7 @@
         <v>1</v>
       </c>
       <c r="O12" s="177" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="42" customHeight="1">
@@ -10315,7 +10300,7 @@
         <v>1</v>
       </c>
       <c r="O13" s="177" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="114" customFormat="1" ht="42" customHeight="1">
@@ -10368,7 +10353,7 @@
         <v>1</v>
       </c>
       <c r="O14" s="177" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="42" customHeight="1" thickBot="1">
@@ -10421,7 +10406,7 @@
         <v>1</v>
       </c>
       <c r="O15" s="189" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -10479,15 +10464,15 @@
   <sheetData>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="17.25" customHeight="1">
       <c r="A2" s="10"/>
-      <c r="C2" s="255" t="s">
-        <v>199</v>
-      </c>
-      <c r="D2" s="255"/>
-      <c r="E2" s="255"/>
-      <c r="F2" s="255"/>
-      <c r="G2" s="255"/>
-      <c r="H2" s="255"/>
-      <c r="I2" s="255"/>
+      <c r="C2" s="265" t="s">
+        <v>198</v>
+      </c>
+      <c r="D2" s="265"/>
+      <c r="E2" s="265"/>
+      <c r="F2" s="265"/>
+      <c r="G2" s="265"/>
+      <c r="H2" s="265"/>
+      <c r="I2" s="265"/>
       <c r="J2" s="147"/>
       <c r="K2" s="147"/>
       <c r="L2" s="147"/>
@@ -10497,65 +10482,65 @@
     </row>
     <row r="4" spans="1:12" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="11"/>
-      <c r="C4" s="249" t="s">
+      <c r="C4" s="262" t="s">
         <v>129</v>
       </c>
-      <c r="D4" s="249"/>
-      <c r="E4" s="250" t="str">
+      <c r="D4" s="262"/>
+      <c r="E4" s="252" t="str">
         <f>IF(Planificación!E6&lt;&gt;"",Planificación!E6,"")</f>
         <v>Roger Apaéstegui Ortega</v>
       </c>
-      <c r="F4" s="251"/>
-      <c r="G4" s="251"/>
-      <c r="H4" s="251"/>
-      <c r="I4" s="252"/>
+      <c r="F4" s="253"/>
+      <c r="G4" s="253"/>
+      <c r="H4" s="253"/>
+      <c r="I4" s="254"/>
     </row>
     <row r="5" spans="1:12" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="11"/>
-      <c r="C5" s="253" t="str">
+      <c r="C5" s="263" t="str">
         <f>Planificación!B7</f>
         <v>Analista de Calidad</v>
       </c>
-      <c r="D5" s="254"/>
-      <c r="E5" s="250" t="str">
+      <c r="D5" s="264"/>
+      <c r="E5" s="252" t="str">
         <f>IF(Planificación!E7&lt;&gt;"",Planificación!E7,"")</f>
         <v>Julio Leonardo Paredes</v>
       </c>
-      <c r="F5" s="251"/>
-      <c r="G5" s="251"/>
-      <c r="H5" s="251"/>
-      <c r="I5" s="252"/>
+      <c r="F5" s="253"/>
+      <c r="G5" s="253"/>
+      <c r="H5" s="253"/>
+      <c r="I5" s="254"/>
     </row>
     <row r="6" spans="1:12" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A6" s="11"/>
-      <c r="C6" s="257" t="s">
+      <c r="C6" s="250" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="258"/>
-      <c r="E6" s="250" t="str">
+      <c r="D6" s="251"/>
+      <c r="E6" s="252" t="str">
         <f>IF(Planificación!E8&lt;&gt;"",Planificación!E8,"")</f>
         <v>Julio Leonardo Paredes,  Roger Apaéstegui Ortega</v>
       </c>
-      <c r="F6" s="251"/>
-      <c r="G6" s="251"/>
-      <c r="H6" s="251"/>
-      <c r="I6" s="252"/>
+      <c r="F6" s="253"/>
+      <c r="G6" s="253"/>
+      <c r="H6" s="253"/>
+      <c r="I6" s="254"/>
     </row>
     <row r="7" spans="1:12" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A7" s="11"/>
-      <c r="C7" s="260" t="s">
+      <c r="C7" s="256" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="260"/>
-      <c r="E7" s="261">
+      <c r="D7" s="256"/>
+      <c r="E7" s="257">
         <f>IF(Planificación!E9&lt;&gt;"",Planificación!E9,"")</f>
         <v>42262</v>
       </c>
-      <c r="F7" s="262"/>
-      <c r="G7" s="263" t="s">
+      <c r="F7" s="258"/>
+      <c r="G7" s="259" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="264"/>
+      <c r="H7" s="260"/>
       <c r="I7" s="97">
         <f>IF(Planificación!G9&lt;&gt;"",Planificación!G9,"")</f>
         <v>42276</v>
@@ -10563,24 +10548,24 @@
     </row>
     <row r="8" spans="1:12" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A8" s="11"/>
-      <c r="C8" s="260" t="s">
+      <c r="C8" s="256" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="265"/>
-      <c r="E8" s="250" t="str">
+      <c r="D8" s="261"/>
+      <c r="E8" s="252" t="str">
         <f>IF(Planificación!E10&lt;&gt;"",Planificación!E10,"")</f>
         <v>SETIEMBRE</v>
       </c>
-      <c r="F8" s="251"/>
-      <c r="G8" s="251"/>
-      <c r="H8" s="251"/>
-      <c r="I8" s="252"/>
+      <c r="F8" s="253"/>
+      <c r="G8" s="253"/>
+      <c r="H8" s="253"/>
+      <c r="I8" s="254"/>
     </row>
     <row r="13" spans="1:12" ht="15">
-      <c r="C13" s="259" t="s">
+      <c r="C13" s="255" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="259"/>
+      <c r="D13" s="255"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -10590,7 +10575,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="C14" s="99" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D14" s="151">
         <v>3</v>
@@ -10606,7 +10591,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="C16" s="99" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D16" s="150">
         <v>1</v>
@@ -10662,10 +10647,10 @@
       <c r="E24" s="9"/>
     </row>
     <row r="26" spans="3:14" ht="15" customHeight="1">
-      <c r="C26" s="256" t="s">
+      <c r="C26" s="249" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="256"/>
+      <c r="D26" s="249"/>
     </row>
     <row r="27" spans="3:14">
       <c r="C27" s="30" t="s">
@@ -10739,10 +10724,10 @@
       </c>
     </row>
     <row r="40" spans="3:16" ht="15">
-      <c r="C40" s="256" t="s">
+      <c r="C40" s="249" t="s">
         <v>103</v>
       </c>
-      <c r="D40" s="256"/>
+      <c r="D40" s="249"/>
       <c r="P40" s="145"/>
     </row>
     <row r="41" spans="3:16">
@@ -10773,10 +10758,10 @@
       </c>
     </row>
     <row r="57" spans="3:4" ht="15">
-      <c r="C57" s="256" t="s">
+      <c r="C57" s="249" t="s">
         <v>114</v>
       </c>
-      <c r="D57" s="256"/>
+      <c r="D57" s="249"/>
     </row>
     <row r="58" spans="3:4">
       <c r="C58" s="30" t="s">
@@ -10824,6 +10809,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="C2:I2"/>
     <mergeCell ref="C57:D57"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:I6"/>
@@ -10835,11 +10825,6 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="C2:I2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
